--- a/docs/uart_report.xlsx
+++ b/docs/uart_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UF523TCH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126DA8DC-CF7A-4B2A-A37E-051B83F32961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0BB104-322C-49A6-8B39-0F4811EEA98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{85EF69C1-0CF4-4C88-A077-43C70A228E3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{85EF69C1-0CF4-4C88-A077-43C70A228E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="coverage" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="787">
   <si>
     <t>#-----------------------------------------------------------</t>
   </si>
@@ -1457,27 +1457,7 @@
   </si>
   <si>
     <t xml:space="preserve">Signal assignment statement:
-259:                next_state &lt;= STATE_IDLE; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal assignment statement:
-309:                next_tx_data   &lt;= (others =&gt; '0'); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal assignment statement:
-310:                next_o_uart_tx &lt;= '1'; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal assignment statement:
 311:                next_o_done    &lt;= '0'; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"case" / "with" / "select" choice:
-257:            when others =&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"case" / "with" / "select" choice:
-307:            when others =&gt; </t>
   </si>
   <si>
     <t>INST_UART_RX</t>
@@ -2496,6 +2476,30 @@
       </rPr>
       <t>: Vivado skipped parallel synthesis because the design is too small to benefit from multi-threading, which affects only compilation time, not hardware functionality or performance. Read more here: https://stackoverflow.com/questions/79563001/vivado-2024-1-warning-synth-8-7080-parallel-synthesis-criteria-is-not-met</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal assignment statement:
+261:                next_state &lt;= STATE_IDLE; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal assignment statement:
+311:                next_tx_data   &lt;= (others =&gt; '0'); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal assignment statement:
+312:                next_o_uart_tx &lt;= '1'; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal assignment statement:
+313:                next_o_done    &lt;= '0'; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"case" / "with" / "select" choice:
+259:            when others =&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"case" / "with" / "select" choice:
+309:            when others =&gt; </t>
   </si>
 </sst>
 </file>
@@ -2777,7 +2781,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2796,24 +2814,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2823,10 +2823,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3219,10 +3223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18D19E-3FCF-405F-85CF-7C7CF68FC2BB}">
-  <dimension ref="B2:M41"/>
+  <dimension ref="B2:M42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:G21"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,14 +3238,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="5" t="s">
         <v>456</v>
       </c>
@@ -3262,16 +3266,16 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="2">
-        <v>0.97</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="I3" s="2">
         <v>0.95699999999999996</v>
@@ -3289,13 +3293,13 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -3313,13 +3317,13 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="2">
         <v>0.96599999999999997</v>
       </c>
@@ -3339,175 +3343,175 @@
     </row>
     <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="20" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="20" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="20" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="20" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="2">
         <v>0.94499999999999995</v>
       </c>
@@ -3528,318 +3532,322 @@
     <row r="16" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
       <c r="M19" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="20" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="7" t="s">
-        <v>479</v>
-      </c>
+      <c r="D23" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
       <c r="M24" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
       <c r="M25" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
       <c r="M26" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
       <c r="M27" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
       <c r="M28" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
       <c r="M29" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
       <c r="M30" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
-      <c r="C31" s="17" t="s">
-        <v>477</v>
-      </c>
+      <c r="C31"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="6"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="7" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32"/>
+      <c r="C32" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="6"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33"/>
@@ -3848,11 +3856,11 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
       <c r="M33"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3862,11 +3870,11 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
       <c r="M34"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3876,11 +3884,11 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
       <c r="M35"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3890,11 +3898,11 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
       <c r="M36"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3904,11 +3912,11 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
       <c r="M37"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3918,11 +3926,11 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
       <c r="M38"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3932,11 +3940,11 @@
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
       <c r="M39"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3946,11 +3954,11 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
       <c r="M40"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3960,20 +3968,53 @@
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
       <c r="M41"/>
     </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
+  <mergeCells count="41">
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="D23:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H21:L21"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="C5:G14"/>
     <mergeCell ref="H16:L16"/>
@@ -3985,38 +4026,20 @@
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
-    <mergeCell ref="D15:G21"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="D22:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="D15:G22"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
   </mergeCells>
-  <conditionalFormatting sqref="H32:H41">
+  <conditionalFormatting sqref="H33:H42">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
       <formula>98%</formula>
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:L31">
+  <conditionalFormatting sqref="H3:L32">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="between">
       <formula>99.99%</formula>
       <formula>100%</formula>
@@ -4125,7 +4148,7 @@
         <v/>
       </c>
       <c r="C8" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -4135,7 +4158,7 @@
         <v/>
       </c>
       <c r="C9" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -4285,7 +4308,7 @@
         <v/>
       </c>
       <c r="C24" s="4" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -4495,7 +4518,7 @@
         <v/>
       </c>
       <c r="C45" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D45" s="4"/>
     </row>
@@ -4505,7 +4528,7 @@
         <v/>
       </c>
       <c r="C46" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D46" s="4"/>
     </row>
@@ -4515,7 +4538,7 @@
         <v/>
       </c>
       <c r="C47" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D47" s="4"/>
     </row>
@@ -4525,7 +4548,7 @@
         <v/>
       </c>
       <c r="C48" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D48" s="4"/>
     </row>
@@ -4535,7 +4558,7 @@
         <v/>
       </c>
       <c r="C49" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D49" s="4"/>
     </row>
@@ -4545,7 +4568,7 @@
         <v/>
       </c>
       <c r="C50" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D50" s="4"/>
     </row>
@@ -4555,7 +4578,7 @@
         <v/>
       </c>
       <c r="C51" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D51" s="4"/>
     </row>
@@ -4595,7 +4618,7 @@
         <v/>
       </c>
       <c r="C55" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D55" s="4"/>
     </row>
@@ -4655,7 +4678,7 @@
         <v/>
       </c>
       <c r="C61" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D61" s="4"/>
     </row>
@@ -4685,7 +4708,7 @@
         <v/>
       </c>
       <c r="C64" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D64" s="4"/>
     </row>
@@ -4975,7 +4998,7 @@
         <v>INFO</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D93" s="4"/>
     </row>
@@ -4995,7 +5018,7 @@
         <v/>
       </c>
       <c r="C95" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D95" s="4"/>
     </row>
@@ -5015,7 +5038,7 @@
         <v>INFO</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D97" s="4"/>
     </row>
@@ -5025,7 +5048,7 @@
         <v/>
       </c>
       <c r="C98" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D98" s="4"/>
     </row>
@@ -5035,7 +5058,7 @@
         <v>INFO</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D99" s="4"/>
     </row>
@@ -5045,7 +5068,7 @@
         <v/>
       </c>
       <c r="C100" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D100" s="4"/>
     </row>
@@ -5055,7 +5078,7 @@
         <v/>
       </c>
       <c r="C101" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D101" s="4"/>
     </row>
@@ -5065,7 +5088,7 @@
         <v>INFO</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D102" s="4"/>
     </row>
@@ -5075,7 +5098,7 @@
         <v>INFO</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D103" s="4"/>
     </row>
@@ -5085,7 +5108,7 @@
         <v/>
       </c>
       <c r="C104" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D104" s="4"/>
     </row>
@@ -5095,7 +5118,7 @@
         <v/>
       </c>
       <c r="C105" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D105" s="4"/>
     </row>
@@ -5105,7 +5128,7 @@
         <v/>
       </c>
       <c r="C106" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D106" s="4"/>
     </row>
@@ -5115,7 +5138,7 @@
         <v>INFO</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D107" s="4"/>
     </row>
@@ -5125,7 +5148,7 @@
         <v/>
       </c>
       <c r="C108" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D108" s="4"/>
     </row>
@@ -5135,7 +5158,7 @@
         <v/>
       </c>
       <c r="C109" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D109" s="4"/>
     </row>
@@ -5145,7 +5168,7 @@
         <v>INFO</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D110" s="4"/>
     </row>
@@ -5155,7 +5178,7 @@
         <v>INFO</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D111" s="4"/>
     </row>
@@ -5165,7 +5188,7 @@
         <v/>
       </c>
       <c r="C112" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D112" s="4"/>
     </row>
@@ -5175,7 +5198,7 @@
         <v/>
       </c>
       <c r="C113" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D113" s="4"/>
     </row>
@@ -5185,7 +5208,7 @@
         <v/>
       </c>
       <c r="C114" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D114" s="4"/>
     </row>
@@ -5195,7 +5218,7 @@
         <v>INFO</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D115" s="4"/>
     </row>
@@ -5205,7 +5228,7 @@
         <v>INFO</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D116" s="4"/>
     </row>
@@ -5215,7 +5238,7 @@
         <v>INFO</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D117" s="4"/>
     </row>
@@ -5225,7 +5248,7 @@
         <v>INFO</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D118" s="4"/>
     </row>
@@ -5235,7 +5258,7 @@
         <v>INFO</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D119" s="4"/>
     </row>
@@ -5245,7 +5268,7 @@
         <v>INFO</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D120" s="4"/>
     </row>
@@ -5255,7 +5278,7 @@
         <v/>
       </c>
       <c r="C121" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D121" s="4"/>
     </row>
@@ -5265,7 +5288,7 @@
         <v/>
       </c>
       <c r="C122" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D122" s="4"/>
     </row>
@@ -5275,7 +5298,7 @@
         <v>INFO</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D123" s="4"/>
     </row>
@@ -5285,7 +5308,7 @@
         <v>INFO</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D124" s="4"/>
     </row>
@@ -5305,7 +5328,7 @@
         <v/>
       </c>
       <c r="C126" s="4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D126" s="4"/>
     </row>
@@ -5365,7 +5388,7 @@
         <v/>
       </c>
       <c r="C132" s="4" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D132" s="4"/>
     </row>
@@ -5395,7 +5418,7 @@
         <v/>
       </c>
       <c r="C135" s="4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D135" s="4"/>
     </row>
@@ -5415,7 +5438,7 @@
         <v/>
       </c>
       <c r="C137" s="4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D137" s="4"/>
     </row>
@@ -5541,7 +5564,7 @@
         <v/>
       </c>
       <c r="C150" s="4" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D150" s="4"/>
     </row>
@@ -5579,7 +5602,7 @@
         <v/>
       </c>
       <c r="C154" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D154" s="4"/>
     </row>
@@ -5599,7 +5622,7 @@
         <v/>
       </c>
       <c r="C156" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D156" s="4"/>
     </row>
@@ -5669,7 +5692,7 @@
         <v/>
       </c>
       <c r="C163" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D163" s="4"/>
     </row>
@@ -5729,7 +5752,7 @@
         <v/>
       </c>
       <c r="C169" s="4" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D169" s="4"/>
     </row>
@@ -5789,7 +5812,7 @@
         <v/>
       </c>
       <c r="C175" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D175" s="4"/>
     </row>
@@ -5809,7 +5832,7 @@
         <v/>
       </c>
       <c r="C177" s="4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D177" s="4"/>
     </row>
@@ -5819,7 +5842,7 @@
         <v/>
       </c>
       <c r="C178" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D178" s="4"/>
     </row>
@@ -5829,7 +5852,7 @@
         <v/>
       </c>
       <c r="C179" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D179" s="4"/>
     </row>
@@ -5849,7 +5872,7 @@
         <v>INFO</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D181" s="4"/>
     </row>
@@ -5869,7 +5892,7 @@
         <v/>
       </c>
       <c r="C183" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D183" s="4"/>
     </row>
@@ -5989,7 +6012,7 @@
         <v/>
       </c>
       <c r="C195" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D195" s="4"/>
     </row>
@@ -6119,7 +6142,7 @@
         <v/>
       </c>
       <c r="C208" s="4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D208" s="4"/>
     </row>
@@ -6149,7 +6172,7 @@
         <v/>
       </c>
       <c r="C211" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D211" s="4"/>
     </row>
@@ -6169,7 +6192,7 @@
         <v/>
       </c>
       <c r="C213" s="4" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D213" s="4"/>
     </row>
@@ -6179,7 +6202,7 @@
         <v/>
       </c>
       <c r="C214" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D214" s="4"/>
     </row>
@@ -6189,7 +6212,7 @@
         <v/>
       </c>
       <c r="C215" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D215" s="4"/>
     </row>
@@ -6199,7 +6222,7 @@
         <v/>
       </c>
       <c r="C216" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D216" s="4"/>
     </row>
@@ -6209,7 +6232,7 @@
         <v/>
       </c>
       <c r="C217" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D217" s="4"/>
     </row>
@@ -6219,7 +6242,7 @@
         <v/>
       </c>
       <c r="C218" s="4" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D218" s="4"/>
     </row>
@@ -6229,7 +6252,7 @@
         <v/>
       </c>
       <c r="C219" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D219" s="4"/>
     </row>
@@ -6239,7 +6262,7 @@
         <v/>
       </c>
       <c r="C220" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D220" s="4"/>
     </row>
@@ -6249,7 +6272,7 @@
         <v/>
       </c>
       <c r="C221" s="4" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D221" s="4"/>
     </row>
@@ -6259,7 +6282,7 @@
         <v/>
       </c>
       <c r="C222" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D222" s="4"/>
     </row>
@@ -6269,7 +6292,7 @@
         <v/>
       </c>
       <c r="C223" s="4" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D223" s="4"/>
     </row>
@@ -6279,7 +6302,7 @@
         <v/>
       </c>
       <c r="C224" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D224" s="4"/>
     </row>
@@ -6289,7 +6312,7 @@
         <v/>
       </c>
       <c r="C225" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D225" s="4"/>
     </row>
@@ -6299,7 +6322,7 @@
         <v/>
       </c>
       <c r="C226" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D226" s="4"/>
     </row>
@@ -6309,7 +6332,7 @@
         <v/>
       </c>
       <c r="C227" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D227" s="4"/>
     </row>
@@ -6319,7 +6342,7 @@
         <v/>
       </c>
       <c r="C228" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D228" s="4"/>
     </row>
@@ -6329,7 +6352,7 @@
         <v/>
       </c>
       <c r="C229" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D229" s="4"/>
     </row>
@@ -6339,7 +6362,7 @@
         <v/>
       </c>
       <c r="C230" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D230" s="4"/>
     </row>
@@ -6349,7 +6372,7 @@
         <v/>
       </c>
       <c r="C231" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D231" s="4"/>
     </row>
@@ -6359,7 +6382,7 @@
         <v/>
       </c>
       <c r="C232" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D232" s="4"/>
     </row>
@@ -6369,7 +6392,7 @@
         <v/>
       </c>
       <c r="C233" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D233" s="4"/>
     </row>
@@ -6379,7 +6402,7 @@
         <v/>
       </c>
       <c r="C234" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D234" s="4"/>
     </row>
@@ -6389,7 +6412,7 @@
         <v/>
       </c>
       <c r="C235" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D235" s="4"/>
     </row>
@@ -6399,7 +6422,7 @@
         <v/>
       </c>
       <c r="C236" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D236" s="4"/>
     </row>
@@ -6409,7 +6432,7 @@
         <v/>
       </c>
       <c r="C237" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D237" s="4"/>
     </row>
@@ -6419,7 +6442,7 @@
         <v/>
       </c>
       <c r="C238" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D238" s="4"/>
     </row>
@@ -6429,7 +6452,7 @@
         <v/>
       </c>
       <c r="C239" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D239" s="4"/>
     </row>
@@ -6439,7 +6462,7 @@
         <v/>
       </c>
       <c r="C240" s="4" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D240" s="4"/>
     </row>
@@ -6449,7 +6472,7 @@
         <v/>
       </c>
       <c r="C241" s="4" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D241" s="4"/>
     </row>
@@ -6459,7 +6482,7 @@
         <v/>
       </c>
       <c r="C242" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D242" s="4"/>
     </row>
@@ -6469,7 +6492,7 @@
         <v/>
       </c>
       <c r="C243" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D243" s="4"/>
     </row>
@@ -6479,7 +6502,7 @@
         <v/>
       </c>
       <c r="C244" s="4" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D244" s="4"/>
     </row>
@@ -6489,7 +6512,7 @@
         <v/>
       </c>
       <c r="C245" s="4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D245" s="4"/>
     </row>
@@ -6499,7 +6522,7 @@
         <v/>
       </c>
       <c r="C246" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D246" s="4"/>
     </row>
@@ -6509,7 +6532,7 @@
         <v/>
       </c>
       <c r="C247" s="4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D247" s="4"/>
     </row>
@@ -6529,7 +6552,7 @@
         <v/>
       </c>
       <c r="C249" s="4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D249" s="4"/>
     </row>
@@ -6672,7 +6695,7 @@
         <v>118</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
@@ -6691,7 +6714,7 @@
         <v/>
       </c>
       <c r="C265" s="4" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D265" s="4"/>
     </row>
@@ -6751,7 +6774,7 @@
         <v/>
       </c>
       <c r="C271" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D271" s="4"/>
     </row>
@@ -6811,7 +6834,7 @@
         <v/>
       </c>
       <c r="C277" s="4" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D277" s="4"/>
     </row>
@@ -6871,7 +6894,7 @@
         <v/>
       </c>
       <c r="C283" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D283" s="4"/>
     </row>
@@ -7051,7 +7074,7 @@
         <v/>
       </c>
       <c r="C301" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D301" s="4"/>
     </row>
@@ -7111,7 +7134,7 @@
         <v/>
       </c>
       <c r="C307" s="4" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D307" s="4"/>
     </row>
@@ -7171,7 +7194,7 @@
         <v/>
       </c>
       <c r="C313" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D313" s="4"/>
     </row>
@@ -7231,7 +7254,7 @@
         <v/>
       </c>
       <c r="C319" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D319" s="4"/>
     </row>
@@ -7291,7 +7314,7 @@
         <v/>
       </c>
       <c r="C325" s="4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D325" s="4"/>
     </row>
@@ -7351,7 +7374,7 @@
         <v/>
       </c>
       <c r="C331" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D331" s="4"/>
     </row>
@@ -7409,7 +7432,7 @@
         <v/>
       </c>
       <c r="C337" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D337" s="4"/>
     </row>
@@ -7467,7 +7490,7 @@
         <v/>
       </c>
       <c r="C343" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D343" s="4"/>
     </row>
@@ -7477,7 +7500,7 @@
         <v/>
       </c>
       <c r="C344" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D344" s="4"/>
     </row>
@@ -7487,7 +7510,7 @@
         <v/>
       </c>
       <c r="C345" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D345" s="4"/>
     </row>
@@ -7497,7 +7520,7 @@
         <v/>
       </c>
       <c r="C346" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D346" s="4"/>
     </row>
@@ -7507,7 +7530,7 @@
         <v/>
       </c>
       <c r="C347" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D347" s="4"/>
     </row>
@@ -7517,7 +7540,7 @@
         <v/>
       </c>
       <c r="C348" s="4" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D348" s="4"/>
     </row>
@@ -7527,7 +7550,7 @@
         <v/>
       </c>
       <c r="C349" s="4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D349" s="4"/>
     </row>
@@ -7537,7 +7560,7 @@
         <v/>
       </c>
       <c r="C350" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D350" s="4"/>
     </row>
@@ -7547,7 +7570,7 @@
         <v/>
       </c>
       <c r="C351" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D351" s="4"/>
     </row>
@@ -7557,7 +7580,7 @@
         <v/>
       </c>
       <c r="C352" s="4" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D352" s="4"/>
     </row>
@@ -7567,7 +7590,7 @@
         <v/>
       </c>
       <c r="C353" s="4" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D353" s="4"/>
     </row>
@@ -7577,7 +7600,7 @@
         <v/>
       </c>
       <c r="C354" s="4" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D354" s="4"/>
     </row>
@@ -7587,7 +7610,7 @@
         <v/>
       </c>
       <c r="C355" s="4" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D355" s="4"/>
     </row>
@@ -7597,7 +7620,7 @@
         <v/>
       </c>
       <c r="C356" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D356" s="4"/>
     </row>
@@ -7607,7 +7630,7 @@
         <v/>
       </c>
       <c r="C357" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D357" s="4"/>
     </row>
@@ -7617,7 +7640,7 @@
         <v/>
       </c>
       <c r="C358" s="4" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D358" s="4"/>
     </row>
@@ -7627,7 +7650,7 @@
         <v/>
       </c>
       <c r="C359" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D359" s="4"/>
     </row>
@@ -7647,7 +7670,7 @@
         <v/>
       </c>
       <c r="C361" s="4" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D361" s="4"/>
     </row>
@@ -7677,7 +7700,7 @@
         <v/>
       </c>
       <c r="C364" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D364" s="4"/>
     </row>
@@ -7687,7 +7710,7 @@
         <v/>
       </c>
       <c r="C365" s="4" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D365" s="4"/>
     </row>
@@ -7707,7 +7730,7 @@
         <v/>
       </c>
       <c r="C367" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D367" s="4"/>
     </row>
@@ -7717,7 +7740,7 @@
         <v>INFO</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D368" s="4"/>
     </row>
@@ -7727,7 +7750,7 @@
         <v>INFO</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D369" s="4"/>
     </row>
@@ -7797,7 +7820,7 @@
         <v/>
       </c>
       <c r="C376" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D376" s="4"/>
     </row>
@@ -7835,7 +7858,7 @@
         <v/>
       </c>
       <c r="C380" s="4" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D380" s="4"/>
     </row>
@@ -7855,7 +7878,7 @@
         <v/>
       </c>
       <c r="C382" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D382" s="4"/>
     </row>
@@ -7875,7 +7898,7 @@
         <v/>
       </c>
       <c r="C384" s="4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D384" s="4"/>
     </row>
@@ -7885,7 +7908,7 @@
         <v>INFO</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D385" s="4"/>
     </row>
@@ -7895,7 +7918,7 @@
         <v>INFO</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D386" s="4"/>
     </row>
@@ -7955,7 +7978,7 @@
         <v/>
       </c>
       <c r="C392" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D392" s="4"/>
     </row>
@@ -8101,7 +8124,7 @@
         <v/>
       </c>
       <c r="C407" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D407" s="4"/>
     </row>
@@ -8129,7 +8152,7 @@
         <v/>
       </c>
       <c r="C410" s="4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D410" s="4"/>
     </row>
@@ -8147,7 +8170,7 @@
         <v/>
       </c>
       <c r="C412" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D412" s="4"/>
     </row>
@@ -8211,7 +8234,7 @@
         <v/>
       </c>
       <c r="C419" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D419" s="4"/>
     </row>
@@ -8229,7 +8252,7 @@
         <v/>
       </c>
       <c r="C421" s="4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D421" s="4"/>
     </row>
@@ -8257,7 +8280,7 @@
         <v/>
       </c>
       <c r="C424" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D424" s="4"/>
     </row>
@@ -8275,7 +8298,7 @@
         <v/>
       </c>
       <c r="C426" s="4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D426" s="4"/>
     </row>
@@ -8285,7 +8308,7 @@
         <v/>
       </c>
       <c r="C427" s="4" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D427" s="4"/>
     </row>
@@ -8303,7 +8326,7 @@
         <v/>
       </c>
       <c r="C429" s="4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D429" s="4"/>
     </row>
@@ -8349,7 +8372,7 @@
         <v/>
       </c>
       <c r="C434" s="4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D434" s="4"/>
     </row>
@@ -8367,7 +8390,7 @@
         <v/>
       </c>
       <c r="C436" s="4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D436" s="4"/>
     </row>
@@ -8395,7 +8418,7 @@
         <v/>
       </c>
       <c r="C439" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D439" s="4"/>
     </row>
@@ -8413,7 +8436,7 @@
         <v/>
       </c>
       <c r="C441" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D441" s="4"/>
     </row>
@@ -8423,7 +8446,7 @@
         <v/>
       </c>
       <c r="C442" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D442" s="4"/>
     </row>
@@ -8441,7 +8464,7 @@
         <v/>
       </c>
       <c r="C444" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D444" s="4"/>
     </row>
@@ -8509,7 +8532,7 @@
         <v/>
       </c>
       <c r="C451" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D451" s="4"/>
     </row>
@@ -8527,7 +8550,7 @@
         <v/>
       </c>
       <c r="C453" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D453" s="4"/>
     </row>
@@ -8537,7 +8560,7 @@
         <v/>
       </c>
       <c r="C454" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D454" s="4"/>
     </row>
@@ -8585,7 +8608,7 @@
         <v/>
       </c>
       <c r="C459" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D459" s="4"/>
     </row>
@@ -8603,7 +8626,7 @@
         <v/>
       </c>
       <c r="C461" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D461" s="4"/>
     </row>
@@ -8613,7 +8636,7 @@
         <v/>
       </c>
       <c r="C462" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D462" s="4"/>
     </row>
@@ -8661,7 +8684,7 @@
         <v/>
       </c>
       <c r="C467" s="4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D467" s="4"/>
     </row>
@@ -8671,7 +8694,7 @@
         <v/>
       </c>
       <c r="C468" s="4" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D468" s="4"/>
     </row>
@@ -8689,7 +8712,7 @@
         <v/>
       </c>
       <c r="C470" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D470" s="4"/>
     </row>
@@ -8699,7 +8722,7 @@
         <v/>
       </c>
       <c r="C471" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D471" s="4"/>
     </row>
@@ -8737,7 +8760,7 @@
         <v/>
       </c>
       <c r="C475" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D475" s="4"/>
     </row>
@@ -8755,7 +8778,7 @@
         <v/>
       </c>
       <c r="C477" s="4" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D477" s="4"/>
     </row>
@@ -8765,7 +8788,7 @@
         <v/>
       </c>
       <c r="C478" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D478" s="4"/>
     </row>
@@ -8813,7 +8836,7 @@
         <v/>
       </c>
       <c r="C483" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D483" s="4"/>
     </row>
@@ -8831,7 +8854,7 @@
         <v/>
       </c>
       <c r="C485" s="4" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D485" s="4"/>
     </row>
@@ -8841,7 +8864,7 @@
         <v/>
       </c>
       <c r="C486" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D486" s="4"/>
     </row>
@@ -8879,7 +8902,7 @@
         <v/>
       </c>
       <c r="C490" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D490" s="4"/>
     </row>
@@ -8897,7 +8920,7 @@
         <v/>
       </c>
       <c r="C492" s="4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D492" s="4"/>
     </row>
@@ -8907,7 +8930,7 @@
         <v/>
       </c>
       <c r="C493" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D493" s="4"/>
     </row>
@@ -8963,7 +8986,7 @@
         <v/>
       </c>
       <c r="C499" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D499" s="4"/>
     </row>
@@ -8981,7 +9004,7 @@
         <v/>
       </c>
       <c r="C501" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D501" s="4"/>
     </row>
@@ -9035,7 +9058,7 @@
         <v/>
       </c>
       <c r="C507" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D507" s="4"/>
     </row>
@@ -9045,7 +9068,7 @@
         <v/>
       </c>
       <c r="C508" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D508" s="4"/>
     </row>
@@ -9063,7 +9086,7 @@
         <v/>
       </c>
       <c r="C510" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D510" s="4"/>
     </row>
@@ -9073,7 +9096,7 @@
         <v/>
       </c>
       <c r="C511" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D511" s="4"/>
     </row>
@@ -9091,7 +9114,7 @@
         <v/>
       </c>
       <c r="C513" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D513" s="4"/>
     </row>
@@ -9253,7 +9276,7 @@
         <v/>
       </c>
       <c r="C530" s="4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D530" s="4"/>
     </row>
@@ -9271,7 +9294,7 @@
         <v/>
       </c>
       <c r="C532" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D532" s="4"/>
     </row>
@@ -9309,7 +9332,7 @@
         <v/>
       </c>
       <c r="C536" s="4" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D536" s="4"/>
     </row>
@@ -9327,7 +9350,7 @@
         <v/>
       </c>
       <c r="C538" s="4" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D538" s="4"/>
     </row>
@@ -9355,7 +9378,7 @@
         <v/>
       </c>
       <c r="C541" s="4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D541" s="4"/>
     </row>
@@ -9373,7 +9396,7 @@
         <v/>
       </c>
       <c r="C543" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D543" s="4"/>
     </row>
@@ -9401,7 +9424,7 @@
         <v/>
       </c>
       <c r="C546" s="4" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D546" s="4"/>
     </row>
@@ -9411,7 +9434,7 @@
         <v/>
       </c>
       <c r="C547" s="4" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D547" s="4"/>
     </row>
@@ -9429,7 +9452,7 @@
         <v/>
       </c>
       <c r="C549" s="4" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D549" s="4"/>
     </row>
@@ -9663,7 +9686,7 @@
         <v/>
       </c>
       <c r="C573" s="4" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D573" s="4"/>
     </row>
@@ -9673,7 +9696,7 @@
         <v/>
       </c>
       <c r="C574" s="4" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D574" s="4"/>
     </row>
@@ -9691,7 +9714,7 @@
         <v/>
       </c>
       <c r="C576" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D576" s="4"/>
     </row>
@@ -9701,7 +9724,7 @@
         <v/>
       </c>
       <c r="C577" s="4" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D577" s="4"/>
     </row>
@@ -9739,7 +9762,7 @@
         <v/>
       </c>
       <c r="C581" s="4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D581" s="4"/>
     </row>
@@ -9757,7 +9780,7 @@
         <v/>
       </c>
       <c r="C583" s="4" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D583" s="4"/>
     </row>
@@ -9785,7 +9808,7 @@
         <v/>
       </c>
       <c r="C586" s="4" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D586" s="4"/>
     </row>
@@ -9803,7 +9826,7 @@
         <v/>
       </c>
       <c r="C588" s="4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D588" s="4"/>
     </row>
@@ -9831,7 +9854,7 @@
         <v/>
       </c>
       <c r="C591" s="4" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D591" s="4"/>
     </row>
@@ -9849,7 +9872,7 @@
         <v/>
       </c>
       <c r="C593" s="4" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D593" s="4"/>
     </row>
@@ -9859,7 +9882,7 @@
         <v/>
       </c>
       <c r="C594" s="4" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D594" s="4"/>
     </row>
@@ -9877,7 +9900,7 @@
         <v/>
       </c>
       <c r="C596" s="4" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D596" s="4"/>
     </row>
@@ -9923,7 +9946,7 @@
         <v/>
       </c>
       <c r="C601" s="4" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D601" s="4"/>
     </row>
@@ -9941,7 +9964,7 @@
         <v/>
       </c>
       <c r="C603" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D603" s="4"/>
     </row>
@@ -9969,7 +9992,7 @@
         <v/>
       </c>
       <c r="C606" s="4" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D606" s="4"/>
     </row>
@@ -9987,7 +10010,7 @@
         <v/>
       </c>
       <c r="C608" s="4" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D608" s="4"/>
     </row>
@@ -10015,7 +10038,7 @@
         <v/>
       </c>
       <c r="C611" s="4" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D611" s="4"/>
     </row>
@@ -10033,7 +10056,7 @@
         <v/>
       </c>
       <c r="C613" s="4" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D613" s="4"/>
     </row>
@@ -10061,7 +10084,7 @@
         <v/>
       </c>
       <c r="C616" s="4" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D616" s="4"/>
     </row>
@@ -10079,7 +10102,7 @@
         <v/>
       </c>
       <c r="C618" s="4" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D618" s="4"/>
     </row>
@@ -10125,7 +10148,7 @@
         <v/>
       </c>
       <c r="C623" s="4" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D623" s="4"/>
     </row>
@@ -10143,7 +10166,7 @@
         <v/>
       </c>
       <c r="C625" s="4" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D625" s="4"/>
     </row>
@@ -10301,7 +10324,7 @@
         <v/>
       </c>
       <c r="C641" s="4" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D641" s="4"/>
     </row>
@@ -10511,7 +10534,7 @@
         <v/>
       </c>
       <c r="C663" s="4" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D663" s="4"/>
     </row>
@@ -10529,7 +10552,7 @@
         <v/>
       </c>
       <c r="C665" s="4" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D665" s="4"/>
     </row>
@@ -10539,7 +10562,7 @@
         <v/>
       </c>
       <c r="C666" s="4" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D666" s="4"/>
     </row>
@@ -10557,7 +10580,7 @@
         <v/>
       </c>
       <c r="C668" s="4" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D668" s="4"/>
     </row>
@@ -10567,7 +10590,7 @@
         <v/>
       </c>
       <c r="C669" s="4" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D669" s="4"/>
     </row>
@@ -10585,7 +10608,7 @@
         <v/>
       </c>
       <c r="C671" s="4" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D671" s="4"/>
     </row>
@@ -10631,7 +10654,7 @@
         <v/>
       </c>
       <c r="C676" s="4" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D676" s="4"/>
     </row>
@@ -10649,7 +10672,7 @@
         <v/>
       </c>
       <c r="C678" s="4" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D678" s="4"/>
     </row>
@@ -10677,7 +10700,7 @@
         <v/>
       </c>
       <c r="C681" s="4" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D681" s="4"/>
     </row>
@@ -10695,7 +10718,7 @@
         <v/>
       </c>
       <c r="C683" s="4" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D683" s="4"/>
     </row>
@@ -10723,7 +10746,7 @@
         <v/>
       </c>
       <c r="C686" s="4" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D686" s="4"/>
     </row>
@@ -10741,7 +10764,7 @@
         <v/>
       </c>
       <c r="C688" s="4" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D688" s="4"/>
     </row>
@@ -10769,7 +10792,7 @@
         <v/>
       </c>
       <c r="C691" s="4" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D691" s="4"/>
     </row>
@@ -10787,7 +10810,7 @@
         <v/>
       </c>
       <c r="C693" s="4" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D693" s="4"/>
     </row>
@@ -10815,7 +10838,7 @@
         <v/>
       </c>
       <c r="C696" s="4" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D696" s="4"/>
     </row>
@@ -10833,7 +10856,7 @@
         <v/>
       </c>
       <c r="C698" s="4" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D698" s="4"/>
     </row>
@@ -10861,7 +10884,7 @@
         <v/>
       </c>
       <c r="C701" s="4" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D701" s="4"/>
     </row>
@@ -10879,7 +10902,7 @@
         <v/>
       </c>
       <c r="C703" s="4" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D703" s="4"/>
     </row>
@@ -10907,7 +10930,7 @@
         <v/>
       </c>
       <c r="C706" s="4" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D706" s="4"/>
     </row>
@@ -10925,7 +10948,7 @@
         <v/>
       </c>
       <c r="C708" s="4" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D708" s="4"/>
     </row>
@@ -10935,7 +10958,7 @@
         <v/>
       </c>
       <c r="C709" s="4" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D709" s="4"/>
     </row>
@@ -10953,7 +10976,7 @@
         <v/>
       </c>
       <c r="C711" s="4" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D711" s="4"/>
     </row>
@@ -11027,7 +11050,7 @@
         <v/>
       </c>
       <c r="C719" s="4" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D719" s="4"/>
     </row>
@@ -11101,7 +11124,7 @@
         <v>INFO</v>
       </c>
       <c r="C727" s="4" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D727" s="4"/>
     </row>
@@ -11111,7 +11134,7 @@
         <v/>
       </c>
       <c r="C728" s="4" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D728" s="4"/>
     </row>
@@ -11129,7 +11152,7 @@
         <v/>
       </c>
       <c r="C730" s="4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D730" s="4"/>
     </row>
@@ -11149,7 +11172,7 @@
         <v/>
       </c>
       <c r="C732" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D732" s="4"/>
     </row>
@@ -11167,7 +11190,7 @@
         <v/>
       </c>
       <c r="C734" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D734" s="4"/>
     </row>
@@ -11177,7 +11200,7 @@
         <v/>
       </c>
       <c r="C735" s="4" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D735" s="4"/>
     </row>
@@ -11195,7 +11218,7 @@
         <v/>
       </c>
       <c r="C737" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D737" s="4"/>
     </row>
@@ -11223,7 +11246,7 @@
         <v>INFO</v>
       </c>
       <c r="C740" s="4" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D740" s="4"/>
     </row>
@@ -11233,7 +11256,7 @@
         <v/>
       </c>
       <c r="C741" s="4" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D741" s="4"/>
     </row>
@@ -11251,7 +11274,7 @@
         <v/>
       </c>
       <c r="C743" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D743" s="4"/>
     </row>
@@ -11269,7 +11292,7 @@
         <v/>
       </c>
       <c r="C745" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D745" s="4"/>
     </row>
@@ -11279,7 +11302,7 @@
         <v/>
       </c>
       <c r="C746" s="4" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D746" s="4"/>
     </row>
@@ -11297,7 +11320,7 @@
         <v/>
       </c>
       <c r="C748" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D748" s="4"/>
     </row>
@@ -11325,7 +11348,7 @@
         <v/>
       </c>
       <c r="C751" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D751" s="4"/>
     </row>
@@ -11343,7 +11366,7 @@
         <v/>
       </c>
       <c r="C753" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D753" s="4"/>
     </row>
@@ -11389,7 +11412,7 @@
         <v>INFO</v>
       </c>
       <c r="C758" s="4" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D758" s="4"/>
     </row>
@@ -11527,7 +11550,7 @@
         <v/>
       </c>
       <c r="C772" s="4" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D772" s="4"/>
     </row>
@@ -11545,7 +11568,7 @@
         <v/>
       </c>
       <c r="C774" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D774" s="4"/>
     </row>
@@ -11555,7 +11578,7 @@
         <v/>
       </c>
       <c r="C775" s="4" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D775" s="4"/>
     </row>
@@ -11573,7 +11596,7 @@
         <v/>
       </c>
       <c r="C777" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D777" s="4"/>
     </row>
@@ -11601,7 +11624,7 @@
         <v/>
       </c>
       <c r="C780" s="4" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D780" s="4"/>
     </row>
@@ -11619,7 +11642,7 @@
         <v/>
       </c>
       <c r="C782" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D782" s="4"/>
     </row>
@@ -11629,7 +11652,7 @@
         <v/>
       </c>
       <c r="C783" s="4" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D783" s="4"/>
     </row>
@@ -11647,7 +11670,7 @@
         <v/>
       </c>
       <c r="C785" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D785" s="4"/>
     </row>
@@ -11657,7 +11680,7 @@
         <v/>
       </c>
       <c r="C786" s="4" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D786" s="4"/>
     </row>
@@ -11675,7 +11698,7 @@
         <v/>
       </c>
       <c r="C788" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D788" s="4"/>
     </row>
@@ -11745,7 +11768,7 @@
         <v/>
       </c>
       <c r="C795" s="4" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D795" s="4"/>
     </row>
@@ -11765,7 +11788,7 @@
         <v/>
       </c>
       <c r="C797" s="4" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D797" s="4"/>
     </row>
@@ -11889,7 +11912,7 @@
         <v/>
       </c>
       <c r="C810" s="4" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D810" s="4"/>
     </row>
@@ -11899,7 +11922,7 @@
         <v/>
       </c>
       <c r="C811" s="4" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D811" s="4"/>
     </row>
@@ -11909,7 +11932,7 @@
         <v/>
       </c>
       <c r="C812" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D812" s="4"/>
     </row>
@@ -11927,7 +11950,7 @@
         <v/>
       </c>
       <c r="C814" s="4" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D814" s="4"/>
     </row>
@@ -11973,7 +11996,7 @@
         <v/>
       </c>
       <c r="C819" s="4" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D819" s="4"/>
     </row>
@@ -11991,7 +12014,7 @@
         <v/>
       </c>
       <c r="C821" s="4" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D821" s="4"/>
     </row>
@@ -12019,7 +12042,7 @@
         <v/>
       </c>
       <c r="C824" s="4" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D824" s="4"/>
     </row>
@@ -12037,7 +12060,7 @@
         <v/>
       </c>
       <c r="C826" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D826" s="4"/>
     </row>
@@ -12075,7 +12098,7 @@
         <v/>
       </c>
       <c r="C830" s="4" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D830" s="4"/>
     </row>
@@ -12093,7 +12116,7 @@
         <v/>
       </c>
       <c r="C832" s="4" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D832" s="4"/>
     </row>
@@ -12103,7 +12126,7 @@
         <v>INFO</v>
       </c>
       <c r="C833" s="4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D833" s="4"/>
     </row>
@@ -12139,7 +12162,7 @@
         <v/>
       </c>
       <c r="C837" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D837" s="4"/>
     </row>
@@ -12157,7 +12180,7 @@
         <v/>
       </c>
       <c r="C839" s="4" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D839" s="4"/>
     </row>
@@ -12235,7 +12258,7 @@
         <v/>
       </c>
       <c r="C847" s="4" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D847" s="4"/>
     </row>
@@ -12255,7 +12278,7 @@
         <v/>
       </c>
       <c r="C849" s="4" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D849" s="4"/>
     </row>
@@ -12293,7 +12316,7 @@
         <v/>
       </c>
       <c r="C853" s="4" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D853" s="4"/>
     </row>
@@ -12311,7 +12334,7 @@
         <v/>
       </c>
       <c r="C855" s="4" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D855" s="4"/>
     </row>
@@ -12339,7 +12362,7 @@
         <v/>
       </c>
       <c r="C858" s="4" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D858" s="4"/>
     </row>
@@ -12357,7 +12380,7 @@
         <v/>
       </c>
       <c r="C860" s="4" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D860" s="4"/>
     </row>
@@ -12403,7 +12426,7 @@
         <v/>
       </c>
       <c r="C865" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D865" s="4"/>
     </row>
@@ -12421,7 +12444,7 @@
         <v/>
       </c>
       <c r="C867" s="4" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D867" s="4"/>
     </row>
@@ -12431,7 +12454,7 @@
         <v/>
       </c>
       <c r="C868" s="4" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D868" s="4"/>
     </row>
@@ -12449,7 +12472,7 @@
         <v/>
       </c>
       <c r="C870" s="4" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D870" s="4"/>
     </row>
@@ -12495,7 +12518,7 @@
         <v/>
       </c>
       <c r="C875" s="4" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D875" s="4"/>
     </row>
@@ -12515,7 +12538,7 @@
         <v>INFO</v>
       </c>
       <c r="C877" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D877" s="4"/>
     </row>
@@ -12533,7 +12556,7 @@
         <v/>
       </c>
       <c r="C879" s="4" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D879" s="4"/>
     </row>
@@ -12551,7 +12574,7 @@
         <v/>
       </c>
       <c r="C881" s="4" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D881" s="4"/>
     </row>
@@ -12561,7 +12584,7 @@
         <v/>
       </c>
       <c r="C882" s="4" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D882" s="4"/>
     </row>
@@ -12579,7 +12602,7 @@
         <v/>
       </c>
       <c r="C884" s="4" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D884" s="4"/>
     </row>
@@ -12643,7 +12666,7 @@
         <v/>
       </c>
       <c r="C891" s="4" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D891" s="4"/>
     </row>
@@ -12661,7 +12684,7 @@
         <v/>
       </c>
       <c r="C893" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D893" s="4"/>
     </row>
@@ -12671,7 +12694,7 @@
         <v>INFO</v>
       </c>
       <c r="C894" s="4" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D894" s="4"/>
     </row>
@@ -12689,7 +12712,7 @@
         <v/>
       </c>
       <c r="C896" s="4" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D896" s="4"/>
     </row>
@@ -12707,7 +12730,7 @@
         <v/>
       </c>
       <c r="C898" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D898" s="4"/>
     </row>
@@ -12735,7 +12758,7 @@
         <v/>
       </c>
       <c r="C901" s="4" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D901" s="4"/>
     </row>
@@ -12753,7 +12776,7 @@
         <v/>
       </c>
       <c r="C903" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D903" s="4"/>
     </row>
@@ -12763,7 +12786,7 @@
         <v/>
       </c>
       <c r="C904" s="4" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D904" s="4"/>
     </row>
@@ -12781,7 +12804,7 @@
         <v/>
       </c>
       <c r="C906" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D906" s="4"/>
     </row>
@@ -12827,7 +12850,7 @@
         <v>INFO</v>
       </c>
       <c r="C911" s="4" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D911" s="4"/>
     </row>
@@ -12845,7 +12868,7 @@
         <v/>
       </c>
       <c r="C913" s="4" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D913" s="4"/>
     </row>
@@ -12863,7 +12886,7 @@
         <v/>
       </c>
       <c r="C915" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D915" s="4"/>
     </row>
@@ -12873,7 +12896,7 @@
         <v/>
       </c>
       <c r="C916" s="4" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D916" s="4"/>
     </row>
@@ -12891,7 +12914,7 @@
         <v/>
       </c>
       <c r="C918" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D918" s="4"/>
     </row>
@@ -12937,7 +12960,7 @@
         <v/>
       </c>
       <c r="C923" s="4" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D923" s="4"/>
     </row>
@@ -12947,7 +12970,7 @@
         <v/>
       </c>
       <c r="C924" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D924" s="4"/>
     </row>
@@ -13045,7 +13068,7 @@
         <v/>
       </c>
       <c r="C934" s="4" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D934" s="4"/>
     </row>
@@ -13063,7 +13086,7 @@
         <v/>
       </c>
       <c r="C936" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D936" s="4"/>
     </row>
@@ -13109,7 +13132,7 @@
         <v/>
       </c>
       <c r="C941" s="4" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D941" s="4"/>
     </row>
@@ -13127,7 +13150,7 @@
         <v/>
       </c>
       <c r="C943" s="4" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D943" s="4"/>
     </row>
@@ -13155,7 +13178,7 @@
         <v/>
       </c>
       <c r="C946" s="4" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D946" s="4"/>
     </row>
@@ -13173,7 +13196,7 @@
         <v/>
       </c>
       <c r="C948" s="4" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D948" s="4"/>
     </row>
@@ -13201,7 +13224,7 @@
         <v/>
       </c>
       <c r="C951" s="4" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D951" s="4"/>
     </row>
@@ -13219,7 +13242,7 @@
         <v/>
       </c>
       <c r="C953" s="4" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D953" s="4"/>
     </row>
@@ -13247,7 +13270,7 @@
         <v>INFO</v>
       </c>
       <c r="C956" s="4" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D956" s="4"/>
     </row>
@@ -13275,7 +13298,7 @@
         <v/>
       </c>
       <c r="C959" s="4" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D959" s="4"/>
     </row>
@@ -13293,7 +13316,7 @@
         <v/>
       </c>
       <c r="C961" s="4" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D961" s="4"/>
     </row>
@@ -13303,7 +13326,7 @@
         <v/>
       </c>
       <c r="C962" s="4" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D962" s="4"/>
     </row>
@@ -13331,7 +13354,7 @@
         <v/>
       </c>
       <c r="C965" s="4" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D965" s="4"/>
     </row>
@@ -13349,7 +13372,7 @@
         <v/>
       </c>
       <c r="C967" s="4" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D967" s="4"/>
     </row>
@@ -13369,7 +13392,7 @@
         <v/>
       </c>
       <c r="C969" s="4" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D969" s="4"/>
     </row>
@@ -13387,7 +13410,7 @@
         <v/>
       </c>
       <c r="C971" s="4" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D971" s="4"/>
     </row>
@@ -13445,7 +13468,7 @@
         <v/>
       </c>
       <c r="C977" s="4" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D977" s="4"/>
     </row>
@@ -13495,7 +13518,7 @@
         <v>INFO</v>
       </c>
       <c r="C982" s="4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D982" s="4"/>
     </row>
@@ -13541,7 +13564,7 @@
         <v/>
       </c>
       <c r="C987" s="4" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D987" s="4"/>
     </row>
@@ -13551,7 +13574,7 @@
         <v>INFO</v>
       </c>
       <c r="C988" s="4" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D988" s="4"/>
     </row>
@@ -13807,7 +13830,7 @@
         <v/>
       </c>
       <c r="C1014" s="4" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D1014" s="4"/>
     </row>
@@ -13817,7 +13840,7 @@
         <v/>
       </c>
       <c r="C1015" s="4" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D1015" s="4"/>
     </row>
@@ -13827,7 +13850,7 @@
         <v/>
       </c>
       <c r="C1016" s="4" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D1016" s="4"/>
     </row>
@@ -13837,7 +13860,7 @@
         <v/>
       </c>
       <c r="C1017" s="4" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D1017" s="4"/>
     </row>
@@ -13847,7 +13870,7 @@
         <v/>
       </c>
       <c r="C1018" s="4" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D1018" s="4"/>
     </row>
@@ -14801,7 +14824,7 @@
         <v/>
       </c>
       <c r="C1121" s="4" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D1121" s="4"/>
     </row>
@@ -14811,7 +14834,7 @@
         <v/>
       </c>
       <c r="C1122" s="4" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D1122" s="4"/>
     </row>
@@ -14821,7 +14844,7 @@
         <v/>
       </c>
       <c r="C1123" s="4" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D1123" s="4"/>
     </row>
@@ -14941,7 +14964,7 @@
         <v/>
       </c>
       <c r="C1136" s="4" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D1136" s="4"/>
     </row>
@@ -15015,7 +15038,7 @@
         <v/>
       </c>
       <c r="C1144" s="4" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D1144" s="4"/>
     </row>
@@ -15025,7 +15048,7 @@
         <v/>
       </c>
       <c r="C1145" s="4" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D1145" s="4"/>
     </row>
@@ -15035,7 +15058,7 @@
         <v/>
       </c>
       <c r="C1146" s="4" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D1146" s="4"/>
     </row>
@@ -15109,7 +15132,7 @@
         <v/>
       </c>
       <c r="C1154" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D1154" s="4"/>
     </row>
@@ -15119,7 +15142,7 @@
         <v/>
       </c>
       <c r="C1155" s="4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D1155" s="4"/>
     </row>
@@ -15193,7 +15216,7 @@
         <v/>
       </c>
       <c r="C1163" s="4" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D1163" s="4"/>
     </row>
@@ -15203,7 +15226,7 @@
         <v/>
       </c>
       <c r="C1164" s="4" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D1164" s="4"/>
     </row>
@@ -15637,7 +15660,7 @@
         <v/>
       </c>
       <c r="C1208" s="4" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D1208" s="4"/>
     </row>
@@ -15697,7 +15720,7 @@
         <v>INFO</v>
       </c>
       <c r="C1214" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D1214" s="4"/>
     </row>

--- a/docs/uart_report.xlsx
+++ b/docs/uart_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UF523TCH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62547C7-5A52-4B33-AB7D-1228FF66B827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6257E1-515F-40BE-B21C-F85E58473B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{85EF69C1-0CF4-4C88-A077-43C70A228E3E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{85EF69C1-0CF4-4C88-A077-43C70A228E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="coverage" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="981">
   <si>
     <t>#-----------------------------------------------------------</t>
   </si>
@@ -2236,9 +2236,6 @@
     <t>Phase 2.5 Soft Constraint Pins - Fast Budgeting</t>
   </si>
   <si>
-    <t>12 Infos, 0 Warnings, 0 Critical Warnings and 0 Errors encountered.</t>
-  </si>
-  <si>
     <t>5. checking no_input_delay (3)</t>
   </si>
   <si>
@@ -2278,30 +2275,9 @@
     <t># report_bus_skew                     -file "${RESULTS_DIR}/synth/${PROJECT_NAME}_bus_skew_synth.rpt"</t>
   </si>
   <si>
-    <t>|10    |FDCE      |   234|</t>
-  </si>
-  <si>
-    <t># Start of session at: Mon Jan 12 11:51:46 2026</t>
-  </si>
-  <si>
-    <t># Process ID         : 120721</t>
-  </si>
-  <si>
-    <t># Available Virtual  : 15909 MB</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-7075] Helper process launched with PID 120824</t>
-  </si>
-  <si>
-    <t>Starting RTL Elaboration : Time (s): cpu = 00:00:03 ; elapsed = 00:00:03 . Memory (MB): peak = 2251.008 ; gain = 451.570 ; free physical = 4106 ; free virtual = 13947</t>
-  </si>
-  <si>
     <t>INFO: [Synth 8-638] synthesizing module 'TOP_FPGA' [/home/tim/projects/uart/sources/top_fpga/top_fpga.vhd:94]</t>
   </si>
   <si>
-    <t xml:space="preserve">    Parameter G_GIT_ID bound to: 32'b01101011010100111011011100100010</t>
-  </si>
-  <si>
     <t>INFO: [Synth 8-3491] module 'clk_wiz_0' declared at '/home/tim/projects/uart/synthesis/uart/uart.gen/sources_1/ip/clk_wiz_0/clk_wiz_0.v:66' bound to instance 'inst_pll' of component 'clk_wiz_0' [/home/tim/projects/uart/sources/top_fpga/top_fpga.vhd:188]</t>
   </si>
   <si>
@@ -2341,12 +2317,6 @@
     <t>INFO: [Synth 8-638] synthesizing module 'REGFILE' [/home/tim/projects/uart/sources/regfile/regfile.vhd:89]</t>
   </si>
   <si>
-    <t xml:space="preserve">    Parameter G_GIT_ID_MSB bound to: 16'b0110101101010011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Parameter G_GIT_ID_LSB bound to: 16'b1011011100100010</t>
-  </si>
-  <si>
     <t>INFO: [Synth 8-256] done synthesizing module 'REGFILE' (0#1) [/home/tim/projects/uart/sources/regfile/regfile.vhd:89]</t>
   </si>
   <si>
@@ -2365,90 +2335,12 @@
     <t>INFO: [Synth 8-256] done synthesizing module 'TOP_FPGA' (0#1) [/home/tim/projects/uart/sources/top_fpga/top_fpga.vhd:94]</t>
   </si>
   <si>
-    <t>Finished RTL Elaboration : Time (s): cpu = 00:00:04 ; elapsed = 00:00:04 . Memory (MB): peak = 2339.945 ; gain = 540.508 ; free physical = 3996 ; free virtual = 13838</t>
-  </si>
-  <si>
-    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:04 ; elapsed = 00:00:04 . Memory (MB): peak = 2357.758 ; gain = 558.320 ; free physical = 3993 ; free virtual = 13835</t>
-  </si>
-  <si>
-    <t>Finished RTL Optimization Phase 1 : Time (s): cpu = 00:00:04 ; elapsed = 00:00:04 . Memory (MB): peak = 2357.758 ; gain = 558.320 ; free physical = 3993 ; free virtual = 13835</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2363.695 ; gain = 0.000 ; free physical = 3987 ; free virtual = 13829</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2473.496 ; gain = 0.000 ; free physical = 3974 ; free virtual = 13816</t>
-  </si>
-  <si>
-    <t>Constraint Validation Runtime : Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 2473.531 ; gain = 0.000 ; free physical = 3974 ; free virtual = 13816</t>
-  </si>
-  <si>
-    <t>Finished Constraint Validation : Time (s): cpu = 00:00:07 ; elapsed = 00:00:07 . Memory (MB): peak = 2473.531 ; gain = 674.094 ; free physical = 3969 ; free virtual = 13810</t>
-  </si>
-  <si>
-    <t>Finished Loading Part and Timing Information : Time (s): cpu = 00:00:07 ; elapsed = 00:00:07 . Memory (MB): peak = 2481.500 ; gain = 682.062 ; free physical = 3969 ; free virtual = 13810</t>
-  </si>
-  <si>
-    <t>Finished applying 'set_property' XDC Constraints : Time (s): cpu = 00:00:07 ; elapsed = 00:00:07 . Memory (MB): peak = 2481.500 ; gain = 682.062 ; free physical = 3969 ; free virtual = 13810</t>
-  </si>
-  <si>
-    <t>Finished RTL Optimization Phase 2 : Time (s): cpu = 00:00:08 ; elapsed = 00:00:08 . Memory (MB): peak = 2481.500 ; gain = 682.062 ; free physical = 3967 ; free virtual = 13810</t>
-  </si>
-  <si>
     <t xml:space="preserve">                    3 Bit    Registers := 15</t>
   </si>
   <si>
-    <t>Finished Cross Boundary and Area Optimization : Time (s): cpu = 00:00:09 ; elapsed = 00:00:09 . Memory (MB): peak = 2481.500 ; gain = 682.062 ; free physical = 3949 ; free virtual = 13796</t>
-  </si>
-  <si>
-    <t>Finished Applying XDC Timing Constraints : Time (s): cpu = 00:00:12 ; elapsed = 00:00:12 . Memory (MB): peak = 2511.500 ; gain = 712.062 ; free physical = 3877 ; free virtual = 13725</t>
-  </si>
-  <si>
-    <t>Finished Timing Optimization : Time (s): cpu = 00:00:12 ; elapsed = 00:00:12 . Memory (MB): peak = 2512.500 ; gain = 713.062 ; free physical = 3876 ; free virtual = 13724</t>
-  </si>
-  <si>
-    <t>Finished Technology Mapping : Time (s): cpu = 00:00:12 ; elapsed = 00:00:12 . Memory (MB): peak = 2531.531 ; gain = 732.094 ; free physical = 3862 ; free virtual = 13710</t>
-  </si>
-  <si>
-    <t>Finished IO Insertion : Time (s): cpu = 00:00:13 ; elapsed = 00:00:14 . Memory (MB): peak = 2698.344 ; gain = 898.906 ; free physical = 3707 ; free virtual = 13555</t>
-  </si>
-  <si>
-    <t>Finished Renaming Generated Instances : Time (s): cpu = 00:00:13 ; elapsed = 00:00:14 . Memory (MB): peak = 2698.344 ; gain = 898.906 ; free physical = 3707 ; free virtual = 13555</t>
-  </si>
-  <si>
-    <t>Finished Rebuilding User Hierarchy : Time (s): cpu = 00:00:13 ; elapsed = 00:00:14 . Memory (MB): peak = 2698.344 ; gain = 898.906 ; free physical = 3707 ; free virtual = 13555</t>
-  </si>
-  <si>
-    <t>Finished Renaming Generated Ports : Time (s): cpu = 00:00:13 ; elapsed = 00:00:14 . Memory (MB): peak = 2698.344 ; gain = 898.906 ; free physical = 3707 ; free virtual = 13555</t>
-  </si>
-  <si>
-    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:14 ; elapsed = 00:00:14 . Memory (MB): peak = 2698.344 ; gain = 898.906 ; free physical = 3707 ; free virtual = 13555</t>
-  </si>
-  <si>
-    <t>Finished Renaming Generated Nets : Time (s): cpu = 00:00:14 ; elapsed = 00:00:14 . Memory (MB): peak = 2698.344 ; gain = 898.906 ; free physical = 3707 ; free virtual = 13555</t>
-  </si>
-  <si>
     <t>|3     |LUT2      |    37|</t>
   </si>
   <si>
-    <t>|4     |LUT3      |    30|</t>
-  </si>
-  <si>
-    <t>|5     |LUT4      |    51|</t>
-  </si>
-  <si>
-    <t>|6     |LUT5      |    61|</t>
-  </si>
-  <si>
-    <t>|7     |LUT6      |   132|</t>
-  </si>
-  <si>
-    <t>|8     |MUXF7     |     2|</t>
-  </si>
-  <si>
-    <t>|11    |FDPE      |    49|</t>
-  </si>
-  <si>
     <t>|12    |FDRE      |    68|</t>
   </si>
   <si>
@@ -2458,21 +2350,6 @@
     <t>|14    |OBUF      |    19|</t>
   </si>
   <si>
-    <t>Finished Writing Synthesis Report : Time (s): cpu = 00:00:14 ; elapsed = 00:00:14 . Memory (MB): peak = 2698.344 ; gain = 898.906 ; free physical = 3707 ; free virtual = 13555</t>
-  </si>
-  <si>
-    <t>Synthesis Optimization Runtime : Time (s): cpu = 00:00:13 ; elapsed = 00:00:13 . Memory (MB): peak = 2698.344 ; gain = 783.133 ; free physical = 3707 ; free virtual = 13555</t>
-  </si>
-  <si>
-    <t>Synthesis Optimization Complete : Time (s): cpu = 00:00:14 ; elapsed = 00:00:14 . Memory (MB): peak = 2698.352 ; gain = 898.906 ; free physical = 3707 ; free virtual = 13555</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2698.352 ; gain = 0.000 ; free physical = 3706 ; free virtual = 13554</t>
-  </si>
-  <si>
-    <t>INFO: [Netlist 29-17] Analyzing 3 Unisim elements for replacement</t>
-  </si>
-  <si>
     <t>Sourcing Tcl File [/home/tim/projects/uart/cores/open-logic/src/base/tcl/olo_base_reset_gen.tcl] for cell 'inst_olo_base_vga_reset_gen'</t>
   </si>
   <si>
@@ -2485,496 +2362,13 @@
     <t>Finished Sourcing Tcl File [/home/tim/projects/uart/cores/open-logic/src/base/tcl/olo_base_reset_gen.tcl] for cell 'inst_olo_base_sys_reset_gen'</t>
   </si>
   <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3224.199 ; gain = 0.000 ; free physical = 3475 ; free virtual = 13323</t>
-  </si>
-  <si>
-    <t>Synth Design complete | Checksum: 2b3223ff</t>
-  </si>
-  <si>
     <t>67 Infos, 7 Warnings, 0 Critical Warnings and 0 Errors encountered.</t>
   </si>
   <si>
-    <t>synth_design: Time (s): cpu = 00:00:20 ; elapsed = 00:00:19 . Memory (MB): peak = 3224.234 ; gain = 1424.875 ; free physical = 3475 ; free virtual = 13323</t>
-  </si>
-  <si>
-    <t>INFO: [Common 17-2834] synth_design peak Physical Memory [PSS] (MB): overall = 2511.437; main = 2511.437; forked = 333.598</t>
-  </si>
-  <si>
-    <t>INFO: [Common 17-2834] synth_design peak Virtual Memory [VSS] (MB): overall = 3437.711; main = 3224.199; forked = 956.211</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:01 ; elapsed = 00:00:00.42 . Memory (MB): peak = 3224.234 ; gain = 0.000 ; free physical = 3449 ; free virtual = 13297</t>
-  </si>
-  <si>
-    <t>Ending Cache Timing Information Task | Checksum: 1b9b8a586</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3224.234 ; gain = 0.000 ; free physical = 3451 ; free virtual = 13299</t>
-  </si>
-  <si>
-    <t>Phase 1.1 Core Generation And Design Setup | Checksum: 1b9b8a586</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3298.184 ; gain = 0.000 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>Phase 1.2 Setup Constraints And Sort Netlist | Checksum: 1b9b8a586</t>
-  </si>
-  <si>
-    <t>Phase 1 Initialization | Checksum: 1b9b8a586</t>
-  </si>
-  <si>
-    <t>Phase 2.1 Timer Update | Checksum: 1b9b8a586</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.04 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3298.184 ; gain = 0.000 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>Phase 2.2 Timing Data Collection | Checksum: 1b9b8a586</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.05 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3298.184 ; gain = 0.000 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>Phase 2 Timer Update And Timing Data Collection | Checksum: 1b9b8a586</t>
-  </si>
-  <si>
-    <t>Phase 3 Retarget | Checksum: 25ba0494c</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.09 ; elapsed = 00:00:00.04 . Memory (MB): peak = 3298.184 ; gain = 0.000 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>Retarget | Checksum: 25ba0494c</t>
-  </si>
-  <si>
-    <t>Phase 4 Constant propagation | Checksum: 25ba0494c</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.11 ; elapsed = 00:00:00.04 . Memory (MB): peak = 3298.184 ; gain = 0.000 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>Constant propagation | Checksum: 25ba0494c</t>
-  </si>
-  <si>
-    <t>Done building netlist checker database: Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3298.184 ; gain = 0.000 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>Phase 5 Sweep | Checksum: 1cfa9b863</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.12 ; elapsed = 00:00:00.05 . Memory (MB): peak = 3298.184 ; gain = 0.000 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>Sweep | Checksum: 1cfa9b863</t>
-  </si>
-  <si>
-    <t>Phase 6 BUFG optimization | Checksum: 1cfa9b863</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.13 ; elapsed = 00:00:00.06 . Memory (MB): peak = 3330.199 ; gain = 32.016 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>BUFG optimization | Checksum: 1cfa9b863</t>
-  </si>
-  <si>
-    <t>Phase 7 Shift Register Optimization | Checksum: 1cfa9b863</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.13 ; elapsed = 00:00:00.07 . Memory (MB): peak = 3330.199 ; gain = 32.016 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>Shift Register Optimization | Checksum: 1cfa9b863</t>
-  </si>
-  <si>
-    <t>Phase 8 Post Processing Netlist | Checksum: 1cfa9b863</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.14 ; elapsed = 00:00:00.07 . Memory (MB): peak = 3330.199 ; gain = 32.016 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>Post Processing Netlist | Checksum: 1cfa9b863</t>
-  </si>
-  <si>
-    <t>Phase 9.1 Finalizing Design Cores and Updating Shapes | Checksum: 208268e68</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.15 ; elapsed = 00:00:00.08 . Memory (MB): peak = 3330.199 ; gain = 32.016 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3330.199 ; gain = 0.000 ; free physical = 3333 ; free virtual = 13181</t>
-  </si>
-  <si>
-    <t>Phase 9.2 Verifying Netlist Connectivity | Checksum: 208268e68</t>
-  </si>
-  <si>
-    <t>Phase 9 Finalization | Checksum: 208268e68</t>
-  </si>
-  <si>
-    <t>Ending Logic Optimization Task | Checksum: 208268e68</t>
-  </si>
-  <si>
-    <t>Ending Power Optimization Task | Checksum: 208268e68</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3330.199 ; gain = 0.000 ; free physical = 3332 ; free virtual = 13180</t>
-  </si>
-  <si>
-    <t>Ending Final Cleanup Task | Checksum: 208268e68</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3330.199 ; gain = 0.000 ; free physical = 3332 ; free virtual = 13180</t>
-  </si>
-  <si>
-    <t>Ending Netlist Obfuscation Task | Checksum: 208268e68</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3330.199 ; gain = 0.000 ; free physical = 3330 ; free virtual = 13178</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3330.199 ; gain = 0.000 ; free physical = 3336 ; free virtual = 13184</t>
-  </si>
-  <si>
-    <t>Phase 1.1 Placer Initialization Netlist Sorting | Checksum: 18b995e35</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3330.199 ; gain = 0.000 ; free physical = 3336 ; free virtual = 13184</t>
-  </si>
-  <si>
-    <t>Phase 1.2 IO Placement/ Clock Placement/ Build Placer Device | Checksum: b30dbda0</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.31 ; elapsed = 00:00:00.11 . Memory (MB): peak = 3330.199 ; gain = 0.000 ; free physical = 3335 ; free virtual = 13183</t>
-  </si>
-  <si>
-    <t>Phase 1.3 Build Placer Netlist Model | Checksum: 16c21c808</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.56 ; elapsed = 00:00:00.21 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3335 ; free virtual = 13182</t>
-  </si>
-  <si>
-    <t>Phase 1.4 Constrain Clocks/Macros | Checksum: 16c21c808</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.56 ; elapsed = 00:00:00.22 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3335 ; free virtual = 13182</t>
-  </si>
-  <si>
-    <t>Phase 1 Placer Initialization | Checksum: 16c21c808</t>
-  </si>
-  <si>
-    <t>Phase 2.1 Floorplanning | Checksum: 16b8dd066</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.73 ; elapsed = 00:00:00.3 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3315 ; free virtual = 13162</t>
-  </si>
-  <si>
-    <t>Phase 2.2 Update Timing before SLR Path Opt | Checksum: bf89a24e</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.8 ; elapsed = 00:00:00.34 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3334 ; free virtual = 13182</t>
-  </si>
-  <si>
-    <t>Phase 2.3 Post-Processing in Floorplanning | Checksum: bf89a24e</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.81 ; elapsed = 00:00:00.34 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3334 ; free virtual = 13182</t>
-  </si>
-  <si>
-    <t>Phase 2.4 Global Place Phase1 | Checksum: d3371325</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:02 ; elapsed = 00:00:01 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3340 ; free virtual = 13188</t>
-  </si>
-  <si>
-    <t>Phase 2.5.1 UpdateTiming Before Physical Synthesis | Checksum: d3371325</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:02 ; elapsed = 00:00:01 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3342 ; free virtual = 13190</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3344 ; free virtual = 13192</t>
-  </si>
-  <si>
-    <t>Phase 2.5.2 Physical Synthesis In Placer | Checksum: 1c99bb393</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:01 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3344 ; free virtual = 13192</t>
-  </si>
-  <si>
-    <t>Phase 2.5 Global Place Phase2 | Checksum: 23cd0bc04</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:01 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3345 ; free virtual = 13193</t>
-  </si>
-  <si>
-    <t>Phase 2 Global Placement | Checksum: 23cd0bc04</t>
-  </si>
-  <si>
-    <t>Phase 3.1 Commit Multi Column Macros | Checksum: 1ce68d151</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:01 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3343 ; free virtual = 13191</t>
-  </si>
-  <si>
-    <t>Phase 3.2 Commit Most Macros &amp; LUTRAMs | Checksum: 274c26955</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:02 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3345 ; free virtual = 13193</t>
-  </si>
-  <si>
-    <t>Phase 3.3 Area Swap Optimization | Checksum: 1f7a9e770</t>
-  </si>
-  <si>
-    <t>Phase 3.4 Pipeline Register Optimization | Checksum: 26a1a9c2f</t>
-  </si>
-  <si>
-    <t>Phase 3.5 Small Shape Detail Placement | Checksum: 220e532ca</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3369.242 ; gain = 39.043 ; free physical = 3343 ; free virtual = 13191</t>
-  </si>
-  <si>
-    <t>Phase 3.6 Re-assign LUT pins | Checksum: 1e9887cba</t>
-  </si>
-  <si>
-    <t>Phase 3.7 Pipeline Register Optimization | Checksum: 140880809</t>
-  </si>
-  <si>
-    <t>Phase 3 Detail Placement | Checksum: 140880809</t>
-  </si>
-  <si>
-    <t>Post Placement Optimization Initialization | Checksum: 1179ae5f6</t>
-  </si>
-  <si>
-    <t>INFO: [Physopt 32-619] Estimated Timing Summary | WNS=11.535 | TNS=0.000 |</t>
-  </si>
-  <si>
-    <t>Phase 1 Physical Synthesis Initialization | Checksum: 14f4d4549</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.06 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3343 ; free virtual = 13191</t>
-  </si>
-  <si>
-    <t>Ending Physical Synthesis Task | Checksum: 187ee2cfb</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.07 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3343 ; free virtual = 13191</t>
-  </si>
-  <si>
-    <t>Phase 4.1.1.1 BUFG Insertion | Checksum: 1179ae5f6</t>
-  </si>
-  <si>
-    <t>INFO: [Place 30-746] Post Placement Timing Summary WNS=11.535. For the most accurate timing information please run report_timing.</t>
-  </si>
-  <si>
-    <t>Phase 4.1.1.2 Post Placement Timing Optimization | Checksum: 1422cce0a</t>
-  </si>
-  <si>
-    <t>Phase 4.1 Post Commit Optimization | Checksum: 1422cce0a</t>
-  </si>
-  <si>
-    <t>Phase 4.2 Post Placement Cleanup | Checksum: 1422cce0a</t>
-  </si>
-  <si>
-    <t>Phase 4.3.1 Print Estimated Congestion | Checksum: 1422cce0a</t>
-  </si>
-  <si>
-    <t>Phase 4.3 Placer Reporting | Checksum: 1422cce0a</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3343 ; free virtual = 13191</t>
-  </si>
-  <si>
-    <t>Phase 4 Post Placement Optimization and Clean-Up | Checksum: 16e0c983f</t>
-  </si>
-  <si>
-    <t>Ending Placer Task | Checksum: 13740c6fd</t>
-  </si>
-  <si>
-    <t>report_io: Time (s): cpu = 00:00:00.07 ; elapsed = 00:00:00.09 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3337 ; free virtual = 13185</t>
-  </si>
-  <si>
-    <t>report_control_sets: Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.04 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3337 ; free virtual = 13185</t>
-  </si>
-  <si>
-    <t>Checksum: PlaceDB: 2ee15df0 ConstDB: 0 ShapeSum: f265f61d RouteDB: 15f972f0</t>
-  </si>
-  <si>
-    <t>Post Restoration Checksum: NetGraph: 945803e6 | NumContArr: 914a377a | Constraints: c2a8fa9d | Timing: c2a8fa9d</t>
-  </si>
-  <si>
-    <t>Phase 1 Build RT Design | Checksum: 2aaf4309a</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:12 ; elapsed = 00:00:10 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3337 ; free virtual = 13185</t>
-  </si>
-  <si>
-    <t>Phase 2.1 Fix Topology Constraints | Checksum: 2aaf4309a</t>
-  </si>
-  <si>
-    <t>Phase 2.2 Pre Route Cleanup | Checksum: 2aaf4309a</t>
-  </si>
-  <si>
-    <t>Phase 2.3 Update Timing | Checksum: 20841f297</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:13 ; elapsed = 00:00:10 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3337 ; free virtual = 13185</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.445 | TNS=0.000  | WHS=-0.150 | THS=-11.133|</t>
-  </si>
-  <si>
-    <t>Phase 2.4.1 Update Timing | Checksum: 25d105338</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.445 | TNS=0.000  | WHS=0.146  | THS=0.000  |</t>
-  </si>
-  <si>
-    <t>Phase 2.4 Update Timing for Bus Skew | Checksum: 1c1f7d3cf</t>
-  </si>
-  <si>
-    <t>Phase 2.5 Soft Constraint Pins - Fast Budgeting | Checksum: 1c1f7d3cf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Number of Failed Nets               = 522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Number of Unrouted Nets             = 522</t>
-  </si>
-  <si>
-    <t>Phase 2 Router Initialization | Checksum: 279a846ef</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:14 ; elapsed = 00:00:10 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3336 ; free virtual = 13184</t>
-  </si>
-  <si>
-    <t>Phase 3 Global Routing | Checksum: 279a846ef</t>
-  </si>
-  <si>
-    <t>Phase 4.1 Initial Net Routing Pass | Checksum: 1cb7c9cb5</t>
-  </si>
-  <si>
-    <t>Phase 4 Initial Routing | Checksum: 1cb7c9cb5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Number of Nodes with overlaps = 33</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.409 | TNS=0.000  | WHS=N/A    | THS=N/A    |</t>
-  </si>
-  <si>
-    <t>Phase 5.1 Global Iteration 0 | Checksum: 21702db46</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:14 ; elapsed = 00:00:11 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3336 ; free virtual = 13184</t>
-  </si>
-  <si>
-    <t>Phase 5 Rip-up And Reroute | Checksum: 21702db46</t>
-  </si>
-  <si>
-    <t>Phase 6.1.1 Update Timing</t>
-  </si>
-  <si>
-    <t>Phase 6.1.1 Update Timing | Checksum: 1a73195b7</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.569 | TNS=0.000  | WHS=N/A    | THS=N/A    |</t>
-  </si>
-  <si>
-    <t>Phase 6.1 Delay CleanUp | Checksum: 1bc96d653</t>
-  </si>
-  <si>
-    <t>Phase 6.2 Clock Skew Optimization | Checksum: 1bc96d653</t>
-  </si>
-  <si>
-    <t>Phase 6 Delay and Skew Optimization | Checksum: 1bc96d653</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.569 | TNS=0.000  | WHS=0.121  | THS=0.000  |</t>
-  </si>
-  <si>
-    <t>Phase 7.1 Hold Fix Iter | Checksum: 17a666e45</t>
-  </si>
-  <si>
-    <t>Phase 7 Post Hold Fix | Checksum: 17a666e45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Global Vertical Routing Utilization    = 0.137517 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Global Horizontal Routing Utilization  = 0.117055 %</t>
-  </si>
-  <si>
-    <t>Phase 8 Route finalize | Checksum: 17a666e45</t>
-  </si>
-  <si>
-    <t>Phase 9 Verifying routed nets | Checksum: 17a666e45</t>
-  </si>
-  <si>
-    <t>Phase 10 Depositing Routes | Checksum: 1504280c2</t>
-  </si>
-  <si>
-    <t>Phase 11 Post Process Routing | Checksum: 1504280c2</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-57] Estimated Timing Summary | WNS=11.569 | TNS=0.000  | WHS=0.121  | THS=0.000  |</t>
-  </si>
-  <si>
-    <t>Phase 12 Post Router Timing | Checksum: 1504280c2</t>
-  </si>
-  <si>
-    <t>Total Elapsed time in route_design: 10.73 secs</t>
-  </si>
-  <si>
-    <t>Phase 13 Post-Route Event Processing | Checksum: 2c8df08f4</t>
-  </si>
-  <si>
-    <t>Ending Routing Task | Checksum: 2c8df08f4</t>
-  </si>
-  <si>
-    <t>route_design: Time (s): cpu = 00:00:14 ; elapsed = 00:00:11 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3336 ; free virtual = 13184</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.14 ; elapsed = 00:00:00.06 . Memory (MB): peak = 3369.242 ; gain = 0.000 ; free physical = 3332 ; free virtual = 13180</t>
-  </si>
-  <si>
-    <t>INFO: [Vivado_Tcl 4-2279] Estimated Timing Summary | WNS= 11.569 | TNS= 0.000 |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     11.569        0.000                      0                  812        0.122        0.000                      0                  769        3.000        0.000                       0                   359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  clk_out1_clk_wiz_0       14.041        0.000                      0                  434        0.122        0.000                      0                  429        9.500        0.000                       0                   280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  clk_out2_clk_wiz_0       11.569        0.000                      0                   80        0.122        0.000                      0                   75        7.192        0.000                       0                    75</t>
-  </si>
-  <si>
-    <t>input port clock    clk_out1_clk_wiz_0       17.704        0.000                      0                    3</t>
-  </si>
-  <si>
-    <t>clk_out2_clk_wiz_0  clk_out1_clk_wiz_0       13.888        0.000                      0                    9</t>
-  </si>
-  <si>
-    <t>clk_out1_clk_wiz_0  clk_out2_clk_wiz_0       13.929        0.000                      0                   21</t>
-  </si>
-  <si>
     <t>Path Group          From Clock          To Clock                WNS(ns)      TNS(ns)  TNS Failing Endpoints  TNS Total Endpoints      WHS(ns)      THS(ns)  THS Failing Endpoints  THS Total Endpoints</t>
   </si>
   <si>
     <t>----------          ----------          --------                -------      -------  ---------------------  -------------------      -------      -------  ---------------------  -------------------</t>
-  </si>
-  <si>
-    <t>**async_default**   clk_out1_clk_wiz_0  clk_out1_clk_wiz_0       15.811        0.000                      0                  230        0.469        0.000                      0                  230</t>
-  </si>
-  <si>
-    <t>**async_default**   clk_out2_clk_wiz_0  clk_out2_clk_wiz_0       12.688        0.000                      0                   35        0.424        0.000                      0                   35</t>
-  </si>
-  <si>
-    <t>write_bitstream: Time (s): cpu = 00:00:15 ; elapsed = 00:00:26 . Memory (MB): peak = 3618.180 ; gain = 224.922 ; free physical = 3040 ; free virtual = 12888</t>
-  </si>
-  <si>
-    <t>INFO: [Common 17-206] Exiting Vivado at Mon Jan 12 11:52:57 2026...</t>
   </si>
   <si>
     <r>
@@ -3109,6 +2503,636 @@
   </si>
   <si>
     <t>INST_VGA</t>
+  </si>
+  <si>
+    <t>|10    |FDCE      |   233|</t>
+  </si>
+  <si>
+    <t>|11    |FDPE      |    50|</t>
+  </si>
+  <si>
+    <t>WARNING: [Route 35-3387] High violations detected on bus-skew constraints. This can potentially cause WNS degradation and routing congestion.</t>
+  </si>
+  <si>
+    <t>Resolution: Please review the set_bus_skew constraints.</t>
+  </si>
+  <si>
+    <t>Phase 5.2 Global Iteration 1</t>
+  </si>
+  <si>
+    <t>12 Infos, 1 Warnings, 0 Critical Warnings and 0 Errors encountered.</t>
+  </si>
+  <si>
+    <t># Start of session at: Mon Jan 12 17:14:02 2026</t>
+  </si>
+  <si>
+    <t># Process ID         : 222818</t>
+  </si>
+  <si>
+    <t># Available Virtual  : 16160 MB</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-7075] Helper process launched with PID 222963</t>
+  </si>
+  <si>
+    <t>Starting RTL Elaboration : Time (s): cpu = 00:00:02 ; elapsed = 00:00:03 . Memory (MB): peak = 2282.758 ; gain = 447.602 ; free physical = 4799 ; free virtual = 14202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Parameter G_GIT_ID bound to: 32'b10010110010010001111010110000101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Parameter G_GIT_ID_MSB bound to: 16'b1001011001001000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Parameter G_GIT_ID_LSB bound to: 16'b1111010110000101</t>
+  </si>
+  <si>
+    <t>Finished RTL Elaboration : Time (s): cpu = 00:00:03 ; elapsed = 00:00:04 . Memory (MB): peak = 2372.695 ; gain = 537.539 ; free physical = 4683 ; free virtual = 14090</t>
+  </si>
+  <si>
+    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:03 ; elapsed = 00:00:04 . Memory (MB): peak = 2387.539 ; gain = 552.383 ; free physical = 4680 ; free virtual = 14087</t>
+  </si>
+  <si>
+    <t>Finished RTL Optimization Phase 1 : Time (s): cpu = 00:00:03 ; elapsed = 00:00:04 . Memory (MB): peak = 2387.539 ; gain = 552.383 ; free physical = 4680 ; free virtual = 14087</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2393.477 ; gain = 0.000 ; free physical = 4675 ; free virtual = 14082</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2510.277 ; gain = 0.000 ; free physical = 4641 ; free virtual = 14064</t>
+  </si>
+  <si>
+    <t>Constraint Validation Runtime : Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00.01 . Memory (MB): peak = 2510.312 ; gain = 0.000 ; free physical = 4640 ; free virtual = 14063</t>
+  </si>
+  <si>
+    <t>Finished Constraint Validation : Time (s): cpu = 00:00:07 ; elapsed = 00:00:08 . Memory (MB): peak = 2510.312 ; gain = 675.156 ; free physical = 4639 ; free virtual = 14063</t>
+  </si>
+  <si>
+    <t>Finished Loading Part and Timing Information : Time (s): cpu = 00:00:07 ; elapsed = 00:00:08 . Memory (MB): peak = 2518.281 ; gain = 683.125 ; free physical = 4639 ; free virtual = 14063</t>
+  </si>
+  <si>
+    <t>Finished applying 'set_property' XDC Constraints : Time (s): cpu = 00:00:07 ; elapsed = 00:00:08 . Memory (MB): peak = 2518.281 ; gain = 683.125 ; free physical = 4639 ; free virtual = 14063</t>
+  </si>
+  <si>
+    <t>Finished RTL Optimization Phase 2 : Time (s): cpu = 00:00:08 ; elapsed = 00:00:08 . Memory (MB): peak = 2518.281 ; gain = 683.125 ; free physical = 4638 ; free virtual = 14063</t>
+  </si>
+  <si>
+    <t>Finished Cross Boundary and Area Optimization : Time (s): cpu = 00:00:09 ; elapsed = 00:00:10 . Memory (MB): peak = 2518.281 ; gain = 683.125 ; free physical = 4614 ; free virtual = 14046</t>
+  </si>
+  <si>
+    <t>Finished Applying XDC Timing Constraints : Time (s): cpu = 00:00:12 ; elapsed = 00:00:12 . Memory (MB): peak = 2543.281 ; gain = 708.125 ; free physical = 4535 ; free virtual = 13974</t>
+  </si>
+  <si>
+    <t>Finished Timing Optimization : Time (s): cpu = 00:00:12 ; elapsed = 00:00:12 . Memory (MB): peak = 2544.281 ; gain = 709.125 ; free physical = 4535 ; free virtual = 13974</t>
+  </si>
+  <si>
+    <t>Finished Technology Mapping : Time (s): cpu = 00:00:12 ; elapsed = 00:00:13 . Memory (MB): peak = 2563.312 ; gain = 728.156 ; free physical = 4516 ; free virtual = 13955</t>
+  </si>
+  <si>
+    <t>Finished IO Insertion : Time (s): cpu = 00:00:14 ; elapsed = 00:00:14 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4366 ; free virtual = 13805</t>
+  </si>
+  <si>
+    <t>Finished Renaming Generated Instances : Time (s): cpu = 00:00:14 ; elapsed = 00:00:14 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
+  </si>
+  <si>
+    <t>Finished Rebuilding User Hierarchy : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
+  </si>
+  <si>
+    <t>Finished Renaming Generated Ports : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
+  </si>
+  <si>
+    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
+  </si>
+  <si>
+    <t>Finished Renaming Generated Nets : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
+  </si>
+  <si>
+    <t>|4     |LUT3      |    27|</t>
+  </si>
+  <si>
+    <t>|5     |LUT4      |    49|</t>
+  </si>
+  <si>
+    <t>|6     |LUT5      |    53|</t>
+  </si>
+  <si>
+    <t>|7     |LUT6      |   139|</t>
+  </si>
+  <si>
+    <t>|8     |MUXF7     |     8|</t>
+  </si>
+  <si>
+    <t>Finished Writing Synthesis Report : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
+  </si>
+  <si>
+    <t>Synthesis Optimization Runtime : Time (s): cpu = 00:00:13 ; elapsed = 00:00:14 . Memory (MB): peak = 2730.125 ; gain = 772.195 ; free physical = 4368 ; free virtual = 13807</t>
+  </si>
+  <si>
+    <t>Synthesis Optimization Complete : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.133 ; gain = 894.969 ; free physical = 4368 ; free virtual = 13807</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2730.133 ; gain = 0.000 ; free physical = 4368 ; free virtual = 13807</t>
+  </si>
+  <si>
+    <t>INFO: [Netlist 29-17] Analyzing 9 Unisim elements for replacement</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3255.980 ; gain = 0.000 ; free physical = 4115 ; free virtual = 13571</t>
+  </si>
+  <si>
+    <t>Synth Design complete | Checksum: 47a7112f</t>
+  </si>
+  <si>
+    <t>synth_design: Time (s): cpu = 00:00:20 ; elapsed = 00:00:20 . Memory (MB): peak = 3256.016 ; gain = 1420.938 ; free physical = 4115 ; free virtual = 13571</t>
+  </si>
+  <si>
+    <t>INFO: [Common 17-2834] synth_design peak Physical Memory [PSS] (MB): overall = 2500.520; main = 2500.520; forked = 336.380</t>
+  </si>
+  <si>
+    <t>INFO: [Common 17-2834] synth_design peak Virtual Memory [VSS] (MB): overall = 3474.492; main = 3255.980; forked = 956.211</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:01 ; elapsed = 00:00:00.41 . Memory (MB): peak = 3256.016 ; gain = 0.000 ; free physical = 4088 ; free virtual = 13545</t>
+  </si>
+  <si>
+    <t>Ending Cache Timing Information Task | Checksum: 14276a028</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3256.016 ; gain = 0.000 ; free physical = 4088 ; free virtual = 13545</t>
+  </si>
+  <si>
+    <t>Phase 1.1 Core Generation And Design Setup | Checksum: 14276a028</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Phase 1.2 Setup Constraints And Sort Netlist | Checksum: 14276a028</t>
+  </si>
+  <si>
+    <t>Phase 1 Initialization | Checksum: 14276a028</t>
+  </si>
+  <si>
+    <t>Phase 2.1 Timer Update | Checksum: 14276a028</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.04 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Phase 2.2 Timing Data Collection | Checksum: 14276a028</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.05 ; elapsed = 00:00:00.03 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Phase 2 Timer Update And Timing Data Collection | Checksum: 14276a028</t>
+  </si>
+  <si>
+    <t>Phase 3 Retarget | Checksum: 15fe73994</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.14 ; elapsed = 00:00:00.06 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Retarget | Checksum: 15fe73994</t>
+  </si>
+  <si>
+    <t>Phase 4 Constant propagation | Checksum: 15fe73994</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.16 ; elapsed = 00:00:00.08 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Constant propagation | Checksum: 15fe73994</t>
+  </si>
+  <si>
+    <t>Done building netlist checker database: Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Phase 5 Sweep | Checksum: 1cbddc8bb</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.17 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Sweep | Checksum: 1cbddc8bb</t>
+  </si>
+  <si>
+    <t>Phase 6 BUFG optimization | Checksum: 1cbddc8bb</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.19 ; elapsed = 00:00:00.12 . Memory (MB): peak = 3362.980 ; gain = 32.016 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>BUFG optimization | Checksum: 1cbddc8bb</t>
+  </si>
+  <si>
+    <t>Phase 7 Shift Register Optimization | Checksum: 1cbddc8bb</t>
+  </si>
+  <si>
+    <t>Shift Register Optimization | Checksum: 1cbddc8bb</t>
+  </si>
+  <si>
+    <t>Phase 8 Post Processing Netlist | Checksum: 1cbddc8bb</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.19 ; elapsed = 00:00:00.13 . Memory (MB): peak = 3362.980 ; gain = 32.016 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Post Processing Netlist | Checksum: 1cbddc8bb</t>
+  </si>
+  <si>
+    <t>Phase 9.1 Finalizing Design Cores and Updating Shapes | Checksum: 1f46072b0</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.19 ; elapsed = 00:00:00.14 . Memory (MB): peak = 3362.980 ; gain = 32.016 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Phase 9.2 Verifying Netlist Connectivity | Checksum: 1f46072b0</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.2 ; elapsed = 00:00:00.15 . Memory (MB): peak = 3362.980 ; gain = 32.016 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Phase 9 Finalization | Checksum: 1f46072b0</t>
+  </si>
+  <si>
+    <t>Ending Logic Optimization Task | Checksum: 1f46072b0</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.21 ; elapsed = 00:00:00.15 . Memory (MB): peak = 3362.980 ; gain = 32.016 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Ending Power Optimization Task | Checksum: 1f46072b0</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Ending Final Cleanup Task | Checksum: 1f46072b0</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Ending Netlist Obfuscation Task | Checksum: 1f46072b0</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13422</t>
+  </si>
+  <si>
+    <t>Phase 1.1 Placer Initialization Netlist Sorting | Checksum: 1408de485</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13422</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13422</t>
+  </si>
+  <si>
+    <t>Phase 1.2 IO Placement/ Clock Placement/ Build Placer Device | Checksum: 165922578</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.32 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13425</t>
+  </si>
+  <si>
+    <t>Phase 1.3 Build Placer Netlist Model | Checksum: 22d8bc3b0</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.6 ; elapsed = 00:00:00.23 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3963 ; free virtual = 13426</t>
+  </si>
+  <si>
+    <t>Phase 1.4 Constrain Clocks/Macros | Checksum: 22d8bc3b0</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.61 ; elapsed = 00:00:00.23 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13426</t>
+  </si>
+  <si>
+    <t>Phase 1 Placer Initialization | Checksum: 22d8bc3b0</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.62 ; elapsed = 00:00:00.24 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13426</t>
+  </si>
+  <si>
+    <t>Phase 2.1 Floorplanning | Checksum: 1b5b1c132</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.8 ; elapsed = 00:00:00.36 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3945 ; free virtual = 13408</t>
+  </si>
+  <si>
+    <t>Phase 2.2 Update Timing before SLR Path Opt | Checksum: 1edbbfd84</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.88 ; elapsed = 00:00:00.4 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3960 ; free virtual = 13424</t>
+  </si>
+  <si>
+    <t>Phase 2.3 Post-Processing in Floorplanning | Checksum: 1edbbfd84</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.89 ; elapsed = 00:00:00.4 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3960 ; free virtual = 13424</t>
+  </si>
+  <si>
+    <t>Phase 2.4 Global Place Phase1 | Checksum: 20c73fab5</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3949 ; free virtual = 13414</t>
+  </si>
+  <si>
+    <t>Phase 2.5.1 UpdateTiming Before Physical Synthesis | Checksum: 20c73fab5</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3963 ; free virtual = 13428</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3960 ; free virtual = 13428</t>
+  </si>
+  <si>
+    <t>Phase 2.5.2 Physical Synthesis In Placer | Checksum: d5c605e1</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3959 ; free virtual = 13427</t>
+  </si>
+  <si>
+    <t>Phase 2.5 Global Place Phase2 | Checksum: 187ef186f</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13430</t>
+  </si>
+  <si>
+    <t>Phase 2 Global Placement | Checksum: 187ef186f</t>
+  </si>
+  <si>
+    <t>Phase 3.1 Commit Multi Column Macros | Checksum: 1c353a995</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3961 ; free virtual = 13430</t>
+  </si>
+  <si>
+    <t>Phase 3.2 Commit Most Macros &amp; LUTRAMs | Checksum: 108d05362</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:05 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3961 ; free virtual = 13429</t>
+  </si>
+  <si>
+    <t>Phase 3.3 Area Swap Optimization | Checksum: 130f0a931</t>
+  </si>
+  <si>
+    <t>Phase 3.4 Pipeline Register Optimization | Checksum: 13abffeac</t>
+  </si>
+  <si>
+    <t>Phase 3.5 Small Shape Detail Placement | Checksum: 11d0c6e3a</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:05 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13431</t>
+  </si>
+  <si>
+    <t>Phase 3.6 Re-assign LUT pins | Checksum: 186d429a7</t>
+  </si>
+  <si>
+    <t>Phase 3.7 Pipeline Register Optimization | Checksum: 12f937188</t>
+  </si>
+  <si>
+    <t>Phase 3 Detail Placement | Checksum: 12f937188</t>
+  </si>
+  <si>
+    <t>Post Placement Optimization Initialization | Checksum: 1e5440d39</t>
+  </si>
+  <si>
+    <t>INFO: [Physopt 32-619] Estimated Timing Summary | WNS=11.956 | TNS=0.000 |</t>
+  </si>
+  <si>
+    <t>Phase 1 Physical Synthesis Initialization | Checksum: 1bc7b5c8d</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.05 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3962 ; free virtual = 13431</t>
+  </si>
+  <si>
+    <t>Ending Physical Synthesis Task | Checksum: 1f57e16e4</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.06 ; elapsed = 00:00:00.03 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3962 ; free virtual = 13431</t>
+  </si>
+  <si>
+    <t>Phase 4.1.1.1 BUFG Insertion | Checksum: 1e5440d39</t>
+  </si>
+  <si>
+    <t>INFO: [Place 30-746] Post Placement Timing Summary WNS=11.956. For the most accurate timing information please run report_timing.</t>
+  </si>
+  <si>
+    <t>Phase 4.1.1.2 Post Placement Timing Optimization | Checksum: 1cf1a2405</t>
+  </si>
+  <si>
+    <t>Phase 4.1 Post Commit Optimization | Checksum: 1cf1a2405</t>
+  </si>
+  <si>
+    <t>Phase 4.2 Post Placement Cleanup | Checksum: 1cf1a2405</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:06 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13431</t>
+  </si>
+  <si>
+    <t>Phase 4.3.1 Print Estimated Congestion | Checksum: 1cf1a2405</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:06 ; elapsed = 00:00:03 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13431</t>
+  </si>
+  <si>
+    <t>Phase 4.3 Placer Reporting | Checksum: 1cf1a2405</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3962 ; free virtual = 13431</t>
+  </si>
+  <si>
+    <t>Phase 4 Post Placement Optimization and Clean-Up | Checksum: 1a3ccbbd2</t>
+  </si>
+  <si>
+    <t>Ending Placer Task | Checksum: 1165e2086</t>
+  </si>
+  <si>
+    <t>report_io: Time (s): cpu = 00:00:00.06 ; elapsed = 00:00:00.11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3950 ; free virtual = 13419</t>
+  </si>
+  <si>
+    <t>report_control_sets: Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00.04 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3950 ; free virtual = 13419</t>
+  </si>
+  <si>
+    <t>Checksum: PlaceDB: c6a1cbe7 ConstDB: 0 ShapeSum: 39c2e1af RouteDB: 15f972f0</t>
+  </si>
+  <si>
+    <t>Post Restoration Checksum: NetGraph: e12d1f52 | NumContArr: cc4f1b | Constraints: c2a8fa9d | Timing: c2a8fa9d</t>
+  </si>
+  <si>
+    <t>Phase 1 Build RT Design | Checksum: 2674b63a7</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:13 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3945 ; free virtual = 13416</t>
+  </si>
+  <si>
+    <t>Phase 2.1 Fix Topology Constraints | Checksum: 2674b63a7</t>
+  </si>
+  <si>
+    <t>Phase 2.2 Pre Route Cleanup | Checksum: 2674b63a7</t>
+  </si>
+  <si>
+    <t>Phase 2.3 Update Timing | Checksum: 25c684593</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:14 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3944 ; free virtual = 13416</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.898 | TNS=0.000  | WHS=-0.148 | THS=-10.234|</t>
+  </si>
+  <si>
+    <t>Phase 2.4.1 Update Timing | Checksum: 26c8eee94</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.898 | TNS=0.000  | WHS=0.048  | THS=0.000  |</t>
+  </si>
+  <si>
+    <t>Phase 2.4 Update Timing for Bus Skew | Checksum: 2ada801a2</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:14 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3941 ; free virtual = 13416</t>
+  </si>
+  <si>
+    <t>Phase 2.5 Soft Constraint Pins - Fast Budgeting | Checksum: 2ada801a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Number of Failed Nets               = 510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Number of Unrouted Nets             = 510</t>
+  </si>
+  <si>
+    <t>Phase 2 Router Initialization | Checksum: 3006f1c2b</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:15 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3941 ; free virtual = 13416</t>
+  </si>
+  <si>
+    <t>Phase 3 Global Routing | Checksum: 3006f1c2b</t>
+  </si>
+  <si>
+    <t>Phase 4.1 Initial Net Routing Pass | Checksum: 26e65dc3a</t>
+  </si>
+  <si>
+    <t>Phase 4 Initial Routing | Checksum: 26e65dc3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of Nodes with overlaps = 39</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.649 | TNS=0.000  | WHS=N/A    | THS=N/A    |</t>
+  </si>
+  <si>
+    <t>Phase 5.1 Global Iteration 0 | Checksum: 1b24d4375</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:15 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3940 ; free virtual = 13415</t>
+  </si>
+  <si>
+    <t>Phase 5.2 Global Iteration 1 | Checksum: 25c0f0767</t>
+  </si>
+  <si>
+    <t>Phase 5 Rip-up And Reroute | Checksum: 25c0f0767</t>
+  </si>
+  <si>
+    <t>Phase 6.1 Delay CleanUp | Checksum: 25c0f0767</t>
+  </si>
+  <si>
+    <t>Phase 6.2 Clock Skew Optimization | Checksum: 25c0f0767</t>
+  </si>
+  <si>
+    <t>Phase 6 Delay and Skew Optimization | Checksum: 25c0f0767</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.729 | TNS=0.000  | WHS=0.047  | THS=0.000  |</t>
+  </si>
+  <si>
+    <t>Phase 7.1 Hold Fix Iter | Checksum: 20b4d5170</t>
+  </si>
+  <si>
+    <t>Phase 7 Post Hold Fix | Checksum: 20b4d5170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Global Vertical Routing Utilization    = 0.123278 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Global Horizontal Routing Utilization  = 0.123901 %</t>
+  </si>
+  <si>
+    <t>Phase 8 Route finalize | Checksum: 20b4d5170</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:15 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3940 ; free virtual = 13416</t>
+  </si>
+  <si>
+    <t>Phase 9 Verifying routed nets | Checksum: 20b4d5170</t>
+  </si>
+  <si>
+    <t>Phase 10 Depositing Routes | Checksum: 242644a92</t>
+  </si>
+  <si>
+    <t>Phase 11 Post Process Routing | Checksum: 242644a92</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-57] Estimated Timing Summary | WNS=11.729 | TNS=0.000  | WHS=0.047  | THS=0.000  |</t>
+  </si>
+  <si>
+    <t>Phase 12 Post Router Timing | Checksum: 242644a92</t>
+  </si>
+  <si>
+    <t>Total Elapsed time in route_design: 11.4 secs</t>
+  </si>
+  <si>
+    <t>Phase 13 Post-Route Event Processing | Checksum: 15a2f4527</t>
+  </si>
+  <si>
+    <t>Ending Routing Task | Checksum: 15a2f4527</t>
+  </si>
+  <si>
+    <t>route_design: Time (s): cpu = 00:00:15 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3940 ; free virtual = 13415</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.15 ; elapsed = 00:00:00.06 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3939 ; free virtual = 13414</t>
+  </si>
+  <si>
+    <t>INFO: [Vivado_Tcl 4-2279] Estimated Timing Summary | WNS= 11.731 | TNS= 0.000 |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     11.731        0.000                      0                  812        0.047        0.000                      0                  769        3.000        0.000                       0                   359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  clk_out1_clk_wiz_0       14.041        0.000                      0                  434        0.047        0.000                      0                  429        9.500        0.000                       0                   280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  clk_out2_clk_wiz_0       11.731        0.000                      0                   80        0.115        0.000                      0                   75        7.192        0.000                       0                    75</t>
+  </si>
+  <si>
+    <t>input port clock    clk_out1_clk_wiz_0       17.948        0.000                      0                    3</t>
+  </si>
+  <si>
+    <t>clk_out2_clk_wiz_0  clk_out1_clk_wiz_0       13.807        0.000                      0                    9</t>
+  </si>
+  <si>
+    <t>clk_out1_clk_wiz_0  clk_out2_clk_wiz_0       13.442        0.000                      0                   21</t>
+  </si>
+  <si>
+    <t>**async_default**   clk_out1_clk_wiz_0  clk_out1_clk_wiz_0       14.466        0.000                      0                  230        0.522        0.000                      0                  230</t>
+  </si>
+  <si>
+    <t>**async_default**   clk_out2_clk_wiz_0  clk_out2_clk_wiz_0       13.018        0.000                      0                   35        0.317        0.000                      0                   35</t>
+  </si>
+  <si>
+    <t>write_bitstream: Time (s): cpu = 00:00:14 ; elapsed = 00:00:26 . Memory (MB): peak = 3643.047 ; gain = 225.016 ; free physical = 3639 ; free virtual = 13124</t>
+  </si>
+  <si>
+    <t>INFO: [Common 17-206] Exiting Vivado at Mon Jan 12 17:15:17 2026...</t>
   </si>
 </sst>
 </file>
@@ -3361,7 +3385,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3389,6 +3413,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3442,12 +3469,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3455,35 +3476,7 @@
     <cellStyle name="Titre 2" xfId="1" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Titre 3" xfId="2" builtinId="18" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6E600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3556,14 +3549,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3EB3233-33DF-44B8-8F41-9FEB9B2862F8}" name="Tableau1" displayName="Tableau1" ref="B2:D1480" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="B2:D1480" xr:uid="{A3EB3233-33DF-44B8-8F41-9FEB9B2862F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3EB3233-33DF-44B8-8F41-9FEB9B2862F8}" name="Tableau1" displayName="Tableau1" ref="B2:D1483" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B2:D1483" xr:uid="{A3EB3233-33DF-44B8-8F41-9FEB9B2862F8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C3CEC53-9FF1-42FA-94F0-57D632D1B34F}" name="Level" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{5C3CEC53-9FF1-42FA-94F0-57D632D1B34F}" name="Level" dataDxfId="7">
       <calculatedColumnFormula>IF(LEFT(C3,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C3)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C3)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C3)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C3)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C3)),"DEBUG",""))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DE289FF5-F6D8-4B0C-BFA1-E40210A4F8A5}" name="Fichier de log" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{AC9DD60A-03AC-4909-A611-977627942302}" name="Justification" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{DE289FF5-F6D8-4B0C-BFA1-E40210A4F8A5}" name="Fichier de log" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{AC9DD60A-03AC-4909-A611-977627942302}" name="Justification" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3868,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18D19E-3FCF-405F-85CF-7C7CF68FC2BB}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:L18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,14 +3874,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="5" t="s">
         <v>403</v>
       </c>
@@ -3909,14 +3902,14 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="2">
         <v>0.998</v>
       </c>
@@ -3936,13 +3929,13 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="2">
         <v>0.997</v>
       </c>
@@ -3962,36 +3955,36 @@
     </row>
     <row r="5" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="12" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="12" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="7" t="s">
         <v>409</v>
       </c>
@@ -3999,12 +3992,12 @@
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="2">
         <v>1</v>
       </c>
@@ -4025,12 +4018,12 @@
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="2">
         <v>1</v>
       </c>
@@ -4050,13 +4043,13 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9"/>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="2">
         <v>1</v>
       </c>
@@ -4074,13 +4067,13 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
@@ -4100,13 +4093,13 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11"/>
-      <c r="C11" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="C11" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="2">
         <v>1</v>
       </c>
@@ -4129,11 +4122,11 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
       <c r="M12"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -4143,11 +4136,11 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -4157,11 +4150,11 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -4171,11 +4164,11 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -4185,11 +4178,11 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -4199,11 +4192,11 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
       <c r="M17"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -4213,11 +4206,11 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -4227,11 +4220,11 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19"/>
     </row>
   </sheetData>
@@ -4256,33 +4249,12 @@
     <mergeCell ref="H5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:H19">
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="between">
       <formula>98%</formula>
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:L10">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
-      <formula>99.99%</formula>
-      <formula>100%</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
-      <formula>90%</formula>
-      <formula>99.99%</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
-      <formula>80%</formula>
-      <formula>90%</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="between">
-      <formula>0.1%</formula>
-      <formula>80%</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="10">
-      <formula>LEN(TRIM(H3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:L11">
+  <conditionalFormatting sqref="H3:L11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>99.99%</formula>
       <formula>100%</formula>
@@ -4300,7 +4272,7 @@
       <formula>80%</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(H11))=0</formula>
+      <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4309,10 +4281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE66E89-BE40-45B9-B5D5-CDB57608BF4D}">
-  <dimension ref="B2:D1480"/>
+  <dimension ref="B2:D1483"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C461" sqref="C461"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4391,7 +4363,7 @@
         <v/>
       </c>
       <c r="C8" s="4" t="s">
-        <v>734</v>
+        <v>777</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -4401,7 +4373,7 @@
         <v/>
       </c>
       <c r="C9" s="4" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -4551,7 +4523,7 @@
         <v/>
       </c>
       <c r="C24" s="4" t="s">
-        <v>736</v>
+        <v>779</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -5725,7 +5697,7 @@
       </c>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="9" t="str">
         <f t="shared" si="2"/>
         <v>WARNING</v>
@@ -5734,7 +5706,7 @@
         <v>628</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>971</v>
+        <v>769</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
@@ -6233,7 +6205,7 @@
         <v>INFO</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="D192" s="4"/>
     </row>
@@ -6253,7 +6225,7 @@
         <v/>
       </c>
       <c r="C194" s="4" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="D194" s="4"/>
     </row>
@@ -6276,7 +6248,7 @@
         <v>630</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>969</v>
+        <v>767</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
@@ -6287,8 +6259,8 @@
       <c r="C197" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="D197" s="29" t="s">
-        <v>970</v>
+      <c r="D197" s="10" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
@@ -6299,8 +6271,8 @@
       <c r="C198" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="D198" s="29" t="s">
-        <v>970</v>
+      <c r="D198" s="10" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
@@ -6309,7 +6281,7 @@
         <v>INFO</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="D199" s="4"/>
     </row>
@@ -6319,7 +6291,7 @@
         <v/>
       </c>
       <c r="C200" s="4" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="D200" s="4"/>
     </row>
@@ -6329,7 +6301,7 @@
         <v>INFO</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="D201" s="4"/>
     </row>
@@ -6569,7 +6541,7 @@
         <v>INFO</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D225" s="4"/>
     </row>
@@ -6579,7 +6551,7 @@
         <v/>
       </c>
       <c r="C226" s="4" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="D226" s="4"/>
     </row>
@@ -6589,7 +6561,7 @@
         <v/>
       </c>
       <c r="C227" s="4" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="D227" s="4"/>
     </row>
@@ -6599,7 +6571,7 @@
         <v/>
       </c>
       <c r="C228" s="4" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D228" s="4"/>
     </row>
@@ -6619,7 +6591,7 @@
         <v>INFO</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="D230" s="4"/>
     </row>
@@ -6679,7 +6651,7 @@
         <v>INFO</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="D236" s="4"/>
     </row>
@@ -6719,7 +6691,7 @@
         <v>INFO</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="D240" s="4"/>
     </row>
@@ -6749,7 +6721,7 @@
         <v>INFO</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="D243" s="4"/>
     </row>
@@ -6759,7 +6731,7 @@
         <v>INFO</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D244" s="4"/>
     </row>
@@ -6799,7 +6771,7 @@
         <v>INFO</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D248" s="4"/>
     </row>
@@ -6809,7 +6781,7 @@
         <v>INFO</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D249" s="4"/>
     </row>
@@ -6819,7 +6791,7 @@
         <v>INFO</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D250" s="4"/>
     </row>
@@ -6829,7 +6801,7 @@
         <v/>
       </c>
       <c r="C251" s="4" t="s">
-        <v>754</v>
+        <v>783</v>
       </c>
       <c r="D251" s="4"/>
     </row>
@@ -6839,7 +6811,7 @@
         <v/>
       </c>
       <c r="C252" s="4" t="s">
-        <v>755</v>
+        <v>784</v>
       </c>
       <c r="D252" s="4"/>
     </row>
@@ -6849,7 +6821,7 @@
         <v>INFO</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="D253" s="4"/>
     </row>
@@ -6859,7 +6831,7 @@
         <v>INFO</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D254" s="4"/>
     </row>
@@ -6919,7 +6891,7 @@
         <v>INFO</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D260" s="4"/>
     </row>
@@ -6929,7 +6901,7 @@
         <v>INFO</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="D261" s="4"/>
     </row>
@@ -7199,7 +7171,7 @@
         <v>INFO</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D288" s="4"/>
     </row>
@@ -7209,7 +7181,7 @@
         <v>INFO</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="D289" s="4"/>
     </row>
@@ -7222,7 +7194,7 @@
         <v>670</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>968</v>
+        <v>766</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
@@ -7241,7 +7213,7 @@
         <v/>
       </c>
       <c r="C292" s="4" t="s">
-        <v>762</v>
+        <v>785</v>
       </c>
       <c r="D292" s="4"/>
     </row>
@@ -7301,7 +7273,7 @@
         <v/>
       </c>
       <c r="C298" s="4" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="D298" s="4"/>
     </row>
@@ -7331,7 +7303,7 @@
         <v/>
       </c>
       <c r="C301" s="4" t="s">
-        <v>764</v>
+        <v>787</v>
       </c>
       <c r="D301" s="4"/>
     </row>
@@ -7351,7 +7323,7 @@
         <v/>
       </c>
       <c r="C303" s="4" t="s">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="D303" s="4"/>
     </row>
@@ -7567,7 +7539,7 @@
         <v/>
       </c>
       <c r="C325" s="4" t="s">
-        <v>766</v>
+        <v>789</v>
       </c>
       <c r="D325" s="4"/>
     </row>
@@ -7605,7 +7577,7 @@
         <v/>
       </c>
       <c r="C329" s="4" t="s">
-        <v>767</v>
+        <v>790</v>
       </c>
       <c r="D329" s="4"/>
     </row>
@@ -7625,7 +7597,7 @@
         <v/>
       </c>
       <c r="C331" s="4" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="D331" s="4"/>
     </row>
@@ -7689,13 +7661,13 @@
       </c>
       <c r="D337" s="4"/>
     </row>
-    <row r="338" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C338" s="4" t="s">
-        <v>769</v>
+        <v>792</v>
       </c>
       <c r="D338" s="4"/>
     </row>
@@ -7755,7 +7727,7 @@
         <v/>
       </c>
       <c r="C344" s="4" t="s">
-        <v>770</v>
+        <v>793</v>
       </c>
       <c r="D344" s="4"/>
     </row>
@@ -8275,7 +8247,7 @@
         <v/>
       </c>
       <c r="C396" s="4" t="s">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="D396" s="4"/>
     </row>
@@ -8525,7 +8497,7 @@
         <v/>
       </c>
       <c r="C421" s="4" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="D421" s="4"/>
     </row>
@@ -8947,7 +8919,7 @@
         <v/>
       </c>
       <c r="C463" s="4" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="D463" s="4"/>
     </row>
@@ -9007,7 +8979,7 @@
         <v/>
       </c>
       <c r="C469" s="4" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="D469" s="4"/>
     </row>
@@ -9067,7 +9039,7 @@
         <v/>
       </c>
       <c r="C475" s="4" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="D475" s="4"/>
     </row>
@@ -9127,7 +9099,7 @@
         <v/>
       </c>
       <c r="C481" s="4" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
       <c r="D481" s="4"/>
     </row>
@@ -9307,7 +9279,7 @@
         <v/>
       </c>
       <c r="C499" s="4" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="D499" s="4"/>
     </row>
@@ -9367,7 +9339,7 @@
         <v/>
       </c>
       <c r="C505" s="4" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="D505" s="4"/>
     </row>
@@ -9427,7 +9399,7 @@
         <v/>
       </c>
       <c r="C511" s="4" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="D511" s="4"/>
     </row>
@@ -9487,7 +9459,7 @@
         <v/>
       </c>
       <c r="C517" s="4" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="D517" s="4"/>
     </row>
@@ -9547,7 +9519,7 @@
         <v/>
       </c>
       <c r="C523" s="4" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="D523" s="4"/>
     </row>
@@ -9607,7 +9579,7 @@
         <v/>
       </c>
       <c r="C529" s="4" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="D529" s="4"/>
     </row>
@@ -9783,7 +9755,7 @@
         <v/>
       </c>
       <c r="C547" s="4" t="s">
-        <v>783</v>
+        <v>753</v>
       </c>
       <c r="D547" s="4"/>
     </row>
@@ -9793,7 +9765,7 @@
         <v/>
       </c>
       <c r="C548" s="4" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="D548" s="4"/>
     </row>
@@ -9803,7 +9775,7 @@
         <v/>
       </c>
       <c r="C549" s="4" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="D549" s="4"/>
     </row>
@@ -9813,7 +9785,7 @@
         <v/>
       </c>
       <c r="C550" s="4" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
       <c r="D550" s="4"/>
     </row>
@@ -9823,7 +9795,7 @@
         <v/>
       </c>
       <c r="C551" s="4" t="s">
-        <v>787</v>
+        <v>808</v>
       </c>
       <c r="D551" s="4"/>
     </row>
@@ -9833,7 +9805,7 @@
         <v/>
       </c>
       <c r="C552" s="4" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
       <c r="D552" s="4"/>
     </row>
@@ -9853,7 +9825,7 @@
         <v/>
       </c>
       <c r="C554" s="4" t="s">
-        <v>733</v>
+        <v>771</v>
       </c>
       <c r="D554" s="4"/>
     </row>
@@ -9863,7 +9835,7 @@
         <v/>
       </c>
       <c r="C555" s="4" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="D555" s="4"/>
     </row>
@@ -9873,7 +9845,7 @@
         <v/>
       </c>
       <c r="C556" s="4" t="s">
-        <v>790</v>
+        <v>754</v>
       </c>
       <c r="D556" s="4"/>
     </row>
@@ -9883,7 +9855,7 @@
         <v/>
       </c>
       <c r="C557" s="4" t="s">
-        <v>791</v>
+        <v>755</v>
       </c>
       <c r="D557" s="4"/>
     </row>
@@ -9893,7 +9865,7 @@
         <v/>
       </c>
       <c r="C558" s="4" t="s">
-        <v>792</v>
+        <v>756</v>
       </c>
       <c r="D558" s="4"/>
     </row>
@@ -9923,7 +9895,7 @@
         <v/>
       </c>
       <c r="C561" s="4" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="D561" s="4"/>
     </row>
@@ -9953,7 +9925,7 @@
         <v/>
       </c>
       <c r="C564" s="4" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="D564" s="4"/>
     </row>
@@ -9963,7 +9935,7 @@
         <v/>
       </c>
       <c r="C565" s="4" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="D565" s="4"/>
     </row>
@@ -9983,7 +9955,7 @@
         <v/>
       </c>
       <c r="C567" s="4" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="D567" s="4"/>
     </row>
@@ -9993,7 +9965,7 @@
         <v>INFO</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="D568" s="4"/>
     </row>
@@ -10303,7 +10275,7 @@
         <v/>
       </c>
       <c r="C599" s="4" t="s">
-        <v>798</v>
+        <v>757</v>
       </c>
       <c r="D599" s="4"/>
     </row>
@@ -10313,7 +10285,7 @@
         <v/>
       </c>
       <c r="C600" s="4" t="s">
-        <v>799</v>
+        <v>758</v>
       </c>
       <c r="D600" s="4"/>
     </row>
@@ -10323,7 +10295,7 @@
         <v/>
       </c>
       <c r="C601" s="4" t="s">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="D601" s="4"/>
     </row>
@@ -10333,11 +10305,11 @@
         <v/>
       </c>
       <c r="C602" s="4" t="s">
-        <v>801</v>
+        <v>760</v>
       </c>
       <c r="D602" s="4"/>
     </row>
-    <row r="603" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B603" s="9" t="str">
         <f t="shared" si="9"/>
         <v>WARNING</v>
@@ -10346,7 +10318,7 @@
         <v>705</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>966</v>
+        <v>764</v>
       </c>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.25">
@@ -10369,7 +10341,7 @@
       </c>
       <c r="D605" s="4"/>
     </row>
-    <row r="606" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="9" t="str">
         <f t="shared" si="9"/>
         <v>WARNING</v>
@@ -10378,7 +10350,7 @@
         <v>708</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>966</v>
+        <v>764</v>
       </c>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.25">
@@ -10397,7 +10369,7 @@
         <v/>
       </c>
       <c r="C608" s="4" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="D608" s="4"/>
     </row>
@@ -10435,7 +10407,7 @@
         <v/>
       </c>
       <c r="C612" s="4" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="D612" s="4"/>
     </row>
@@ -10455,7 +10427,7 @@
         <v/>
       </c>
       <c r="C614" s="4" t="s">
-        <v>804</v>
+        <v>761</v>
       </c>
       <c r="D614" s="4"/>
     </row>
@@ -10475,7 +10447,7 @@
         <v/>
       </c>
       <c r="C616" s="4" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="D616" s="4"/>
     </row>
@@ -10485,7 +10457,7 @@
         <v>INFO</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="D617" s="4"/>
     </row>
@@ -10495,7 +10467,7 @@
         <v>INFO</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="D618" s="4"/>
     </row>
@@ -10558,7 +10530,7 @@
         <v>709</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>967</v>
+        <v>765</v>
       </c>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.25">
@@ -10567,7 +10539,7 @@
         <v/>
       </c>
       <c r="C625" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D625" s="4"/>
     </row>
@@ -10733,7 +10705,7 @@
         <v/>
       </c>
       <c r="C642" s="4" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="D642" s="4"/>
     </row>
@@ -10761,7 +10733,7 @@
         <v/>
       </c>
       <c r="C645" s="4" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="D645" s="4"/>
     </row>
@@ -10779,7 +10751,7 @@
         <v/>
       </c>
       <c r="C647" s="4" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="D647" s="4"/>
     </row>
@@ -10843,7 +10815,7 @@
         <v/>
       </c>
       <c r="C654" s="4" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="D654" s="4"/>
     </row>
@@ -10861,7 +10833,7 @@
         <v/>
       </c>
       <c r="C656" s="4" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="D656" s="4"/>
     </row>
@@ -10889,7 +10861,7 @@
         <v/>
       </c>
       <c r="C659" s="4" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="D659" s="4"/>
     </row>
@@ -10907,7 +10879,7 @@
         <v/>
       </c>
       <c r="C661" s="4" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="D661" s="4"/>
     </row>
@@ -10917,7 +10889,7 @@
         <v/>
       </c>
       <c r="C662" s="4" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="D662" s="4"/>
     </row>
@@ -10935,7 +10907,7 @@
         <v/>
       </c>
       <c r="C664" s="4" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="D664" s="4"/>
     </row>
@@ -10981,7 +10953,7 @@
         <v/>
       </c>
       <c r="C669" s="4" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="D669" s="4"/>
     </row>
@@ -10999,7 +10971,7 @@
         <v/>
       </c>
       <c r="C671" s="4" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="D671" s="4"/>
     </row>
@@ -11027,7 +10999,7 @@
         <v/>
       </c>
       <c r="C674" s="4" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="D674" s="4"/>
     </row>
@@ -11045,7 +11017,7 @@
         <v/>
       </c>
       <c r="C676" s="4" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="D676" s="4"/>
     </row>
@@ -11055,7 +11027,7 @@
         <v/>
       </c>
       <c r="C677" s="4" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="D677" s="4"/>
     </row>
@@ -11073,7 +11045,7 @@
         <v/>
       </c>
       <c r="C679" s="4" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="D679" s="4"/>
     </row>
@@ -11151,7 +11123,7 @@
         <v/>
       </c>
       <c r="C687" s="4" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="D687" s="4"/>
     </row>
@@ -11169,7 +11141,7 @@
         <v/>
       </c>
       <c r="C689" s="4" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="D689" s="4"/>
     </row>
@@ -11179,7 +11151,7 @@
         <v/>
       </c>
       <c r="C690" s="4" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="D690" s="4"/>
     </row>
@@ -11237,7 +11209,7 @@
         <v/>
       </c>
       <c r="C696" s="4" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="D696" s="4"/>
     </row>
@@ -11255,7 +11227,7 @@
         <v/>
       </c>
       <c r="C698" s="4" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="D698" s="4"/>
     </row>
@@ -11265,7 +11237,7 @@
         <v/>
       </c>
       <c r="C699" s="4" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="D699" s="4"/>
     </row>
@@ -11313,7 +11285,7 @@
         <v/>
       </c>
       <c r="C704" s="4" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="D704" s="4"/>
     </row>
@@ -11333,7 +11305,7 @@
         <v/>
       </c>
       <c r="C706" s="4" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="D706" s="4"/>
     </row>
@@ -11343,7 +11315,7 @@
         <v/>
       </c>
       <c r="C707" s="4" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="D707" s="4"/>
     </row>
@@ -11361,7 +11333,7 @@
         <v/>
       </c>
       <c r="C709" s="4" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="D709" s="4"/>
     </row>
@@ -11371,7 +11343,7 @@
         <v/>
       </c>
       <c r="C710" s="4" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="D710" s="4"/>
     </row>
@@ -11419,7 +11391,7 @@
         <v/>
       </c>
       <c r="C715" s="4" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="D715" s="4"/>
     </row>
@@ -11437,7 +11409,7 @@
         <v/>
       </c>
       <c r="C717" s="4" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="D717" s="4"/>
     </row>
@@ -11447,7 +11419,7 @@
         <v/>
       </c>
       <c r="C718" s="4" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="D718" s="4"/>
     </row>
@@ -11495,7 +11467,7 @@
         <v/>
       </c>
       <c r="C723" s="4" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="D723" s="4"/>
     </row>
@@ -11513,7 +11485,7 @@
         <v/>
       </c>
       <c r="C725" s="4" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="D725" s="4"/>
     </row>
@@ -11523,7 +11495,7 @@
         <v/>
       </c>
       <c r="C726" s="4" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="D726" s="4"/>
     </row>
@@ -11561,7 +11533,7 @@
         <v/>
       </c>
       <c r="C730" s="4" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="D730" s="4"/>
     </row>
@@ -11579,7 +11551,7 @@
         <v/>
       </c>
       <c r="C732" s="4" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="D732" s="4"/>
     </row>
@@ -11589,7 +11561,7 @@
         <v/>
       </c>
       <c r="C733" s="4" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="D733" s="4"/>
     </row>
@@ -11645,7 +11617,7 @@
         <v/>
       </c>
       <c r="C739" s="4" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="D739" s="4"/>
     </row>
@@ -11663,7 +11635,7 @@
         <v/>
       </c>
       <c r="C741" s="4" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="D741" s="4"/>
     </row>
@@ -11717,7 +11689,7 @@
         <v/>
       </c>
       <c r="C747" s="4" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="D747" s="4"/>
     </row>
@@ -11727,7 +11699,7 @@
         <v/>
       </c>
       <c r="C748" s="4" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="D748" s="4"/>
     </row>
@@ -11745,7 +11717,7 @@
         <v/>
       </c>
       <c r="C750" s="4" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="D750" s="4"/>
     </row>
@@ -11755,7 +11727,7 @@
         <v/>
       </c>
       <c r="C751" s="4" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="D751" s="4"/>
     </row>
@@ -11773,7 +11745,7 @@
         <v/>
       </c>
       <c r="C753" s="4" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="D753" s="4"/>
     </row>
@@ -11935,7 +11907,7 @@
         <v/>
       </c>
       <c r="C770" s="4" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="D770" s="4"/>
     </row>
@@ -11953,7 +11925,7 @@
         <v/>
       </c>
       <c r="C772" s="4" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
       <c r="D772" s="4"/>
     </row>
@@ -11991,7 +11963,7 @@
         <v/>
       </c>
       <c r="C776" s="4" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
       <c r="D776" s="4"/>
     </row>
@@ -12009,7 +11981,7 @@
         <v/>
       </c>
       <c r="C778" s="4" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="D778" s="4"/>
     </row>
@@ -12037,7 +12009,7 @@
         <v/>
       </c>
       <c r="C781" s="4" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="D781" s="4"/>
     </row>
@@ -12055,7 +12027,7 @@
         <v/>
       </c>
       <c r="C783" s="4" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D783" s="4"/>
     </row>
@@ -12083,7 +12055,7 @@
         <v/>
       </c>
       <c r="C786" s="4" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="D786" s="4"/>
     </row>
@@ -12093,7 +12065,7 @@
         <v/>
       </c>
       <c r="C787" s="4" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
       <c r="D787" s="4"/>
     </row>
@@ -12111,7 +12083,7 @@
         <v/>
       </c>
       <c r="C789" s="4" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="D789" s="4"/>
     </row>
@@ -12345,7 +12317,7 @@
         <v/>
       </c>
       <c r="C813" s="4" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="D813" s="4"/>
     </row>
@@ -12355,7 +12327,7 @@
         <v/>
       </c>
       <c r="C814" s="4" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="D814" s="4"/>
     </row>
@@ -12373,7 +12345,7 @@
         <v/>
       </c>
       <c r="C816" s="4" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="D816" s="4"/>
     </row>
@@ -12383,7 +12355,7 @@
         <v/>
       </c>
       <c r="C817" s="4" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="D817" s="4"/>
     </row>
@@ -12421,7 +12393,7 @@
         <v/>
       </c>
       <c r="C821" s="4" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="D821" s="4"/>
     </row>
@@ -12439,7 +12411,7 @@
         <v/>
       </c>
       <c r="C823" s="4" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="D823" s="4"/>
     </row>
@@ -12467,7 +12439,7 @@
         <v/>
       </c>
       <c r="C826" s="4" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="D826" s="4"/>
     </row>
@@ -12485,7 +12457,7 @@
         <v/>
       </c>
       <c r="C828" s="4" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="D828" s="4"/>
     </row>
@@ -12513,7 +12485,7 @@
         <v/>
       </c>
       <c r="C831" s="4" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="D831" s="4"/>
     </row>
@@ -12531,7 +12503,7 @@
         <v/>
       </c>
       <c r="C833" s="4" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="D833" s="4"/>
     </row>
@@ -12541,7 +12513,7 @@
         <v/>
       </c>
       <c r="C834" s="4" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="D834" s="4"/>
     </row>
@@ -12559,7 +12531,7 @@
         <v/>
       </c>
       <c r="C836" s="4" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="D836" s="4"/>
     </row>
@@ -12605,7 +12577,7 @@
         <v/>
       </c>
       <c r="C841" s="4" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="D841" s="4"/>
     </row>
@@ -12623,7 +12595,7 @@
         <v/>
       </c>
       <c r="C843" s="4" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="D843" s="4"/>
     </row>
@@ -12651,7 +12623,7 @@
         <v/>
       </c>
       <c r="C846" s="4" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="D846" s="4"/>
     </row>
@@ -12669,7 +12641,7 @@
         <v/>
       </c>
       <c r="C848" s="4" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="D848" s="4"/>
     </row>
@@ -12697,7 +12669,7 @@
         <v/>
       </c>
       <c r="C851" s="4" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="D851" s="4"/>
     </row>
@@ -12715,7 +12687,7 @@
         <v/>
       </c>
       <c r="C853" s="4" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="D853" s="4"/>
     </row>
@@ -12743,7 +12715,7 @@
         <v/>
       </c>
       <c r="C856" s="4" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="D856" s="4"/>
     </row>
@@ -12761,7 +12733,7 @@
         <v/>
       </c>
       <c r="C858" s="4" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="D858" s="4"/>
     </row>
@@ -12807,7 +12779,7 @@
         <v/>
       </c>
       <c r="C863" s="4" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="D863" s="4"/>
     </row>
@@ -12825,7 +12797,7 @@
         <v/>
       </c>
       <c r="C865" s="4" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="D865" s="4"/>
     </row>
@@ -12983,7 +12955,7 @@
         <v/>
       </c>
       <c r="C881" s="4" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="D881" s="4"/>
     </row>
@@ -13193,7 +13165,7 @@
         <v/>
       </c>
       <c r="C903" s="4" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="D903" s="4"/>
     </row>
@@ -13211,7 +13183,7 @@
         <v/>
       </c>
       <c r="C905" s="4" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="D905" s="4"/>
     </row>
@@ -13221,7 +13193,7 @@
         <v/>
       </c>
       <c r="C906" s="4" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="D906" s="4"/>
     </row>
@@ -13239,7 +13211,7 @@
         <v/>
       </c>
       <c r="C908" s="4" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="D908" s="4"/>
     </row>
@@ -13249,7 +13221,7 @@
         <v/>
       </c>
       <c r="C909" s="4" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="D909" s="4"/>
     </row>
@@ -13267,7 +13239,7 @@
         <v/>
       </c>
       <c r="C911" s="4" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="D911" s="4"/>
     </row>
@@ -13313,7 +13285,7 @@
         <v/>
       </c>
       <c r="C916" s="4" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="D916" s="4"/>
     </row>
@@ -13331,7 +13303,7 @@
         <v/>
       </c>
       <c r="C918" s="4" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="D918" s="4"/>
     </row>
@@ -13359,7 +13331,7 @@
         <v/>
       </c>
       <c r="C921" s="4" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="D921" s="4"/>
     </row>
@@ -13377,7 +13349,7 @@
         <v/>
       </c>
       <c r="C923" s="4" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="D923" s="4"/>
     </row>
@@ -13405,7 +13377,7 @@
         <v/>
       </c>
       <c r="C926" s="4" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="D926" s="4"/>
     </row>
@@ -13423,7 +13395,7 @@
         <v/>
       </c>
       <c r="C928" s="4" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="D928" s="4"/>
     </row>
@@ -13451,7 +13423,7 @@
         <v/>
       </c>
       <c r="C931" s="4" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="D931" s="4"/>
     </row>
@@ -13469,7 +13441,7 @@
         <v/>
       </c>
       <c r="C933" s="4" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="D933" s="4"/>
     </row>
@@ -13497,7 +13469,7 @@
         <v/>
       </c>
       <c r="C936" s="4" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="D936" s="4"/>
     </row>
@@ -13515,7 +13487,7 @@
         <v/>
       </c>
       <c r="C938" s="4" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D938" s="4"/>
     </row>
@@ -13543,7 +13515,7 @@
         <v/>
       </c>
       <c r="C941" s="4" t="s">
-        <v>885</v>
+        <v>900</v>
       </c>
       <c r="D941" s="4"/>
     </row>
@@ -13561,7 +13533,7 @@
         <v/>
       </c>
       <c r="C943" s="4" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D943" s="4"/>
     </row>
@@ -13589,7 +13561,7 @@
         <v/>
       </c>
       <c r="C946" s="4" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="D946" s="4"/>
     </row>
@@ -13607,7 +13579,7 @@
         <v/>
       </c>
       <c r="C948" s="4" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D948" s="4"/>
     </row>
@@ -13617,7 +13589,7 @@
         <v/>
       </c>
       <c r="C949" s="4" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="D949" s="4"/>
     </row>
@@ -13635,7 +13607,7 @@
         <v/>
       </c>
       <c r="C951" s="4" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D951" s="4"/>
     </row>
@@ -13709,7 +13681,7 @@
         <v/>
       </c>
       <c r="C959" s="4" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="D959" s="4"/>
     </row>
@@ -13783,7 +13755,7 @@
         <v>INFO</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="D967" s="4"/>
     </row>
@@ -13793,7 +13765,7 @@
         <v/>
       </c>
       <c r="C968" s="4" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="D968" s="4"/>
     </row>
@@ -13811,7 +13783,7 @@
         <v/>
       </c>
       <c r="C970" s="4" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="D970" s="4"/>
     </row>
@@ -13831,7 +13803,7 @@
         <v/>
       </c>
       <c r="C972" s="4" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="D972" s="4"/>
     </row>
@@ -13849,7 +13821,7 @@
         <v/>
       </c>
       <c r="C974" s="4" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="D974" s="4"/>
     </row>
@@ -13859,7 +13831,7 @@
         <v/>
       </c>
       <c r="C975" s="4" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="D975" s="4"/>
     </row>
@@ -13877,7 +13849,7 @@
         <v/>
       </c>
       <c r="C977" s="4" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D977" s="4"/>
     </row>
@@ -13905,7 +13877,7 @@
         <v>INFO</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
       <c r="D980" s="4"/>
     </row>
@@ -13915,7 +13887,7 @@
         <v/>
       </c>
       <c r="C981" s="4" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
       <c r="D981" s="4"/>
     </row>
@@ -13933,7 +13905,7 @@
         <v/>
       </c>
       <c r="C983" s="4" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D983" s="4"/>
     </row>
@@ -13951,7 +13923,7 @@
         <v/>
       </c>
       <c r="C985" s="4" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D985" s="4"/>
     </row>
@@ -13961,7 +13933,7 @@
         <v/>
       </c>
       <c r="C986" s="4" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
       <c r="D986" s="4"/>
     </row>
@@ -13979,7 +13951,7 @@
         <v/>
       </c>
       <c r="C988" s="4" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D988" s="4"/>
     </row>
@@ -14007,7 +13979,7 @@
         <v/>
       </c>
       <c r="C991" s="4" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="D991" s="4"/>
     </row>
@@ -14025,7 +13997,7 @@
         <v/>
       </c>
       <c r="C993" s="4" t="s">
-        <v>884</v>
+        <v>914</v>
       </c>
       <c r="D993" s="4"/>
     </row>
@@ -14209,7 +14181,7 @@
         <v/>
       </c>
       <c r="C1012" s="4" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="D1012" s="4"/>
     </row>
@@ -14227,7 +14199,7 @@
         <v/>
       </c>
       <c r="C1014" s="4" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="D1014" s="4"/>
     </row>
@@ -14237,7 +14209,7 @@
         <v/>
       </c>
       <c r="C1015" s="4" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="D1015" s="4"/>
     </row>
@@ -14255,7 +14227,7 @@
         <v/>
       </c>
       <c r="C1017" s="4" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="D1017" s="4"/>
     </row>
@@ -14283,7 +14255,7 @@
         <v/>
       </c>
       <c r="C1020" s="4" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
       <c r="D1020" s="4"/>
     </row>
@@ -14301,7 +14273,7 @@
         <v/>
       </c>
       <c r="C1022" s="4" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="D1022" s="4"/>
     </row>
@@ -14311,7 +14283,7 @@
         <v/>
       </c>
       <c r="C1023" s="4" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="D1023" s="4"/>
     </row>
@@ -14329,7 +14301,7 @@
         <v/>
       </c>
       <c r="C1025" s="4" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="D1025" s="4"/>
     </row>
@@ -14339,7 +14311,7 @@
         <v/>
       </c>
       <c r="C1026" s="4" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
       <c r="D1026" s="4"/>
     </row>
@@ -14357,7 +14329,7 @@
         <v/>
       </c>
       <c r="C1028" s="4" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="D1028" s="4"/>
     </row>
@@ -14427,7 +14399,7 @@
         <v/>
       </c>
       <c r="C1035" s="4" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
       <c r="D1035" s="4"/>
     </row>
@@ -14447,7 +14419,7 @@
         <v/>
       </c>
       <c r="C1037" s="4" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="D1037" s="4"/>
     </row>
@@ -14571,7 +14543,7 @@
         <v/>
       </c>
       <c r="C1050" s="4" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="D1050" s="4"/>
     </row>
@@ -14581,7 +14553,7 @@
         <v/>
       </c>
       <c r="C1051" s="4" t="s">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="D1051" s="4"/>
     </row>
@@ -14591,7 +14563,7 @@
         <v/>
       </c>
       <c r="C1052" s="4" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="D1052" s="4"/>
     </row>
@@ -14609,7 +14581,7 @@
         <v/>
       </c>
       <c r="C1054" s="4" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
       <c r="D1054" s="4"/>
     </row>
@@ -14655,7 +14627,7 @@
         <v/>
       </c>
       <c r="C1059" s="4" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="D1059" s="4"/>
     </row>
@@ -14673,7 +14645,7 @@
         <v/>
       </c>
       <c r="C1061" s="4" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
       <c r="D1061" s="4"/>
     </row>
@@ -14701,7 +14673,7 @@
         <v/>
       </c>
       <c r="C1064" s="4" t="s">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="D1064" s="4"/>
     </row>
@@ -14719,7 +14691,7 @@
         <v/>
       </c>
       <c r="C1066" s="4" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
       <c r="D1066" s="4"/>
     </row>
@@ -14757,7 +14729,7 @@
         <v/>
       </c>
       <c r="C1070" s="4" t="s">
-        <v>912</v>
+        <v>929</v>
       </c>
       <c r="D1070" s="4"/>
     </row>
@@ -14775,7 +14747,7 @@
         <v/>
       </c>
       <c r="C1072" s="4" t="s">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="D1072" s="4"/>
     </row>
@@ -14785,7 +14757,7 @@
         <v>INFO</v>
       </c>
       <c r="C1073" s="4" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="D1073" s="4"/>
     </row>
@@ -14839,7 +14811,7 @@
         <v/>
       </c>
       <c r="C1079" s="4" t="s">
-        <v>915</v>
+        <v>932</v>
       </c>
       <c r="D1079" s="4"/>
     </row>
@@ -14857,7 +14829,7 @@
         <v/>
       </c>
       <c r="C1081" s="4" t="s">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="D1081" s="4"/>
     </row>
@@ -14867,7 +14839,7 @@
         <v>INFO</v>
       </c>
       <c r="C1082" s="4" t="s">
-        <v>916</v>
+        <v>933</v>
       </c>
       <c r="D1082" s="4"/>
     </row>
@@ -14885,7 +14857,7 @@
         <v/>
       </c>
       <c r="C1084" s="4" t="s">
-        <v>917</v>
+        <v>934</v>
       </c>
       <c r="D1084" s="4"/>
     </row>
@@ -14903,7 +14875,7 @@
         <v/>
       </c>
       <c r="C1086" s="4" t="s">
-        <v>913</v>
+        <v>935</v>
       </c>
       <c r="D1086" s="4"/>
     </row>
@@ -14931,7 +14903,7 @@
         <v/>
       </c>
       <c r="C1089" s="4" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="D1089" s="4"/>
     </row>
@@ -14949,7 +14921,7 @@
         <v/>
       </c>
       <c r="C1091" s="4" t="s">
-        <v>913</v>
+        <v>935</v>
       </c>
       <c r="D1091" s="4"/>
     </row>
@@ -15027,7 +14999,7 @@
         <v/>
       </c>
       <c r="C1099" s="4" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="D1099" s="4"/>
     </row>
@@ -15047,7 +15019,7 @@
         <v/>
       </c>
       <c r="C1101" s="4" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="D1101" s="4"/>
     </row>
@@ -15085,7 +15057,7 @@
         <v/>
       </c>
       <c r="C1105" s="4" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="D1105" s="4"/>
     </row>
@@ -15103,7 +15075,7 @@
         <v/>
       </c>
       <c r="C1107" s="4" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="D1107" s="4"/>
     </row>
@@ -15131,7 +15103,7 @@
         <v/>
       </c>
       <c r="C1110" s="4" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="D1110" s="4"/>
     </row>
@@ -15149,7 +15121,7 @@
         <v/>
       </c>
       <c r="C1112" s="4" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="D1112" s="4"/>
     </row>
@@ -15189,22 +15161,26 @@
       </c>
       <c r="D1116" s="4"/>
     </row>
-    <row r="1117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1117" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B1117" s="9" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>WARNING</v>
       </c>
       <c r="C1117" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="D1117" s="4"/>
+        <v>773</v>
+      </c>
+      <c r="D1117" s="4" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="1118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1118" s="9" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1118" s="4"/>
+      <c r="C1118" s="4" t="s">
+        <v>774</v>
+      </c>
       <c r="D1118" s="4"/>
     </row>
     <row r="1119" spans="2:4" x14ac:dyDescent="0.25">
@@ -15213,7 +15189,7 @@
         <v/>
       </c>
       <c r="C1119" s="4" t="s">
-        <v>922</v>
+        <v>942</v>
       </c>
       <c r="D1119" s="4"/>
     </row>
@@ -15222,9 +15198,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1120" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="C1120" s="4"/>
       <c r="D1120" s="4"/>
     </row>
     <row r="1121" spans="2:4" x14ac:dyDescent="0.25">
@@ -15232,7 +15206,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1121" s="4"/>
+      <c r="C1121" s="4" t="s">
+        <v>940</v>
+      </c>
       <c r="D1121" s="4"/>
     </row>
     <row r="1122" spans="2:4" x14ac:dyDescent="0.25">
@@ -15241,7 +15217,7 @@
         <v/>
       </c>
       <c r="C1122" s="4" t="s">
-        <v>922</v>
+        <v>943</v>
       </c>
       <c r="D1122" s="4"/>
     </row>
@@ -15259,7 +15235,7 @@
         <v/>
       </c>
       <c r="C1124" s="4" t="s">
-        <v>274</v>
+        <v>940</v>
       </c>
       <c r="D1124" s="4"/>
     </row>
@@ -15277,7 +15253,7 @@
         <v/>
       </c>
       <c r="C1126" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D1126" s="4"/>
     </row>
@@ -15286,9 +15262,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1127" s="4" t="s">
-        <v>926</v>
-      </c>
+      <c r="C1127" s="4"/>
       <c r="D1127" s="4"/>
     </row>
     <row r="1128" spans="2:4" x14ac:dyDescent="0.25">
@@ -15297,17 +15271,17 @@
         <v/>
       </c>
       <c r="C1128" s="4" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D1128" s="4"/>
     </row>
     <row r="1129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1129" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1129" s="4" t="s">
-        <v>927</v>
+        <v>944</v>
       </c>
       <c r="D1129" s="4"/>
     </row>
@@ -15316,16 +15290,18 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1130" s="4"/>
+      <c r="C1130" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="D1130" s="4"/>
     </row>
     <row r="1131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1131" s="9" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1131" s="4" t="s">
-        <v>928</v>
+        <v>945</v>
       </c>
       <c r="D1131" s="4"/>
     </row>
@@ -15343,7 +15319,7 @@
         <v/>
       </c>
       <c r="C1133" s="4" t="s">
-        <v>929</v>
+        <v>946</v>
       </c>
       <c r="D1133" s="4"/>
     </row>
@@ -15352,9 +15328,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1134" s="4" t="s">
-        <v>930</v>
-      </c>
+      <c r="C1134" s="4"/>
       <c r="D1134" s="4"/>
     </row>
     <row r="1135" spans="2:4" x14ac:dyDescent="0.25">
@@ -15362,7 +15336,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1135" s="4"/>
+      <c r="C1135" s="4" t="s">
+        <v>947</v>
+      </c>
       <c r="D1135" s="4"/>
     </row>
     <row r="1136" spans="2:4" x14ac:dyDescent="0.25">
@@ -15370,9 +15346,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1136" s="4" t="s">
-        <v>929</v>
-      </c>
+      <c r="C1136" s="4"/>
       <c r="D1136" s="4"/>
     </row>
     <row r="1137" spans="2:4" x14ac:dyDescent="0.25">
@@ -15380,7 +15354,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1137" s="4"/>
+      <c r="C1137" s="4" t="s">
+        <v>775</v>
+      </c>
       <c r="D1137" s="4"/>
     </row>
     <row r="1138" spans="2:4" x14ac:dyDescent="0.25">
@@ -15389,16 +15365,18 @@
         <v/>
       </c>
       <c r="C1138" s="4" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D1138" s="4"/>
     </row>
     <row r="1139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1139" s="9" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C1139" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1139" s="4" t="s">
+        <v>945</v>
+      </c>
       <c r="D1139" s="4"/>
     </row>
     <row r="1140" spans="2:4" x14ac:dyDescent="0.25">
@@ -15406,9 +15384,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1140" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="C1140" s="4"/>
       <c r="D1140" s="4"/>
     </row>
     <row r="1141" spans="2:4" x14ac:dyDescent="0.25">
@@ -15416,7 +15392,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1141" s="4"/>
+      <c r="C1141" s="4" t="s">
+        <v>948</v>
+      </c>
       <c r="D1141" s="4"/>
     </row>
     <row r="1142" spans="2:4" x14ac:dyDescent="0.25">
@@ -15424,9 +15402,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1142" s="4" t="s">
-        <v>931</v>
-      </c>
+      <c r="C1142" s="4"/>
       <c r="D1142" s="4"/>
     </row>
     <row r="1143" spans="2:4" x14ac:dyDescent="0.25">
@@ -15435,7 +15411,7 @@
         <v/>
       </c>
       <c r="C1143" s="4" t="s">
-        <v>932</v>
+        <v>947</v>
       </c>
       <c r="D1143" s="4"/>
     </row>
@@ -15444,7 +15420,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1144" s="4"/>
+      <c r="C1144" s="4" t="s">
+        <v>949</v>
+      </c>
       <c r="D1144" s="4"/>
     </row>
     <row r="1145" spans="2:4" x14ac:dyDescent="0.25">
@@ -15452,18 +15430,16 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1145" s="4" t="s">
-        <v>929</v>
-      </c>
+      <c r="C1145" s="4"/>
       <c r="D1145" s="4"/>
     </row>
     <row r="1146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1146" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1146" s="4" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
       <c r="D1146" s="4"/>
     </row>
@@ -15481,7 +15457,7 @@
         <v/>
       </c>
       <c r="C1148" s="4" t="s">
-        <v>934</v>
+        <v>276</v>
       </c>
       <c r="D1148" s="4"/>
     </row>
@@ -15499,7 +15475,7 @@
         <v/>
       </c>
       <c r="C1150" s="4" t="s">
-        <v>929</v>
+        <v>277</v>
       </c>
       <c r="D1150" s="4"/>
     </row>
@@ -15508,7 +15484,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1151" s="4"/>
+      <c r="C1151" s="4" t="s">
+        <v>950</v>
+      </c>
       <c r="D1151" s="4"/>
     </row>
     <row r="1152" spans="2:4" x14ac:dyDescent="0.25">
@@ -15516,9 +15494,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1152" s="4" t="s">
-        <v>278</v>
-      </c>
+      <c r="C1152" s="4"/>
       <c r="D1152" s="4"/>
     </row>
     <row r="1153" spans="2:4" x14ac:dyDescent="0.25">
@@ -15527,7 +15503,7 @@
         <v/>
       </c>
       <c r="C1153" s="4" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="D1153" s="4"/>
     </row>
@@ -15545,7 +15521,7 @@
         <v/>
       </c>
       <c r="C1155" s="4" t="s">
-        <v>929</v>
+        <v>278</v>
       </c>
       <c r="D1155" s="4"/>
     </row>
@@ -15555,7 +15531,7 @@
         <v/>
       </c>
       <c r="C1156" s="4" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="D1156" s="4"/>
     </row>
@@ -15573,7 +15549,7 @@
         <v/>
       </c>
       <c r="C1158" s="4" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="D1158" s="4"/>
     </row>
@@ -15582,7 +15558,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1159" s="4"/>
+      <c r="C1159" s="4" t="s">
+        <v>952</v>
+      </c>
       <c r="D1159" s="4"/>
     </row>
     <row r="1160" spans="2:4" x14ac:dyDescent="0.25">
@@ -15590,9 +15568,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1160" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="C1160" s="4"/>
       <c r="D1160" s="4"/>
     </row>
     <row r="1161" spans="2:4" x14ac:dyDescent="0.25">
@@ -15600,7 +15576,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1161" s="4"/>
+      <c r="C1161" s="4" t="s">
+        <v>947</v>
+      </c>
       <c r="D1161" s="4"/>
     </row>
     <row r="1162" spans="2:4" x14ac:dyDescent="0.25">
@@ -15608,18 +15586,16 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1162" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="C1162" s="4"/>
       <c r="D1162" s="4"/>
     </row>
     <row r="1163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1163" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1163" s="4" t="s">
-        <v>937</v>
+        <v>279</v>
       </c>
       <c r="D1163" s="4"/>
     </row>
@@ -15637,16 +15613,18 @@
         <v/>
       </c>
       <c r="C1165" s="4" t="s">
-        <v>938</v>
+        <v>280</v>
       </c>
       <c r="D1165" s="4"/>
     </row>
     <row r="1166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1166" s="9" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="C1166" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1166" s="4" t="s">
+        <v>953</v>
+      </c>
       <c r="D1166" s="4"/>
     </row>
     <row r="1167" spans="2:4" x14ac:dyDescent="0.25">
@@ -15654,9 +15632,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1167" s="4" t="s">
-        <v>929</v>
-      </c>
+      <c r="C1167" s="4"/>
       <c r="D1167" s="4"/>
     </row>
     <row r="1168" spans="2:4" x14ac:dyDescent="0.25">
@@ -15665,7 +15641,7 @@
         <v/>
       </c>
       <c r="C1168" s="4" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="D1168" s="4"/>
     </row>
@@ -15683,7 +15659,7 @@
         <v/>
       </c>
       <c r="C1170" s="4" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="D1170" s="4"/>
     </row>
@@ -15692,7 +15668,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1171" s="4"/>
+      <c r="C1171" s="4" t="s">
+        <v>955</v>
+      </c>
       <c r="D1171" s="4"/>
     </row>
     <row r="1172" spans="2:4" x14ac:dyDescent="0.25">
@@ -15700,9 +15678,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1172" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="C1172" s="4"/>
       <c r="D1172" s="4"/>
     </row>
     <row r="1173" spans="2:4" x14ac:dyDescent="0.25">
@@ -15710,7 +15686,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1173" s="4"/>
+      <c r="C1173" s="4" t="s">
+        <v>947</v>
+      </c>
       <c r="D1173" s="4"/>
     </row>
     <row r="1174" spans="2:4" x14ac:dyDescent="0.25">
@@ -15718,9 +15696,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1174" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="C1174" s="4"/>
       <c r="D1174" s="4"/>
     </row>
     <row r="1175" spans="2:4" x14ac:dyDescent="0.25">
@@ -15729,7 +15705,7 @@
         <v/>
       </c>
       <c r="C1175" s="4" t="s">
-        <v>940</v>
+        <v>281</v>
       </c>
       <c r="D1175" s="4"/>
     </row>
@@ -15738,9 +15714,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1176" s="4" t="s">
-        <v>941</v>
-      </c>
+      <c r="C1176" s="4"/>
       <c r="D1176" s="4"/>
     </row>
     <row r="1177" spans="2:4" x14ac:dyDescent="0.25">
@@ -15749,7 +15723,7 @@
         <v/>
       </c>
       <c r="C1177" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D1177" s="4"/>
     </row>
@@ -15759,7 +15733,7 @@
         <v/>
       </c>
       <c r="C1178" s="4" t="s">
-        <v>266</v>
+        <v>956</v>
       </c>
       <c r="D1178" s="4"/>
     </row>
@@ -15769,7 +15743,7 @@
         <v/>
       </c>
       <c r="C1179" s="4" t="s">
-        <v>267</v>
+        <v>957</v>
       </c>
       <c r="D1179" s="4"/>
     </row>
@@ -15779,7 +15753,7 @@
         <v/>
       </c>
       <c r="C1180" s="4" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D1180" s="4"/>
     </row>
@@ -15789,7 +15763,7 @@
         <v/>
       </c>
       <c r="C1181" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D1181" s="4"/>
     </row>
@@ -15799,7 +15773,7 @@
         <v/>
       </c>
       <c r="C1182" s="4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D1182" s="4"/>
     </row>
@@ -15809,7 +15783,7 @@
         <v/>
       </c>
       <c r="C1183" s="4" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D1183" s="4"/>
     </row>
@@ -15819,7 +15793,7 @@
         <v/>
       </c>
       <c r="C1184" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1184" s="4"/>
     </row>
@@ -15828,7 +15802,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1185" s="4"/>
+      <c r="C1185" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="D1185" s="4"/>
     </row>
     <row r="1186" spans="2:4" x14ac:dyDescent="0.25">
@@ -15837,7 +15813,7 @@
         <v/>
       </c>
       <c r="C1186" s="4" t="s">
-        <v>942</v>
+        <v>269</v>
       </c>
       <c r="D1186" s="4"/>
     </row>
@@ -15846,7 +15822,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1187" s="4"/>
+      <c r="C1187" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="D1187" s="4"/>
     </row>
     <row r="1188" spans="2:4" x14ac:dyDescent="0.25">
@@ -15854,9 +15832,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1188" s="4" t="s">
-        <v>929</v>
-      </c>
+      <c r="C1188" s="4"/>
       <c r="D1188" s="4"/>
     </row>
     <row r="1189" spans="2:4" x14ac:dyDescent="0.25">
@@ -15864,7 +15840,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1189" s="4"/>
+      <c r="C1189" s="4" t="s">
+        <v>958</v>
+      </c>
       <c r="D1189" s="4"/>
     </row>
     <row r="1190" spans="2:4" x14ac:dyDescent="0.25">
@@ -15872,9 +15850,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1190" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="C1190" s="4"/>
       <c r="D1190" s="4"/>
     </row>
     <row r="1191" spans="2:4" x14ac:dyDescent="0.25">
@@ -15882,7 +15858,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1191" s="4"/>
+      <c r="C1191" s="4" t="s">
+        <v>959</v>
+      </c>
       <c r="D1191" s="4"/>
     </row>
     <row r="1192" spans="2:4" x14ac:dyDescent="0.25">
@@ -15890,9 +15868,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1192" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="C1192" s="4"/>
       <c r="D1192" s="4"/>
     </row>
     <row r="1193" spans="2:4" x14ac:dyDescent="0.25">
@@ -15901,7 +15877,7 @@
         <v/>
       </c>
       <c r="C1193" s="4" t="s">
-        <v>943</v>
+        <v>284</v>
       </c>
       <c r="D1193" s="4"/>
     </row>
@@ -15919,7 +15895,7 @@
         <v/>
       </c>
       <c r="C1195" s="4" t="s">
-        <v>929</v>
+        <v>285</v>
       </c>
       <c r="D1195" s="4"/>
     </row>
@@ -15928,7 +15904,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1196" s="4"/>
+      <c r="C1196" s="4" t="s">
+        <v>960</v>
+      </c>
       <c r="D1196" s="4"/>
     </row>
     <row r="1197" spans="2:4" x14ac:dyDescent="0.25">
@@ -15936,9 +15914,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1197" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="C1197" s="4"/>
       <c r="D1197" s="4"/>
     </row>
     <row r="1198" spans="2:4" x14ac:dyDescent="0.25">
@@ -15947,7 +15923,7 @@
         <v/>
       </c>
       <c r="C1198" s="4" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D1198" s="4"/>
     </row>
@@ -15965,7 +15941,7 @@
         <v/>
       </c>
       <c r="C1200" s="4" t="s">
-        <v>929</v>
+        <v>286</v>
       </c>
       <c r="D1200" s="4"/>
     </row>
@@ -15974,7 +15950,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1201" s="4"/>
+      <c r="C1201" s="4" t="s">
+        <v>961</v>
+      </c>
       <c r="D1201" s="4"/>
     </row>
     <row r="1202" spans="2:4" x14ac:dyDescent="0.25">
@@ -15982,9 +15960,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1202" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="C1202" s="4"/>
       <c r="D1202" s="4"/>
     </row>
     <row r="1203" spans="2:4" x14ac:dyDescent="0.25">
@@ -15993,7 +15969,7 @@
         <v/>
       </c>
       <c r="C1203" s="4" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D1203" s="4"/>
     </row>
@@ -16011,7 +15987,7 @@
         <v/>
       </c>
       <c r="C1205" s="4" t="s">
-        <v>929</v>
+        <v>287</v>
       </c>
       <c r="D1205" s="4"/>
     </row>
@@ -16020,7 +15996,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1206" s="4"/>
+      <c r="C1206" s="4" t="s">
+        <v>962</v>
+      </c>
       <c r="D1206" s="4"/>
     </row>
     <row r="1207" spans="2:4" x14ac:dyDescent="0.25">
@@ -16028,18 +16006,16 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1207" s="4" t="s">
-        <v>288</v>
-      </c>
+      <c r="C1207" s="4"/>
       <c r="D1207" s="4"/>
     </row>
     <row r="1208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1208" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1208" s="4" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D1208" s="4"/>
     </row>
@@ -16054,20 +16030,20 @@
     <row r="1210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1210" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1210" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D1210" s="4"/>
     </row>
     <row r="1211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1211" s="9" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1211" s="4" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="D1211" s="4"/>
     </row>
@@ -16082,10 +16058,10 @@
     <row r="1213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1213" s="9" t="str">
         <f t="shared" ref="B1213:B1214" si="19">IF(LEFT(C1213,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1213)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1213)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1213)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1213)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1213)),"DEBUG",""))))))</f>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1213" s="4" t="s">
-        <v>929</v>
+        <v>289</v>
       </c>
       <c r="D1213" s="4"/>
     </row>
@@ -16095,7 +16071,7 @@
         <v/>
       </c>
       <c r="C1214" s="4" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="D1214" s="4"/>
     </row>
@@ -16113,7 +16089,7 @@
         <v/>
       </c>
       <c r="C1216" s="4" t="s">
-        <v>290</v>
+        <v>947</v>
       </c>
       <c r="D1216" s="4"/>
     </row>
@@ -16123,7 +16099,7 @@
         <v/>
       </c>
       <c r="C1217" s="4" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
       <c r="D1217" s="4"/>
     </row>
@@ -16141,17 +16117,17 @@
         <v/>
       </c>
       <c r="C1219" s="4" t="s">
-        <v>929</v>
+        <v>290</v>
       </c>
       <c r="D1219" s="4"/>
     </row>
     <row r="1220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1220" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1220" s="4" t="s">
-        <v>291</v>
+        <v>966</v>
       </c>
       <c r="D1220" s="4"/>
     </row>
@@ -16160,9 +16136,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1221" s="4" t="s">
-        <v>950</v>
-      </c>
+      <c r="C1221" s="4"/>
       <c r="D1221" s="4"/>
     </row>
     <row r="1222" spans="2:4" x14ac:dyDescent="0.25">
@@ -16170,16 +16144,18 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1222" s="4"/>
+      <c r="C1222" s="4" t="s">
+        <v>947</v>
+      </c>
       <c r="D1222" s="4"/>
     </row>
     <row r="1223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1223" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1223" s="4" t="s">
-        <v>929</v>
+        <v>291</v>
       </c>
       <c r="D1223" s="4"/>
     </row>
@@ -16188,7 +16164,9 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1224" s="4"/>
+      <c r="C1224" s="4" t="s">
+        <v>967</v>
+      </c>
       <c r="D1224" s="4"/>
     </row>
     <row r="1225" spans="2:4" x14ac:dyDescent="0.25">
@@ -16196,18 +16174,16 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1225" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="C1225" s="4"/>
       <c r="D1225" s="4"/>
     </row>
     <row r="1226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1226" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1226" s="4" t="s">
-        <v>176</v>
+        <v>947</v>
       </c>
       <c r="D1226" s="4"/>
     </row>
@@ -16216,9 +16192,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1227" s="4" t="s">
-        <v>719</v>
-      </c>
+      <c r="C1227" s="4"/>
       <c r="D1227" s="4"/>
     </row>
     <row r="1228" spans="2:4" x14ac:dyDescent="0.25">
@@ -16227,17 +16201,17 @@
         <v/>
       </c>
       <c r="C1228" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D1228" s="4"/>
     </row>
     <row r="1229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1229" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1229" s="4" t="s">
-        <v>951</v>
+        <v>176</v>
       </c>
       <c r="D1229" s="4"/>
     </row>
@@ -16247,7 +16221,7 @@
         <v/>
       </c>
       <c r="C1230" s="4" t="s">
-        <v>509</v>
+        <v>776</v>
       </c>
       <c r="D1230" s="4"/>
     </row>
@@ -16257,7 +16231,7 @@
         <v/>
       </c>
       <c r="C1231" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1231" s="4"/>
     </row>
@@ -16267,64 +16241,68 @@
         <v/>
       </c>
       <c r="C1232" s="4" t="s">
-        <v>129</v>
+        <v>968</v>
       </c>
       <c r="D1232" s="4"/>
     </row>
     <row r="1233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1233" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1233" s="4" t="s">
-        <v>130</v>
+        <v>509</v>
       </c>
       <c r="D1233" s="4"/>
     </row>
     <row r="1234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1234" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1234" s="4" t="s">
-        <v>432</v>
+        <v>294</v>
       </c>
       <c r="D1234" s="4"/>
     </row>
     <row r="1235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1235" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1235" s="4" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="D1235" s="4"/>
     </row>
     <row r="1236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1236" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="C1236" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1236" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="D1236" s="4"/>
     </row>
     <row r="1237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1237" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1237" s="4" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="D1237" s="4"/>
     </row>
     <row r="1238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1238" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="C1238" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1238" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="D1238" s="4"/>
     </row>
     <row r="1239" spans="2:4" x14ac:dyDescent="0.25">
@@ -16332,38 +16310,34 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1239" s="4" t="s">
-        <v>952</v>
-      </c>
+      <c r="C1239" s="4"/>
       <c r="D1239" s="4"/>
     </row>
     <row r="1240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1240" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1240" s="4" t="s">
-        <v>953</v>
+        <v>296</v>
       </c>
       <c r="D1240" s="4"/>
     </row>
     <row r="1241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1241" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
-      </c>
-      <c r="C1241" s="4" t="s">
-        <v>297</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C1241" s="4"/>
       <c r="D1241" s="4"/>
     </row>
     <row r="1242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1242" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1242" s="4" t="s">
-        <v>298</v>
+        <v>969</v>
       </c>
       <c r="D1242" s="4"/>
     </row>
@@ -16373,101 +16347,101 @@
         <v>INFO</v>
       </c>
       <c r="C1243" s="4" t="s">
-        <v>176</v>
+        <v>970</v>
       </c>
       <c r="D1243" s="4"/>
     </row>
     <row r="1244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1244" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1244" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D1244" s="4"/>
     </row>
     <row r="1245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1245" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1245" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D1245" s="4"/>
     </row>
     <row r="1246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1246" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1246" s="4" t="s">
-        <v>510</v>
+        <v>176</v>
       </c>
       <c r="D1246" s="4"/>
     </row>
     <row r="1247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1247" s="9" t="str">
         <f t="shared" ref="B1247:B1278" si="21">IF(LEFT(C1247,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1247)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1247)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1247)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1247)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1247)),"DEBUG",""))))))</f>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1247" s="4" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="D1247" s="4"/>
     </row>
     <row r="1248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1248" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1248" s="4" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="D1248" s="4"/>
     </row>
-    <row r="1249" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1249" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>WARNING</v>
+        <v/>
       </c>
       <c r="C1249" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D1249" s="4" t="s">
-        <v>967</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="D1249" s="4"/>
     </row>
     <row r="1250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1250" s="9" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1250" s="4" t="s">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="D1250" s="4"/>
     </row>
     <row r="1251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1251" s="9" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1251" s="4" t="s">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="D1251" s="4"/>
     </row>
-    <row r="1252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1252" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B1252" s="9" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WARNING</v>
       </c>
       <c r="C1252" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D1252" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="D1252" s="4" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="1253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1253" s="9" t="str">
@@ -16484,7 +16458,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1254" s="4"/>
+      <c r="C1254" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="D1254" s="4"/>
     </row>
     <row r="1255" spans="2:4" x14ac:dyDescent="0.25">
@@ -16493,7 +16469,7 @@
         <v/>
       </c>
       <c r="C1255" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D1255" s="4"/>
     </row>
@@ -16503,7 +16479,7 @@
         <v/>
       </c>
       <c r="C1256" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D1256" s="4"/>
     </row>
@@ -16512,9 +16488,7 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1257" s="4" t="s">
-        <v>306</v>
-      </c>
+      <c r="C1257" s="4"/>
       <c r="D1257" s="4"/>
     </row>
     <row r="1258" spans="2:4" x14ac:dyDescent="0.25">
@@ -16523,7 +16497,7 @@
         <v/>
       </c>
       <c r="C1258" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D1258" s="4"/>
     </row>
@@ -16533,7 +16507,7 @@
         <v/>
       </c>
       <c r="C1259" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D1259" s="4"/>
     </row>
@@ -16543,7 +16517,7 @@
         <v/>
       </c>
       <c r="C1260" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D1260" s="4"/>
     </row>
@@ -16553,7 +16527,7 @@
         <v/>
       </c>
       <c r="C1261" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D1261" s="4"/>
     </row>
@@ -16563,7 +16537,7 @@
         <v/>
       </c>
       <c r="C1262" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D1262" s="4"/>
     </row>
@@ -16573,7 +16547,7 @@
         <v/>
       </c>
       <c r="C1263" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D1263" s="4"/>
     </row>
@@ -16583,7 +16557,7 @@
         <v/>
       </c>
       <c r="C1264" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D1264" s="4"/>
     </row>
@@ -16593,7 +16567,7 @@
         <v/>
       </c>
       <c r="C1265" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D1265" s="4"/>
     </row>
@@ -16602,7 +16576,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1266" s="4"/>
+      <c r="C1266" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="D1266" s="4"/>
     </row>
     <row r="1267" spans="2:4" x14ac:dyDescent="0.25">
@@ -16611,7 +16587,7 @@
         <v/>
       </c>
       <c r="C1267" s="4" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="D1267" s="4"/>
     </row>
@@ -16621,7 +16597,7 @@
         <v/>
       </c>
       <c r="C1268" s="4" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="D1268" s="4"/>
     </row>
@@ -16630,9 +16606,7 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1269" s="4" t="s">
-        <v>435</v>
-      </c>
+      <c r="C1269" s="4"/>
       <c r="D1269" s="4"/>
     </row>
     <row r="1270" spans="2:4" x14ac:dyDescent="0.25">
@@ -16641,7 +16615,7 @@
         <v/>
       </c>
       <c r="C1270" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D1270" s="4"/>
     </row>
@@ -16651,7 +16625,7 @@
         <v/>
       </c>
       <c r="C1271" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D1271" s="4"/>
     </row>
@@ -16660,7 +16634,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1272" s="4"/>
+      <c r="C1272" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="D1272" s="4"/>
     </row>
     <row r="1273" spans="2:4" x14ac:dyDescent="0.25">
@@ -16668,7 +16644,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1273" s="4"/>
+      <c r="C1273" s="4" t="s">
+        <v>436</v>
+      </c>
       <c r="D1273" s="4"/>
     </row>
     <row r="1274" spans="2:4" x14ac:dyDescent="0.25">
@@ -16677,7 +16655,7 @@
         <v/>
       </c>
       <c r="C1274" s="4" t="s">
-        <v>301</v>
+        <v>437</v>
       </c>
       <c r="D1274" s="4"/>
     </row>
@@ -16686,9 +16664,7 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1275" s="4" t="s">
-        <v>315</v>
-      </c>
+      <c r="C1275" s="4"/>
       <c r="D1275" s="4"/>
     </row>
     <row r="1276" spans="2:4" x14ac:dyDescent="0.25">
@@ -16696,9 +16672,7 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1276" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="C1276" s="4"/>
       <c r="D1276" s="4"/>
     </row>
     <row r="1277" spans="2:4" x14ac:dyDescent="0.25">
@@ -16716,7 +16690,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1278" s="4"/>
+      <c r="C1278" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="D1278" s="4"/>
     </row>
     <row r="1279" spans="2:4" x14ac:dyDescent="0.25">
@@ -16725,7 +16701,7 @@
         <v/>
       </c>
       <c r="C1279" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D1279" s="4"/>
     </row>
@@ -16734,7 +16710,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="C1280" s="4"/>
+      <c r="C1280" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1280" s="4"/>
     </row>
     <row r="1281" spans="2:4" x14ac:dyDescent="0.25">
@@ -16750,7 +16728,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="C1282" s="4"/>
+      <c r="C1282" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="D1282" s="4"/>
     </row>
     <row r="1283" spans="2:4" x14ac:dyDescent="0.25">
@@ -16758,9 +16738,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="C1283" s="4" t="s">
-        <v>318</v>
-      </c>
+      <c r="C1283" s="4"/>
       <c r="D1283" s="4"/>
     </row>
     <row r="1284" spans="2:4" x14ac:dyDescent="0.25">
@@ -16776,9 +16754,7 @@
         <f t="shared" ref="B1285:B1303" si="23">IF(LEFT(C1285,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1285)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1285)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1285)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1285)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1285)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1285" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="C1285" s="4"/>
       <c r="D1285" s="4"/>
     </row>
     <row r="1286" spans="2:4" x14ac:dyDescent="0.25">
@@ -16787,7 +16763,7 @@
         <v/>
       </c>
       <c r="C1286" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D1286" s="4"/>
     </row>
@@ -16796,9 +16772,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1287" s="4" t="s">
-        <v>321</v>
-      </c>
+      <c r="C1287" s="4"/>
       <c r="D1287" s="4"/>
     </row>
     <row r="1288" spans="2:4" x14ac:dyDescent="0.25">
@@ -16807,7 +16781,7 @@
         <v/>
       </c>
       <c r="C1288" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D1288" s="4"/>
     </row>
@@ -16817,7 +16791,7 @@
         <v/>
       </c>
       <c r="C1289" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D1289" s="4"/>
     </row>
@@ -16827,7 +16801,7 @@
         <v/>
       </c>
       <c r="C1290" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D1290" s="4"/>
     </row>
@@ -16837,7 +16811,7 @@
         <v/>
       </c>
       <c r="C1291" s="4" t="s">
-        <v>720</v>
+        <v>322</v>
       </c>
       <c r="D1291" s="4"/>
     </row>
@@ -16847,7 +16821,7 @@
         <v/>
       </c>
       <c r="C1292" s="4" t="s">
-        <v>721</v>
+        <v>323</v>
       </c>
       <c r="D1292" s="4"/>
     </row>
@@ -16857,7 +16831,7 @@
         <v/>
       </c>
       <c r="C1293" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D1293" s="4"/>
     </row>
@@ -16867,7 +16841,7 @@
         <v/>
       </c>
       <c r="C1294" s="4" t="s">
-        <v>326</v>
+        <v>719</v>
       </c>
       <c r="D1294" s="4"/>
     </row>
@@ -16877,7 +16851,7 @@
         <v/>
       </c>
       <c r="C1295" s="4" t="s">
-        <v>327</v>
+        <v>720</v>
       </c>
       <c r="D1295" s="4"/>
     </row>
@@ -16887,7 +16861,7 @@
         <v/>
       </c>
       <c r="C1296" s="4" t="s">
-        <v>722</v>
+        <v>325</v>
       </c>
       <c r="D1296" s="4"/>
     </row>
@@ -16897,7 +16871,7 @@
         <v/>
       </c>
       <c r="C1297" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D1297" s="4"/>
     </row>
@@ -16907,7 +16881,7 @@
         <v/>
       </c>
       <c r="C1298" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D1298" s="4"/>
     </row>
@@ -16916,7 +16890,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1299" s="4"/>
+      <c r="C1299" s="4" t="s">
+        <v>721</v>
+      </c>
       <c r="D1299" s="4"/>
     </row>
     <row r="1300" spans="2:4" x14ac:dyDescent="0.25">
@@ -16925,7 +16901,7 @@
         <v/>
       </c>
       <c r="C1300" s="4" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D1300" s="4"/>
     </row>
@@ -16935,7 +16911,7 @@
         <v/>
       </c>
       <c r="C1301" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D1301" s="4"/>
     </row>
@@ -16944,9 +16920,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1302" s="4" t="s">
-        <v>331</v>
-      </c>
+      <c r="C1302" s="4"/>
       <c r="D1302" s="4"/>
     </row>
     <row r="1303" spans="2:4" x14ac:dyDescent="0.25">
@@ -16954,7 +16928,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1303" s="4"/>
+      <c r="C1303" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="D1303" s="4"/>
     </row>
     <row r="1304" spans="2:4" x14ac:dyDescent="0.25">
@@ -16962,7 +16938,9 @@
         <f t="shared" ref="B1304:B1335" si="24">IF(LEFT(C1304,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1304)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1304)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1304)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1304)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1304)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1304" s="4"/>
+      <c r="C1304" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="D1304" s="4"/>
     </row>
     <row r="1305" spans="2:4" x14ac:dyDescent="0.25">
@@ -16971,7 +16949,7 @@
         <v/>
       </c>
       <c r="C1305" s="4" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="D1305" s="4"/>
     </row>
@@ -16980,9 +16958,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1306" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="C1306" s="4"/>
       <c r="D1306" s="4"/>
     </row>
     <row r="1307" spans="2:4" x14ac:dyDescent="0.25">
@@ -16990,9 +16966,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1307" s="4" t="s">
-        <v>333</v>
-      </c>
+      <c r="C1307" s="4"/>
       <c r="D1307" s="4"/>
     </row>
     <row r="1308" spans="2:4" x14ac:dyDescent="0.25">
@@ -17000,7 +16974,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1308" s="4"/>
+      <c r="C1308" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="D1308" s="4"/>
     </row>
     <row r="1309" spans="2:4" x14ac:dyDescent="0.25">
@@ -17008,7 +16984,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1309" s="4"/>
+      <c r="C1309" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D1309" s="4"/>
     </row>
     <row r="1310" spans="2:4" x14ac:dyDescent="0.25">
@@ -17017,7 +16995,7 @@
         <v/>
       </c>
       <c r="C1310" s="4" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D1310" s="4"/>
     </row>
@@ -17026,9 +17004,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1311" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="C1311" s="4"/>
       <c r="D1311" s="4"/>
     </row>
     <row r="1312" spans="2:4" x14ac:dyDescent="0.25">
@@ -17036,9 +17012,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1312" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="C1312" s="4"/>
       <c r="D1312" s="4"/>
     </row>
     <row r="1313" spans="2:4" x14ac:dyDescent="0.25">
@@ -17046,7 +17020,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1313" s="4"/>
+      <c r="C1313" s="4" t="s">
+        <v>323</v>
+      </c>
       <c r="D1313" s="4"/>
     </row>
     <row r="1314" spans="2:4" x14ac:dyDescent="0.25">
@@ -17054,7 +17030,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1314" s="4"/>
+      <c r="C1314" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="D1314" s="4"/>
     </row>
     <row r="1315" spans="2:4" x14ac:dyDescent="0.25">
@@ -17063,7 +17041,7 @@
         <v/>
       </c>
       <c r="C1315" s="4" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="D1315" s="4"/>
     </row>
@@ -17072,9 +17050,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1316" s="4" t="s">
-        <v>336</v>
-      </c>
+      <c r="C1316" s="4"/>
       <c r="D1316" s="4"/>
     </row>
     <row r="1317" spans="2:4" x14ac:dyDescent="0.25">
@@ -17082,9 +17058,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1317" s="4" t="s">
-        <v>337</v>
-      </c>
+      <c r="C1317" s="4"/>
       <c r="D1317" s="4"/>
     </row>
     <row r="1318" spans="2:4" x14ac:dyDescent="0.25">
@@ -17092,7 +17066,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1318" s="4"/>
+      <c r="C1318" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="D1318" s="4"/>
     </row>
     <row r="1319" spans="2:4" x14ac:dyDescent="0.25">
@@ -17101,7 +17077,7 @@
         <v/>
       </c>
       <c r="C1319" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D1319" s="4"/>
     </row>
@@ -17110,7 +17086,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1320" s="4"/>
+      <c r="C1320" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="D1320" s="4"/>
     </row>
     <row r="1321" spans="2:4" x14ac:dyDescent="0.25">
@@ -17127,7 +17105,7 @@
         <v/>
       </c>
       <c r="C1322" s="4" t="s">
-        <v>720</v>
+        <v>338</v>
       </c>
       <c r="D1322" s="4"/>
     </row>
@@ -17136,9 +17114,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1323" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="C1323" s="4"/>
       <c r="D1323" s="4"/>
     </row>
     <row r="1324" spans="2:4" x14ac:dyDescent="0.25">
@@ -17146,9 +17122,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1324" s="4" t="s">
-        <v>723</v>
-      </c>
+      <c r="C1324" s="4"/>
       <c r="D1324" s="4"/>
     </row>
     <row r="1325" spans="2:4" x14ac:dyDescent="0.25">
@@ -17156,7 +17130,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1325" s="4"/>
+      <c r="C1325" s="4" t="s">
+        <v>719</v>
+      </c>
       <c r="D1325" s="4"/>
     </row>
     <row r="1326" spans="2:4" x14ac:dyDescent="0.25">
@@ -17165,7 +17141,7 @@
         <v/>
       </c>
       <c r="C1326" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D1326" s="4"/>
     </row>
@@ -17174,7 +17150,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1327" s="4"/>
+      <c r="C1327" s="4" t="s">
+        <v>722</v>
+      </c>
       <c r="D1327" s="4"/>
     </row>
     <row r="1328" spans="2:4" x14ac:dyDescent="0.25">
@@ -17191,7 +17169,7 @@
         <v/>
       </c>
       <c r="C1329" s="4" t="s">
-        <v>721</v>
+        <v>339</v>
       </c>
       <c r="D1329" s="4"/>
     </row>
@@ -17200,9 +17178,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1330" s="4" t="s">
-        <v>343</v>
-      </c>
+      <c r="C1330" s="4"/>
       <c r="D1330" s="4"/>
     </row>
     <row r="1331" spans="2:4" x14ac:dyDescent="0.25">
@@ -17210,9 +17186,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1331" s="4" t="s">
-        <v>724</v>
-      </c>
+      <c r="C1331" s="4"/>
       <c r="D1331" s="4"/>
     </row>
     <row r="1332" spans="2:4" x14ac:dyDescent="0.25">
@@ -17220,7 +17194,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1332" s="4"/>
+      <c r="C1332" s="4" t="s">
+        <v>720</v>
+      </c>
       <c r="D1332" s="4"/>
     </row>
     <row r="1333" spans="2:4" x14ac:dyDescent="0.25">
@@ -17229,7 +17205,7 @@
         <v/>
       </c>
       <c r="C1333" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D1333" s="4"/>
     </row>
@@ -17238,7 +17214,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1334" s="4"/>
+      <c r="C1334" s="4" t="s">
+        <v>723</v>
+      </c>
       <c r="D1334" s="4"/>
     </row>
     <row r="1335" spans="2:4" x14ac:dyDescent="0.25">
@@ -17246,9 +17224,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1335" s="4" t="s">
-        <v>341</v>
-      </c>
+      <c r="C1335" s="4"/>
       <c r="D1335" s="4"/>
     </row>
     <row r="1336" spans="2:4" x14ac:dyDescent="0.25">
@@ -17256,7 +17232,9 @@
         <f t="shared" ref="B1336:B1367" si="25">IF(LEFT(C1336,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1336)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1336)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1336)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1336)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1336)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1336" s="4"/>
+      <c r="C1336" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="D1336" s="4"/>
     </row>
     <row r="1337" spans="2:4" x14ac:dyDescent="0.25">
@@ -17273,7 +17251,7 @@
         <v/>
       </c>
       <c r="C1338" s="4" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="D1338" s="4"/>
     </row>
@@ -17282,9 +17260,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1339" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="C1339" s="4"/>
       <c r="D1339" s="4"/>
     </row>
     <row r="1340" spans="2:4" x14ac:dyDescent="0.25">
@@ -17292,9 +17268,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1340" s="4" t="s">
-        <v>342</v>
-      </c>
+      <c r="C1340" s="4"/>
       <c r="D1340" s="4"/>
     </row>
     <row r="1341" spans="2:4" x14ac:dyDescent="0.25">
@@ -17302,7 +17276,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1341" s="4"/>
+      <c r="C1341" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="D1341" s="4"/>
     </row>
     <row r="1342" spans="2:4" x14ac:dyDescent="0.25">
@@ -17310,7 +17286,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1342" s="4"/>
+      <c r="C1342" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D1342" s="4"/>
     </row>
     <row r="1343" spans="2:4" x14ac:dyDescent="0.25">
@@ -17319,7 +17297,7 @@
         <v/>
       </c>
       <c r="C1343" s="4" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="D1343" s="4"/>
     </row>
@@ -17328,9 +17306,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1344" s="4" t="s">
-        <v>343</v>
-      </c>
+      <c r="C1344" s="4"/>
       <c r="D1344" s="4"/>
     </row>
     <row r="1345" spans="2:4" x14ac:dyDescent="0.25">
@@ -17338,9 +17314,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1345" s="4" t="s">
-        <v>344</v>
-      </c>
+      <c r="C1345" s="4"/>
       <c r="D1345" s="4"/>
     </row>
     <row r="1346" spans="2:4" x14ac:dyDescent="0.25">
@@ -17348,7 +17322,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1346" s="4"/>
+      <c r="C1346" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="D1346" s="4"/>
     </row>
     <row r="1347" spans="2:4" x14ac:dyDescent="0.25">
@@ -17356,7 +17332,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1347" s="4"/>
+      <c r="C1347" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="D1347" s="4"/>
     </row>
     <row r="1348" spans="2:4" x14ac:dyDescent="0.25">
@@ -17365,7 +17343,7 @@
         <v/>
       </c>
       <c r="C1348" s="4" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D1348" s="4"/>
     </row>
@@ -17374,9 +17352,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1349" s="4" t="s">
-        <v>345</v>
-      </c>
+      <c r="C1349" s="4"/>
       <c r="D1349" s="4"/>
     </row>
     <row r="1350" spans="2:4" x14ac:dyDescent="0.25">
@@ -17384,9 +17360,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1350" s="4" t="s">
-        <v>346</v>
-      </c>
+      <c r="C1350" s="4"/>
       <c r="D1350" s="4"/>
     </row>
     <row r="1351" spans="2:4" x14ac:dyDescent="0.25">
@@ -17394,7 +17368,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1351" s="4"/>
+      <c r="C1351" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="D1351" s="4"/>
     </row>
     <row r="1352" spans="2:4" x14ac:dyDescent="0.25">
@@ -17402,7 +17378,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1352" s="4"/>
+      <c r="C1352" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="D1352" s="4"/>
     </row>
     <row r="1353" spans="2:4" x14ac:dyDescent="0.25">
@@ -17411,7 +17389,7 @@
         <v/>
       </c>
       <c r="C1353" s="4" t="s">
-        <v>722</v>
+        <v>346</v>
       </c>
       <c r="D1353" s="4"/>
     </row>
@@ -17420,9 +17398,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1354" s="4" t="s">
-        <v>347</v>
-      </c>
+      <c r="C1354" s="4"/>
       <c r="D1354" s="4"/>
     </row>
     <row r="1355" spans="2:4" x14ac:dyDescent="0.25">
@@ -17430,9 +17406,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1355" s="4" t="s">
-        <v>725</v>
-      </c>
+      <c r="C1355" s="4"/>
       <c r="D1355" s="4"/>
     </row>
     <row r="1356" spans="2:4" x14ac:dyDescent="0.25">
@@ -17440,7 +17414,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1356" s="4"/>
+      <c r="C1356" s="4" t="s">
+        <v>721</v>
+      </c>
       <c r="D1356" s="4"/>
     </row>
     <row r="1357" spans="2:4" x14ac:dyDescent="0.25">
@@ -17448,7 +17424,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1357" s="4"/>
+      <c r="C1357" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="D1357" s="4"/>
     </row>
     <row r="1358" spans="2:4" x14ac:dyDescent="0.25">
@@ -17457,7 +17435,7 @@
         <v/>
       </c>
       <c r="C1358" s="4" t="s">
-        <v>328</v>
+        <v>724</v>
       </c>
       <c r="D1358" s="4"/>
     </row>
@@ -17466,9 +17444,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1359" s="4" t="s">
-        <v>348</v>
-      </c>
+      <c r="C1359" s="4"/>
       <c r="D1359" s="4"/>
     </row>
     <row r="1360" spans="2:4" x14ac:dyDescent="0.25">
@@ -17476,9 +17452,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1360" s="4" t="s">
-        <v>349</v>
-      </c>
+      <c r="C1360" s="4"/>
       <c r="D1360" s="4"/>
     </row>
     <row r="1361" spans="2:4" x14ac:dyDescent="0.25">
@@ -17486,7 +17460,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1361" s="4"/>
+      <c r="C1361" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="D1361" s="4"/>
     </row>
     <row r="1362" spans="2:4" x14ac:dyDescent="0.25">
@@ -17494,7 +17470,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1362" s="4"/>
+      <c r="C1362" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="D1362" s="4"/>
     </row>
     <row r="1363" spans="2:4" x14ac:dyDescent="0.25">
@@ -17503,7 +17481,7 @@
         <v/>
       </c>
       <c r="C1363" s="4" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="D1363" s="4"/>
     </row>
@@ -17512,9 +17490,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1364" s="4" t="s">
-        <v>350</v>
-      </c>
+      <c r="C1364" s="4"/>
       <c r="D1364" s="4"/>
     </row>
     <row r="1365" spans="2:4" x14ac:dyDescent="0.25">
@@ -17522,9 +17498,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1365" s="4" t="s">
-        <v>351</v>
-      </c>
+      <c r="C1365" s="4"/>
       <c r="D1365" s="4"/>
     </row>
     <row r="1366" spans="2:4" x14ac:dyDescent="0.25">
@@ -17532,7 +17506,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1366" s="4"/>
+      <c r="C1366" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="D1366" s="4"/>
     </row>
     <row r="1367" spans="2:4" x14ac:dyDescent="0.25">
@@ -17540,7 +17516,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1367" s="4"/>
+      <c r="C1367" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="D1367" s="4"/>
     </row>
     <row r="1368" spans="2:4" x14ac:dyDescent="0.25">
@@ -17548,7 +17526,9 @@
         <f t="shared" ref="B1368:B1399" si="26">IF(LEFT(C1368,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1368)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1368)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1368)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1368)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1368)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1368" s="4"/>
+      <c r="C1368" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="D1368" s="4"/>
     </row>
     <row r="1369" spans="2:4" x14ac:dyDescent="0.25">
@@ -17556,9 +17536,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1369" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="C1369" s="4"/>
       <c r="D1369" s="4"/>
     </row>
     <row r="1370" spans="2:4" x14ac:dyDescent="0.25">
@@ -17566,9 +17544,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1370" s="4" t="s">
-        <v>352</v>
-      </c>
+      <c r="C1370" s="4"/>
       <c r="D1370" s="4"/>
     </row>
     <row r="1371" spans="2:4" x14ac:dyDescent="0.25">
@@ -17576,9 +17552,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1371" s="4" t="s">
-        <v>353</v>
-      </c>
+      <c r="C1371" s="4"/>
       <c r="D1371" s="4"/>
     </row>
     <row r="1372" spans="2:4" x14ac:dyDescent="0.25">
@@ -17596,7 +17570,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1373" s="4"/>
+      <c r="C1373" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="D1373" s="4"/>
     </row>
     <row r="1374" spans="2:4" x14ac:dyDescent="0.25">
@@ -17605,7 +17581,7 @@
         <v/>
       </c>
       <c r="C1374" s="4" t="s">
-        <v>438</v>
+        <v>353</v>
       </c>
       <c r="D1374" s="4"/>
     </row>
@@ -17615,7 +17591,7 @@
         <v/>
       </c>
       <c r="C1375" s="4" t="s">
-        <v>439</v>
+        <v>301</v>
       </c>
       <c r="D1375" s="4"/>
     </row>
@@ -17624,9 +17600,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1376" s="4" t="s">
-        <v>954</v>
-      </c>
+      <c r="C1376" s="4"/>
       <c r="D1376" s="4"/>
     </row>
     <row r="1377" spans="2:4" x14ac:dyDescent="0.25">
@@ -17634,7 +17608,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1377" s="4"/>
+      <c r="C1377" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="D1377" s="4"/>
     </row>
     <row r="1378" spans="2:4" x14ac:dyDescent="0.25">
@@ -17642,7 +17618,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1378" s="4"/>
+      <c r="C1378" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="D1378" s="4"/>
     </row>
     <row r="1379" spans="2:4" x14ac:dyDescent="0.25">
@@ -17651,7 +17629,7 @@
         <v/>
       </c>
       <c r="C1379" s="4" t="s">
-        <v>354</v>
+        <v>971</v>
       </c>
       <c r="D1379" s="4"/>
     </row>
@@ -17677,7 +17655,7 @@
         <v/>
       </c>
       <c r="C1382" s="4" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="D1382" s="4"/>
     </row>
@@ -17686,9 +17664,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1383" s="4" t="s">
-        <v>355</v>
-      </c>
+      <c r="C1383" s="4"/>
       <c r="D1383" s="4"/>
     </row>
     <row r="1384" spans="2:4" x14ac:dyDescent="0.25">
@@ -17696,9 +17672,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1384" s="4" t="s">
-        <v>356</v>
-      </c>
+      <c r="C1384" s="4"/>
       <c r="D1384" s="4"/>
     </row>
     <row r="1385" spans="2:4" x14ac:dyDescent="0.25">
@@ -17716,7 +17690,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1386" s="4"/>
+      <c r="C1386" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="D1386" s="4"/>
     </row>
     <row r="1387" spans="2:4" x14ac:dyDescent="0.25">
@@ -17725,7 +17701,7 @@
         <v/>
       </c>
       <c r="C1387" s="4" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="D1387" s="4"/>
     </row>
@@ -17735,7 +17711,7 @@
         <v/>
       </c>
       <c r="C1388" s="4" t="s">
-        <v>479</v>
+        <v>301</v>
       </c>
       <c r="D1388" s="4"/>
     </row>
@@ -17744,9 +17720,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1389" s="4" t="s">
-        <v>480</v>
-      </c>
+      <c r="C1389" s="4"/>
       <c r="D1389" s="4"/>
     </row>
     <row r="1390" spans="2:4" x14ac:dyDescent="0.25">
@@ -17755,7 +17729,7 @@
         <v/>
       </c>
       <c r="C1390" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D1390" s="4"/>
     </row>
@@ -17765,7 +17739,7 @@
         <v/>
       </c>
       <c r="C1391" s="4" t="s">
-        <v>726</v>
+        <v>479</v>
       </c>
       <c r="D1391" s="4"/>
     </row>
@@ -17775,7 +17749,7 @@
         <v/>
       </c>
       <c r="C1392" s="4" t="s">
-        <v>727</v>
+        <v>480</v>
       </c>
       <c r="D1392" s="4"/>
     </row>
@@ -17784,7 +17758,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1393" s="4"/>
+      <c r="C1393" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="D1393" s="4"/>
     </row>
     <row r="1394" spans="2:4" x14ac:dyDescent="0.25">
@@ -17792,7 +17768,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1394" s="4"/>
+      <c r="C1394" s="4" t="s">
+        <v>725</v>
+      </c>
       <c r="D1394" s="4"/>
     </row>
     <row r="1395" spans="2:4" x14ac:dyDescent="0.25">
@@ -17801,7 +17779,7 @@
         <v/>
       </c>
       <c r="C1395" s="4" t="s">
-        <v>301</v>
+        <v>726</v>
       </c>
       <c r="D1395" s="4"/>
     </row>
@@ -17810,9 +17788,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1396" s="4" t="s">
-        <v>357</v>
-      </c>
+      <c r="C1396" s="4"/>
       <c r="D1396" s="4"/>
     </row>
     <row r="1397" spans="2:4" x14ac:dyDescent="0.25">
@@ -17820,9 +17796,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1397" s="4" t="s">
-        <v>358</v>
-      </c>
+      <c r="C1397" s="4"/>
       <c r="D1397" s="4"/>
     </row>
     <row r="1398" spans="2:4" x14ac:dyDescent="0.25">
@@ -17840,7 +17814,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1399" s="4"/>
+      <c r="C1399" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="D1399" s="4"/>
     </row>
     <row r="1400" spans="2:4" x14ac:dyDescent="0.25">
@@ -17849,7 +17825,7 @@
         <v/>
       </c>
       <c r="C1400" s="4" t="s">
-        <v>482</v>
+        <v>358</v>
       </c>
       <c r="D1400" s="4"/>
     </row>
@@ -17859,7 +17835,7 @@
         <v/>
       </c>
       <c r="C1401" s="4" t="s">
-        <v>483</v>
+        <v>301</v>
       </c>
       <c r="D1401" s="4"/>
     </row>
@@ -17868,9 +17844,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1402" s="4" t="s">
-        <v>484</v>
-      </c>
+      <c r="C1402" s="4"/>
       <c r="D1402" s="4"/>
     </row>
     <row r="1403" spans="2:4" x14ac:dyDescent="0.25">
@@ -17879,7 +17853,7 @@
         <v/>
       </c>
       <c r="C1403" s="4" t="s">
-        <v>955</v>
+        <v>482</v>
       </c>
       <c r="D1403" s="4"/>
     </row>
@@ -17889,7 +17863,7 @@
         <v/>
       </c>
       <c r="C1404" s="4" t="s">
-        <v>956</v>
+        <v>483</v>
       </c>
       <c r="D1404" s="4"/>
     </row>
@@ -17899,7 +17873,7 @@
         <v/>
       </c>
       <c r="C1405" s="4" t="s">
-        <v>728</v>
+        <v>484</v>
       </c>
       <c r="D1405" s="4"/>
     </row>
@@ -17908,7 +17882,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1406" s="4"/>
+      <c r="C1406" s="4" t="s">
+        <v>972</v>
+      </c>
       <c r="D1406" s="4"/>
     </row>
     <row r="1407" spans="2:4" x14ac:dyDescent="0.25">
@@ -17916,7 +17892,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1407" s="4"/>
+      <c r="C1407" s="4" t="s">
+        <v>973</v>
+      </c>
       <c r="D1407" s="4"/>
     </row>
     <row r="1408" spans="2:4" x14ac:dyDescent="0.25">
@@ -17925,7 +17903,7 @@
         <v/>
       </c>
       <c r="C1408" s="4" t="s">
-        <v>301</v>
+        <v>727</v>
       </c>
       <c r="D1408" s="4"/>
     </row>
@@ -17934,9 +17912,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1409" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="C1409" s="4"/>
       <c r="D1409" s="4"/>
     </row>
     <row r="1410" spans="2:4" x14ac:dyDescent="0.25">
@@ -17944,9 +17920,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1410" s="4" t="s">
-        <v>358</v>
-      </c>
+      <c r="C1410" s="4"/>
       <c r="D1410" s="4"/>
     </row>
     <row r="1411" spans="2:4" x14ac:dyDescent="0.25">
@@ -17964,7 +17938,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1412" s="4"/>
+      <c r="C1412" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="D1412" s="4"/>
     </row>
     <row r="1413" spans="2:4" x14ac:dyDescent="0.25">
@@ -17973,7 +17949,7 @@
         <v/>
       </c>
       <c r="C1413" s="4" t="s">
-        <v>729</v>
+        <v>358</v>
       </c>
       <c r="D1413" s="4"/>
     </row>
@@ -17983,7 +17959,7 @@
         <v/>
       </c>
       <c r="C1414" s="4" t="s">
-        <v>730</v>
+        <v>301</v>
       </c>
       <c r="D1414" s="4"/>
     </row>
@@ -17992,9 +17968,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1415" s="4" t="s">
-        <v>957</v>
-      </c>
+      <c r="C1415" s="4"/>
       <c r="D1415" s="4"/>
     </row>
     <row r="1416" spans="2:4" x14ac:dyDescent="0.25">
@@ -18003,7 +17977,7 @@
         <v/>
       </c>
       <c r="C1416" s="4" t="s">
-        <v>958</v>
+        <v>728</v>
       </c>
       <c r="D1416" s="4"/>
     </row>
@@ -18013,7 +17987,7 @@
         <v/>
       </c>
       <c r="C1417" s="4" t="s">
-        <v>959</v>
+        <v>729</v>
       </c>
       <c r="D1417" s="4"/>
     </row>
@@ -18022,7 +17996,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1418" s="4"/>
+      <c r="C1418" s="4" t="s">
+        <v>974</v>
+      </c>
       <c r="D1418" s="4"/>
     </row>
     <row r="1419" spans="2:4" x14ac:dyDescent="0.25">
@@ -18030,7 +18006,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1419" s="4"/>
+      <c r="C1419" s="4" t="s">
+        <v>975</v>
+      </c>
       <c r="D1419" s="4"/>
     </row>
     <row r="1420" spans="2:4" x14ac:dyDescent="0.25">
@@ -18039,7 +18017,7 @@
         <v/>
       </c>
       <c r="C1420" s="4" t="s">
-        <v>301</v>
+        <v>976</v>
       </c>
       <c r="D1420" s="4"/>
     </row>
@@ -18048,9 +18026,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1421" s="4" t="s">
-        <v>360</v>
-      </c>
+      <c r="C1421" s="4"/>
       <c r="D1421" s="4"/>
     </row>
     <row r="1422" spans="2:4" x14ac:dyDescent="0.25">
@@ -18058,9 +18034,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1422" s="4" t="s">
-        <v>361</v>
-      </c>
+      <c r="C1422" s="4"/>
       <c r="D1422" s="4"/>
     </row>
     <row r="1423" spans="2:4" x14ac:dyDescent="0.25">
@@ -18078,7 +18052,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1424" s="4"/>
+      <c r="C1424" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="D1424" s="4"/>
     </row>
     <row r="1425" spans="2:4" x14ac:dyDescent="0.25">
@@ -18087,7 +18063,7 @@
         <v/>
       </c>
       <c r="C1425" s="4" t="s">
-        <v>960</v>
+        <v>361</v>
       </c>
       <c r="D1425" s="4"/>
     </row>
@@ -18097,7 +18073,7 @@
         <v/>
       </c>
       <c r="C1426" s="4" t="s">
-        <v>961</v>
+        <v>301</v>
       </c>
       <c r="D1426" s="4"/>
     </row>
@@ -18106,9 +18082,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1427" s="4" t="s">
-        <v>962</v>
-      </c>
+      <c r="C1427" s="4"/>
       <c r="D1427" s="4"/>
     </row>
     <row r="1428" spans="2:4" x14ac:dyDescent="0.25">
@@ -18117,7 +18091,7 @@
         <v/>
       </c>
       <c r="C1428" s="4" t="s">
-        <v>963</v>
+        <v>762</v>
       </c>
       <c r="D1428" s="4"/>
     </row>
@@ -18126,7 +18100,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1429" s="4"/>
+      <c r="C1429" s="4" t="s">
+        <v>763</v>
+      </c>
       <c r="D1429" s="4"/>
     </row>
     <row r="1430" spans="2:4" x14ac:dyDescent="0.25">
@@ -18134,7 +18110,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1430" s="4"/>
+      <c r="C1430" s="4" t="s">
+        <v>977</v>
+      </c>
       <c r="D1430" s="4"/>
     </row>
     <row r="1431" spans="2:4" x14ac:dyDescent="0.25">
@@ -18143,28 +18121,24 @@
         <v/>
       </c>
       <c r="C1431" s="4" t="s">
-        <v>731</v>
+        <v>978</v>
       </c>
       <c r="D1431" s="4"/>
     </row>
     <row r="1432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1432" s="9" t="str">
         <f t="shared" ref="B1432:B1463" si="28">IF(LEFT(C1432,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1432)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1432)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1432)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1432)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1432)),"DEBUG",""))))))</f>
-        <v>INFO</v>
-      </c>
-      <c r="C1432" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C1432" s="4"/>
       <c r="D1432" s="4"/>
     </row>
     <row r="1433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1433" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
-      </c>
-      <c r="C1433" s="4" t="s">
-        <v>125</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C1433" s="4"/>
       <c r="D1433" s="4"/>
     </row>
     <row r="1434" spans="2:4" x14ac:dyDescent="0.25">
@@ -18173,77 +18147,77 @@
         <v/>
       </c>
       <c r="C1434" s="4" t="s">
-        <v>511</v>
+        <v>730</v>
       </c>
       <c r="D1434" s="4"/>
     </row>
     <row r="1435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1435" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1435" s="4" t="s">
-        <v>512</v>
+        <v>124</v>
       </c>
       <c r="D1435" s="4"/>
     </row>
     <row r="1436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1436" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1436" s="4" t="s">
-        <v>362</v>
+        <v>125</v>
       </c>
       <c r="D1436" s="4"/>
     </row>
     <row r="1437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1437" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1437" s="4" t="s">
-        <v>376</v>
+        <v>511</v>
       </c>
       <c r="D1437" s="4"/>
     </row>
     <row r="1438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1438" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1438" s="4" t="s">
-        <v>133</v>
+        <v>512</v>
       </c>
       <c r="D1438" s="4"/>
     </row>
     <row r="1439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1439" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1439" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D1439" s="4"/>
     </row>
     <row r="1440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1440" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1440" s="4" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D1440" s="4"/>
     </row>
     <row r="1441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1441" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1441" s="4" t="s">
-        <v>513</v>
+        <v>133</v>
       </c>
       <c r="D1441" s="4"/>
     </row>
@@ -18253,68 +18227,70 @@
         <v>INFO</v>
       </c>
       <c r="C1442" s="4" t="s">
-        <v>124</v>
+        <v>366</v>
       </c>
       <c r="D1442" s="4"/>
     </row>
     <row r="1443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1443" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1443" s="4" t="s">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="D1443" s="4"/>
     </row>
-    <row r="1444" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1444" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>WARNING</v>
+        <v/>
       </c>
       <c r="C1444" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D1444" s="4" t="s">
-        <v>967</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="D1444" s="4"/>
     </row>
     <row r="1445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1445" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1445" s="4" t="s">
-        <v>514</v>
+        <v>124</v>
       </c>
       <c r="D1445" s="4"/>
     </row>
     <row r="1446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1446" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1446" s="4" t="s">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="D1446" s="4"/>
     </row>
-    <row r="1447" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1447" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B1447" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>WARNING</v>
       </c>
       <c r="C1447" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1447" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="D1447" s="4" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="1448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1448" s="9" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="C1448" s="4"/>
+      <c r="C1448" s="4" t="s">
+        <v>514</v>
+      </c>
       <c r="D1448" s="4"/>
     </row>
     <row r="1449" spans="2:4" x14ac:dyDescent="0.25">
@@ -18323,7 +18299,7 @@
         <v/>
       </c>
       <c r="C1449" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D1449" s="4"/>
     </row>
@@ -18333,7 +18309,7 @@
         <v/>
       </c>
       <c r="C1450" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D1450" s="4"/>
     </row>
@@ -18342,9 +18318,7 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="C1451" s="4" t="s">
-        <v>372</v>
-      </c>
+      <c r="C1451" s="4"/>
       <c r="D1451" s="4"/>
     </row>
     <row r="1452" spans="2:4" x14ac:dyDescent="0.25">
@@ -18353,7 +18327,7 @@
         <v/>
       </c>
       <c r="C1452" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D1452" s="4"/>
     </row>
@@ -18363,7 +18337,7 @@
         <v/>
       </c>
       <c r="C1453" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D1453" s="4"/>
     </row>
@@ -18373,17 +18347,17 @@
         <v/>
       </c>
       <c r="C1454" s="4" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="D1454" s="4"/>
     </row>
     <row r="1455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1455" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1455" s="4" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="D1455" s="4"/>
     </row>
@@ -18393,17 +18367,17 @@
         <v/>
       </c>
       <c r="C1456" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D1456" s="4"/>
     </row>
     <row r="1457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1457" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1457" s="4" t="s">
-        <v>376</v>
+        <v>129</v>
       </c>
       <c r="D1457" s="4"/>
     </row>
@@ -18413,17 +18387,17 @@
         <v>INFO</v>
       </c>
       <c r="C1458" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D1458" s="4"/>
     </row>
     <row r="1459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1459" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1459" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D1459" s="4"/>
     </row>
@@ -18433,7 +18407,7 @@
         <v>INFO</v>
       </c>
       <c r="C1460" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D1460" s="4"/>
     </row>
@@ -18443,37 +18417,37 @@
         <v>INFO</v>
       </c>
       <c r="C1461" s="4" t="s">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="D1461" s="4"/>
     </row>
     <row r="1462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1462" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1462" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D1462" s="4"/>
     </row>
     <row r="1463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1463" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1463" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D1463" s="4"/>
     </row>
     <row r="1464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1464" s="9" t="str">
         <f t="shared" ref="B1464:B1466" si="29">IF(LEFT(C1464,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1464)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1464)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1464)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1464)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1464)),"DEBUG",""))))))</f>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1464" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D1464" s="4"/>
     </row>
@@ -18483,7 +18457,7 @@
         <v/>
       </c>
       <c r="C1465" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D1465" s="4"/>
     </row>
@@ -18493,7 +18467,7 @@
         <v/>
       </c>
       <c r="C1466" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D1466" s="4"/>
     </row>
@@ -18503,7 +18477,7 @@
         <v/>
       </c>
       <c r="C1467" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D1467" s="4"/>
     </row>
@@ -18513,129 +18487,159 @@
         <v/>
       </c>
       <c r="C1468" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D1468" s="4"/>
     </row>
     <row r="1469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1469" s="9" t="str">
         <f t="shared" ref="B1469:B1473" si="31">IF(LEFT(C1469,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1469)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1469)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1469)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1469)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1469)),"DEBUG",""))))))</f>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1469" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D1469" s="4"/>
     </row>
     <row r="1470" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1470" s="9" t="str">
         <f t="shared" si="31"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1470" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D1470" s="4"/>
     </row>
     <row r="1471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1471" s="9" t="str">
         <f t="shared" si="31"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1471" s="4" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
       <c r="D1471" s="4"/>
     </row>
     <row r="1472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1472" s="9" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1472" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D1472" s="4"/>
     </row>
     <row r="1473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1473" s="9" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1473" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1473" s="4"/>
+    </row>
+    <row r="1474" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1474" s="9" t="str">
+        <f t="shared" ref="B1474:B1480" si="32">IF(LEFT(C1474,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1474)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1474)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1474)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1474)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1474)),"DEBUG",""))))))</f>
+        <v>INFO</v>
+      </c>
+      <c r="C1474" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1474" s="4"/>
+    </row>
+    <row r="1475" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1475" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="C1475" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1475" s="4"/>
+    </row>
+    <row r="1476" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1476" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="C1476" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D1473" s="4"/>
-    </row>
-    <row r="1474" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1474" s="28" t="str">
-        <f t="shared" ref="B1474:B1480" si="32">IF(LEFT(C1474,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1474)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1474)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1474)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1474)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1474)),"DEBUG",""))))))</f>
-        <v/>
-      </c>
-      <c r="C1474" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="D1474" s="4"/>
-    </row>
-    <row r="1475" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1475" s="28" t="str">
+      <c r="D1476" s="4"/>
+    </row>
+    <row r="1477" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1477" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="C1475" s="4" t="s">
+      <c r="C1477" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="D1477" s="4"/>
+    </row>
+    <row r="1478" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1478" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="C1478" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D1475" s="4"/>
-    </row>
-    <row r="1476" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1476" s="28" t="str">
+      <c r="D1478" s="4"/>
+    </row>
+    <row r="1479" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1479" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="C1476" s="4" t="s">
+      <c r="C1479" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D1476" s="4"/>
-    </row>
-    <row r="1477" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1477" s="28" t="str">
+      <c r="D1479" s="4"/>
+    </row>
+    <row r="1480" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1480" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="C1477" s="4" t="s">
+      <c r="C1480" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D1477" s="4"/>
-    </row>
-    <row r="1478" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1478" s="28" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="C1478" s="4" t="s">
+      <c r="D1480" s="4"/>
+    </row>
+    <row r="1481" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1481" s="9" t="str">
+        <f t="shared" ref="B1481:B1483" si="33">IF(LEFT(C1481,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1481)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1481)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1481)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1481)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1481)),"DEBUG",""))))))</f>
+        <v/>
+      </c>
+      <c r="C1481" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D1478" s="4"/>
-    </row>
-    <row r="1479" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1479" s="28" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="C1479" s="4" t="s">
+      <c r="D1481" s="4"/>
+    </row>
+    <row r="1482" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1482" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C1482" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D1479" s="4"/>
-    </row>
-    <row r="1480" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1480" s="28" t="str">
-        <f t="shared" si="32"/>
+      <c r="D1482" s="4"/>
+    </row>
+    <row r="1483" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1483" s="9" t="str">
+        <f t="shared" si="33"/>
         <v>INFO</v>
       </c>
-      <c r="C1480" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="D1480" s="4"/>
+      <c r="C1483" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="D1483" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/uart_report.xlsx
+++ b/docs/uart_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UF523TCH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6257E1-515F-40BE-B21C-F85E58473B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168960D-90E4-4293-9012-EB53469678DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{85EF69C1-0CF4-4C88-A077-43C70A228E3E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="980">
   <si>
     <t>#-----------------------------------------------------------</t>
   </si>
@@ -2326,19 +2326,10 @@
     <t>INFO: [Synth 8-256] done synthesizing module 'SPI_MASTER' (0#1) [/home/tim/projects/uart/sources/spi/spi_master.vhd:100]</t>
   </si>
   <si>
-    <t>INFO: [Synth 8-638] synthesizing module 'VGA_CONTROLLER' [/home/tim/projects/uart/sources/vga/vga_controller.vhd:97]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-256] done synthesizing module 'VGA_CONTROLLER' (0#1) [/home/tim/projects/uart/sources/vga/vga_controller.vhd:97]</t>
-  </si>
-  <si>
     <t>INFO: [Synth 8-256] done synthesizing module 'TOP_FPGA' (0#1) [/home/tim/projects/uart/sources/top_fpga/top_fpga.vhd:94]</t>
   </si>
   <si>
     <t xml:space="preserve">                    3 Bit    Registers := 15</t>
-  </si>
-  <si>
-    <t>|3     |LUT2      |    37|</t>
   </si>
   <si>
     <t>|12    |FDRE      |    68|</t>
@@ -2505,12 +2496,6 @@
     <t>INST_VGA</t>
   </si>
   <si>
-    <t>|10    |FDCE      |   233|</t>
-  </si>
-  <si>
-    <t>|11    |FDPE      |    50|</t>
-  </si>
-  <si>
     <t>WARNING: [Route 35-3387] High violations detected on bus-skew constraints. This can potentially cause WNS degradation and routing congestion.</t>
   </si>
   <si>
@@ -2523,616 +2508,628 @@
     <t>12 Infos, 1 Warnings, 0 Critical Warnings and 0 Errors encountered.</t>
   </si>
   <si>
-    <t># Start of session at: Mon Jan 12 17:14:02 2026</t>
-  </si>
-  <si>
-    <t># Process ID         : 222818</t>
-  </si>
-  <si>
-    <t># Available Virtual  : 16160 MB</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-7075] Helper process launched with PID 222963</t>
-  </si>
-  <si>
-    <t>Starting RTL Elaboration : Time (s): cpu = 00:00:02 ; elapsed = 00:00:03 . Memory (MB): peak = 2282.758 ; gain = 447.602 ; free physical = 4799 ; free virtual = 14202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Parameter G_GIT_ID bound to: 32'b10010110010010001111010110000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Parameter G_GIT_ID_MSB bound to: 16'b1001011001001000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Parameter G_GIT_ID_LSB bound to: 16'b1111010110000101</t>
-  </si>
-  <si>
-    <t>Finished RTL Elaboration : Time (s): cpu = 00:00:03 ; elapsed = 00:00:04 . Memory (MB): peak = 2372.695 ; gain = 537.539 ; free physical = 4683 ; free virtual = 14090</t>
-  </si>
-  <si>
-    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:03 ; elapsed = 00:00:04 . Memory (MB): peak = 2387.539 ; gain = 552.383 ; free physical = 4680 ; free virtual = 14087</t>
-  </si>
-  <si>
-    <t>Finished RTL Optimization Phase 1 : Time (s): cpu = 00:00:03 ; elapsed = 00:00:04 . Memory (MB): peak = 2387.539 ; gain = 552.383 ; free physical = 4680 ; free virtual = 14087</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2393.477 ; gain = 0.000 ; free physical = 4675 ; free virtual = 14082</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2510.277 ; gain = 0.000 ; free physical = 4641 ; free virtual = 14064</t>
-  </si>
-  <si>
-    <t>Constraint Validation Runtime : Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00.01 . Memory (MB): peak = 2510.312 ; gain = 0.000 ; free physical = 4640 ; free virtual = 14063</t>
-  </si>
-  <si>
-    <t>Finished Constraint Validation : Time (s): cpu = 00:00:07 ; elapsed = 00:00:08 . Memory (MB): peak = 2510.312 ; gain = 675.156 ; free physical = 4639 ; free virtual = 14063</t>
-  </si>
-  <si>
-    <t>Finished Loading Part and Timing Information : Time (s): cpu = 00:00:07 ; elapsed = 00:00:08 . Memory (MB): peak = 2518.281 ; gain = 683.125 ; free physical = 4639 ; free virtual = 14063</t>
-  </si>
-  <si>
-    <t>Finished applying 'set_property' XDC Constraints : Time (s): cpu = 00:00:07 ; elapsed = 00:00:08 . Memory (MB): peak = 2518.281 ; gain = 683.125 ; free physical = 4639 ; free virtual = 14063</t>
-  </si>
-  <si>
-    <t>Finished RTL Optimization Phase 2 : Time (s): cpu = 00:00:08 ; elapsed = 00:00:08 . Memory (MB): peak = 2518.281 ; gain = 683.125 ; free physical = 4638 ; free virtual = 14063</t>
-  </si>
-  <si>
-    <t>Finished Cross Boundary and Area Optimization : Time (s): cpu = 00:00:09 ; elapsed = 00:00:10 . Memory (MB): peak = 2518.281 ; gain = 683.125 ; free physical = 4614 ; free virtual = 14046</t>
-  </si>
-  <si>
-    <t>Finished Applying XDC Timing Constraints : Time (s): cpu = 00:00:12 ; elapsed = 00:00:12 . Memory (MB): peak = 2543.281 ; gain = 708.125 ; free physical = 4535 ; free virtual = 13974</t>
-  </si>
-  <si>
-    <t>Finished Timing Optimization : Time (s): cpu = 00:00:12 ; elapsed = 00:00:12 . Memory (MB): peak = 2544.281 ; gain = 709.125 ; free physical = 4535 ; free virtual = 13974</t>
-  </si>
-  <si>
-    <t>Finished Technology Mapping : Time (s): cpu = 00:00:12 ; elapsed = 00:00:13 . Memory (MB): peak = 2563.312 ; gain = 728.156 ; free physical = 4516 ; free virtual = 13955</t>
-  </si>
-  <si>
-    <t>Finished IO Insertion : Time (s): cpu = 00:00:14 ; elapsed = 00:00:14 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4366 ; free virtual = 13805</t>
-  </si>
-  <si>
-    <t>Finished Renaming Generated Instances : Time (s): cpu = 00:00:14 ; elapsed = 00:00:14 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
-  </si>
-  <si>
-    <t>Finished Rebuilding User Hierarchy : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
-  </si>
-  <si>
-    <t>Finished Renaming Generated Ports : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
-  </si>
-  <si>
-    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
-  </si>
-  <si>
-    <t>Finished Renaming Generated Nets : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
-  </si>
-  <si>
-    <t>|4     |LUT3      |    27|</t>
-  </si>
-  <si>
     <t>|5     |LUT4      |    49|</t>
   </si>
   <si>
-    <t>|6     |LUT5      |    53|</t>
-  </si>
-  <si>
-    <t>|7     |LUT6      |   139|</t>
-  </si>
-  <si>
-    <t>|8     |MUXF7     |     8|</t>
-  </si>
-  <si>
-    <t>Finished Writing Synthesis Report : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.125 ; gain = 894.969 ; free physical = 4369 ; free virtual = 13808</t>
-  </si>
-  <si>
-    <t>Synthesis Optimization Runtime : Time (s): cpu = 00:00:13 ; elapsed = 00:00:14 . Memory (MB): peak = 2730.125 ; gain = 772.195 ; free physical = 4368 ; free virtual = 13807</t>
-  </si>
-  <si>
-    <t>Synthesis Optimization Complete : Time (s): cpu = 00:00:14 ; elapsed = 00:00:15 . Memory (MB): peak = 2730.133 ; gain = 894.969 ; free physical = 4368 ; free virtual = 13807</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2730.133 ; gain = 0.000 ; free physical = 4368 ; free virtual = 13807</t>
-  </si>
-  <si>
-    <t>INFO: [Netlist 29-17] Analyzing 9 Unisim elements for replacement</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3255.980 ; gain = 0.000 ; free physical = 4115 ; free virtual = 13571</t>
-  </si>
-  <si>
-    <t>Synth Design complete | Checksum: 47a7112f</t>
-  </si>
-  <si>
-    <t>synth_design: Time (s): cpu = 00:00:20 ; elapsed = 00:00:20 . Memory (MB): peak = 3256.016 ; gain = 1420.938 ; free physical = 4115 ; free virtual = 13571</t>
-  </si>
-  <si>
-    <t>INFO: [Common 17-2834] synth_design peak Physical Memory [PSS] (MB): overall = 2500.520; main = 2500.520; forked = 336.380</t>
-  </si>
-  <si>
-    <t>INFO: [Common 17-2834] synth_design peak Virtual Memory [VSS] (MB): overall = 3474.492; main = 3255.980; forked = 956.211</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:01 ; elapsed = 00:00:00.41 . Memory (MB): peak = 3256.016 ; gain = 0.000 ; free physical = 4088 ; free virtual = 13545</t>
-  </si>
-  <si>
-    <t>Ending Cache Timing Information Task | Checksum: 14276a028</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3256.016 ; gain = 0.000 ; free physical = 4088 ; free virtual = 13545</t>
-  </si>
-  <si>
-    <t>Phase 1.1 Core Generation And Design Setup | Checksum: 14276a028</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Phase 1.2 Setup Constraints And Sort Netlist | Checksum: 14276a028</t>
-  </si>
-  <si>
-    <t>Phase 1 Initialization | Checksum: 14276a028</t>
-  </si>
-  <si>
-    <t>Phase 2.1 Timer Update | Checksum: 14276a028</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.04 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Phase 2.2 Timing Data Collection | Checksum: 14276a028</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.05 ; elapsed = 00:00:00.03 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Phase 2 Timer Update And Timing Data Collection | Checksum: 14276a028</t>
-  </si>
-  <si>
-    <t>Phase 3 Retarget | Checksum: 15fe73994</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.14 ; elapsed = 00:00:00.06 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Retarget | Checksum: 15fe73994</t>
-  </si>
-  <si>
-    <t>Phase 4 Constant propagation | Checksum: 15fe73994</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.16 ; elapsed = 00:00:00.08 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Constant propagation | Checksum: 15fe73994</t>
-  </si>
-  <si>
-    <t>Done building netlist checker database: Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Phase 5 Sweep | Checksum: 1cbddc8bb</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.17 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3330.965 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Sweep | Checksum: 1cbddc8bb</t>
-  </si>
-  <si>
-    <t>Phase 6 BUFG optimization | Checksum: 1cbddc8bb</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.19 ; elapsed = 00:00:00.12 . Memory (MB): peak = 3362.980 ; gain = 32.016 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>BUFG optimization | Checksum: 1cbddc8bb</t>
-  </si>
-  <si>
-    <t>Phase 7 Shift Register Optimization | Checksum: 1cbddc8bb</t>
-  </si>
-  <si>
-    <t>Shift Register Optimization | Checksum: 1cbddc8bb</t>
-  </si>
-  <si>
-    <t>Phase 8 Post Processing Netlist | Checksum: 1cbddc8bb</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.19 ; elapsed = 00:00:00.13 . Memory (MB): peak = 3362.980 ; gain = 32.016 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Post Processing Netlist | Checksum: 1cbddc8bb</t>
-  </si>
-  <si>
-    <t>Phase 9.1 Finalizing Design Cores and Updating Shapes | Checksum: 1f46072b0</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.19 ; elapsed = 00:00:00.14 . Memory (MB): peak = 3362.980 ; gain = 32.016 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Phase 9.2 Verifying Netlist Connectivity | Checksum: 1f46072b0</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.2 ; elapsed = 00:00:00.15 . Memory (MB): peak = 3362.980 ; gain = 32.016 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Phase 9 Finalization | Checksum: 1f46072b0</t>
-  </si>
-  <si>
-    <t>Ending Logic Optimization Task | Checksum: 1f46072b0</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.21 ; elapsed = 00:00:00.15 . Memory (MB): peak = 3362.980 ; gain = 32.016 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Ending Power Optimization Task | Checksum: 1f46072b0</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Ending Final Cleanup Task | Checksum: 1f46072b0</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Ending Netlist Obfuscation Task | Checksum: 1f46072b0</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13421</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13422</t>
-  </si>
-  <si>
-    <t>Phase 1.1 Placer Initialization Netlist Sorting | Checksum: 1408de485</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13422</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13422</t>
-  </si>
-  <si>
-    <t>Phase 1.2 IO Placement/ Clock Placement/ Build Placer Device | Checksum: 165922578</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.32 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3362.980 ; gain = 0.000 ; free physical = 3963 ; free virtual = 13425</t>
-  </si>
-  <si>
-    <t>Phase 1.3 Build Placer Netlist Model | Checksum: 22d8bc3b0</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.6 ; elapsed = 00:00:00.23 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3963 ; free virtual = 13426</t>
-  </si>
-  <si>
-    <t>Phase 1.4 Constrain Clocks/Macros | Checksum: 22d8bc3b0</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.61 ; elapsed = 00:00:00.23 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13426</t>
-  </si>
-  <si>
-    <t>Phase 1 Placer Initialization | Checksum: 22d8bc3b0</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.62 ; elapsed = 00:00:00.24 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13426</t>
-  </si>
-  <si>
-    <t>Phase 2.1 Floorplanning | Checksum: 1b5b1c132</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.8 ; elapsed = 00:00:00.36 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3945 ; free virtual = 13408</t>
-  </si>
-  <si>
-    <t>Phase 2.2 Update Timing before SLR Path Opt | Checksum: 1edbbfd84</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.88 ; elapsed = 00:00:00.4 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3960 ; free virtual = 13424</t>
-  </si>
-  <si>
-    <t>Phase 2.3 Post-Processing in Floorplanning | Checksum: 1edbbfd84</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.89 ; elapsed = 00:00:00.4 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3960 ; free virtual = 13424</t>
-  </si>
-  <si>
-    <t>Phase 2.4 Global Place Phase1 | Checksum: 20c73fab5</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3949 ; free virtual = 13414</t>
-  </si>
-  <si>
-    <t>Phase 2.5.1 UpdateTiming Before Physical Synthesis | Checksum: 20c73fab5</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3963 ; free virtual = 13428</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3960 ; free virtual = 13428</t>
-  </si>
-  <si>
-    <t>Phase 2.5.2 Physical Synthesis In Placer | Checksum: d5c605e1</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3959 ; free virtual = 13427</t>
-  </si>
-  <si>
-    <t>Phase 2.5 Global Place Phase2 | Checksum: 187ef186f</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13430</t>
-  </si>
-  <si>
-    <t>Phase 2 Global Placement | Checksum: 187ef186f</t>
-  </si>
-  <si>
-    <t>Phase 3.1 Commit Multi Column Macros | Checksum: 1c353a995</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3961 ; free virtual = 13430</t>
-  </si>
-  <si>
-    <t>Phase 3.2 Commit Most Macros &amp; LUTRAMs | Checksum: 108d05362</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:05 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3961 ; free virtual = 13429</t>
-  </si>
-  <si>
-    <t>Phase 3.3 Area Swap Optimization | Checksum: 130f0a931</t>
-  </si>
-  <si>
-    <t>Phase 3.4 Pipeline Register Optimization | Checksum: 13abffeac</t>
-  </si>
-  <si>
-    <t>Phase 3.5 Small Shape Detail Placement | Checksum: 11d0c6e3a</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:05 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13431</t>
-  </si>
-  <si>
-    <t>Phase 3.6 Re-assign LUT pins | Checksum: 186d429a7</t>
-  </si>
-  <si>
-    <t>Phase 3.7 Pipeline Register Optimization | Checksum: 12f937188</t>
-  </si>
-  <si>
-    <t>Phase 3 Detail Placement | Checksum: 12f937188</t>
-  </si>
-  <si>
-    <t>Post Placement Optimization Initialization | Checksum: 1e5440d39</t>
-  </si>
-  <si>
-    <t>INFO: [Physopt 32-619] Estimated Timing Summary | WNS=11.956 | TNS=0.000 |</t>
-  </si>
-  <si>
-    <t>Phase 1 Physical Synthesis Initialization | Checksum: 1bc7b5c8d</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.05 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3962 ; free virtual = 13431</t>
-  </si>
-  <si>
-    <t>Ending Physical Synthesis Task | Checksum: 1f57e16e4</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.06 ; elapsed = 00:00:00.03 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3962 ; free virtual = 13431</t>
-  </si>
-  <si>
-    <t>Phase 4.1.1.1 BUFG Insertion | Checksum: 1e5440d39</t>
-  </si>
-  <si>
-    <t>INFO: [Place 30-746] Post Placement Timing Summary WNS=11.956. For the most accurate timing information please run report_timing.</t>
-  </si>
-  <si>
-    <t>Phase 4.1.1.2 Post Placement Timing Optimization | Checksum: 1cf1a2405</t>
-  </si>
-  <si>
-    <t>Phase 4.1 Post Commit Optimization | Checksum: 1cf1a2405</t>
-  </si>
-  <si>
-    <t>Phase 4.2 Post Placement Cleanup | Checksum: 1cf1a2405</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:06 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13431</t>
-  </si>
-  <si>
-    <t>Phase 4.3.1 Print Estimated Congestion | Checksum: 1cf1a2405</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:06 ; elapsed = 00:00:03 . Memory (MB): peak = 3402.023 ; gain = 39.043 ; free physical = 3962 ; free virtual = 13431</t>
-  </si>
-  <si>
-    <t>Phase 4.3 Placer Reporting | Checksum: 1cf1a2405</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3962 ; free virtual = 13431</t>
-  </si>
-  <si>
-    <t>Phase 4 Post Placement Optimization and Clean-Up | Checksum: 1a3ccbbd2</t>
-  </si>
-  <si>
-    <t>Ending Placer Task | Checksum: 1165e2086</t>
-  </si>
-  <si>
-    <t>report_io: Time (s): cpu = 00:00:00.06 ; elapsed = 00:00:00.11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3950 ; free virtual = 13419</t>
-  </si>
-  <si>
-    <t>report_control_sets: Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00.04 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3950 ; free virtual = 13419</t>
-  </si>
-  <si>
-    <t>Checksum: PlaceDB: c6a1cbe7 ConstDB: 0 ShapeSum: 39c2e1af RouteDB: 15f972f0</t>
-  </si>
-  <si>
-    <t>Post Restoration Checksum: NetGraph: e12d1f52 | NumContArr: cc4f1b | Constraints: c2a8fa9d | Timing: c2a8fa9d</t>
-  </si>
-  <si>
-    <t>Phase 1 Build RT Design | Checksum: 2674b63a7</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:13 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3945 ; free virtual = 13416</t>
-  </si>
-  <si>
-    <t>Phase 2.1 Fix Topology Constraints | Checksum: 2674b63a7</t>
-  </si>
-  <si>
-    <t>Phase 2.2 Pre Route Cleanup | Checksum: 2674b63a7</t>
-  </si>
-  <si>
-    <t>Phase 2.3 Update Timing | Checksum: 25c684593</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:14 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3944 ; free virtual = 13416</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.898 | TNS=0.000  | WHS=-0.148 | THS=-10.234|</t>
-  </si>
-  <si>
-    <t>Phase 2.4.1 Update Timing | Checksum: 26c8eee94</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.898 | TNS=0.000  | WHS=0.048  | THS=0.000  |</t>
-  </si>
-  <si>
-    <t>Phase 2.4 Update Timing for Bus Skew | Checksum: 2ada801a2</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:14 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3941 ; free virtual = 13416</t>
-  </si>
-  <si>
-    <t>Phase 2.5 Soft Constraint Pins - Fast Budgeting | Checksum: 2ada801a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Number of Failed Nets               = 510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Number of Unrouted Nets             = 510</t>
-  </si>
-  <si>
-    <t>Phase 2 Router Initialization | Checksum: 3006f1c2b</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:15 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3941 ; free virtual = 13416</t>
-  </si>
-  <si>
-    <t>Phase 3 Global Routing | Checksum: 3006f1c2b</t>
-  </si>
-  <si>
-    <t>Phase 4.1 Initial Net Routing Pass | Checksum: 26e65dc3a</t>
-  </si>
-  <si>
-    <t>Phase 4 Initial Routing | Checksum: 26e65dc3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Number of Nodes with overlaps = 39</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.649 | TNS=0.000  | WHS=N/A    | THS=N/A    |</t>
-  </si>
-  <si>
-    <t>Phase 5.1 Global Iteration 0 | Checksum: 1b24d4375</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:15 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3940 ; free virtual = 13415</t>
-  </si>
-  <si>
-    <t>Phase 5.2 Global Iteration 1 | Checksum: 25c0f0767</t>
-  </si>
-  <si>
-    <t>Phase 5 Rip-up And Reroute | Checksum: 25c0f0767</t>
-  </si>
-  <si>
-    <t>Phase 6.1 Delay CleanUp | Checksum: 25c0f0767</t>
-  </si>
-  <si>
-    <t>Phase 6.2 Clock Skew Optimization | Checksum: 25c0f0767</t>
-  </si>
-  <si>
-    <t>Phase 6 Delay and Skew Optimization | Checksum: 25c0f0767</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.729 | TNS=0.000  | WHS=0.047  | THS=0.000  |</t>
-  </si>
-  <si>
-    <t>Phase 7.1 Hold Fix Iter | Checksum: 20b4d5170</t>
-  </si>
-  <si>
-    <t>Phase 7 Post Hold Fix | Checksum: 20b4d5170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Global Vertical Routing Utilization    = 0.123278 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Global Horizontal Routing Utilization  = 0.123901 %</t>
-  </si>
-  <si>
-    <t>Phase 8 Route finalize | Checksum: 20b4d5170</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:15 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3940 ; free virtual = 13416</t>
-  </si>
-  <si>
-    <t>Phase 9 Verifying routed nets | Checksum: 20b4d5170</t>
-  </si>
-  <si>
-    <t>Phase 10 Depositing Routes | Checksum: 242644a92</t>
-  </si>
-  <si>
-    <t>Phase 11 Post Process Routing | Checksum: 242644a92</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-57] Estimated Timing Summary | WNS=11.729 | TNS=0.000  | WHS=0.047  | THS=0.000  |</t>
-  </si>
-  <si>
-    <t>Phase 12 Post Router Timing | Checksum: 242644a92</t>
-  </si>
-  <si>
-    <t>Total Elapsed time in route_design: 11.4 secs</t>
-  </si>
-  <si>
-    <t>Phase 13 Post-Route Event Processing | Checksum: 15a2f4527</t>
-  </si>
-  <si>
-    <t>Ending Routing Task | Checksum: 15a2f4527</t>
-  </si>
-  <si>
-    <t>route_design: Time (s): cpu = 00:00:15 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3940 ; free virtual = 13415</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.15 ; elapsed = 00:00:00.06 . Memory (MB): peak = 3402.023 ; gain = 0.000 ; free physical = 3939 ; free virtual = 13414</t>
-  </si>
-  <si>
-    <t>INFO: [Vivado_Tcl 4-2279] Estimated Timing Summary | WNS= 11.731 | TNS= 0.000 |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     11.731        0.000                      0                  812        0.047        0.000                      0                  769        3.000        0.000                       0                   359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  clk_out1_clk_wiz_0       14.041        0.000                      0                  434        0.047        0.000                      0                  429        9.500        0.000                       0                   280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  clk_out2_clk_wiz_0       11.731        0.000                      0                   80        0.115        0.000                      0                   75        7.192        0.000                       0                    75</t>
-  </si>
-  <si>
-    <t>input port clock    clk_out1_clk_wiz_0       17.948        0.000                      0                    3</t>
-  </si>
-  <si>
-    <t>clk_out2_clk_wiz_0  clk_out1_clk_wiz_0       13.807        0.000                      0                    9</t>
-  </si>
-  <si>
-    <t>clk_out1_clk_wiz_0  clk_out2_clk_wiz_0       13.442        0.000                      0                   21</t>
-  </si>
-  <si>
-    <t>**async_default**   clk_out1_clk_wiz_0  clk_out1_clk_wiz_0       14.466        0.000                      0                  230        0.522        0.000                      0                  230</t>
-  </si>
-  <si>
-    <t>**async_default**   clk_out2_clk_wiz_0  clk_out2_clk_wiz_0       13.018        0.000                      0                   35        0.317        0.000                      0                   35</t>
-  </si>
-  <si>
-    <t>write_bitstream: Time (s): cpu = 00:00:14 ; elapsed = 00:00:26 . Memory (MB): peak = 3643.047 ; gain = 225.016 ; free physical = 3639 ; free virtual = 13124</t>
-  </si>
-  <si>
-    <t>INFO: [Common 17-206] Exiting Vivado at Mon Jan 12 17:15:17 2026...</t>
+    <t># Start of session at: Tue Jan 13 11:32:53 2026</t>
+  </si>
+  <si>
+    <t># Process ID         : 23101</t>
+  </si>
+  <si>
+    <t># Available Virtual  : 16176 MB</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-7075] Helper process launched with PID 23255</t>
+  </si>
+  <si>
+    <t>Starting RTL Elaboration : Time (s): cpu = 00:00:03 ; elapsed = 00:00:04 . Memory (MB): peak = 2282.094 ; gain = 449.812 ; free physical = 4660 ; free virtual = 14197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Parameter G_GIT_ID bound to: 32'b10111000011000100111001010110100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Parameter G_GIT_ID_MSB bound to: 16'b1011100001100010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Parameter G_GIT_ID_LSB bound to: 16'b0111001010110100</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-638] synthesizing module 'VGA_CONTROLLER' [/home/tim/projects/uart/sources/vga/vga_controller.vhd:92]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-256] done synthesizing module 'VGA_CONTROLLER' (0#1) [/home/tim/projects/uart/sources/vga/vga_controller.vhd:92]</t>
+  </si>
+  <si>
+    <t>Finished RTL Elaboration : Time (s): cpu = 00:00:04 ; elapsed = 00:00:05 . Memory (MB): peak = 2372.031 ; gain = 539.750 ; free physical = 4545 ; free virtual = 14085</t>
+  </si>
+  <si>
+    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:05 ; elapsed = 00:00:05 . Memory (MB): peak = 2389.844 ; gain = 557.562 ; free physical = 4542 ; free virtual = 14082</t>
+  </si>
+  <si>
+    <t>Finished RTL Optimization Phase 1 : Time (s): cpu = 00:00:05 ; elapsed = 00:00:05 . Memory (MB): peak = 2389.844 ; gain = 557.562 ; free physical = 4542 ; free virtual = 14082</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2395.781 ; gain = 0.000 ; free physical = 4536 ; free virtual = 14076</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2510.582 ; gain = 0.000 ; free physical = 4504 ; free virtual = 14061</t>
+  </si>
+  <si>
+    <t>Constraint Validation Runtime : Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 2510.617 ; gain = 0.000 ; free physical = 4503 ; free virtual = 14060</t>
+  </si>
+  <si>
+    <t>Finished Constraint Validation : Time (s): cpu = 00:00:09 ; elapsed = 00:00:09 . Memory (MB): peak = 2510.617 ; gain = 678.336 ; free physical = 4500 ; free virtual = 14058</t>
+  </si>
+  <si>
+    <t>Finished Loading Part and Timing Information : Time (s): cpu = 00:00:09 ; elapsed = 00:00:09 . Memory (MB): peak = 2518.586 ; gain = 686.305 ; free physical = 4500 ; free virtual = 14058</t>
+  </si>
+  <si>
+    <t>Finished applying 'set_property' XDC Constraints : Time (s): cpu = 00:00:09 ; elapsed = 00:00:09 . Memory (MB): peak = 2518.586 ; gain = 686.305 ; free physical = 4499 ; free virtual = 14057</t>
+  </si>
+  <si>
+    <t>Finished RTL Optimization Phase 2 : Time (s): cpu = 00:00:10 ; elapsed = 00:00:10 . Memory (MB): peak = 2518.586 ; gain = 686.305 ; free physical = 4544 ; free virtual = 14103</t>
+  </si>
+  <si>
+    <t>Finished Cross Boundary and Area Optimization : Time (s): cpu = 00:00:12 ; elapsed = 00:00:13 . Memory (MB): peak = 2518.586 ; gain = 686.305 ; free physical = 4517 ; free virtual = 14082</t>
+  </si>
+  <si>
+    <t>Finished Applying XDC Timing Constraints : Time (s): cpu = 00:00:16 ; elapsed = 00:00:16 . Memory (MB): peak = 2543.586 ; gain = 711.305 ; free physical = 4445 ; free virtual = 14018</t>
+  </si>
+  <si>
+    <t>Finished Timing Optimization : Time (s): cpu = 00:00:16 ; elapsed = 00:00:16 . Memory (MB): peak = 2544.586 ; gain = 712.305 ; free physical = 4444 ; free virtual = 14017</t>
+  </si>
+  <si>
+    <t>Finished Technology Mapping : Time (s): cpu = 00:00:16 ; elapsed = 00:00:16 . Memory (MB): peak = 2563.617 ; gain = 731.336 ; free physical = 4425 ; free virtual = 13998</t>
+  </si>
+  <si>
+    <t>Finished IO Insertion : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
+  </si>
+  <si>
+    <t>Finished Renaming Generated Instances : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
+  </si>
+  <si>
+    <t>Finished Rebuilding User Hierarchy : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
+  </si>
+  <si>
+    <t>Finished Renaming Generated Ports : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
+  </si>
+  <si>
+    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
+  </si>
+  <si>
+    <t>Finished Renaming Generated Nets : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
+  </si>
+  <si>
+    <t>|3     |LUT2      |    36|</t>
+  </si>
+  <si>
+    <t>|4     |LUT3      |    28|</t>
+  </si>
+  <si>
+    <t>|6     |LUT5      |    48|</t>
+  </si>
+  <si>
+    <t>|7     |LUT6      |   143|</t>
+  </si>
+  <si>
+    <t>|8     |MUXF7     |     5|</t>
+  </si>
+  <si>
+    <t>|10    |FDCE      |   232|</t>
+  </si>
+  <si>
+    <t>|11    |FDPE      |    51|</t>
+  </si>
+  <si>
+    <t>Finished Writing Synthesis Report : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
+  </si>
+  <si>
+    <t>Synthesis Optimization Runtime : Time (s): cpu = 00:00:18 ; elapsed = 00:00:18 . Memory (MB): peak = 2730.430 ; gain = 777.375 ; free physical = 4276 ; free virtual = 13849</t>
+  </si>
+  <si>
+    <t>Synthesis Optimization Complete : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.438 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2730.438 ; gain = 0.000 ; free physical = 4274 ; free virtual = 13848</t>
+  </si>
+  <si>
+    <t>INFO: [Netlist 29-17] Analyzing 6 Unisim elements for replacement</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3256.285 ; gain = 0.000 ; free physical = 4026 ; free virtual = 13616</t>
+  </si>
+  <si>
+    <t>Synth Design complete | Checksum: 8b12e9ef</t>
+  </si>
+  <si>
+    <t>synth_design: Time (s): cpu = 00:00:26 ; elapsed = 00:00:25 . Memory (MB): peak = 3256.320 ; gain = 1424.117 ; free physical = 4026 ; free virtual = 13615</t>
+  </si>
+  <si>
+    <t>INFO: [Common 17-2834] synth_design peak Physical Memory [PSS] (MB): overall = 2501.936; main = 2501.936; forked = 336.596</t>
+  </si>
+  <si>
+    <t>INFO: [Common 17-2834] synth_design peak Virtual Memory [VSS] (MB): overall = 3474.797; main = 3256.285; forked = 956.211</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:02 ; elapsed = 00:00:00.57 . Memory (MB): peak = 3256.320 ; gain = 0.000 ; free physical = 4000 ; free virtual = 13591</t>
+  </si>
+  <si>
+    <t>Ending Cache Timing Information Task | Checksum: 1e308c950</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3256.320 ; gain = 0.000 ; free physical = 4000 ; free virtual = 13591</t>
+  </si>
+  <si>
+    <t>Phase 1.1 Core Generation And Design Setup | Checksum: 1e308c950</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
+  </si>
+  <si>
+    <t>Phase 1.2 Setup Constraints And Sort Netlist | Checksum: 1e308c950</t>
+  </si>
+  <si>
+    <t>Phase 1 Initialization | Checksum: 1e308c950</t>
+  </si>
+  <si>
+    <t>Phase 2.1 Timer Update | Checksum: 1e308c950</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.08 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
+  </si>
+  <si>
+    <t>Phase 2.2 Timing Data Collection | Checksum: 1e308c950</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.09 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
+  </si>
+  <si>
+    <t>Phase 2 Timer Update And Timing Data Collection | Checksum: 1e308c950</t>
+  </si>
+  <si>
+    <t>Phase 3 Retarget | Checksum: 1c3d72a6c</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.15 ; elapsed = 00:00:00.04 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
+  </si>
+  <si>
+    <t>Retarget | Checksum: 1c3d72a6c</t>
+  </si>
+  <si>
+    <t>Phase 4 Constant propagation | Checksum: 1c3d72a6c</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.17 ; elapsed = 00:00:00.05 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
+  </si>
+  <si>
+    <t>Constant propagation | Checksum: 1c3d72a6c</t>
+  </si>
+  <si>
+    <t>Done building netlist checker database: Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
+  </si>
+  <si>
+    <t>Phase 5 Sweep | Checksum: 12fedd9a5</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.18 ; elapsed = 00:00:00.06 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
+  </si>
+  <si>
+    <t>Sweep | Checksum: 12fedd9a5</t>
+  </si>
+  <si>
+    <t>Phase 6 BUFG optimization | Checksum: 12fedd9a5</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.19 ; elapsed = 00:00:00.08 . Memory (MB): peak = 3363.285 ; gain = 32.016 ; free physical = 3867 ; free virtual = 13458</t>
+  </si>
+  <si>
+    <t>BUFG optimization | Checksum: 12fedd9a5</t>
+  </si>
+  <si>
+    <t>Phase 7 Shift Register Optimization | Checksum: 12fedd9a5</t>
+  </si>
+  <si>
+    <t>Shift Register Optimization | Checksum: 12fedd9a5</t>
+  </si>
+  <si>
+    <t>Phase 8 Post Processing Netlist | Checksum: 12fedd9a5</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.2 ; elapsed = 00:00:00.08 . Memory (MB): peak = 3363.285 ; gain = 32.016 ; free physical = 3867 ; free virtual = 13458</t>
+  </si>
+  <si>
+    <t>Post Processing Netlist | Checksum: 12fedd9a5</t>
+  </si>
+  <si>
+    <t>Phase 9.1 Finalizing Design Cores and Updating Shapes | Checksum: 118627f88</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.21 ; elapsed = 00:00:00.09 . Memory (MB): peak = 3363.285 ; gain = 32.016 ; free physical = 3867 ; free virtual = 13458</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3867 ; free virtual = 13458</t>
+  </si>
+  <si>
+    <t>Phase 9.2 Verifying Netlist Connectivity | Checksum: 118627f88</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.21 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3363.285 ; gain = 32.016 ; free physical = 3867 ; free virtual = 13458</t>
+  </si>
+  <si>
+    <t>Phase 9 Finalization | Checksum: 118627f88</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.21 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3363.285 ; gain = 32.016 ; free physical = 3869 ; free virtual = 13460</t>
+  </si>
+  <si>
+    <t>Ending Logic Optimization Task | Checksum: 118627f88</t>
+  </si>
+  <si>
+    <t>Ending Power Optimization Task | Checksum: 118627f88</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3865 ; free virtual = 13457</t>
+  </si>
+  <si>
+    <t>Ending Final Cleanup Task | Checksum: 118627f88</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3865 ; free virtual = 13457</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3865 ; free virtual = 13457</t>
+  </si>
+  <si>
+    <t>Ending Netlist Obfuscation Task | Checksum: 118627f88</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3858 ; free virtual = 13450</t>
+  </si>
+  <si>
+    <t>Phase 1.1 Placer Initialization Netlist Sorting | Checksum: 10476e2a6</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3858 ; free virtual = 13450</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3858 ; free virtual = 13450</t>
+  </si>
+  <si>
+    <t>Phase 1.2 IO Placement/ Clock Placement/ Build Placer Device | Checksum: 160cface2</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.44 ; elapsed = 00:00:00.14 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3856 ; free virtual = 13452</t>
+  </si>
+  <si>
+    <t>Phase 1.3 Build Placer Netlist Model | Checksum: 18d9565cb</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.77 ; elapsed = 00:00:00.29 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3854 ; free virtual = 13451</t>
+  </si>
+  <si>
+    <t>Phase 1.4 Constrain Clocks/Macros | Checksum: 18d9565cb</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.79 ; elapsed = 00:00:00.29 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3854 ; free virtual = 13451</t>
+  </si>
+  <si>
+    <t>Phase 1 Placer Initialization | Checksum: 18d9565cb</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.8 ; elapsed = 00:00:00.3 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3854 ; free virtual = 13451</t>
+  </si>
+  <si>
+    <t>Phase 2.1 Floorplanning | Checksum: 16cbb39ee</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:01 ; elapsed = 00:00:00.41 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3834 ; free virtual = 13431</t>
+  </si>
+  <si>
+    <t>Phase 2.2 Update Timing before SLR Path Opt | Checksum: 2311f05d1</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:01 ; elapsed = 00:00:00.46 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3850 ; free virtual = 13448</t>
+  </si>
+  <si>
+    <t>Phase 2.3 Post-Processing in Floorplanning | Checksum: 2311f05d1</t>
+  </si>
+  <si>
+    <t>Phase 2.4 Global Place Phase1 | Checksum: 19214f9a0</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:01 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3849 ; free virtual = 13447</t>
+  </si>
+  <si>
+    <t>Phase 2.5.1 UpdateTiming Before Physical Synthesis | Checksum: 19214f9a0</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3847 ; free virtual = 13449</t>
+  </si>
+  <si>
+    <t>Phase 2.5.2 Physical Synthesis In Placer | Checksum: 1fb1d0e0a</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3847 ; free virtual = 13448</t>
+  </si>
+  <si>
+    <t>Phase 2.5 Global Place Phase2 | Checksum: 1d13a5b32</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3846 ; free virtual = 13448</t>
+  </si>
+  <si>
+    <t>Phase 2 Global Placement | Checksum: 1d13a5b32</t>
+  </si>
+  <si>
+    <t>Phase 3.1 Commit Multi Column Macros | Checksum: 19f904e3f</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3845 ; free virtual = 13447</t>
+  </si>
+  <si>
+    <t>Phase 3.2 Commit Most Macros &amp; LUTRAMs | Checksum: 25f9ed7df</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3844 ; free virtual = 13446</t>
+  </si>
+  <si>
+    <t>Phase 3.3 Area Swap Optimization | Checksum: 193b37491</t>
+  </si>
+  <si>
+    <t>Phase 3.4 Pipeline Register Optimization | Checksum: 220bae99b</t>
+  </si>
+  <si>
+    <t>Phase 3.5 Small Shape Detail Placement | Checksum: 1ca4672f7</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:05 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3843 ; free virtual = 13446</t>
+  </si>
+  <si>
+    <t>Phase 3.6 Re-assign LUT pins | Checksum: 1d388c172</t>
+  </si>
+  <si>
+    <t>Phase 3.7 Pipeline Register Optimization | Checksum: 1ba935707</t>
+  </si>
+  <si>
+    <t>Phase 3 Detail Placement | Checksum: 1ba935707</t>
+  </si>
+  <si>
+    <t>Post Placement Optimization Initialization | Checksum: 145ae03f1</t>
+  </si>
+  <si>
+    <t>INFO: [Physopt 32-619] Estimated Timing Summary | WNS=12.021 | TNS=0.000 |</t>
+  </si>
+  <si>
+    <t>Phase 1 Physical Synthesis Initialization | Checksum: 10d86badf</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.1 ; elapsed = 00:00:00.04 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3843 ; free virtual = 13445</t>
+  </si>
+  <si>
+    <t>Ending Physical Synthesis Task | Checksum: 156b3990e</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.12 ; elapsed = 00:00:00.05 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3843 ; free virtual = 13445</t>
+  </si>
+  <si>
+    <t>Phase 4.1.1.1 BUFG Insertion | Checksum: 145ae03f1</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:06 ; elapsed = 00:00:03 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3843 ; free virtual = 13445</t>
+  </si>
+  <si>
+    <t>INFO: [Place 30-746] Post Placement Timing Summary WNS=12.021. For the most accurate timing information please run report_timing.</t>
+  </si>
+  <si>
+    <t>Phase 4.1.1.2 Post Placement Timing Optimization | Checksum: 1649061f3</t>
+  </si>
+  <si>
+    <t>Phase 4.1 Post Commit Optimization | Checksum: 1649061f3</t>
+  </si>
+  <si>
+    <t>Phase 4.2 Post Placement Cleanup | Checksum: 1649061f3</t>
+  </si>
+  <si>
+    <t>Phase 4.3.1 Print Estimated Congestion | Checksum: 1649061f3</t>
+  </si>
+  <si>
+    <t>Phase 4.3 Placer Reporting | Checksum: 1649061f3</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3843 ; free virtual = 13445</t>
+  </si>
+  <si>
+    <t>Phase 4 Post Placement Optimization and Clean-Up | Checksum: e295d4b5</t>
+  </si>
+  <si>
+    <t>Ending Placer Task | Checksum: c0cd6eee</t>
+  </si>
+  <si>
+    <t>report_io: Time (s): cpu = 00:00:00.08 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3836 ; free virtual = 13439</t>
+  </si>
+  <si>
+    <t>report_control_sets: Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00.05 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3836 ; free virtual = 13439</t>
+  </si>
+  <si>
+    <t>Checksum: PlaceDB: 36197304 ConstDB: 0 ShapeSum: 74ba88fa RouteDB: 15f972f0</t>
+  </si>
+  <si>
+    <t>Post Restoration Checksum: NetGraph: 3b5d96a6 | NumContArr: 3b51fd33 | Constraints: c2a8fa9d | Timing: c2a8fa9d</t>
+  </si>
+  <si>
+    <t>Phase 1 Build RT Design | Checksum: 1fc018913</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:15 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3841 ; free virtual = 13445</t>
+  </si>
+  <si>
+    <t>Phase 2.1 Fix Topology Constraints | Checksum: 1fc018913</t>
+  </si>
+  <si>
+    <t>Phase 2.2 Pre Route Cleanup | Checksum: 1fc018913</t>
+  </si>
+  <si>
+    <t>Phase 2.3 Update Timing | Checksum: 1b803983c</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:16 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3841 ; free virtual = 13445</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.997 | TNS=0.000  | WHS=-0.150 | THS=-11.516|</t>
+  </si>
+  <si>
+    <t>Phase 2.4.1 Update Timing | Checksum: 1d0b2bc9b</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.997 | TNS=0.000  | WHS=-0.074 | THS=-0.174 |</t>
+  </si>
+  <si>
+    <t>Phase 2.4 Update Timing for Bus Skew | Checksum: 15bd19783</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:16 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3837 ; free virtual = 13445</t>
+  </si>
+  <si>
+    <t>Phase 2.5 Soft Constraint Pins - Fast Budgeting | Checksum: 15bd19783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Number of Failed Nets               = 513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Number of Unrouted Nets             = 513</t>
+  </si>
+  <si>
+    <t>Phase 2 Router Initialization | Checksum: 199854faf</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:17 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3837 ; free virtual = 13445</t>
+  </si>
+  <si>
+    <t>Phase 3 Global Routing | Checksum: 199854faf</t>
+  </si>
+  <si>
+    <t>Phase 4.1 Initial Net Routing Pass | Checksum: 2307d3090</t>
+  </si>
+  <si>
+    <t>Phase 4 Initial Routing | Checksum: 2307d3090</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of Nodes with overlaps = 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of Nodes with overlaps = 1</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.540 | TNS=0.000  | WHS=N/A    | THS=N/A    |</t>
+  </si>
+  <si>
+    <t>Phase 5.1 Global Iteration 0 | Checksum: 18f9b527c</t>
+  </si>
+  <si>
+    <t>Phase 5.2 Global Iteration 1 | Checksum: 28249f2b0</t>
+  </si>
+  <si>
+    <t>Phase 5 Rip-up And Reroute | Checksum: 28249f2b0</t>
+  </si>
+  <si>
+    <t>Phase 6.1 Delay CleanUp | Checksum: 28249f2b0</t>
+  </si>
+  <si>
+    <t>Phase 6.2 Clock Skew Optimization | Checksum: 28249f2b0</t>
+  </si>
+  <si>
+    <t>Phase 6 Delay and Skew Optimization | Checksum: 28249f2b0</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.717 | TNS=0.000  | WHS=0.077  | THS=0.000  |</t>
+  </si>
+  <si>
+    <t>Phase 7.1 Hold Fix Iter | Checksum: 29cc50660</t>
+  </si>
+  <si>
+    <t>Phase 7 Post Hold Fix | Checksum: 29cc50660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Global Vertical Routing Utilization    = 0.125557 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Global Horizontal Routing Utilization  = 0.124493 %</t>
+  </si>
+  <si>
+    <t>Phase 8 Route finalize | Checksum: 29cc50660</t>
+  </si>
+  <si>
+    <t>Phase 9 Verifying routed nets | Checksum: 29cc50660</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:17 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3836 ; free virtual = 13445</t>
+  </si>
+  <si>
+    <t>Phase 10 Depositing Routes | Checksum: 261c392ef</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:18 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3836 ; free virtual = 13445</t>
+  </si>
+  <si>
+    <t>Phase 11 Post Process Routing | Checksum: 261c392ef</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-57] Estimated Timing Summary | WNS=11.717 | TNS=0.000  | WHS=0.077  | THS=0.000  |</t>
+  </si>
+  <si>
+    <t>Phase 12 Post Router Timing | Checksum: 261c392ef</t>
+  </si>
+  <si>
+    <t>Total Elapsed time in route_design: 12.49 secs</t>
+  </si>
+  <si>
+    <t>Phase 13 Post-Route Event Processing | Checksum: 11ee00ab6</t>
+  </si>
+  <si>
+    <t>Ending Routing Task | Checksum: 11ee00ab6</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:18 ; elapsed = 00:00:13 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3834 ; free virtual = 13443</t>
+  </si>
+  <si>
+    <t>route_design: Time (s): cpu = 00:00:18 ; elapsed = 00:00:13 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3833 ; free virtual = 13441</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.18 ; elapsed = 00:00:00.08 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3834 ; free virtual = 13442</t>
+  </si>
+  <si>
+    <t>INFO: [Vivado_Tcl 4-2279] Estimated Timing Summary | WNS= 11.718 | TNS= 0.000 |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     11.718        0.000                      0                  812        0.078        0.000                      0                  769        3.000        0.000                       0                   359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  clk_out1_clk_wiz_0       14.061        0.000                      0                  434        0.078        0.000                      0                  429        9.500        0.000                       0                   280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  clk_out2_clk_wiz_0       11.718        0.000                      0                   80        0.122        0.000                      0                   75        7.192        0.000                       0                    75</t>
+  </si>
+  <si>
+    <t>input port clock    clk_out1_clk_wiz_0       17.896        0.000                      0                    3</t>
+  </si>
+  <si>
+    <t>clk_out2_clk_wiz_0  clk_out1_clk_wiz_0       13.575        0.000                      0                    9</t>
+  </si>
+  <si>
+    <t>clk_out1_clk_wiz_0  clk_out2_clk_wiz_0       13.545        0.000                      0                   21</t>
+  </si>
+  <si>
+    <t>**async_default**   clk_out1_clk_wiz_0  clk_out1_clk_wiz_0       16.333        0.000                      0                  230        0.470        0.000                      0                  230</t>
+  </si>
+  <si>
+    <t>**async_default**   clk_out2_clk_wiz_0  clk_out2_clk_wiz_0       12.584        0.000                      0                   35        0.457        0.000                      0                   35</t>
+  </si>
+  <si>
+    <t>write_bitstream: Time (s): cpu = 00:00:16 ; elapsed = 00:00:26 . Memory (MB): peak = 3644.266 ; gain = 217.922 ; free physical = 3520 ; free virtual = 13136</t>
+  </si>
+  <si>
+    <t>INFO: [Common 17-206] Exiting Vivado at Tue Jan 13 11:34:20 2026...</t>
   </si>
 </sst>
 </file>
@@ -3385,7 +3382,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3417,6 +3414,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3431,15 +3447,6 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3459,15 +3466,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3549,8 +3549,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3EB3233-33DF-44B8-8F41-9FEB9B2862F8}" name="Tableau1" displayName="Tableau1" ref="B2:D1483" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B2:D1483" xr:uid="{A3EB3233-33DF-44B8-8F41-9FEB9B2862F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3EB3233-33DF-44B8-8F41-9FEB9B2862F8}" name="Tableau1" displayName="Tableau1" ref="B2:D1484" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B2:D1484" xr:uid="{A3EB3233-33DF-44B8-8F41-9FEB9B2862F8}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5C3CEC53-9FF1-42FA-94F0-57D632D1B34F}" name="Level" dataDxfId="7">
       <calculatedColumnFormula>IF(LEFT(C3,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C3)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C3)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C3)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C3)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C3)),"DEBUG",""))))))</calculatedColumnFormula>
@@ -3874,14 +3874,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="5" t="s">
         <v>403</v>
       </c>
@@ -3902,14 +3902,14 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="2">
         <v>0.998</v>
       </c>
@@ -3929,13 +3929,13 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2">
         <v>0.997</v>
       </c>
@@ -3955,36 +3955,36 @@
     </row>
     <row r="5" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="13" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="13" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="7" t="s">
         <v>409</v>
       </c>
@@ -3992,12 +3992,12 @@
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="2">
         <v>1</v>
       </c>
@@ -4018,12 +4018,12 @@
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="2">
         <v>1</v>
       </c>
@@ -4043,13 +4043,13 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="2">
         <v>1</v>
       </c>
@@ -4067,13 +4067,13 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10"/>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
@@ -4093,13 +4093,13 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11"/>
-      <c r="C11" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
+      <c r="C11" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2">
         <v>1</v>
       </c>
@@ -4122,11 +4122,11 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
       <c r="M12"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -4136,11 +4136,11 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -4150,11 +4150,11 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
       <c r="M14"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -4164,11 +4164,11 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -4178,11 +4178,11 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -4192,11 +4192,11 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
       <c r="M17"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -4206,11 +4206,11 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -4220,15 +4220,20 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
       <c r="M19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C4:G6"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="H17:L17"/>
@@ -4242,11 +4247,6 @@
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C4:G6"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:H19">
     <cfRule type="cellIs" dxfId="4" priority="18" operator="between">
@@ -4281,10 +4281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE66E89-BE40-45B9-B5D5-CDB57608BF4D}">
-  <dimension ref="B2:D1483"/>
+  <dimension ref="B2:D1484"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4363,7 +4363,7 @@
         <v/>
       </c>
       <c r="C8" s="4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -4373,7 +4373,7 @@
         <v/>
       </c>
       <c r="C9" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -4523,7 +4523,7 @@
         <v/>
       </c>
       <c r="C24" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -5706,7 +5706,7 @@
         <v>628</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
@@ -6205,7 +6205,7 @@
         <v>INFO</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D192" s="4"/>
     </row>
@@ -6225,7 +6225,7 @@
         <v/>
       </c>
       <c r="C194" s="4" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D194" s="4"/>
     </row>
@@ -6248,7 +6248,7 @@
         <v>630</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
@@ -6260,7 +6260,7 @@
         <v>631</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
@@ -6272,7 +6272,7 @@
         <v>632</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
@@ -6291,7 +6291,7 @@
         <v/>
       </c>
       <c r="C200" s="4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D200" s="4"/>
     </row>
@@ -6801,7 +6801,7 @@
         <v/>
       </c>
       <c r="C251" s="4" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D251" s="4"/>
     </row>
@@ -6811,7 +6811,7 @@
         <v/>
       </c>
       <c r="C252" s="4" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D252" s="4"/>
     </row>
@@ -6901,7 +6901,7 @@
         <v>INFO</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="D261" s="4"/>
     </row>
@@ -7171,7 +7171,7 @@
         <v>INFO</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>750</v>
+        <v>782</v>
       </c>
       <c r="D288" s="4"/>
     </row>
@@ -7181,7 +7181,7 @@
         <v>INFO</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D289" s="4"/>
     </row>
@@ -7194,7 +7194,7 @@
         <v>670</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
@@ -7213,7 +7213,7 @@
         <v/>
       </c>
       <c r="C292" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D292" s="4"/>
     </row>
@@ -7273,7 +7273,7 @@
         <v/>
       </c>
       <c r="C298" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D298" s="4"/>
     </row>
@@ -7303,7 +7303,7 @@
         <v/>
       </c>
       <c r="C301" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D301" s="4"/>
     </row>
@@ -7323,7 +7323,7 @@
         <v/>
       </c>
       <c r="C303" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D303" s="4"/>
     </row>
@@ -7539,7 +7539,7 @@
         <v/>
       </c>
       <c r="C325" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D325" s="4"/>
     </row>
@@ -7577,7 +7577,7 @@
         <v/>
       </c>
       <c r="C329" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D329" s="4"/>
     </row>
@@ -7597,7 +7597,7 @@
         <v/>
       </c>
       <c r="C331" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D331" s="4"/>
     </row>
@@ -7667,7 +7667,7 @@
         <v/>
       </c>
       <c r="C338" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D338" s="4"/>
     </row>
@@ -7727,7 +7727,7 @@
         <v/>
       </c>
       <c r="C344" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D344" s="4"/>
     </row>
@@ -8247,7 +8247,7 @@
         <v/>
       </c>
       <c r="C396" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D396" s="4"/>
     </row>
@@ -8497,7 +8497,7 @@
         <v/>
       </c>
       <c r="C421" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D421" s="4"/>
     </row>
@@ -8919,7 +8919,7 @@
         <v/>
       </c>
       <c r="C463" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D463" s="4"/>
     </row>
@@ -8979,7 +8979,7 @@
         <v/>
       </c>
       <c r="C469" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D469" s="4"/>
     </row>
@@ -9039,7 +9039,7 @@
         <v/>
       </c>
       <c r="C475" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D475" s="4"/>
     </row>
@@ -9099,7 +9099,7 @@
         <v/>
       </c>
       <c r="C481" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D481" s="4"/>
     </row>
@@ -9279,7 +9279,7 @@
         <v/>
       </c>
       <c r="C499" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D499" s="4"/>
     </row>
@@ -9339,7 +9339,7 @@
         <v/>
       </c>
       <c r="C505" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D505" s="4"/>
     </row>
@@ -9399,7 +9399,7 @@
         <v/>
       </c>
       <c r="C511" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D511" s="4"/>
     </row>
@@ -9459,7 +9459,7 @@
         <v/>
       </c>
       <c r="C517" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D517" s="4"/>
     </row>
@@ -9519,7 +9519,7 @@
         <v/>
       </c>
       <c r="C523" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D523" s="4"/>
     </row>
@@ -9579,7 +9579,7 @@
         <v/>
       </c>
       <c r="C529" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D529" s="4"/>
     </row>
@@ -9755,7 +9755,7 @@
         <v/>
       </c>
       <c r="C547" s="4" t="s">
-        <v>753</v>
+        <v>803</v>
       </c>
       <c r="D547" s="4"/>
     </row>
@@ -9765,7 +9765,7 @@
         <v/>
       </c>
       <c r="C548" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D548" s="4"/>
     </row>
@@ -9775,7 +9775,7 @@
         <v/>
       </c>
       <c r="C549" s="4" t="s">
-        <v>806</v>
+        <v>772</v>
       </c>
       <c r="D549" s="4"/>
     </row>
@@ -9785,7 +9785,7 @@
         <v/>
       </c>
       <c r="C550" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D550" s="4"/>
     </row>
@@ -9795,7 +9795,7 @@
         <v/>
       </c>
       <c r="C551" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D551" s="4"/>
     </row>
@@ -9805,7 +9805,7 @@
         <v/>
       </c>
       <c r="C552" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D552" s="4"/>
     </row>
@@ -9825,7 +9825,7 @@
         <v/>
       </c>
       <c r="C554" s="4" t="s">
-        <v>771</v>
+        <v>808</v>
       </c>
       <c r="D554" s="4"/>
     </row>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="C555" s="4" t="s">
-        <v>772</v>
+        <v>809</v>
       </c>
       <c r="D555" s="4"/>
     </row>
@@ -9845,7 +9845,7 @@
         <v/>
       </c>
       <c r="C556" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D556" s="4"/>
     </row>
@@ -9855,7 +9855,7 @@
         <v/>
       </c>
       <c r="C557" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D557" s="4"/>
     </row>
@@ -9865,7 +9865,7 @@
         <v/>
       </c>
       <c r="C558" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D558" s="4"/>
     </row>
@@ -10275,7 +10275,7 @@
         <v/>
       </c>
       <c r="C599" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D599" s="4"/>
     </row>
@@ -10285,7 +10285,7 @@
         <v/>
       </c>
       <c r="C600" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D600" s="4"/>
     </row>
@@ -10295,7 +10295,7 @@
         <v/>
       </c>
       <c r="C601" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D601" s="4"/>
     </row>
@@ -10305,7 +10305,7 @@
         <v/>
       </c>
       <c r="C602" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D602" s="4"/>
     </row>
@@ -10318,7 +10318,7 @@
         <v>705</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.25">
@@ -10350,7 +10350,7 @@
         <v>708</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.25">
@@ -10427,7 +10427,7 @@
         <v/>
       </c>
       <c r="C614" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D614" s="4"/>
     </row>
@@ -10530,7 +10530,7 @@
         <v>709</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.25">
@@ -11745,7 +11745,7 @@
         <v/>
       </c>
       <c r="C753" s="4" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D753" s="4"/>
     </row>
@@ -11907,7 +11907,7 @@
         <v/>
       </c>
       <c r="C770" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D770" s="4"/>
     </row>
@@ -11925,7 +11925,7 @@
         <v/>
       </c>
       <c r="C772" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D772" s="4"/>
     </row>
@@ -12027,7 +12027,7 @@
         <v/>
       </c>
       <c r="C783" s="4" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="D783" s="4"/>
     </row>
@@ -12055,7 +12055,7 @@
         <v/>
       </c>
       <c r="C786" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D786" s="4"/>
     </row>
@@ -12065,7 +12065,7 @@
         <v/>
       </c>
       <c r="C787" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D787" s="4"/>
     </row>
@@ -12083,7 +12083,7 @@
         <v/>
       </c>
       <c r="C789" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D789" s="4"/>
     </row>
@@ -12687,7 +12687,7 @@
         <v/>
       </c>
       <c r="C853" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D853" s="4"/>
     </row>
@@ -12715,7 +12715,7 @@
         <v/>
       </c>
       <c r="C856" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D856" s="4"/>
     </row>
@@ -12733,7 +12733,7 @@
         <v/>
       </c>
       <c r="C858" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D858" s="4"/>
     </row>
@@ -12779,7 +12779,7 @@
         <v/>
       </c>
       <c r="C863" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D863" s="4"/>
     </row>
@@ -12797,7 +12797,7 @@
         <v/>
       </c>
       <c r="C865" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D865" s="4"/>
     </row>
@@ -12955,7 +12955,7 @@
         <v/>
       </c>
       <c r="C881" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D881" s="4"/>
     </row>
@@ -13165,7 +13165,7 @@
         <v/>
       </c>
       <c r="C903" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D903" s="4"/>
     </row>
@@ -13183,7 +13183,7 @@
         <v/>
       </c>
       <c r="C905" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D905" s="4"/>
     </row>
@@ -13193,7 +13193,7 @@
         <v/>
       </c>
       <c r="C906" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D906" s="4"/>
     </row>
@@ -13211,7 +13211,7 @@
         <v/>
       </c>
       <c r="C908" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D908" s="4"/>
     </row>
@@ -13221,7 +13221,7 @@
         <v/>
       </c>
       <c r="C909" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D909" s="4"/>
     </row>
@@ -13239,7 +13239,7 @@
         <v/>
       </c>
       <c r="C911" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D911" s="4"/>
     </row>
@@ -13285,7 +13285,7 @@
         <v/>
       </c>
       <c r="C916" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D916" s="4"/>
     </row>
@@ -13303,7 +13303,7 @@
         <v/>
       </c>
       <c r="C918" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D918" s="4"/>
     </row>
@@ -13331,7 +13331,7 @@
         <v/>
       </c>
       <c r="C921" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D921" s="4"/>
     </row>
@@ -13349,7 +13349,7 @@
         <v/>
       </c>
       <c r="C923" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D923" s="4"/>
     </row>
@@ -13377,7 +13377,7 @@
         <v/>
       </c>
       <c r="C926" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D926" s="4"/>
     </row>
@@ -13395,7 +13395,7 @@
         <v/>
       </c>
       <c r="C928" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D928" s="4"/>
     </row>
@@ -13423,7 +13423,7 @@
         <v/>
       </c>
       <c r="C931" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D931" s="4"/>
     </row>
@@ -13441,7 +13441,7 @@
         <v/>
       </c>
       <c r="C933" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D933" s="4"/>
     </row>
@@ -13469,7 +13469,7 @@
         <v/>
       </c>
       <c r="C936" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D936" s="4"/>
     </row>
@@ -13487,7 +13487,7 @@
         <v/>
       </c>
       <c r="C938" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D938" s="4"/>
     </row>
@@ -13515,7 +13515,7 @@
         <v/>
       </c>
       <c r="C941" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D941" s="4"/>
     </row>
@@ -13533,7 +13533,7 @@
         <v/>
       </c>
       <c r="C943" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D943" s="4"/>
     </row>
@@ -13561,7 +13561,7 @@
         <v/>
       </c>
       <c r="C946" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D946" s="4"/>
     </row>
@@ -13579,7 +13579,7 @@
         <v/>
       </c>
       <c r="C948" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D948" s="4"/>
     </row>
@@ -13589,7 +13589,7 @@
         <v/>
       </c>
       <c r="C949" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D949" s="4"/>
     </row>
@@ -13607,7 +13607,7 @@
         <v/>
       </c>
       <c r="C951" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D951" s="4"/>
     </row>
@@ -13681,7 +13681,7 @@
         <v/>
       </c>
       <c r="C959" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D959" s="4"/>
     </row>
@@ -13755,7 +13755,7 @@
         <v>INFO</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D967" s="4"/>
     </row>
@@ -13765,7 +13765,7 @@
         <v/>
       </c>
       <c r="C968" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D968" s="4"/>
     </row>
@@ -13783,7 +13783,7 @@
         <v/>
       </c>
       <c r="C970" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D970" s="4"/>
     </row>
@@ -13803,7 +13803,7 @@
         <v/>
       </c>
       <c r="C972" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D972" s="4"/>
     </row>
@@ -13821,7 +13821,7 @@
         <v/>
       </c>
       <c r="C974" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D974" s="4"/>
     </row>
@@ -13831,7 +13831,7 @@
         <v/>
       </c>
       <c r="C975" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D975" s="4"/>
     </row>
@@ -13849,7 +13849,7 @@
         <v/>
       </c>
       <c r="C977" s="4" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="D977" s="4"/>
     </row>
@@ -13877,7 +13877,7 @@
         <v>INFO</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D980" s="4"/>
     </row>
@@ -13887,7 +13887,7 @@
         <v/>
       </c>
       <c r="C981" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D981" s="4"/>
     </row>
@@ -13905,7 +13905,7 @@
         <v/>
       </c>
       <c r="C983" s="4" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="D983" s="4"/>
     </row>
@@ -13923,7 +13923,7 @@
         <v/>
       </c>
       <c r="C985" s="4" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="D985" s="4"/>
     </row>
@@ -13933,7 +13933,7 @@
         <v/>
       </c>
       <c r="C986" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D986" s="4"/>
     </row>
@@ -13951,7 +13951,7 @@
         <v/>
       </c>
       <c r="C988" s="4" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="D988" s="4"/>
     </row>
@@ -13979,7 +13979,7 @@
         <v/>
       </c>
       <c r="C991" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D991" s="4"/>
     </row>
@@ -13997,7 +13997,7 @@
         <v/>
       </c>
       <c r="C993" s="4" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="D993" s="4"/>
     </row>
@@ -14181,7 +14181,7 @@
         <v/>
       </c>
       <c r="C1012" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D1012" s="4"/>
     </row>
@@ -14199,7 +14199,7 @@
         <v/>
       </c>
       <c r="C1014" s="4" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D1014" s="4"/>
     </row>
@@ -14209,7 +14209,7 @@
         <v/>
       </c>
       <c r="C1015" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D1015" s="4"/>
     </row>
@@ -14227,7 +14227,7 @@
         <v/>
       </c>
       <c r="C1017" s="4" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D1017" s="4"/>
     </row>
@@ -14255,7 +14255,7 @@
         <v/>
       </c>
       <c r="C1020" s="4" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D1020" s="4"/>
     </row>
@@ -14273,7 +14273,7 @@
         <v/>
       </c>
       <c r="C1022" s="4" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D1022" s="4"/>
     </row>
@@ -14283,7 +14283,7 @@
         <v/>
       </c>
       <c r="C1023" s="4" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D1023" s="4"/>
     </row>
@@ -14301,7 +14301,7 @@
         <v/>
       </c>
       <c r="C1025" s="4" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D1025" s="4"/>
     </row>
@@ -14311,7 +14311,7 @@
         <v/>
       </c>
       <c r="C1026" s="4" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D1026" s="4"/>
     </row>
@@ -14329,7 +14329,7 @@
         <v/>
       </c>
       <c r="C1028" s="4" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D1028" s="4"/>
     </row>
@@ -14399,7 +14399,7 @@
         <v/>
       </c>
       <c r="C1035" s="4" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D1035" s="4"/>
     </row>
@@ -14419,7 +14419,7 @@
         <v/>
       </c>
       <c r="C1037" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D1037" s="4"/>
     </row>
@@ -14543,7 +14543,7 @@
         <v/>
       </c>
       <c r="C1050" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D1050" s="4"/>
     </row>
@@ -14553,7 +14553,7 @@
         <v/>
       </c>
       <c r="C1051" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D1051" s="4"/>
     </row>
@@ -14563,7 +14563,7 @@
         <v/>
       </c>
       <c r="C1052" s="4" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D1052" s="4"/>
     </row>
@@ -14581,7 +14581,7 @@
         <v/>
       </c>
       <c r="C1054" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D1054" s="4"/>
     </row>
@@ -14627,7 +14627,7 @@
         <v/>
       </c>
       <c r="C1059" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D1059" s="4"/>
     </row>
@@ -14645,7 +14645,7 @@
         <v/>
       </c>
       <c r="C1061" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D1061" s="4"/>
     </row>
@@ -14673,7 +14673,7 @@
         <v/>
       </c>
       <c r="C1064" s="4" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D1064" s="4"/>
     </row>
@@ -14691,7 +14691,7 @@
         <v/>
       </c>
       <c r="C1066" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D1066" s="4"/>
     </row>
@@ -14729,7 +14729,7 @@
         <v/>
       </c>
       <c r="C1070" s="4" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D1070" s="4"/>
     </row>
@@ -14747,7 +14747,7 @@
         <v/>
       </c>
       <c r="C1072" s="4" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D1072" s="4"/>
     </row>
@@ -14757,7 +14757,7 @@
         <v>INFO</v>
       </c>
       <c r="C1073" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D1073" s="4"/>
     </row>
@@ -14811,7 +14811,7 @@
         <v/>
       </c>
       <c r="C1079" s="4" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D1079" s="4"/>
     </row>
@@ -14829,7 +14829,7 @@
         <v/>
       </c>
       <c r="C1081" s="4" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D1081" s="4"/>
     </row>
@@ -14839,7 +14839,7 @@
         <v>INFO</v>
       </c>
       <c r="C1082" s="4" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D1082" s="4"/>
     </row>
@@ -14857,7 +14857,7 @@
         <v/>
       </c>
       <c r="C1084" s="4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D1084" s="4"/>
     </row>
@@ -14875,7 +14875,7 @@
         <v/>
       </c>
       <c r="C1086" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D1086" s="4"/>
     </row>
@@ -14903,7 +14903,7 @@
         <v/>
       </c>
       <c r="C1089" s="4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D1089" s="4"/>
     </row>
@@ -14921,7 +14921,7 @@
         <v/>
       </c>
       <c r="C1091" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D1091" s="4"/>
     </row>
@@ -14999,7 +14999,7 @@
         <v/>
       </c>
       <c r="C1099" s="4" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D1099" s="4"/>
     </row>
@@ -15019,7 +15019,7 @@
         <v/>
       </c>
       <c r="C1101" s="4" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D1101" s="4"/>
     </row>
@@ -15057,7 +15057,7 @@
         <v/>
       </c>
       <c r="C1105" s="4" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D1105" s="4"/>
     </row>
@@ -15075,7 +15075,7 @@
         <v/>
       </c>
       <c r="C1107" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D1107" s="4"/>
     </row>
@@ -15103,7 +15103,7 @@
         <v/>
       </c>
       <c r="C1110" s="4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D1110" s="4"/>
     </row>
@@ -15121,7 +15121,7 @@
         <v/>
       </c>
       <c r="C1112" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D1112" s="4"/>
     </row>
@@ -15167,10 +15167,10 @@
         <v>WARNING</v>
       </c>
       <c r="C1117" s="4" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D1117" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1118" spans="2:4" x14ac:dyDescent="0.25">
@@ -15179,7 +15179,7 @@
         <v/>
       </c>
       <c r="C1118" s="4" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D1118" s="4"/>
     </row>
@@ -15189,7 +15189,7 @@
         <v/>
       </c>
       <c r="C1119" s="4" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D1119" s="4"/>
     </row>
@@ -15207,7 +15207,7 @@
         <v/>
       </c>
       <c r="C1121" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D1121" s="4"/>
     </row>
@@ -15217,7 +15217,7 @@
         <v/>
       </c>
       <c r="C1122" s="4" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D1122" s="4"/>
     </row>
@@ -15235,7 +15235,7 @@
         <v/>
       </c>
       <c r="C1124" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D1124" s="4"/>
     </row>
@@ -15281,7 +15281,7 @@
         <v/>
       </c>
       <c r="C1129" s="4" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D1129" s="4"/>
     </row>
@@ -15291,26 +15291,28 @@
         <v/>
       </c>
       <c r="C1130" s="4" t="s">
-        <v>260</v>
+        <v>942</v>
       </c>
       <c r="D1130" s="4"/>
     </row>
     <row r="1131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1131" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1131" s="4" t="s">
-        <v>945</v>
+        <v>260</v>
       </c>
       <c r="D1131" s="4"/>
     </row>
     <row r="1132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1132" s="9" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C1132" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1132" s="4" t="s">
+        <v>943</v>
+      </c>
       <c r="D1132" s="4"/>
     </row>
     <row r="1133" spans="2:4" x14ac:dyDescent="0.25">
@@ -15318,9 +15320,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1133" s="4" t="s">
-        <v>946</v>
-      </c>
+      <c r="C1133" s="4"/>
       <c r="D1133" s="4"/>
     </row>
     <row r="1134" spans="2:4" x14ac:dyDescent="0.25">
@@ -15328,7 +15328,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1134" s="4"/>
+      <c r="C1134" s="4" t="s">
+        <v>944</v>
+      </c>
       <c r="D1134" s="4"/>
     </row>
     <row r="1135" spans="2:4" x14ac:dyDescent="0.25">
@@ -15336,9 +15338,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1135" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1135" s="4"/>
       <c r="D1135" s="4"/>
     </row>
     <row r="1136" spans="2:4" x14ac:dyDescent="0.25">
@@ -15346,7 +15346,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1136" s="4"/>
+      <c r="C1136" s="4" t="s">
+        <v>937</v>
+      </c>
       <c r="D1136" s="4"/>
     </row>
     <row r="1137" spans="2:4" x14ac:dyDescent="0.25">
@@ -15354,9 +15356,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1137" s="4" t="s">
-        <v>775</v>
-      </c>
+      <c r="C1137" s="4"/>
       <c r="D1137" s="4"/>
     </row>
     <row r="1138" spans="2:4" x14ac:dyDescent="0.25">
@@ -15365,26 +15365,28 @@
         <v/>
       </c>
       <c r="C1138" s="4" t="s">
-        <v>260</v>
+        <v>770</v>
       </c>
       <c r="D1138" s="4"/>
     </row>
     <row r="1139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1139" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1139" s="4" t="s">
-        <v>945</v>
+        <v>260</v>
       </c>
       <c r="D1139" s="4"/>
     </row>
     <row r="1140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1140" s="9" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C1140" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1140" s="4" t="s">
+        <v>943</v>
+      </c>
       <c r="D1140" s="4"/>
     </row>
     <row r="1141" spans="2:4" x14ac:dyDescent="0.25">
@@ -15392,9 +15394,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1141" s="4" t="s">
-        <v>948</v>
-      </c>
+      <c r="C1141" s="4"/>
       <c r="D1141" s="4"/>
     </row>
     <row r="1142" spans="2:4" x14ac:dyDescent="0.25">
@@ -15402,7 +15402,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1142" s="4"/>
+      <c r="C1142" s="4" t="s">
+        <v>945</v>
+      </c>
       <c r="D1142" s="4"/>
     </row>
     <row r="1143" spans="2:4" x14ac:dyDescent="0.25">
@@ -15410,9 +15412,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1143" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1143" s="4"/>
       <c r="D1143" s="4"/>
     </row>
     <row r="1144" spans="2:4" x14ac:dyDescent="0.25">
@@ -15421,7 +15421,7 @@
         <v/>
       </c>
       <c r="C1144" s="4" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="D1144" s="4"/>
     </row>
@@ -15430,7 +15430,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1145" s="4"/>
+      <c r="C1145" s="4" t="s">
+        <v>946</v>
+      </c>
       <c r="D1145" s="4"/>
     </row>
     <row r="1146" spans="2:4" x14ac:dyDescent="0.25">
@@ -15438,9 +15440,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1146" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1146" s="4"/>
       <c r="D1146" s="4"/>
     </row>
     <row r="1147" spans="2:4" x14ac:dyDescent="0.25">
@@ -15448,7 +15448,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1147" s="4"/>
+      <c r="C1147" s="4" t="s">
+        <v>937</v>
+      </c>
       <c r="D1147" s="4"/>
     </row>
     <row r="1148" spans="2:4" x14ac:dyDescent="0.25">
@@ -15456,9 +15458,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1148" s="4" t="s">
-        <v>276</v>
-      </c>
+      <c r="C1148" s="4"/>
       <c r="D1148" s="4"/>
     </row>
     <row r="1149" spans="2:4" x14ac:dyDescent="0.25">
@@ -15466,7 +15466,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1149" s="4"/>
+      <c r="C1149" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="D1149" s="4"/>
     </row>
     <row r="1150" spans="2:4" x14ac:dyDescent="0.25">
@@ -15474,9 +15476,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1150" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="C1150" s="4"/>
       <c r="D1150" s="4"/>
     </row>
     <row r="1151" spans="2:4" x14ac:dyDescent="0.25">
@@ -15485,7 +15485,7 @@
         <v/>
       </c>
       <c r="C1151" s="4" t="s">
-        <v>950</v>
+        <v>277</v>
       </c>
       <c r="D1151" s="4"/>
     </row>
@@ -15494,7 +15494,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1152" s="4"/>
+      <c r="C1152" s="4" t="s">
+        <v>947</v>
+      </c>
       <c r="D1152" s="4"/>
     </row>
     <row r="1153" spans="2:4" x14ac:dyDescent="0.25">
@@ -15502,9 +15504,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1153" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1153" s="4"/>
       <c r="D1153" s="4"/>
     </row>
     <row r="1154" spans="2:4" x14ac:dyDescent="0.25">
@@ -15512,7 +15512,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1154" s="4"/>
+      <c r="C1154" s="4" t="s">
+        <v>937</v>
+      </c>
       <c r="D1154" s="4"/>
     </row>
     <row r="1155" spans="2:4" x14ac:dyDescent="0.25">
@@ -15520,9 +15522,7 @@
         <f t="shared" ref="B1155:B1212" si="18">IF(LEFT(C1155,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1155)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1155)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1155)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1155)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1155)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1155" s="4" t="s">
-        <v>278</v>
-      </c>
+      <c r="C1155" s="4"/>
       <c r="D1155" s="4"/>
     </row>
     <row r="1156" spans="2:4" x14ac:dyDescent="0.25">
@@ -15531,7 +15531,7 @@
         <v/>
       </c>
       <c r="C1156" s="4" t="s">
-        <v>951</v>
+        <v>278</v>
       </c>
       <c r="D1156" s="4"/>
     </row>
@@ -15540,7 +15540,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1157" s="4"/>
+      <c r="C1157" s="4" t="s">
+        <v>948</v>
+      </c>
       <c r="D1157" s="4"/>
     </row>
     <row r="1158" spans="2:4" x14ac:dyDescent="0.25">
@@ -15548,9 +15550,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1158" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1158" s="4"/>
       <c r="D1158" s="4"/>
     </row>
     <row r="1159" spans="2:4" x14ac:dyDescent="0.25">
@@ -15559,7 +15559,7 @@
         <v/>
       </c>
       <c r="C1159" s="4" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="D1159" s="4"/>
     </row>
@@ -15568,7 +15568,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1160" s="4"/>
+      <c r="C1160" s="4" t="s">
+        <v>949</v>
+      </c>
       <c r="D1160" s="4"/>
     </row>
     <row r="1161" spans="2:4" x14ac:dyDescent="0.25">
@@ -15576,9 +15578,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1161" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1161" s="4"/>
       <c r="D1161" s="4"/>
     </row>
     <row r="1162" spans="2:4" x14ac:dyDescent="0.25">
@@ -15586,7 +15586,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1162" s="4"/>
+      <c r="C1162" s="4" t="s">
+        <v>937</v>
+      </c>
       <c r="D1162" s="4"/>
     </row>
     <row r="1163" spans="2:4" x14ac:dyDescent="0.25">
@@ -15594,9 +15596,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1163" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="C1163" s="4"/>
       <c r="D1163" s="4"/>
     </row>
     <row r="1164" spans="2:4" x14ac:dyDescent="0.25">
@@ -15604,7 +15604,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1164" s="4"/>
+      <c r="C1164" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="D1164" s="4"/>
     </row>
     <row r="1165" spans="2:4" x14ac:dyDescent="0.25">
@@ -15612,27 +15614,27 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1165" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="C1165" s="4"/>
       <c r="D1165" s="4"/>
     </row>
     <row r="1166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1166" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1166" s="4" t="s">
-        <v>953</v>
+        <v>280</v>
       </c>
       <c r="D1166" s="4"/>
     </row>
     <row r="1167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1167" s="9" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="C1167" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1167" s="4" t="s">
+        <v>950</v>
+      </c>
       <c r="D1167" s="4"/>
     </row>
     <row r="1168" spans="2:4" x14ac:dyDescent="0.25">
@@ -15640,9 +15642,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1168" s="4" t="s">
-        <v>954</v>
-      </c>
+      <c r="C1168" s="4"/>
       <c r="D1168" s="4"/>
     </row>
     <row r="1169" spans="2:4" x14ac:dyDescent="0.25">
@@ -15650,7 +15650,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1169" s="4"/>
+      <c r="C1169" s="4" t="s">
+        <v>951</v>
+      </c>
       <c r="D1169" s="4"/>
     </row>
     <row r="1170" spans="2:4" x14ac:dyDescent="0.25">
@@ -15658,9 +15660,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1170" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1170" s="4"/>
       <c r="D1170" s="4"/>
     </row>
     <row r="1171" spans="2:4" x14ac:dyDescent="0.25">
@@ -15669,7 +15669,7 @@
         <v/>
       </c>
       <c r="C1171" s="4" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="D1171" s="4"/>
     </row>
@@ -15678,7 +15678,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1172" s="4"/>
+      <c r="C1172" s="4" t="s">
+        <v>952</v>
+      </c>
       <c r="D1172" s="4"/>
     </row>
     <row r="1173" spans="2:4" x14ac:dyDescent="0.25">
@@ -15686,9 +15688,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1173" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1173" s="4"/>
       <c r="D1173" s="4"/>
     </row>
     <row r="1174" spans="2:4" x14ac:dyDescent="0.25">
@@ -15696,7 +15696,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1174" s="4"/>
+      <c r="C1174" s="4" t="s">
+        <v>937</v>
+      </c>
       <c r="D1174" s="4"/>
     </row>
     <row r="1175" spans="2:4" x14ac:dyDescent="0.25">
@@ -15704,9 +15706,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1175" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="C1175" s="4"/>
       <c r="D1175" s="4"/>
     </row>
     <row r="1176" spans="2:4" x14ac:dyDescent="0.25">
@@ -15714,7 +15714,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1176" s="4"/>
+      <c r="C1176" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="D1176" s="4"/>
     </row>
     <row r="1177" spans="2:4" x14ac:dyDescent="0.25">
@@ -15722,9 +15724,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1177" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="C1177" s="4"/>
       <c r="D1177" s="4"/>
     </row>
     <row r="1178" spans="2:4" x14ac:dyDescent="0.25">
@@ -15733,7 +15733,7 @@
         <v/>
       </c>
       <c r="C1178" s="4" t="s">
-        <v>956</v>
+        <v>262</v>
       </c>
       <c r="D1178" s="4"/>
     </row>
@@ -15743,7 +15743,7 @@
         <v/>
       </c>
       <c r="C1179" s="4" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D1179" s="4"/>
     </row>
@@ -15753,7 +15753,7 @@
         <v/>
       </c>
       <c r="C1180" s="4" t="s">
-        <v>265</v>
+        <v>954</v>
       </c>
       <c r="D1180" s="4"/>
     </row>
@@ -15763,7 +15763,7 @@
         <v/>
       </c>
       <c r="C1181" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D1181" s="4"/>
     </row>
@@ -15773,7 +15773,7 @@
         <v/>
       </c>
       <c r="C1182" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D1182" s="4"/>
     </row>
@@ -15783,7 +15783,7 @@
         <v/>
       </c>
       <c r="C1183" s="4" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D1183" s="4"/>
     </row>
@@ -15793,7 +15793,7 @@
         <v/>
       </c>
       <c r="C1184" s="4" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="D1184" s="4"/>
     </row>
@@ -15803,7 +15803,7 @@
         <v/>
       </c>
       <c r="C1185" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D1185" s="4"/>
     </row>
@@ -15813,7 +15813,7 @@
         <v/>
       </c>
       <c r="C1186" s="4" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D1186" s="4"/>
     </row>
@@ -15823,7 +15823,7 @@
         <v/>
       </c>
       <c r="C1187" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D1187" s="4"/>
     </row>
@@ -15832,7 +15832,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1188" s="4"/>
+      <c r="C1188" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="D1188" s="4"/>
     </row>
     <row r="1189" spans="2:4" x14ac:dyDescent="0.25">
@@ -15840,9 +15842,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1189" s="4" t="s">
-        <v>958</v>
-      </c>
+      <c r="C1189" s="4"/>
       <c r="D1189" s="4"/>
     </row>
     <row r="1190" spans="2:4" x14ac:dyDescent="0.25">
@@ -15850,7 +15850,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1190" s="4"/>
+      <c r="C1190" s="4" t="s">
+        <v>955</v>
+      </c>
       <c r="D1190" s="4"/>
     </row>
     <row r="1191" spans="2:4" x14ac:dyDescent="0.25">
@@ -15858,9 +15860,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1191" s="4" t="s">
-        <v>959</v>
-      </c>
+      <c r="C1191" s="4"/>
       <c r="D1191" s="4"/>
     </row>
     <row r="1192" spans="2:4" x14ac:dyDescent="0.25">
@@ -15868,7 +15868,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1192" s="4"/>
+      <c r="C1192" s="4" t="s">
+        <v>937</v>
+      </c>
       <c r="D1192" s="4"/>
     </row>
     <row r="1193" spans="2:4" x14ac:dyDescent="0.25">
@@ -15876,9 +15878,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1193" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="C1193" s="4"/>
       <c r="D1193" s="4"/>
     </row>
     <row r="1194" spans="2:4" x14ac:dyDescent="0.25">
@@ -15886,7 +15886,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1194" s="4"/>
+      <c r="C1194" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="D1194" s="4"/>
     </row>
     <row r="1195" spans="2:4" x14ac:dyDescent="0.25">
@@ -15894,9 +15896,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1195" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="C1195" s="4"/>
       <c r="D1195" s="4"/>
     </row>
     <row r="1196" spans="2:4" x14ac:dyDescent="0.25">
@@ -15905,7 +15905,7 @@
         <v/>
       </c>
       <c r="C1196" s="4" t="s">
-        <v>960</v>
+        <v>285</v>
       </c>
       <c r="D1196" s="4"/>
     </row>
@@ -15914,7 +15914,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1197" s="4"/>
+      <c r="C1197" s="4" t="s">
+        <v>956</v>
+      </c>
       <c r="D1197" s="4"/>
     </row>
     <row r="1198" spans="2:4" x14ac:dyDescent="0.25">
@@ -15922,9 +15924,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1198" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1198" s="4"/>
       <c r="D1198" s="4"/>
     </row>
     <row r="1199" spans="2:4" x14ac:dyDescent="0.25">
@@ -15932,7 +15932,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1199" s="4"/>
+      <c r="C1199" s="4" t="s">
+        <v>957</v>
+      </c>
       <c r="D1199" s="4"/>
     </row>
     <row r="1200" spans="2:4" x14ac:dyDescent="0.25">
@@ -15940,9 +15942,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1200" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="C1200" s="4"/>
       <c r="D1200" s="4"/>
     </row>
     <row r="1201" spans="2:4" x14ac:dyDescent="0.25">
@@ -15951,7 +15951,7 @@
         <v/>
       </c>
       <c r="C1201" s="4" t="s">
-        <v>961</v>
+        <v>286</v>
       </c>
       <c r="D1201" s="4"/>
     </row>
@@ -15960,7 +15960,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1202" s="4"/>
+      <c r="C1202" s="4" t="s">
+        <v>958</v>
+      </c>
       <c r="D1202" s="4"/>
     </row>
     <row r="1203" spans="2:4" x14ac:dyDescent="0.25">
@@ -15968,9 +15970,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1203" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1203" s="4"/>
       <c r="D1203" s="4"/>
     </row>
     <row r="1204" spans="2:4" x14ac:dyDescent="0.25">
@@ -15978,7 +15978,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1204" s="4"/>
+      <c r="C1204" s="4" t="s">
+        <v>959</v>
+      </c>
       <c r="D1204" s="4"/>
     </row>
     <row r="1205" spans="2:4" x14ac:dyDescent="0.25">
@@ -15986,9 +15988,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1205" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="C1205" s="4"/>
       <c r="D1205" s="4"/>
     </row>
     <row r="1206" spans="2:4" x14ac:dyDescent="0.25">
@@ -15997,7 +15997,7 @@
         <v/>
       </c>
       <c r="C1206" s="4" t="s">
-        <v>962</v>
+        <v>287</v>
       </c>
       <c r="D1206" s="4"/>
     </row>
@@ -16006,7 +16006,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1207" s="4"/>
+      <c r="C1207" s="4" t="s">
+        <v>960</v>
+      </c>
       <c r="D1207" s="4"/>
     </row>
     <row r="1208" spans="2:4" x14ac:dyDescent="0.25">
@@ -16014,9 +16016,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1208" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1208" s="4"/>
       <c r="D1208" s="4"/>
     </row>
     <row r="1209" spans="2:4" x14ac:dyDescent="0.25">
@@ -16024,7 +16024,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1209" s="4"/>
+      <c r="C1209" s="4" t="s">
+        <v>959</v>
+      </c>
       <c r="D1209" s="4"/>
     </row>
     <row r="1210" spans="2:4" x14ac:dyDescent="0.25">
@@ -16032,46 +16034,44 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1210" s="4" t="s">
-        <v>288</v>
-      </c>
+      <c r="C1210" s="4"/>
       <c r="D1210" s="4"/>
     </row>
     <row r="1211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1211" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1211" s="4" t="s">
-        <v>963</v>
+        <v>288</v>
       </c>
       <c r="D1211" s="4"/>
     </row>
     <row r="1212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1212" s="9" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="C1212" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1212" s="4" t="s">
+        <v>961</v>
+      </c>
       <c r="D1212" s="4"/>
     </row>
     <row r="1213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1213" s="9" t="str">
         <f t="shared" ref="B1213:B1214" si="19">IF(LEFT(C1213,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1213)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1213)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1213)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1213)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1213)),"DEBUG",""))))))</f>
-        <v>INFO</v>
-      </c>
-      <c r="C1213" s="4" t="s">
-        <v>289</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C1213" s="4"/>
       <c r="D1213" s="4"/>
     </row>
     <row r="1214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1214" s="9" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1214" s="4" t="s">
-        <v>964</v>
+        <v>289</v>
       </c>
       <c r="D1214" s="4"/>
     </row>
@@ -16080,7 +16080,9 @@
         <f t="shared" ref="B1215:B1246" si="20">IF(LEFT(C1215,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1215)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1215)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1215)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1215)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1215)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1215" s="4"/>
+      <c r="C1215" s="4" t="s">
+        <v>962</v>
+      </c>
       <c r="D1215" s="4"/>
     </row>
     <row r="1216" spans="2:4" x14ac:dyDescent="0.25">
@@ -16088,9 +16090,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1216" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1216" s="4"/>
       <c r="D1216" s="4"/>
     </row>
     <row r="1217" spans="2:4" x14ac:dyDescent="0.25">
@@ -16099,7 +16099,7 @@
         <v/>
       </c>
       <c r="C1217" s="4" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D1217" s="4"/>
     </row>
@@ -16108,7 +16108,9 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1218" s="4"/>
+      <c r="C1218" s="4" t="s">
+        <v>963</v>
+      </c>
       <c r="D1218" s="4"/>
     </row>
     <row r="1219" spans="2:4" x14ac:dyDescent="0.25">
@@ -16116,9 +16118,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1219" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="C1219" s="4"/>
       <c r="D1219" s="4"/>
     </row>
     <row r="1220" spans="2:4" x14ac:dyDescent="0.25">
@@ -16127,7 +16127,7 @@
         <v/>
       </c>
       <c r="C1220" s="4" t="s">
-        <v>966</v>
+        <v>290</v>
       </c>
       <c r="D1220" s="4"/>
     </row>
@@ -16136,7 +16136,9 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1221" s="4"/>
+      <c r="C1221" s="4" t="s">
+        <v>964</v>
+      </c>
       <c r="D1221" s="4"/>
     </row>
     <row r="1222" spans="2:4" x14ac:dyDescent="0.25">
@@ -16144,28 +16146,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1222" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1222" s="4"/>
       <c r="D1222" s="4"/>
     </row>
     <row r="1223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1223" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1223" s="4" t="s">
-        <v>291</v>
+        <v>959</v>
       </c>
       <c r="D1223" s="4"/>
     </row>
     <row r="1224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1224" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1224" s="4" t="s">
-        <v>967</v>
+        <v>291</v>
       </c>
       <c r="D1224" s="4"/>
     </row>
@@ -16174,7 +16174,9 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1225" s="4"/>
+      <c r="C1225" s="4" t="s">
+        <v>965</v>
+      </c>
       <c r="D1225" s="4"/>
     </row>
     <row r="1226" spans="2:4" x14ac:dyDescent="0.25">
@@ -16182,9 +16184,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1226" s="4" t="s">
-        <v>947</v>
-      </c>
+      <c r="C1226" s="4"/>
       <c r="D1226" s="4"/>
     </row>
     <row r="1227" spans="2:4" x14ac:dyDescent="0.25">
@@ -16192,7 +16192,9 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1227" s="4"/>
+      <c r="C1227" s="4" t="s">
+        <v>966</v>
+      </c>
       <c r="D1227" s="4"/>
     </row>
     <row r="1228" spans="2:4" x14ac:dyDescent="0.25">
@@ -16200,28 +16202,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1228" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="C1228" s="4"/>
       <c r="D1228" s="4"/>
     </row>
     <row r="1229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1229" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1229" s="4" t="s">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="D1229" s="4"/>
     </row>
     <row r="1230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1230" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1230" s="4" t="s">
-        <v>776</v>
+        <v>176</v>
       </c>
       <c r="D1230" s="4"/>
     </row>
@@ -16231,7 +16231,7 @@
         <v/>
       </c>
       <c r="C1231" s="4" t="s">
-        <v>293</v>
+        <v>771</v>
       </c>
       <c r="D1231" s="4"/>
     </row>
@@ -16241,7 +16241,7 @@
         <v/>
       </c>
       <c r="C1232" s="4" t="s">
-        <v>968</v>
+        <v>293</v>
       </c>
       <c r="D1232" s="4"/>
     </row>
@@ -16251,7 +16251,7 @@
         <v/>
       </c>
       <c r="C1233" s="4" t="s">
-        <v>509</v>
+        <v>967</v>
       </c>
       <c r="D1233" s="4"/>
     </row>
@@ -16261,7 +16261,7 @@
         <v/>
       </c>
       <c r="C1234" s="4" t="s">
-        <v>294</v>
+        <v>509</v>
       </c>
       <c r="D1234" s="4"/>
     </row>
@@ -16271,17 +16271,17 @@
         <v/>
       </c>
       <c r="C1235" s="4" t="s">
-        <v>129</v>
+        <v>294</v>
       </c>
       <c r="D1235" s="4"/>
     </row>
     <row r="1236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1236" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1236" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1236" s="4"/>
     </row>
@@ -16291,7 +16291,7 @@
         <v>INFO</v>
       </c>
       <c r="C1237" s="4" t="s">
-        <v>432</v>
+        <v>130</v>
       </c>
       <c r="D1237" s="4"/>
     </row>
@@ -16301,16 +16301,18 @@
         <v>INFO</v>
       </c>
       <c r="C1238" s="4" t="s">
-        <v>295</v>
+        <v>432</v>
       </c>
       <c r="D1238" s="4"/>
     </row>
     <row r="1239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1239" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="C1239" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1239" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="D1239" s="4"/>
     </row>
     <row r="1240" spans="2:4" x14ac:dyDescent="0.25">
@@ -16318,9 +16320,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1240" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="C1240" s="4"/>
       <c r="D1240" s="4"/>
     </row>
     <row r="1241" spans="2:4" x14ac:dyDescent="0.25">
@@ -16328,7 +16328,9 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1241" s="4"/>
+      <c r="C1241" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="D1241" s="4"/>
     </row>
     <row r="1242" spans="2:4" x14ac:dyDescent="0.25">
@@ -16336,18 +16338,16 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1242" s="4" t="s">
-        <v>969</v>
-      </c>
+      <c r="C1242" s="4"/>
       <c r="D1242" s="4"/>
     </row>
     <row r="1243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1243" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1243" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D1243" s="4"/>
     </row>
@@ -16357,7 +16357,7 @@
         <v>INFO</v>
       </c>
       <c r="C1244" s="4" t="s">
-        <v>297</v>
+        <v>969</v>
       </c>
       <c r="D1244" s="4"/>
     </row>
@@ -16367,7 +16367,7 @@
         <v>INFO</v>
       </c>
       <c r="C1245" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D1245" s="4"/>
     </row>
@@ -16377,17 +16377,17 @@
         <v>INFO</v>
       </c>
       <c r="C1246" s="4" t="s">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="D1246" s="4"/>
     </row>
     <row r="1247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1247" s="9" t="str">
         <f t="shared" ref="B1247:B1278" si="21">IF(LEFT(C1247,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1247)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1247)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1247)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1247)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1247)),"DEBUG",""))))))</f>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1247" s="4" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="D1247" s="4"/>
     </row>
@@ -16397,7 +16397,7 @@
         <v/>
       </c>
       <c r="C1248" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D1248" s="4"/>
     </row>
@@ -16407,17 +16407,17 @@
         <v/>
       </c>
       <c r="C1249" s="4" t="s">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="D1249" s="4"/>
     </row>
     <row r="1250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1250" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1250" s="4" t="s">
-        <v>124</v>
+        <v>510</v>
       </c>
       <c r="D1250" s="4"/>
     </row>
@@ -16427,31 +16427,31 @@
         <v>INFO</v>
       </c>
       <c r="C1251" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1251" s="4"/>
     </row>
-    <row r="1252" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1252" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>WARNING</v>
+        <v>INFO</v>
       </c>
       <c r="C1252" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D1252" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="1253" spans="2:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="D1252" s="4"/>
+    </row>
+    <row r="1253" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B1253" s="9" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WARNING</v>
       </c>
       <c r="C1253" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D1253" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="D1253" s="4" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="1254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1254" s="9" t="str">
@@ -16459,7 +16459,7 @@
         <v/>
       </c>
       <c r="C1254" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D1254" s="4"/>
     </row>
@@ -16469,7 +16469,7 @@
         <v/>
       </c>
       <c r="C1255" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D1255" s="4"/>
     </row>
@@ -16479,7 +16479,7 @@
         <v/>
       </c>
       <c r="C1256" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D1256" s="4"/>
     </row>
@@ -16488,7 +16488,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1257" s="4"/>
+      <c r="C1257" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1257" s="4"/>
     </row>
     <row r="1258" spans="2:4" x14ac:dyDescent="0.25">
@@ -16496,9 +16498,7 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1258" s="4" t="s">
-        <v>304</v>
-      </c>
+      <c r="C1258" s="4"/>
       <c r="D1258" s="4"/>
     </row>
     <row r="1259" spans="2:4" x14ac:dyDescent="0.25">
@@ -16507,7 +16507,7 @@
         <v/>
       </c>
       <c r="C1259" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D1259" s="4"/>
     </row>
@@ -16517,7 +16517,7 @@
         <v/>
       </c>
       <c r="C1260" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D1260" s="4"/>
     </row>
@@ -16527,7 +16527,7 @@
         <v/>
       </c>
       <c r="C1261" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D1261" s="4"/>
     </row>
@@ -16537,7 +16537,7 @@
         <v/>
       </c>
       <c r="C1262" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D1262" s="4"/>
     </row>
@@ -16547,7 +16547,7 @@
         <v/>
       </c>
       <c r="C1263" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D1263" s="4"/>
     </row>
@@ -16557,7 +16557,7 @@
         <v/>
       </c>
       <c r="C1264" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D1264" s="4"/>
     </row>
@@ -16567,7 +16567,7 @@
         <v/>
       </c>
       <c r="C1265" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D1265" s="4"/>
     </row>
@@ -16577,7 +16577,7 @@
         <v/>
       </c>
       <c r="C1266" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D1266" s="4"/>
     </row>
@@ -16587,7 +16587,7 @@
         <v/>
       </c>
       <c r="C1267" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D1267" s="4"/>
     </row>
@@ -16597,7 +16597,7 @@
         <v/>
       </c>
       <c r="C1268" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D1268" s="4"/>
     </row>
@@ -16606,7 +16606,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1269" s="4"/>
+      <c r="C1269" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="D1269" s="4"/>
     </row>
     <row r="1270" spans="2:4" x14ac:dyDescent="0.25">
@@ -16614,9 +16616,7 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1270" s="4" t="s">
-        <v>433</v>
-      </c>
+      <c r="C1270" s="4"/>
       <c r="D1270" s="4"/>
     </row>
     <row r="1271" spans="2:4" x14ac:dyDescent="0.25">
@@ -16625,7 +16625,7 @@
         <v/>
       </c>
       <c r="C1271" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D1271" s="4"/>
     </row>
@@ -16635,7 +16635,7 @@
         <v/>
       </c>
       <c r="C1272" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D1272" s="4"/>
     </row>
@@ -16645,7 +16645,7 @@
         <v/>
       </c>
       <c r="C1273" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D1273" s="4"/>
     </row>
@@ -16655,7 +16655,7 @@
         <v/>
       </c>
       <c r="C1274" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D1274" s="4"/>
     </row>
@@ -16664,7 +16664,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1275" s="4"/>
+      <c r="C1275" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="D1275" s="4"/>
     </row>
     <row r="1276" spans="2:4" x14ac:dyDescent="0.25">
@@ -16680,9 +16682,7 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1277" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="C1277" s="4"/>
       <c r="D1277" s="4"/>
     </row>
     <row r="1278" spans="2:4" x14ac:dyDescent="0.25">
@@ -16691,7 +16691,7 @@
         <v/>
       </c>
       <c r="C1278" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D1278" s="4"/>
     </row>
@@ -16701,7 +16701,7 @@
         <v/>
       </c>
       <c r="C1279" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D1279" s="4"/>
     </row>
@@ -16711,7 +16711,7 @@
         <v/>
       </c>
       <c r="C1280" s="4" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D1280" s="4"/>
     </row>
@@ -16720,7 +16720,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="C1281" s="4"/>
+      <c r="C1281" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1281" s="4"/>
     </row>
     <row r="1282" spans="2:4" x14ac:dyDescent="0.25">
@@ -16728,9 +16730,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="C1282" s="4" t="s">
-        <v>317</v>
-      </c>
+      <c r="C1282" s="4"/>
       <c r="D1282" s="4"/>
     </row>
     <row r="1283" spans="2:4" x14ac:dyDescent="0.25">
@@ -16738,7 +16738,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="C1283" s="4"/>
+      <c r="C1283" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="D1283" s="4"/>
     </row>
     <row r="1284" spans="2:4" x14ac:dyDescent="0.25">
@@ -16762,9 +16764,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1286" s="4" t="s">
-        <v>318</v>
-      </c>
+      <c r="C1286" s="4"/>
       <c r="D1286" s="4"/>
     </row>
     <row r="1287" spans="2:4" x14ac:dyDescent="0.25">
@@ -16772,7 +16772,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1287" s="4"/>
+      <c r="C1287" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="D1287" s="4"/>
     </row>
     <row r="1288" spans="2:4" x14ac:dyDescent="0.25">
@@ -16780,9 +16782,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1288" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="C1288" s="4"/>
       <c r="D1288" s="4"/>
     </row>
     <row r="1289" spans="2:4" x14ac:dyDescent="0.25">
@@ -16791,7 +16791,7 @@
         <v/>
       </c>
       <c r="C1289" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D1289" s="4"/>
     </row>
@@ -16801,7 +16801,7 @@
         <v/>
       </c>
       <c r="C1290" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D1290" s="4"/>
     </row>
@@ -16811,7 +16811,7 @@
         <v/>
       </c>
       <c r="C1291" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D1291" s="4"/>
     </row>
@@ -16821,7 +16821,7 @@
         <v/>
       </c>
       <c r="C1292" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D1292" s="4"/>
     </row>
@@ -16831,7 +16831,7 @@
         <v/>
       </c>
       <c r="C1293" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D1293" s="4"/>
     </row>
@@ -16841,7 +16841,7 @@
         <v/>
       </c>
       <c r="C1294" s="4" t="s">
-        <v>719</v>
+        <v>324</v>
       </c>
       <c r="D1294" s="4"/>
     </row>
@@ -16851,7 +16851,7 @@
         <v/>
       </c>
       <c r="C1295" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D1295" s="4"/>
     </row>
@@ -16861,7 +16861,7 @@
         <v/>
       </c>
       <c r="C1296" s="4" t="s">
-        <v>325</v>
+        <v>720</v>
       </c>
       <c r="D1296" s="4"/>
     </row>
@@ -16871,7 +16871,7 @@
         <v/>
       </c>
       <c r="C1297" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1297" s="4"/>
     </row>
@@ -16881,7 +16881,7 @@
         <v/>
       </c>
       <c r="C1298" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1298" s="4"/>
     </row>
@@ -16891,7 +16891,7 @@
         <v/>
       </c>
       <c r="C1299" s="4" t="s">
-        <v>721</v>
+        <v>327</v>
       </c>
       <c r="D1299" s="4"/>
     </row>
@@ -16901,7 +16901,7 @@
         <v/>
       </c>
       <c r="C1300" s="4" t="s">
-        <v>328</v>
+        <v>721</v>
       </c>
       <c r="D1300" s="4"/>
     </row>
@@ -16911,7 +16911,7 @@
         <v/>
       </c>
       <c r="C1301" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D1301" s="4"/>
     </row>
@@ -16920,7 +16920,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1302" s="4"/>
+      <c r="C1302" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="D1302" s="4"/>
     </row>
     <row r="1303" spans="2:4" x14ac:dyDescent="0.25">
@@ -16928,9 +16930,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1303" s="4" t="s">
-        <v>321</v>
-      </c>
+      <c r="C1303" s="4"/>
       <c r="D1303" s="4"/>
     </row>
     <row r="1304" spans="2:4" x14ac:dyDescent="0.25">
@@ -16939,7 +16939,7 @@
         <v/>
       </c>
       <c r="C1304" s="4" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D1304" s="4"/>
     </row>
@@ -16949,7 +16949,7 @@
         <v/>
       </c>
       <c r="C1305" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D1305" s="4"/>
     </row>
@@ -16958,7 +16958,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1306" s="4"/>
+      <c r="C1306" s="4" t="s">
+        <v>331</v>
+      </c>
       <c r="D1306" s="4"/>
     </row>
     <row r="1307" spans="2:4" x14ac:dyDescent="0.25">
@@ -16974,9 +16976,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1308" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="C1308" s="4"/>
       <c r="D1308" s="4"/>
     </row>
     <row r="1309" spans="2:4" x14ac:dyDescent="0.25">
@@ -16985,7 +16985,7 @@
         <v/>
       </c>
       <c r="C1309" s="4" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D1309" s="4"/>
     </row>
@@ -16995,7 +16995,7 @@
         <v/>
       </c>
       <c r="C1310" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D1310" s="4"/>
     </row>
@@ -17004,7 +17004,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1311" s="4"/>
+      <c r="C1311" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="D1311" s="4"/>
     </row>
     <row r="1312" spans="2:4" x14ac:dyDescent="0.25">
@@ -17020,9 +17022,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1313" s="4" t="s">
-        <v>323</v>
-      </c>
+      <c r="C1313" s="4"/>
       <c r="D1313" s="4"/>
     </row>
     <row r="1314" spans="2:4" x14ac:dyDescent="0.25">
@@ -17031,7 +17031,7 @@
         <v/>
       </c>
       <c r="C1314" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D1314" s="4"/>
     </row>
@@ -17041,7 +17041,7 @@
         <v/>
       </c>
       <c r="C1315" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D1315" s="4"/>
     </row>
@@ -17050,7 +17050,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1316" s="4"/>
+      <c r="C1316" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="D1316" s="4"/>
     </row>
     <row r="1317" spans="2:4" x14ac:dyDescent="0.25">
@@ -17066,9 +17068,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1318" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="C1318" s="4"/>
       <c r="D1318" s="4"/>
     </row>
     <row r="1319" spans="2:4" x14ac:dyDescent="0.25">
@@ -17077,7 +17077,7 @@
         <v/>
       </c>
       <c r="C1319" s="4" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D1319" s="4"/>
     </row>
@@ -17087,7 +17087,7 @@
         <v/>
       </c>
       <c r="C1320" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D1320" s="4"/>
     </row>
@@ -17096,7 +17096,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1321" s="4"/>
+      <c r="C1321" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="D1321" s="4"/>
     </row>
     <row r="1322" spans="2:4" x14ac:dyDescent="0.25">
@@ -17104,9 +17106,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1322" s="4" t="s">
-        <v>338</v>
-      </c>
+      <c r="C1322" s="4"/>
       <c r="D1322" s="4"/>
     </row>
     <row r="1323" spans="2:4" x14ac:dyDescent="0.25">
@@ -17114,7 +17114,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1323" s="4"/>
+      <c r="C1323" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="D1323" s="4"/>
     </row>
     <row r="1324" spans="2:4" x14ac:dyDescent="0.25">
@@ -17130,9 +17132,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1325" s="4" t="s">
-        <v>719</v>
-      </c>
+      <c r="C1325" s="4"/>
       <c r="D1325" s="4"/>
     </row>
     <row r="1326" spans="2:4" x14ac:dyDescent="0.25">
@@ -17141,7 +17141,7 @@
         <v/>
       </c>
       <c r="C1326" s="4" t="s">
-        <v>332</v>
+        <v>719</v>
       </c>
       <c r="D1326" s="4"/>
     </row>
@@ -17151,7 +17151,7 @@
         <v/>
       </c>
       <c r="C1327" s="4" t="s">
-        <v>722</v>
+        <v>332</v>
       </c>
       <c r="D1327" s="4"/>
     </row>
@@ -17160,7 +17160,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1328" s="4"/>
+      <c r="C1328" s="4" t="s">
+        <v>722</v>
+      </c>
       <c r="D1328" s="4"/>
     </row>
     <row r="1329" spans="2:4" x14ac:dyDescent="0.25">
@@ -17168,9 +17170,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1329" s="4" t="s">
-        <v>339</v>
-      </c>
+      <c r="C1329" s="4"/>
       <c r="D1329" s="4"/>
     </row>
     <row r="1330" spans="2:4" x14ac:dyDescent="0.25">
@@ -17178,7 +17178,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1330" s="4"/>
+      <c r="C1330" s="4" t="s">
+        <v>339</v>
+      </c>
       <c r="D1330" s="4"/>
     </row>
     <row r="1331" spans="2:4" x14ac:dyDescent="0.25">
@@ -17194,9 +17196,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1332" s="4" t="s">
-        <v>720</v>
-      </c>
+      <c r="C1332" s="4"/>
       <c r="D1332" s="4"/>
     </row>
     <row r="1333" spans="2:4" x14ac:dyDescent="0.25">
@@ -17205,7 +17205,7 @@
         <v/>
       </c>
       <c r="C1333" s="4" t="s">
-        <v>343</v>
+        <v>720</v>
       </c>
       <c r="D1333" s="4"/>
     </row>
@@ -17215,7 +17215,7 @@
         <v/>
       </c>
       <c r="C1334" s="4" t="s">
-        <v>723</v>
+        <v>343</v>
       </c>
       <c r="D1334" s="4"/>
     </row>
@@ -17224,7 +17224,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1335" s="4"/>
+      <c r="C1335" s="4" t="s">
+        <v>723</v>
+      </c>
       <c r="D1335" s="4"/>
     </row>
     <row r="1336" spans="2:4" x14ac:dyDescent="0.25">
@@ -17232,9 +17234,7 @@
         <f t="shared" ref="B1336:B1367" si="25">IF(LEFT(C1336,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1336)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1336)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1336)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1336)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1336)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1336" s="4" t="s">
-        <v>340</v>
-      </c>
+      <c r="C1336" s="4"/>
       <c r="D1336" s="4"/>
     </row>
     <row r="1337" spans="2:4" x14ac:dyDescent="0.25">
@@ -17242,7 +17242,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1337" s="4"/>
+      <c r="C1337" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="D1337" s="4"/>
     </row>
     <row r="1338" spans="2:4" x14ac:dyDescent="0.25">
@@ -17250,9 +17252,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1338" s="4" t="s">
-        <v>341</v>
-      </c>
+      <c r="C1338" s="4"/>
       <c r="D1338" s="4"/>
     </row>
     <row r="1339" spans="2:4" x14ac:dyDescent="0.25">
@@ -17260,7 +17260,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1339" s="4"/>
+      <c r="C1339" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="D1339" s="4"/>
     </row>
     <row r="1340" spans="2:4" x14ac:dyDescent="0.25">
@@ -17276,9 +17278,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1341" s="4" t="s">
-        <v>325</v>
-      </c>
+      <c r="C1341" s="4"/>
       <c r="D1341" s="4"/>
     </row>
     <row r="1342" spans="2:4" x14ac:dyDescent="0.25">
@@ -17287,7 +17287,7 @@
         <v/>
       </c>
       <c r="C1342" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D1342" s="4"/>
     </row>
@@ -17297,7 +17297,7 @@
         <v/>
       </c>
       <c r="C1343" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D1343" s="4"/>
     </row>
@@ -17306,7 +17306,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1344" s="4"/>
+      <c r="C1344" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="D1344" s="4"/>
     </row>
     <row r="1345" spans="2:4" x14ac:dyDescent="0.25">
@@ -17322,9 +17324,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1346" s="4" t="s">
-        <v>326</v>
-      </c>
+      <c r="C1346" s="4"/>
       <c r="D1346" s="4"/>
     </row>
     <row r="1347" spans="2:4" x14ac:dyDescent="0.25">
@@ -17333,7 +17333,7 @@
         <v/>
       </c>
       <c r="C1347" s="4" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D1347" s="4"/>
     </row>
@@ -17343,7 +17343,7 @@
         <v/>
       </c>
       <c r="C1348" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D1348" s="4"/>
     </row>
@@ -17352,7 +17352,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1349" s="4"/>
+      <c r="C1349" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="D1349" s="4"/>
     </row>
     <row r="1350" spans="2:4" x14ac:dyDescent="0.25">
@@ -17368,9 +17370,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1351" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="C1351" s="4"/>
       <c r="D1351" s="4"/>
     </row>
     <row r="1352" spans="2:4" x14ac:dyDescent="0.25">
@@ -17379,7 +17379,7 @@
         <v/>
       </c>
       <c r="C1352" s="4" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D1352" s="4"/>
     </row>
@@ -17389,7 +17389,7 @@
         <v/>
       </c>
       <c r="C1353" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D1353" s="4"/>
     </row>
@@ -17398,7 +17398,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1354" s="4"/>
+      <c r="C1354" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="D1354" s="4"/>
     </row>
     <row r="1355" spans="2:4" x14ac:dyDescent="0.25">
@@ -17414,9 +17416,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1356" s="4" t="s">
-        <v>721</v>
-      </c>
+      <c r="C1356" s="4"/>
       <c r="D1356" s="4"/>
     </row>
     <row r="1357" spans="2:4" x14ac:dyDescent="0.25">
@@ -17425,7 +17425,7 @@
         <v/>
       </c>
       <c r="C1357" s="4" t="s">
-        <v>347</v>
+        <v>721</v>
       </c>
       <c r="D1357" s="4"/>
     </row>
@@ -17435,7 +17435,7 @@
         <v/>
       </c>
       <c r="C1358" s="4" t="s">
-        <v>724</v>
+        <v>347</v>
       </c>
       <c r="D1358" s="4"/>
     </row>
@@ -17444,7 +17444,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1359" s="4"/>
+      <c r="C1359" s="4" t="s">
+        <v>724</v>
+      </c>
       <c r="D1359" s="4"/>
     </row>
     <row r="1360" spans="2:4" x14ac:dyDescent="0.25">
@@ -17460,9 +17462,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1361" s="4" t="s">
-        <v>328</v>
-      </c>
+      <c r="C1361" s="4"/>
       <c r="D1361" s="4"/>
     </row>
     <row r="1362" spans="2:4" x14ac:dyDescent="0.25">
@@ -17471,7 +17471,7 @@
         <v/>
       </c>
       <c r="C1362" s="4" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="D1362" s="4"/>
     </row>
@@ -17481,7 +17481,7 @@
         <v/>
       </c>
       <c r="C1363" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1363" s="4"/>
     </row>
@@ -17490,7 +17490,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1364" s="4"/>
+      <c r="C1364" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="D1364" s="4"/>
     </row>
     <row r="1365" spans="2:4" x14ac:dyDescent="0.25">
@@ -17506,9 +17508,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1366" s="4" t="s">
-        <v>329</v>
-      </c>
+      <c r="C1366" s="4"/>
       <c r="D1366" s="4"/>
     </row>
     <row r="1367" spans="2:4" x14ac:dyDescent="0.25">
@@ -17517,7 +17517,7 @@
         <v/>
       </c>
       <c r="C1367" s="4" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D1367" s="4"/>
     </row>
@@ -17527,7 +17527,7 @@
         <v/>
       </c>
       <c r="C1368" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D1368" s="4"/>
     </row>
@@ -17536,7 +17536,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1369" s="4"/>
+      <c r="C1369" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="D1369" s="4"/>
     </row>
     <row r="1370" spans="2:4" x14ac:dyDescent="0.25">
@@ -17560,9 +17562,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1372" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="C1372" s="4"/>
       <c r="D1372" s="4"/>
     </row>
     <row r="1373" spans="2:4" x14ac:dyDescent="0.25">
@@ -17571,7 +17571,7 @@
         <v/>
       </c>
       <c r="C1373" s="4" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="D1373" s="4"/>
     </row>
@@ -17581,7 +17581,7 @@
         <v/>
       </c>
       <c r="C1374" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1374" s="4"/>
     </row>
@@ -17591,7 +17591,7 @@
         <v/>
       </c>
       <c r="C1375" s="4" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="D1375" s="4"/>
     </row>
@@ -17600,7 +17600,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1376" s="4"/>
+      <c r="C1376" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1376" s="4"/>
     </row>
     <row r="1377" spans="2:4" x14ac:dyDescent="0.25">
@@ -17608,9 +17610,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1377" s="4" t="s">
-        <v>438</v>
-      </c>
+      <c r="C1377" s="4"/>
       <c r="D1377" s="4"/>
     </row>
     <row r="1378" spans="2:4" x14ac:dyDescent="0.25">
@@ -17619,7 +17619,7 @@
         <v/>
       </c>
       <c r="C1378" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D1378" s="4"/>
     </row>
@@ -17629,7 +17629,7 @@
         <v/>
       </c>
       <c r="C1379" s="4" t="s">
-        <v>971</v>
+        <v>439</v>
       </c>
       <c r="D1379" s="4"/>
     </row>
@@ -17638,7 +17638,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1380" s="4"/>
+      <c r="C1380" s="4" t="s">
+        <v>970</v>
+      </c>
       <c r="D1380" s="4"/>
     </row>
     <row r="1381" spans="2:4" x14ac:dyDescent="0.25">
@@ -17654,9 +17656,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1382" s="4" t="s">
-        <v>354</v>
-      </c>
+      <c r="C1382" s="4"/>
       <c r="D1382" s="4"/>
     </row>
     <row r="1383" spans="2:4" x14ac:dyDescent="0.25">
@@ -17664,7 +17664,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1383" s="4"/>
+      <c r="C1383" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="D1383" s="4"/>
     </row>
     <row r="1384" spans="2:4" x14ac:dyDescent="0.25">
@@ -17680,9 +17682,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1385" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="C1385" s="4"/>
       <c r="D1385" s="4"/>
     </row>
     <row r="1386" spans="2:4" x14ac:dyDescent="0.25">
@@ -17691,7 +17691,7 @@
         <v/>
       </c>
       <c r="C1386" s="4" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="D1386" s="4"/>
     </row>
@@ -17701,7 +17701,7 @@
         <v/>
       </c>
       <c r="C1387" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D1387" s="4"/>
     </row>
@@ -17711,7 +17711,7 @@
         <v/>
       </c>
       <c r="C1388" s="4" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="D1388" s="4"/>
     </row>
@@ -17720,7 +17720,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1389" s="4"/>
+      <c r="C1389" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1389" s="4"/>
     </row>
     <row r="1390" spans="2:4" x14ac:dyDescent="0.25">
@@ -17728,9 +17730,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1390" s="4" t="s">
-        <v>478</v>
-      </c>
+      <c r="C1390" s="4"/>
       <c r="D1390" s="4"/>
     </row>
     <row r="1391" spans="2:4" x14ac:dyDescent="0.25">
@@ -17739,7 +17739,7 @@
         <v/>
       </c>
       <c r="C1391" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D1391" s="4"/>
     </row>
@@ -17749,7 +17749,7 @@
         <v/>
       </c>
       <c r="C1392" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D1392" s="4"/>
     </row>
@@ -17759,7 +17759,7 @@
         <v/>
       </c>
       <c r="C1393" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D1393" s="4"/>
     </row>
@@ -17769,7 +17769,7 @@
         <v/>
       </c>
       <c r="C1394" s="4" t="s">
-        <v>725</v>
+        <v>481</v>
       </c>
       <c r="D1394" s="4"/>
     </row>
@@ -17779,7 +17779,7 @@
         <v/>
       </c>
       <c r="C1395" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D1395" s="4"/>
     </row>
@@ -17788,7 +17788,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1396" s="4"/>
+      <c r="C1396" s="4" t="s">
+        <v>726</v>
+      </c>
       <c r="D1396" s="4"/>
     </row>
     <row r="1397" spans="2:4" x14ac:dyDescent="0.25">
@@ -17804,9 +17806,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1398" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="C1398" s="4"/>
       <c r="D1398" s="4"/>
     </row>
     <row r="1399" spans="2:4" x14ac:dyDescent="0.25">
@@ -17815,7 +17815,7 @@
         <v/>
       </c>
       <c r="C1399" s="4" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="D1399" s="4"/>
     </row>
@@ -17825,7 +17825,7 @@
         <v/>
       </c>
       <c r="C1400" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D1400" s="4"/>
     </row>
@@ -17835,7 +17835,7 @@
         <v/>
       </c>
       <c r="C1401" s="4" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="D1401" s="4"/>
     </row>
@@ -17844,7 +17844,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1402" s="4"/>
+      <c r="C1402" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1402" s="4"/>
     </row>
     <row r="1403" spans="2:4" x14ac:dyDescent="0.25">
@@ -17852,9 +17854,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1403" s="4" t="s">
-        <v>482</v>
-      </c>
+      <c r="C1403" s="4"/>
       <c r="D1403" s="4"/>
     </row>
     <row r="1404" spans="2:4" x14ac:dyDescent="0.25">
@@ -17863,7 +17863,7 @@
         <v/>
       </c>
       <c r="C1404" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D1404" s="4"/>
     </row>
@@ -17873,7 +17873,7 @@
         <v/>
       </c>
       <c r="C1405" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D1405" s="4"/>
     </row>
@@ -17883,7 +17883,7 @@
         <v/>
       </c>
       <c r="C1406" s="4" t="s">
-        <v>972</v>
+        <v>484</v>
       </c>
       <c r="D1406" s="4"/>
     </row>
@@ -17893,7 +17893,7 @@
         <v/>
       </c>
       <c r="C1407" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D1407" s="4"/>
     </row>
@@ -17903,7 +17903,7 @@
         <v/>
       </c>
       <c r="C1408" s="4" t="s">
-        <v>727</v>
+        <v>972</v>
       </c>
       <c r="D1408" s="4"/>
     </row>
@@ -17912,7 +17912,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1409" s="4"/>
+      <c r="C1409" s="4" t="s">
+        <v>727</v>
+      </c>
       <c r="D1409" s="4"/>
     </row>
     <row r="1410" spans="2:4" x14ac:dyDescent="0.25">
@@ -17928,9 +17930,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1411" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="C1411" s="4"/>
       <c r="D1411" s="4"/>
     </row>
     <row r="1412" spans="2:4" x14ac:dyDescent="0.25">
@@ -17939,7 +17939,7 @@
         <v/>
       </c>
       <c r="C1412" s="4" t="s">
-        <v>359</v>
+        <v>301</v>
       </c>
       <c r="D1412" s="4"/>
     </row>
@@ -17949,7 +17949,7 @@
         <v/>
       </c>
       <c r="C1413" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D1413" s="4"/>
     </row>
@@ -17959,7 +17959,7 @@
         <v/>
       </c>
       <c r="C1414" s="4" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="D1414" s="4"/>
     </row>
@@ -17968,7 +17968,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1415" s="4"/>
+      <c r="C1415" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1415" s="4"/>
     </row>
     <row r="1416" spans="2:4" x14ac:dyDescent="0.25">
@@ -17976,9 +17978,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1416" s="4" t="s">
-        <v>728</v>
-      </c>
+      <c r="C1416" s="4"/>
       <c r="D1416" s="4"/>
     </row>
     <row r="1417" spans="2:4" x14ac:dyDescent="0.25">
@@ -17987,7 +17987,7 @@
         <v/>
       </c>
       <c r="C1417" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D1417" s="4"/>
     </row>
@@ -17997,7 +17997,7 @@
         <v/>
       </c>
       <c r="C1418" s="4" t="s">
-        <v>974</v>
+        <v>729</v>
       </c>
       <c r="D1418" s="4"/>
     </row>
@@ -18007,7 +18007,7 @@
         <v/>
       </c>
       <c r="C1419" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D1419" s="4"/>
     </row>
@@ -18017,7 +18017,7 @@
         <v/>
       </c>
       <c r="C1420" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D1420" s="4"/>
     </row>
@@ -18026,7 +18026,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1421" s="4"/>
+      <c r="C1421" s="4" t="s">
+        <v>975</v>
+      </c>
       <c r="D1421" s="4"/>
     </row>
     <row r="1422" spans="2:4" x14ac:dyDescent="0.25">
@@ -18042,9 +18044,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1423" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="C1423" s="4"/>
       <c r="D1423" s="4"/>
     </row>
     <row r="1424" spans="2:4" x14ac:dyDescent="0.25">
@@ -18053,7 +18053,7 @@
         <v/>
       </c>
       <c r="C1424" s="4" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="D1424" s="4"/>
     </row>
@@ -18063,7 +18063,7 @@
         <v/>
       </c>
       <c r="C1425" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D1425" s="4"/>
     </row>
@@ -18073,7 +18073,7 @@
         <v/>
       </c>
       <c r="C1426" s="4" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
       <c r="D1426" s="4"/>
     </row>
@@ -18082,7 +18082,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1427" s="4"/>
+      <c r="C1427" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1427" s="4"/>
     </row>
     <row r="1428" spans="2:4" x14ac:dyDescent="0.25">
@@ -18090,9 +18092,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1428" s="4" t="s">
-        <v>762</v>
-      </c>
+      <c r="C1428" s="4"/>
       <c r="D1428" s="4"/>
     </row>
     <row r="1429" spans="2:4" x14ac:dyDescent="0.25">
@@ -18101,7 +18101,7 @@
         <v/>
       </c>
       <c r="C1429" s="4" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D1429" s="4"/>
     </row>
@@ -18111,7 +18111,7 @@
         <v/>
       </c>
       <c r="C1430" s="4" t="s">
-        <v>977</v>
+        <v>760</v>
       </c>
       <c r="D1430" s="4"/>
     </row>
@@ -18121,7 +18121,7 @@
         <v/>
       </c>
       <c r="C1431" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D1431" s="4"/>
     </row>
@@ -18130,7 +18130,9 @@
         <f t="shared" ref="B1432:B1463" si="28">IF(LEFT(C1432,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1432)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1432)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1432)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1432)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1432)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1432" s="4"/>
+      <c r="C1432" s="4" t="s">
+        <v>977</v>
+      </c>
       <c r="D1432" s="4"/>
     </row>
     <row r="1433" spans="2:4" x14ac:dyDescent="0.25">
@@ -18146,18 +18148,16 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="C1434" s="4" t="s">
-        <v>730</v>
-      </c>
+      <c r="C1434" s="4"/>
       <c r="D1434" s="4"/>
     </row>
     <row r="1435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1435" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1435" s="4" t="s">
-        <v>124</v>
+        <v>730</v>
       </c>
       <c r="D1435" s="4"/>
     </row>
@@ -18167,17 +18167,17 @@
         <v>INFO</v>
       </c>
       <c r="C1436" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1436" s="4"/>
     </row>
     <row r="1437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1437" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1437" s="4" t="s">
-        <v>511</v>
+        <v>125</v>
       </c>
       <c r="D1437" s="4"/>
     </row>
@@ -18187,7 +18187,7 @@
         <v/>
       </c>
       <c r="C1438" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D1438" s="4"/>
     </row>
@@ -18197,17 +18197,17 @@
         <v/>
       </c>
       <c r="C1439" s="4" t="s">
-        <v>362</v>
+        <v>512</v>
       </c>
       <c r="D1439" s="4"/>
     </row>
     <row r="1440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1440" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1440" s="4" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D1440" s="4"/>
     </row>
@@ -18217,7 +18217,7 @@
         <v>INFO</v>
       </c>
       <c r="C1441" s="4" t="s">
-        <v>133</v>
+        <v>376</v>
       </c>
       <c r="D1441" s="4"/>
     </row>
@@ -18227,17 +18227,17 @@
         <v>INFO</v>
       </c>
       <c r="C1442" s="4" t="s">
-        <v>366</v>
+        <v>133</v>
       </c>
       <c r="D1442" s="4"/>
     </row>
     <row r="1443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1443" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1443" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1443" s="4"/>
     </row>
@@ -18247,17 +18247,17 @@
         <v/>
       </c>
       <c r="C1444" s="4" t="s">
-        <v>513</v>
+        <v>367</v>
       </c>
       <c r="D1444" s="4"/>
     </row>
     <row r="1445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1445" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1445" s="4" t="s">
-        <v>124</v>
+        <v>513</v>
       </c>
       <c r="D1445" s="4"/>
     </row>
@@ -18267,31 +18267,31 @@
         <v>INFO</v>
       </c>
       <c r="C1446" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1446" s="4"/>
     </row>
-    <row r="1447" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1447" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>WARNING</v>
+        <v>INFO</v>
       </c>
       <c r="C1447" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D1447" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="1448" spans="2:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="D1447" s="4"/>
+    </row>
+    <row r="1448" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B1448" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>WARNING</v>
       </c>
       <c r="C1448" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1448" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="D1448" s="4" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="1449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1449" s="9" t="str">
@@ -18299,7 +18299,7 @@
         <v/>
       </c>
       <c r="C1449" s="4" t="s">
-        <v>368</v>
+        <v>514</v>
       </c>
       <c r="D1449" s="4"/>
     </row>
@@ -18309,7 +18309,7 @@
         <v/>
       </c>
       <c r="C1450" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D1450" s="4"/>
     </row>
@@ -18318,7 +18318,9 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="C1451" s="4"/>
+      <c r="C1451" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="D1451" s="4"/>
     </row>
     <row r="1452" spans="2:4" x14ac:dyDescent="0.25">
@@ -18326,9 +18328,7 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="C1452" s="4" t="s">
-        <v>370</v>
-      </c>
+      <c r="C1452" s="4"/>
       <c r="D1452" s="4"/>
     </row>
     <row r="1453" spans="2:4" x14ac:dyDescent="0.25">
@@ -18337,7 +18337,7 @@
         <v/>
       </c>
       <c r="C1453" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D1453" s="4"/>
     </row>
@@ -18347,7 +18347,7 @@
         <v/>
       </c>
       <c r="C1454" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D1454" s="4"/>
     </row>
@@ -18357,7 +18357,7 @@
         <v/>
       </c>
       <c r="C1455" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D1455" s="4"/>
     </row>
@@ -18367,7 +18367,7 @@
         <v/>
       </c>
       <c r="C1456" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D1456" s="4"/>
     </row>
@@ -18377,37 +18377,37 @@
         <v/>
       </c>
       <c r="C1457" s="4" t="s">
-        <v>129</v>
+        <v>374</v>
       </c>
       <c r="D1457" s="4"/>
     </row>
     <row r="1458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1458" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1458" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1458" s="4"/>
     </row>
     <row r="1459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1459" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1459" s="4" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="D1459" s="4"/>
     </row>
     <row r="1460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1460" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1460" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D1460" s="4"/>
     </row>
@@ -18417,7 +18417,7 @@
         <v>INFO</v>
       </c>
       <c r="C1461" s="4" t="s">
-        <v>133</v>
+        <v>376</v>
       </c>
       <c r="D1461" s="4"/>
     </row>
@@ -18427,7 +18427,7 @@
         <v>INFO</v>
       </c>
       <c r="C1462" s="4" t="s">
-        <v>377</v>
+        <v>133</v>
       </c>
       <c r="D1462" s="4"/>
     </row>
@@ -18437,7 +18437,7 @@
         <v>INFO</v>
       </c>
       <c r="C1463" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1463" s="4"/>
     </row>
@@ -18447,17 +18447,17 @@
         <v>INFO</v>
       </c>
       <c r="C1464" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D1464" s="4"/>
     </row>
     <row r="1465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1465" s="9" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1465" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D1465" s="4"/>
     </row>
@@ -18467,7 +18467,7 @@
         <v/>
       </c>
       <c r="C1466" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D1466" s="4"/>
     </row>
@@ -18477,7 +18477,7 @@
         <v/>
       </c>
       <c r="C1467" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D1467" s="4"/>
     </row>
@@ -18487,7 +18487,7 @@
         <v/>
       </c>
       <c r="C1468" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D1468" s="4"/>
     </row>
@@ -18497,7 +18497,7 @@
         <v/>
       </c>
       <c r="C1469" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D1469" s="4"/>
     </row>
@@ -18507,7 +18507,7 @@
         <v/>
       </c>
       <c r="C1470" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D1470" s="4"/>
     </row>
@@ -18517,17 +18517,17 @@
         <v/>
       </c>
       <c r="C1471" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D1471" s="4"/>
     </row>
     <row r="1472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1472" s="9" t="str">
         <f t="shared" si="31"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1472" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D1472" s="4"/>
     </row>
@@ -18537,7 +18537,7 @@
         <v>INFO</v>
       </c>
       <c r="C1473" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D1473" s="4"/>
     </row>
@@ -18547,17 +18547,17 @@
         <v>INFO</v>
       </c>
       <c r="C1474" s="4" t="s">
-        <v>176</v>
+        <v>388</v>
       </c>
       <c r="D1474" s="4"/>
     </row>
     <row r="1475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1475" s="9" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1475" s="4" t="s">
-        <v>389</v>
+        <v>176</v>
       </c>
       <c r="D1475" s="4"/>
     </row>
@@ -18567,7 +18567,7 @@
         <v/>
       </c>
       <c r="C1476" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D1476" s="4"/>
     </row>
@@ -18577,7 +18577,7 @@
         <v/>
       </c>
       <c r="C1477" s="4" t="s">
-        <v>979</v>
+        <v>390</v>
       </c>
       <c r="D1477" s="4"/>
     </row>
@@ -18587,7 +18587,7 @@
         <v/>
       </c>
       <c r="C1478" s="4" t="s">
-        <v>391</v>
+        <v>978</v>
       </c>
       <c r="D1478" s="4"/>
     </row>
@@ -18597,7 +18597,7 @@
         <v/>
       </c>
       <c r="C1479" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D1479" s="4"/>
     </row>
@@ -18607,7 +18607,7 @@
         <v/>
       </c>
       <c r="C1480" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D1480" s="4"/>
     </row>
@@ -18617,7 +18617,7 @@
         <v/>
       </c>
       <c r="C1481" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D1481" s="4"/>
     </row>
@@ -18627,19 +18627,29 @@
         <v/>
       </c>
       <c r="C1482" s="4" t="s">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="D1482" s="4"/>
     </row>
     <row r="1483" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1483" s="9" t="str">
         <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C1483" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1483" s="4"/>
+    </row>
+    <row r="1484" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1484" s="29" t="str">
+        <f>IF(LEFT(C1484,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1484)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1484)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1484)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1484)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1484)),"DEBUG",""))))))</f>
         <v>INFO</v>
       </c>
-      <c r="C1483" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="D1483" s="4"/>
+      <c r="C1484" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="D1484" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/uart_report.xlsx
+++ b/docs/uart_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UF523TCH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168960D-90E4-4293-9012-EB53469678DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DC6984-8814-4E82-BE16-8BFBF0B92587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{85EF69C1-0CF4-4C88-A077-43C70A228E3E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="987">
   <si>
     <t>#-----------------------------------------------------------</t>
   </si>
@@ -2275,12 +2275,6 @@
     <t># report_bus_skew                     -file "${RESULTS_DIR}/synth/${PROJECT_NAME}_bus_skew_synth.rpt"</t>
   </si>
   <si>
-    <t>INFO: [Synth 8-638] synthesizing module 'TOP_FPGA' [/home/tim/projects/uart/sources/top_fpga/top_fpga.vhd:94]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-3491] module 'clk_wiz_0' declared at '/home/tim/projects/uart/synthesis/uart/uart.gen/sources_1/ip/clk_wiz_0/clk_wiz_0.v:66' bound to instance 'inst_pll' of component 'clk_wiz_0' [/home/tim/projects/uart/sources/top_fpga/top_fpga.vhd:188]</t>
-  </si>
-  <si>
     <t>INFO: [Synth 8-638] synthesizing module 'olo_base_reset_gen' [/home/tim/projects/uart/cores/open-logic/src/base/vhdl/olo_base_reset_gen.vhd:51]</t>
   </si>
   <si>
@@ -2294,39 +2288,6 @@
   </si>
   <si>
     <t>INFO: [Synth 8-256] done synthesizing module 'olo_base_reset_gen' (0#1) [/home/tim/projects/uart/cores/open-logic/src/base/vhdl/olo_base_reset_gen.vhd:51]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-638] synthesizing module 'UART' [/home/tim/projects/uart/sources/uart/uart.vhd:79]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-638] synthesizing module 'UART_TX' [/home/tim/projects/uart/sources/uart/uart_tx.vhd:70]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-256] done synthesizing module 'UART_TX' (0#1) [/home/tim/projects/uart/sources/uart/uart_tx.vhd:70]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-638] synthesizing module 'UART_RX' [/home/tim/projects/uart/sources/uart/uart_rx.vhd:74]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-256] done synthesizing module 'UART_RX' (0#1) [/home/tim/projects/uart/sources/uart/uart_rx.vhd:74]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-256] done synthesizing module 'UART' (0#1) [/home/tim/projects/uart/sources/uart/uart.vhd:79]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-638] synthesizing module 'REGFILE' [/home/tim/projects/uart/sources/regfile/regfile.vhd:89]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-256] done synthesizing module 'REGFILE' (0#1) [/home/tim/projects/uart/sources/regfile/regfile.vhd:89]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-638] synthesizing module 'SPI_MASTER' [/home/tim/projects/uart/sources/spi/spi_master.vhd:100]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-256] done synthesizing module 'SPI_MASTER' (0#1) [/home/tim/projects/uart/sources/spi/spi_master.vhd:100]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-256] done synthesizing module 'TOP_FPGA' (0#1) [/home/tim/projects/uart/sources/top_fpga/top_fpga.vhd:94]</t>
   </si>
   <si>
     <t xml:space="preserve">                    3 Bit    Registers := 15</t>
@@ -2496,640 +2457,721 @@
     <t>INST_VGA</t>
   </si>
   <si>
-    <t>WARNING: [Route 35-3387] High violations detected on bus-skew constraints. This can potentially cause WNS degradation and routing congestion.</t>
-  </si>
-  <si>
-    <t>Resolution: Please review the set_bus_skew constraints.</t>
-  </si>
-  <si>
     <t>Phase 5.2 Global Iteration 1</t>
   </si>
   <si>
-    <t>12 Infos, 1 Warnings, 0 Critical Warnings and 0 Errors encountered.</t>
-  </si>
-  <si>
-    <t>|5     |LUT4      |    49|</t>
-  </si>
-  <si>
-    <t># Start of session at: Tue Jan 13 11:32:53 2026</t>
-  </si>
-  <si>
-    <t># Process ID         : 23101</t>
-  </si>
-  <si>
-    <t># Available Virtual  : 16176 MB</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-7075] Helper process launched with PID 23255</t>
-  </si>
-  <si>
-    <t>Starting RTL Elaboration : Time (s): cpu = 00:00:03 ; elapsed = 00:00:04 . Memory (MB): peak = 2282.094 ; gain = 449.812 ; free physical = 4660 ; free virtual = 14197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Parameter G_GIT_ID bound to: 32'b10111000011000100111001010110100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Parameter G_GIT_ID_MSB bound to: 16'b1011100001100010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Parameter G_GIT_ID_LSB bound to: 16'b0111001010110100</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-638] synthesizing module 'VGA_CONTROLLER' [/home/tim/projects/uart/sources/vga/vga_controller.vhd:92]</t>
-  </si>
-  <si>
-    <t>INFO: [Synth 8-256] done synthesizing module 'VGA_CONTROLLER' (0#1) [/home/tim/projects/uart/sources/vga/vga_controller.vhd:92]</t>
-  </si>
-  <si>
-    <t>Finished RTL Elaboration : Time (s): cpu = 00:00:04 ; elapsed = 00:00:05 . Memory (MB): peak = 2372.031 ; gain = 539.750 ; free physical = 4545 ; free virtual = 14085</t>
-  </si>
-  <si>
-    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:05 ; elapsed = 00:00:05 . Memory (MB): peak = 2389.844 ; gain = 557.562 ; free physical = 4542 ; free virtual = 14082</t>
-  </si>
-  <si>
-    <t>Finished RTL Optimization Phase 1 : Time (s): cpu = 00:00:05 ; elapsed = 00:00:05 . Memory (MB): peak = 2389.844 ; gain = 557.562 ; free physical = 4542 ; free virtual = 14082</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2395.781 ; gain = 0.000 ; free physical = 4536 ; free virtual = 14076</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2510.582 ; gain = 0.000 ; free physical = 4504 ; free virtual = 14061</t>
-  </si>
-  <si>
-    <t>Constraint Validation Runtime : Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 2510.617 ; gain = 0.000 ; free physical = 4503 ; free virtual = 14060</t>
-  </si>
-  <si>
-    <t>Finished Constraint Validation : Time (s): cpu = 00:00:09 ; elapsed = 00:00:09 . Memory (MB): peak = 2510.617 ; gain = 678.336 ; free physical = 4500 ; free virtual = 14058</t>
-  </si>
-  <si>
-    <t>Finished Loading Part and Timing Information : Time (s): cpu = 00:00:09 ; elapsed = 00:00:09 . Memory (MB): peak = 2518.586 ; gain = 686.305 ; free physical = 4500 ; free virtual = 14058</t>
-  </si>
-  <si>
-    <t>Finished applying 'set_property' XDC Constraints : Time (s): cpu = 00:00:09 ; elapsed = 00:00:09 . Memory (MB): peak = 2518.586 ; gain = 686.305 ; free physical = 4499 ; free virtual = 14057</t>
-  </si>
-  <si>
-    <t>Finished RTL Optimization Phase 2 : Time (s): cpu = 00:00:10 ; elapsed = 00:00:10 . Memory (MB): peak = 2518.586 ; gain = 686.305 ; free physical = 4544 ; free virtual = 14103</t>
-  </si>
-  <si>
-    <t>Finished Cross Boundary and Area Optimization : Time (s): cpu = 00:00:12 ; elapsed = 00:00:13 . Memory (MB): peak = 2518.586 ; gain = 686.305 ; free physical = 4517 ; free virtual = 14082</t>
-  </si>
-  <si>
-    <t>Finished Applying XDC Timing Constraints : Time (s): cpu = 00:00:16 ; elapsed = 00:00:16 . Memory (MB): peak = 2543.586 ; gain = 711.305 ; free physical = 4445 ; free virtual = 14018</t>
-  </si>
-  <si>
-    <t>Finished Timing Optimization : Time (s): cpu = 00:00:16 ; elapsed = 00:00:16 . Memory (MB): peak = 2544.586 ; gain = 712.305 ; free physical = 4444 ; free virtual = 14017</t>
-  </si>
-  <si>
-    <t>Finished Technology Mapping : Time (s): cpu = 00:00:16 ; elapsed = 00:00:16 . Memory (MB): peak = 2563.617 ; gain = 731.336 ; free physical = 4425 ; free virtual = 13998</t>
-  </si>
-  <si>
-    <t>Finished IO Insertion : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
-  </si>
-  <si>
-    <t>Finished Renaming Generated Instances : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
-  </si>
-  <si>
-    <t>Finished Rebuilding User Hierarchy : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
-  </si>
-  <si>
-    <t>Finished Renaming Generated Ports : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
-  </si>
-  <si>
-    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
-  </si>
-  <si>
-    <t>Finished Renaming Generated Nets : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
-  </si>
-  <si>
-    <t>|3     |LUT2      |    36|</t>
-  </si>
-  <si>
-    <t>|4     |LUT3      |    28|</t>
-  </si>
-  <si>
-    <t>|6     |LUT5      |    48|</t>
-  </si>
-  <si>
-    <t>|7     |LUT6      |   143|</t>
-  </si>
-  <si>
-    <t>|8     |MUXF7     |     5|</t>
-  </si>
-  <si>
     <t>|10    |FDCE      |   232|</t>
   </si>
   <si>
     <t>|11    |FDPE      |    51|</t>
   </si>
   <si>
-    <t>Finished Writing Synthesis Report : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.430 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
-  </si>
-  <si>
-    <t>Synthesis Optimization Runtime : Time (s): cpu = 00:00:18 ; elapsed = 00:00:18 . Memory (MB): peak = 2730.430 ; gain = 777.375 ; free physical = 4276 ; free virtual = 13849</t>
-  </si>
-  <si>
-    <t>Synthesis Optimization Complete : Time (s): cpu = 00:00:18 ; elapsed = 00:00:19 . Memory (MB): peak = 2730.438 ; gain = 898.148 ; free physical = 4276 ; free virtual = 13849</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2730.438 ; gain = 0.000 ; free physical = 4274 ; free virtual = 13848</t>
-  </si>
-  <si>
-    <t>INFO: [Netlist 29-17] Analyzing 6 Unisim elements for replacement</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3256.285 ; gain = 0.000 ; free physical = 4026 ; free virtual = 13616</t>
-  </si>
-  <si>
-    <t>Synth Design complete | Checksum: 8b12e9ef</t>
-  </si>
-  <si>
-    <t>synth_design: Time (s): cpu = 00:00:26 ; elapsed = 00:00:25 . Memory (MB): peak = 3256.320 ; gain = 1424.117 ; free physical = 4026 ; free virtual = 13615</t>
-  </si>
-  <si>
-    <t>INFO: [Common 17-2834] synth_design peak Physical Memory [PSS] (MB): overall = 2501.936; main = 2501.936; forked = 336.596</t>
-  </si>
-  <si>
-    <t>INFO: [Common 17-2834] synth_design peak Virtual Memory [VSS] (MB): overall = 3474.797; main = 3256.285; forked = 956.211</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:02 ; elapsed = 00:00:00.57 . Memory (MB): peak = 3256.320 ; gain = 0.000 ; free physical = 4000 ; free virtual = 13591</t>
-  </si>
-  <si>
-    <t>Ending Cache Timing Information Task | Checksum: 1e308c950</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3256.320 ; gain = 0.000 ; free physical = 4000 ; free virtual = 13591</t>
-  </si>
-  <si>
-    <t>Phase 1.1 Core Generation And Design Setup | Checksum: 1e308c950</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
-  </si>
-  <si>
-    <t>Phase 1.2 Setup Constraints And Sort Netlist | Checksum: 1e308c950</t>
-  </si>
-  <si>
-    <t>Phase 1 Initialization | Checksum: 1e308c950</t>
-  </si>
-  <si>
-    <t>Phase 2.1 Timer Update | Checksum: 1e308c950</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.08 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
-  </si>
-  <si>
-    <t>Phase 2.2 Timing Data Collection | Checksum: 1e308c950</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.09 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
-  </si>
-  <si>
-    <t>Phase 2 Timer Update And Timing Data Collection | Checksum: 1e308c950</t>
-  </si>
-  <si>
-    <t>Phase 3 Retarget | Checksum: 1c3d72a6c</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.15 ; elapsed = 00:00:00.04 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
-  </si>
-  <si>
-    <t>Retarget | Checksum: 1c3d72a6c</t>
-  </si>
-  <si>
-    <t>Phase 4 Constant propagation | Checksum: 1c3d72a6c</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.17 ; elapsed = 00:00:00.05 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
-  </si>
-  <si>
-    <t>Constant propagation | Checksum: 1c3d72a6c</t>
-  </si>
-  <si>
-    <t>Done building netlist checker database: Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
-  </si>
-  <si>
-    <t>Phase 5 Sweep | Checksum: 12fedd9a5</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.18 ; elapsed = 00:00:00.06 . Memory (MB): peak = 3331.270 ; gain = 0.000 ; free physical = 3868 ; free virtual = 13459</t>
-  </si>
-  <si>
-    <t>Sweep | Checksum: 12fedd9a5</t>
-  </si>
-  <si>
-    <t>Phase 6 BUFG optimization | Checksum: 12fedd9a5</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.19 ; elapsed = 00:00:00.08 . Memory (MB): peak = 3363.285 ; gain = 32.016 ; free physical = 3867 ; free virtual = 13458</t>
-  </si>
-  <si>
-    <t>BUFG optimization | Checksum: 12fedd9a5</t>
-  </si>
-  <si>
-    <t>Phase 7 Shift Register Optimization | Checksum: 12fedd9a5</t>
-  </si>
-  <si>
-    <t>Shift Register Optimization | Checksum: 12fedd9a5</t>
-  </si>
-  <si>
-    <t>Phase 8 Post Processing Netlist | Checksum: 12fedd9a5</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.2 ; elapsed = 00:00:00.08 . Memory (MB): peak = 3363.285 ; gain = 32.016 ; free physical = 3867 ; free virtual = 13458</t>
-  </si>
-  <si>
-    <t>Post Processing Netlist | Checksum: 12fedd9a5</t>
-  </si>
-  <si>
-    <t>Phase 9.1 Finalizing Design Cores and Updating Shapes | Checksum: 118627f88</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.21 ; elapsed = 00:00:00.09 . Memory (MB): peak = 3363.285 ; gain = 32.016 ; free physical = 3867 ; free virtual = 13458</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3867 ; free virtual = 13458</t>
-  </si>
-  <si>
-    <t>Phase 9.2 Verifying Netlist Connectivity | Checksum: 118627f88</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.21 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3363.285 ; gain = 32.016 ; free physical = 3867 ; free virtual = 13458</t>
-  </si>
-  <si>
-    <t>Phase 9 Finalization | Checksum: 118627f88</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.21 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3363.285 ; gain = 32.016 ; free physical = 3869 ; free virtual = 13460</t>
-  </si>
-  <si>
-    <t>Ending Logic Optimization Task | Checksum: 118627f88</t>
-  </si>
-  <si>
-    <t>Ending Power Optimization Task | Checksum: 118627f88</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3865 ; free virtual = 13457</t>
-  </si>
-  <si>
-    <t>Ending Final Cleanup Task | Checksum: 118627f88</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3865 ; free virtual = 13457</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3865 ; free virtual = 13457</t>
-  </si>
-  <si>
-    <t>Ending Netlist Obfuscation Task | Checksum: 118627f88</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3858 ; free virtual = 13450</t>
-  </si>
-  <si>
-    <t>Phase 1.1 Placer Initialization Netlist Sorting | Checksum: 10476e2a6</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3858 ; free virtual = 13450</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3858 ; free virtual = 13450</t>
-  </si>
-  <si>
-    <t>Phase 1.2 IO Placement/ Clock Placement/ Build Placer Device | Checksum: 160cface2</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.44 ; elapsed = 00:00:00.14 . Memory (MB): peak = 3363.285 ; gain = 0.000 ; free physical = 3856 ; free virtual = 13452</t>
-  </si>
-  <si>
-    <t>Phase 1.3 Build Placer Netlist Model | Checksum: 18d9565cb</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.77 ; elapsed = 00:00:00.29 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3854 ; free virtual = 13451</t>
-  </si>
-  <si>
-    <t>Phase 1.4 Constrain Clocks/Macros | Checksum: 18d9565cb</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.79 ; elapsed = 00:00:00.29 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3854 ; free virtual = 13451</t>
-  </si>
-  <si>
-    <t>Phase 1 Placer Initialization | Checksum: 18d9565cb</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.8 ; elapsed = 00:00:00.3 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3854 ; free virtual = 13451</t>
-  </si>
-  <si>
-    <t>Phase 2.1 Floorplanning | Checksum: 16cbb39ee</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:01 ; elapsed = 00:00:00.41 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3834 ; free virtual = 13431</t>
-  </si>
-  <si>
-    <t>Phase 2.2 Update Timing before SLR Path Opt | Checksum: 2311f05d1</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:01 ; elapsed = 00:00:00.46 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3850 ; free virtual = 13448</t>
-  </si>
-  <si>
-    <t>Phase 2.3 Post-Processing in Floorplanning | Checksum: 2311f05d1</t>
-  </si>
-  <si>
-    <t>Phase 2.4 Global Place Phase1 | Checksum: 19214f9a0</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:01 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3849 ; free virtual = 13447</t>
-  </si>
-  <si>
-    <t>Phase 2.5.1 UpdateTiming Before Physical Synthesis | Checksum: 19214f9a0</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3847 ; free virtual = 13449</t>
-  </si>
-  <si>
-    <t>Phase 2.5.2 Physical Synthesis In Placer | Checksum: 1fb1d0e0a</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3847 ; free virtual = 13448</t>
-  </si>
-  <si>
-    <t>Phase 2.5 Global Place Phase2 | Checksum: 1d13a5b32</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3846 ; free virtual = 13448</t>
-  </si>
-  <si>
-    <t>Phase 2 Global Placement | Checksum: 1d13a5b32</t>
-  </si>
-  <si>
-    <t>Phase 3.1 Commit Multi Column Macros | Checksum: 19f904e3f</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3845 ; free virtual = 13447</t>
-  </si>
-  <si>
-    <t>Phase 3.2 Commit Most Macros &amp; LUTRAMs | Checksum: 25f9ed7df</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3844 ; free virtual = 13446</t>
-  </si>
-  <si>
-    <t>Phase 3.3 Area Swap Optimization | Checksum: 193b37491</t>
-  </si>
-  <si>
-    <t>Phase 3.4 Pipeline Register Optimization | Checksum: 220bae99b</t>
-  </si>
-  <si>
-    <t>Phase 3.5 Small Shape Detail Placement | Checksum: 1ca4672f7</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:05 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3843 ; free virtual = 13446</t>
-  </si>
-  <si>
-    <t>Phase 3.6 Re-assign LUT pins | Checksum: 1d388c172</t>
-  </si>
-  <si>
-    <t>Phase 3.7 Pipeline Register Optimization | Checksum: 1ba935707</t>
-  </si>
-  <si>
-    <t>Phase 3 Detail Placement | Checksum: 1ba935707</t>
-  </si>
-  <si>
-    <t>Post Placement Optimization Initialization | Checksum: 145ae03f1</t>
-  </si>
-  <si>
-    <t>INFO: [Physopt 32-619] Estimated Timing Summary | WNS=12.021 | TNS=0.000 |</t>
-  </si>
-  <si>
-    <t>Phase 1 Physical Synthesis Initialization | Checksum: 10d86badf</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.1 ; elapsed = 00:00:00.04 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3843 ; free virtual = 13445</t>
-  </si>
-  <si>
-    <t>Ending Physical Synthesis Task | Checksum: 156b3990e</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.12 ; elapsed = 00:00:00.05 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3843 ; free virtual = 13445</t>
-  </si>
-  <si>
-    <t>Phase 4.1.1.1 BUFG Insertion | Checksum: 145ae03f1</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:06 ; elapsed = 00:00:03 . Memory (MB): peak = 3402.328 ; gain = 39.043 ; free physical = 3843 ; free virtual = 13445</t>
-  </si>
-  <si>
-    <t>INFO: [Place 30-746] Post Placement Timing Summary WNS=12.021. For the most accurate timing information please run report_timing.</t>
-  </si>
-  <si>
-    <t>Phase 4.1.1.2 Post Placement Timing Optimization | Checksum: 1649061f3</t>
-  </si>
-  <si>
-    <t>Phase 4.1 Post Commit Optimization | Checksum: 1649061f3</t>
-  </si>
-  <si>
-    <t>Phase 4.2 Post Placement Cleanup | Checksum: 1649061f3</t>
-  </si>
-  <si>
-    <t>Phase 4.3.1 Print Estimated Congestion | Checksum: 1649061f3</t>
-  </si>
-  <si>
-    <t>Phase 4.3 Placer Reporting | Checksum: 1649061f3</t>
-  </si>
-  <si>
-    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3843 ; free virtual = 13445</t>
-  </si>
-  <si>
-    <t>Phase 4 Post Placement Optimization and Clean-Up | Checksum: e295d4b5</t>
-  </si>
-  <si>
-    <t>Ending Placer Task | Checksum: c0cd6eee</t>
-  </si>
-  <si>
-    <t>report_io: Time (s): cpu = 00:00:00.08 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3836 ; free virtual = 13439</t>
-  </si>
-  <si>
-    <t>report_control_sets: Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00.05 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3836 ; free virtual = 13439</t>
-  </si>
-  <si>
-    <t>Checksum: PlaceDB: 36197304 ConstDB: 0 ShapeSum: 74ba88fa RouteDB: 15f972f0</t>
-  </si>
-  <si>
-    <t>Post Restoration Checksum: NetGraph: 3b5d96a6 | NumContArr: 3b51fd33 | Constraints: c2a8fa9d | Timing: c2a8fa9d</t>
-  </si>
-  <si>
-    <t>Phase 1 Build RT Design | Checksum: 1fc018913</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:15 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3841 ; free virtual = 13445</t>
-  </si>
-  <si>
-    <t>Phase 2.1 Fix Topology Constraints | Checksum: 1fc018913</t>
-  </si>
-  <si>
-    <t>Phase 2.2 Pre Route Cleanup | Checksum: 1fc018913</t>
-  </si>
-  <si>
-    <t>Phase 2.3 Update Timing | Checksum: 1b803983c</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:16 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3841 ; free virtual = 13445</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.997 | TNS=0.000  | WHS=-0.150 | THS=-11.516|</t>
-  </si>
-  <si>
-    <t>Phase 2.4.1 Update Timing | Checksum: 1d0b2bc9b</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.997 | TNS=0.000  | WHS=-0.074 | THS=-0.174 |</t>
-  </si>
-  <si>
-    <t>Phase 2.4 Update Timing for Bus Skew | Checksum: 15bd19783</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:16 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3837 ; free virtual = 13445</t>
-  </si>
-  <si>
-    <t>Phase 2.5 Soft Constraint Pins - Fast Budgeting | Checksum: 15bd19783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Number of Failed Nets               = 513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Number of Unrouted Nets             = 513</t>
-  </si>
-  <si>
-    <t>Phase 2 Router Initialization | Checksum: 199854faf</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:17 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3837 ; free virtual = 13445</t>
-  </si>
-  <si>
-    <t>Phase 3 Global Routing | Checksum: 199854faf</t>
-  </si>
-  <si>
-    <t>Phase 4.1 Initial Net Routing Pass | Checksum: 2307d3090</t>
-  </si>
-  <si>
-    <t>Phase 4 Initial Routing | Checksum: 2307d3090</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Number of Nodes with overlaps = 36</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Number of Nodes with overlaps = 1</t>
   </si>
   <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.540 | TNS=0.000  | WHS=N/A    | THS=N/A    |</t>
-  </si>
-  <si>
-    <t>Phase 5.1 Global Iteration 0 | Checksum: 18f9b527c</t>
-  </si>
-  <si>
-    <t>Phase 5.2 Global Iteration 1 | Checksum: 28249f2b0</t>
-  </si>
-  <si>
-    <t>Phase 5 Rip-up And Reroute | Checksum: 28249f2b0</t>
-  </si>
-  <si>
-    <t>Phase 6.1 Delay CleanUp | Checksum: 28249f2b0</t>
-  </si>
-  <si>
-    <t>Phase 6.2 Clock Skew Optimization | Checksum: 28249f2b0</t>
-  </si>
-  <si>
-    <t>Phase 6 Delay and Skew Optimization | Checksum: 28249f2b0</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.717 | TNS=0.000  | WHS=0.077  | THS=0.000  |</t>
-  </si>
-  <si>
-    <t>Phase 7.1 Hold Fix Iter | Checksum: 29cc50660</t>
-  </si>
-  <si>
-    <t>Phase 7 Post Hold Fix | Checksum: 29cc50660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Global Vertical Routing Utilization    = 0.125557 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Global Horizontal Routing Utilization  = 0.124493 %</t>
-  </si>
-  <si>
-    <t>Phase 8 Route finalize | Checksum: 29cc50660</t>
-  </si>
-  <si>
-    <t>Phase 9 Verifying routed nets | Checksum: 29cc50660</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:17 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3836 ; free virtual = 13445</t>
-  </si>
-  <si>
-    <t>Phase 10 Depositing Routes | Checksum: 261c392ef</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:18 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3836 ; free virtual = 13445</t>
-  </si>
-  <si>
-    <t>Phase 11 Post Process Routing | Checksum: 261c392ef</t>
-  </si>
-  <si>
-    <t>INFO: [Route 35-57] Estimated Timing Summary | WNS=11.717 | TNS=0.000  | WHS=0.077  | THS=0.000  |</t>
-  </si>
-  <si>
-    <t>Phase 12 Post Router Timing | Checksum: 261c392ef</t>
-  </si>
-  <si>
-    <t>Total Elapsed time in route_design: 12.49 secs</t>
-  </si>
-  <si>
-    <t>Phase 13 Post-Route Event Processing | Checksum: 11ee00ab6</t>
-  </si>
-  <si>
-    <t>Ending Routing Task | Checksum: 11ee00ab6</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:18 ; elapsed = 00:00:13 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3834 ; free virtual = 13443</t>
-  </si>
-  <si>
-    <t>route_design: Time (s): cpu = 00:00:18 ; elapsed = 00:00:13 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3833 ; free virtual = 13441</t>
-  </si>
-  <si>
-    <t>Time (s): cpu = 00:00:00.18 ; elapsed = 00:00:00.08 . Memory (MB): peak = 3402.328 ; gain = 0.000 ; free physical = 3834 ; free virtual = 13442</t>
-  </si>
-  <si>
-    <t>INFO: [Vivado_Tcl 4-2279] Estimated Timing Summary | WNS= 11.718 | TNS= 0.000 |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     11.718        0.000                      0                  812        0.078        0.000                      0                  769        3.000        0.000                       0                   359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  clk_out1_clk_wiz_0       14.061        0.000                      0                  434        0.078        0.000                      0                  429        9.500        0.000                       0                   280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  clk_out2_clk_wiz_0       11.718        0.000                      0                   80        0.122        0.000                      0                   75        7.192        0.000                       0                    75</t>
-  </si>
-  <si>
-    <t>input port clock    clk_out1_clk_wiz_0       17.896        0.000                      0                    3</t>
-  </si>
-  <si>
-    <t>clk_out2_clk_wiz_0  clk_out1_clk_wiz_0       13.575        0.000                      0                    9</t>
-  </si>
-  <si>
-    <t>clk_out1_clk_wiz_0  clk_out2_clk_wiz_0       13.545        0.000                      0                   21</t>
-  </si>
-  <si>
-    <t>**async_default**   clk_out1_clk_wiz_0  clk_out1_clk_wiz_0       16.333        0.000                      0                  230        0.470        0.000                      0                  230</t>
-  </si>
-  <si>
-    <t>**async_default**   clk_out2_clk_wiz_0  clk_out2_clk_wiz_0       12.584        0.000                      0                   35        0.457        0.000                      0                   35</t>
-  </si>
-  <si>
-    <t>write_bitstream: Time (s): cpu = 00:00:16 ; elapsed = 00:00:26 . Memory (MB): peak = 3644.266 ; gain = 217.922 ; free physical = 3520 ; free virtual = 13136</t>
-  </si>
-  <si>
     <t>INFO: [Common 17-206] Exiting Vivado at Tue Jan 13 11:34:20 2026...</t>
+  </si>
+  <si>
+    <t># Start of session at: Wed Jan 14 11:26:22 2026</t>
+  </si>
+  <si>
+    <t># Process ID         : 28074</t>
+  </si>
+  <si>
+    <t># Available Virtual  : 15821 MB</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-7075] Helper process launched with PID 28219</t>
+  </si>
+  <si>
+    <t>Starting RTL Elaboration : Time (s): cpu = 00:00:03 ; elapsed = 00:00:03 . Memory (MB): peak = 2282.852 ; gain = 451.602 ; free physical = 4423 ; free virtual = 13849</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-638] synthesizing module 'TOP_FPGA' [/home/tim/projects/uart/sources/top_fpga/top_fpga.vhd:93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Parameter G_GIT_ID bound to: 32'b10010101010010100010111011001011</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-3491] module 'clk_wiz_0' declared at '/home/tim/projects/uart/synthesis/uart/uart.gen/sources_1/ip/clk_wiz_0/clk_wiz_0.v:66' bound to instance 'inst_pll' of component 'clk_wiz_0' [/home/tim/projects/uart/sources/top_fpga/top_fpga.vhd:187]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-638] synthesizing module 'UART' [/home/tim/projects/uart/sources/uart/uart.vhd:78]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-638] synthesizing module 'UART_TX' [/home/tim/projects/uart/sources/uart/uart_tx.vhd:69]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-256] done synthesizing module 'UART_TX' (0#1) [/home/tim/projects/uart/sources/uart/uart_tx.vhd:69]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-638] synthesizing module 'UART_RX' [/home/tim/projects/uart/sources/uart/uart_rx.vhd:73]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-256] done synthesizing module 'UART_RX' (0#1) [/home/tim/projects/uart/sources/uart/uart_rx.vhd:73]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-256] done synthesizing module 'UART' (0#1) [/home/tim/projects/uart/sources/uart/uart.vhd:78]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-638] synthesizing module 'REGFILE' [/home/tim/projects/uart/sources/regfile/regfile.vhd:88]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Parameter G_GIT_ID_MSB bound to: 16'b1001010101001010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Parameter G_GIT_ID_LSB bound to: 16'b0010111011001011</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-256] done synthesizing module 'REGFILE' (0#1) [/home/tim/projects/uart/sources/regfile/regfile.vhd:88]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-638] synthesizing module 'SPI_MASTER' [/home/tim/projects/uart/sources/spi/spi_master.vhd:99]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-256] done synthesizing module 'SPI_MASTER' (0#1) [/home/tim/projects/uart/sources/spi/spi_master.vhd:99]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-638] synthesizing module 'VGA_CONTROLLER' [/home/tim/projects/uart/sources/vga/vga_controller.vhd:91]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-256] done synthesizing module 'VGA_CONTROLLER' (0#1) [/home/tim/projects/uart/sources/vga/vga_controller.vhd:91]</t>
+  </si>
+  <si>
+    <t>INFO: [Synth 8-256] done synthesizing module 'TOP_FPGA' (0#1) [/home/tim/projects/uart/sources/top_fpga/top_fpga.vhd:93]</t>
+  </si>
+  <si>
+    <t>Finished RTL Elaboration : Time (s): cpu = 00:00:04 ; elapsed = 00:00:04 . Memory (MB): peak = 2372.789 ; gain = 541.539 ; free physical = 4308 ; free virtual = 13738</t>
+  </si>
+  <si>
+    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:04 ; elapsed = 00:00:04 . Memory (MB): peak = 2390.602 ; gain = 559.352 ; free physical = 4305 ; free virtual = 13735</t>
+  </si>
+  <si>
+    <t>Finished RTL Optimization Phase 1 : Time (s): cpu = 00:00:04 ; elapsed = 00:00:04 . Memory (MB): peak = 2390.602 ; gain = 559.352 ; free physical = 4305 ; free virtual = 13735</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2396.539 ; gain = 0.000 ; free physical = 4299 ; free virtual = 13728</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 2514.340 ; gain = 0.000 ; free physical = 4265 ; free virtual = 13711</t>
+  </si>
+  <si>
+    <t>Constraint Validation Runtime : Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00.01 . Memory (MB): peak = 2514.375 ; gain = 0.000 ; free physical = 4266 ; free virtual = 13713</t>
+  </si>
+  <si>
+    <t>Finished Constraint Validation : Time (s): cpu = 00:00:08 ; elapsed = 00:00:08 . Memory (MB): peak = 2514.375 ; gain = 683.125 ; free physical = 4269 ; free virtual = 13716</t>
+  </si>
+  <si>
+    <t>Finished Loading Part and Timing Information : Time (s): cpu = 00:00:08 ; elapsed = 00:00:08 . Memory (MB): peak = 2522.344 ; gain = 691.094 ; free physical = 4269 ; free virtual = 13716</t>
+  </si>
+  <si>
+    <t>Finished applying 'set_property' XDC Constraints : Time (s): cpu = 00:00:08 ; elapsed = 00:00:08 . Memory (MB): peak = 2522.344 ; gain = 691.094 ; free physical = 4269 ; free virtual = 13716</t>
+  </si>
+  <si>
+    <t>Finished RTL Optimization Phase 2 : Time (s): cpu = 00:00:08 ; elapsed = 00:00:08 . Memory (MB): peak = 2522.344 ; gain = 691.094 ; free physical = 4269 ; free virtual = 13717</t>
+  </si>
+  <si>
+    <t>Finished Cross Boundary and Area Optimization : Time (s): cpu = 00:00:10 ; elapsed = 00:00:10 . Memory (MB): peak = 2522.344 ; gain = 691.094 ; free physical = 4245 ; free virtual = 13700</t>
+  </si>
+  <si>
+    <t>Finished Applying XDC Timing Constraints : Time (s): cpu = 00:00:13 ; elapsed = 00:00:13 . Memory (MB): peak = 2543.344 ; gain = 712.094 ; free physical = 4170 ; free virtual = 13632</t>
+  </si>
+  <si>
+    <t>Finished Timing Optimization : Time (s): cpu = 00:00:13 ; elapsed = 00:00:13 . Memory (MB): peak = 2543.344 ; gain = 712.094 ; free physical = 4169 ; free virtual = 13631</t>
+  </si>
+  <si>
+    <t>Finished Technology Mapping : Time (s): cpu = 00:00:13 ; elapsed = 00:00:13 . Memory (MB): peak = 2562.375 ; gain = 731.125 ; free physical = 4164 ; free virtual = 13627</t>
+  </si>
+  <si>
+    <t>Finished IO Insertion : Time (s): cpu = 00:00:15 ; elapsed = 00:00:15 . Memory (MB): peak = 2729.188 ; gain = 897.938 ; free physical = 3997 ; free virtual = 13460</t>
+  </si>
+  <si>
+    <t>Finished Renaming Generated Instances : Time (s): cpu = 00:00:15 ; elapsed = 00:00:15 . Memory (MB): peak = 2729.188 ; gain = 897.938 ; free physical = 3999 ; free virtual = 13462</t>
+  </si>
+  <si>
+    <t>Finished Rebuilding User Hierarchy : Time (s): cpu = 00:00:15 ; elapsed = 00:00:15 . Memory (MB): peak = 2729.188 ; gain = 897.938 ; free physical = 3999 ; free virtual = 13462</t>
+  </si>
+  <si>
+    <t>Finished Renaming Generated Ports : Time (s): cpu = 00:00:15 ; elapsed = 00:00:15 . Memory (MB): peak = 2729.188 ; gain = 897.938 ; free physical = 3999 ; free virtual = 13462</t>
+  </si>
+  <si>
+    <t>Finished Handling Custom Attributes : Time (s): cpu = 00:00:15 ; elapsed = 00:00:15 . Memory (MB): peak = 2729.188 ; gain = 897.938 ; free physical = 3999 ; free virtual = 13462</t>
+  </si>
+  <si>
+    <t>Finished Renaming Generated Nets : Time (s): cpu = 00:00:15 ; elapsed = 00:00:15 . Memory (MB): peak = 2729.188 ; gain = 897.938 ; free physical = 3999 ; free virtual = 13462</t>
+  </si>
+  <si>
+    <t>|3     |LUT2      |    37|</t>
+  </si>
+  <si>
+    <t>|4     |LUT3      |    29|</t>
+  </si>
+  <si>
+    <t>|5     |LUT4      |    50|</t>
+  </si>
+  <si>
+    <t>|6     |LUT5      |    53|</t>
+  </si>
+  <si>
+    <t>|7     |LUT6      |   137|</t>
+  </si>
+  <si>
+    <t>|8     |MUXF7     |    10|</t>
+  </si>
+  <si>
+    <t>Finished Writing Synthesis Report : Time (s): cpu = 00:00:15 ; elapsed = 00:00:15 . Memory (MB): peak = 2729.188 ; gain = 897.938 ; free physical = 3999 ; free virtual = 13462</t>
+  </si>
+  <si>
+    <t>Synthesis Optimization Runtime : Time (s): cpu = 00:00:14 ; elapsed = 00:00:14 . Memory (MB): peak = 2729.188 ; gain = 774.164 ; free physical = 3999 ; free virtual = 13462</t>
+  </si>
+  <si>
+    <t>Synthesis Optimization Complete : Time (s): cpu = 00:00:15 ; elapsed = 00:00:15 . Memory (MB): peak = 2729.195 ; gain = 897.938 ; free physical = 3999 ; free virtual = 13462</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00.01 . Memory (MB): peak = 2729.195 ; gain = 0.000 ; free physical = 3999 ; free virtual = 13462</t>
+  </si>
+  <si>
+    <t>INFO: [Netlist 29-17] Analyzing 11 Unisim elements for replacement</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3256.043 ; gain = 0.000 ; free physical = 3740 ; free virtual = 13220</t>
+  </si>
+  <si>
+    <t>Synth Design complete | Checksum: b03ba82b</t>
+  </si>
+  <si>
+    <t>synth_design: Time (s): cpu = 00:00:22 ; elapsed = 00:00:21 . Memory (MB): peak = 3256.078 ; gain = 1424.906 ; free physical = 3739 ; free virtual = 13219</t>
+  </si>
+  <si>
+    <t>INFO: [Common 17-2834] synth_design peak Physical Memory [PSS] (MB): overall = 2501.149; main = 2501.149; forked = 336.430</t>
+  </si>
+  <si>
+    <t>INFO: [Common 17-2834] synth_design peak Virtual Memory [VSS] (MB): overall = 3478.555; main = 3256.043; forked = 956.211</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:02 ; elapsed = 00:00:00.51 . Memory (MB): peak = 3256.078 ; gain = 0.000 ; free physical = 3709 ; free virtual = 13189</t>
+  </si>
+  <si>
+    <t>Ending Cache Timing Information Task | Checksum: 1d9e060c5</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3256.078 ; gain = 0.000 ; free physical = 3709 ; free virtual = 13189</t>
+  </si>
+  <si>
+    <t>Phase 1.1 Core Generation And Design Setup | Checksum: 1d9e060c5</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3331.027 ; gain = 0.000 ; free physical = 3586 ; free virtual = 13066</t>
+  </si>
+  <si>
+    <t>Phase 1.2 Setup Constraints And Sort Netlist | Checksum: 1d9e060c5</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3331.027 ; gain = 0.000 ; free physical = 3587 ; free virtual = 13068</t>
+  </si>
+  <si>
+    <t>Phase 1 Initialization | Checksum: 1d9e060c5</t>
+  </si>
+  <si>
+    <t>Phase 2.1 Timer Update | Checksum: 1d9e060c5</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.06 ; elapsed = 00:00:00.03 . Memory (MB): peak = 3331.027 ; gain = 0.000 ; free physical = 3587 ; free virtual = 13068</t>
+  </si>
+  <si>
+    <t>Phase 2.2 Timing Data Collection | Checksum: 1d9e060c5</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.06 ; elapsed = 00:00:00.03 . Memory (MB): peak = 3331.027 ; gain = 0.000 ; free physical = 3587 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Phase 2 Timer Update And Timing Data Collection | Checksum: 1d9e060c5</t>
+  </si>
+  <si>
+    <t>Phase 3 Retarget | Checksum: 24a9485fb</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.12 ; elapsed = 00:00:00.05 . Memory (MB): peak = 3331.027 ; gain = 0.000 ; free physical = 3587 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Retarget | Checksum: 24a9485fb</t>
+  </si>
+  <si>
+    <t>Phase 4 Constant propagation | Checksum: 24a9485fb</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.13 ; elapsed = 00:00:00.06 . Memory (MB): peak = 3331.027 ; gain = 0.000 ; free physical = 3587 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Constant propagation | Checksum: 24a9485fb</t>
+  </si>
+  <si>
+    <t>Done building netlist checker database: Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3331.027 ; gain = 0.000 ; free physical = 3587 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Done building netlist checker database: Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3331.027 ; gain = 0.000 ; free physical = 3587 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Phase 5 Sweep | Checksum: 1d68af502</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.14 ; elapsed = 00:00:00.07 . Memory (MB): peak = 3331.027 ; gain = 0.000 ; free physical = 3587 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Sweep | Checksum: 1d68af502</t>
+  </si>
+  <si>
+    <t>Phase 6 BUFG optimization | Checksum: 1d68af502</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.16 ; elapsed = 00:00:00.08 . Memory (MB): peak = 3363.043 ; gain = 32.016 ; free physical = 3586 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>BUFG optimization | Checksum: 1d68af502</t>
+  </si>
+  <si>
+    <t>Phase 7 Shift Register Optimization | Checksum: 1d68af502</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.16 ; elapsed = 00:00:00.09 . Memory (MB): peak = 3363.043 ; gain = 32.016 ; free physical = 3586 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Shift Register Optimization | Checksum: 1d68af502</t>
+  </si>
+  <si>
+    <t>Phase 8 Post Processing Netlist | Checksum: 1d68af502</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.17 ; elapsed = 00:00:00.09 . Memory (MB): peak = 3363.043 ; gain = 32.016 ; free physical = 3586 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Post Processing Netlist | Checksum: 1d68af502</t>
+  </si>
+  <si>
+    <t>Phase 9.1 Finalizing Design Cores and Updating Shapes | Checksum: 1df0fcf1f</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.17 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3363.043 ; gain = 32.016 ; free physical = 3586 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.043 ; gain = 0.000 ; free physical = 3586 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Phase 9.2 Verifying Netlist Connectivity | Checksum: 1df0fcf1f</t>
+  </si>
+  <si>
+    <t>Phase 9 Finalization | Checksum: 1df0fcf1f</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.17 ; elapsed = 00:00:00.11 . Memory (MB): peak = 3363.043 ; gain = 32.016 ; free physical = 3586 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Ending Logic Optimization Task | Checksum: 1df0fcf1f</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.18 ; elapsed = 00:00:00.11 . Memory (MB): peak = 3363.043 ; gain = 32.016 ; free physical = 3586 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Ending Power Optimization Task | Checksum: 1df0fcf1f</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3363.043 ; gain = 0.000 ; free physical = 3586 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Ending Final Cleanup Task | Checksum: 1df0fcf1f</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.043 ; gain = 0.000 ; free physical = 3586 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Ending Netlist Obfuscation Task | Checksum: 1df0fcf1f</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.043 ; gain = 0.000 ; free physical = 3589 ; free virtual = 13071</t>
+  </si>
+  <si>
+    <t>Phase 1.1 Placer Initialization Netlist Sorting | Checksum: 17c3c1c60</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3363.043 ; gain = 0.000 ; free physical = 3589 ; free virtual = 13071</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00 . Memory (MB): peak = 3363.043 ; gain = 0.000 ; free physical = 3589 ; free virtual = 13071</t>
+  </si>
+  <si>
+    <t>Phase 1.2 IO Placement/ Clock Placement/ Build Placer Device | Checksum: 1426bfc2a</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.38 ; elapsed = 00:00:00.12 . Memory (MB): peak = 3363.043 ; gain = 0.000 ; free physical = 3587 ; free virtual = 13072</t>
+  </si>
+  <si>
+    <t>Phase 1.3 Build Placer Netlist Model | Checksum: 163438a76</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.74 ; elapsed = 00:00:00.26 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3587 ; free virtual = 13073</t>
+  </si>
+  <si>
+    <t>Phase 1.4 Constrain Clocks/Macros | Checksum: 163438a76</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.75 ; elapsed = 00:00:00.27 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3586 ; free virtual = 13073</t>
+  </si>
+  <si>
+    <t>Phase 1 Placer Initialization | Checksum: 163438a76</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.76 ; elapsed = 00:00:00.28 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3586 ; free virtual = 13073</t>
+  </si>
+  <si>
+    <t>Phase 2.1 Floorplanning | Checksum: 2299c8aa8</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.96 ; elapsed = 00:00:00.38 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3573 ; free virtual = 13060</t>
+  </si>
+  <si>
+    <t>Phase 2.2 Update Timing before SLR Path Opt | Checksum: 23b487614</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:01 ; elapsed = 00:00:00.42 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3595 ; free virtual = 13082</t>
+  </si>
+  <si>
+    <t>Phase 2.3 Post-Processing in Floorplanning | Checksum: 23b487614</t>
+  </si>
+  <si>
+    <t>Phase 2.4 Global Place Phase1 | Checksum: 1ac299bbe</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:01 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3583 ; free virtual = 13071</t>
+  </si>
+  <si>
+    <t>Phase 2.5.1 UpdateTiming Before Physical Synthesis | Checksum: 1ac299bbe</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:01 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3592 ; free virtual = 13080</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00.01 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3589 ; free virtual = 13080</t>
+  </si>
+  <si>
+    <t>Phase 2.5.2 Physical Synthesis In Placer | Checksum: 1e21bb7be</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:03 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3589 ; free virtual = 13080</t>
+  </si>
+  <si>
+    <t>Phase 2.5 Global Place Phase2 | Checksum: 19e94600b</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3588 ; free virtual = 13080</t>
+  </si>
+  <si>
+    <t>Phase 2 Global Placement | Checksum: 19e94600b</t>
+  </si>
+  <si>
+    <t>Phase 3.1 Commit Multi Column Macros | Checksum: 1dbcdb632</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3587 ; free virtual = 13079</t>
+  </si>
+  <si>
+    <t>Phase 3.2 Commit Most Macros &amp; LUTRAMs | Checksum: 17ba79e4a</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3588 ; free virtual = 13079</t>
+  </si>
+  <si>
+    <t>Phase 3.3 Area Swap Optimization | Checksum: 14807f3e6</t>
+  </si>
+  <si>
+    <t>Phase 3.4 Pipeline Register Optimization | Checksum: 1a88e7aa1</t>
+  </si>
+  <si>
+    <t>Phase 3.5 Small Shape Detail Placement | Checksum: fa3602cf</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:04 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3586 ; free virtual = 13078</t>
+  </si>
+  <si>
+    <t>Phase 3.6 Re-assign LUT pins | Checksum: 128913b70</t>
+  </si>
+  <si>
+    <t>Phase 3.7 Pipeline Register Optimization | Checksum: 122b2fb7f</t>
+  </si>
+  <si>
+    <t>Phase 3 Detail Placement | Checksum: 122b2fb7f</t>
+  </si>
+  <si>
+    <t>Post Placement Optimization Initialization | Checksum: 1ce47ee14</t>
+  </si>
+  <si>
+    <t>INFO: [Physopt 32-619] Estimated Timing Summary | WNS=11.629 | TNS=0.000 |</t>
+  </si>
+  <si>
+    <t>Phase 1 Physical Synthesis Initialization | Checksum: 1b4cb5fe0</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.06 ; elapsed = 00:00:00.02 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3584 ; free virtual = 13076</t>
+  </si>
+  <si>
+    <t>Ending Physical Synthesis Task | Checksum: 1c3b66d53</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.07 ; elapsed = 00:00:00.03 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3584 ; free virtual = 13076</t>
+  </si>
+  <si>
+    <t>Phase 4.1.1.1 BUFG Insertion | Checksum: 1ce47ee14</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:05 ; elapsed = 00:00:02 . Memory (MB): peak = 3402.086 ; gain = 39.043 ; free physical = 3584 ; free virtual = 13076</t>
+  </si>
+  <si>
+    <t>INFO: [Place 30-746] Post Placement Timing Summary WNS=11.629. For the most accurate timing information please run report_timing.</t>
+  </si>
+  <si>
+    <t>Phase 4.1.1.2 Post Placement Timing Optimization | Checksum: 1d265ded4</t>
+  </si>
+  <si>
+    <t>Phase 4.1 Post Commit Optimization | Checksum: 1d265ded4</t>
+  </si>
+  <si>
+    <t>Phase 4.2 Post Placement Cleanup | Checksum: 1d265ded4</t>
+  </si>
+  <si>
+    <t>Phase 4.3.1 Print Estimated Congestion | Checksum: 1d265ded4</t>
+  </si>
+  <si>
+    <t>Phase 4.3 Placer Reporting | Checksum: 1d265ded4</t>
+  </si>
+  <si>
+    <t>Netlist sorting complete. Time (s): cpu = 00:00:00 ; elapsed = 00:00:00 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3584 ; free virtual = 13076</t>
+  </si>
+  <si>
+    <t>Phase 4 Post Placement Optimization and Clean-Up | Checksum: 1244dd62c</t>
+  </si>
+  <si>
+    <t>Ending Placer Task | Checksum: b2cab1ec</t>
+  </si>
+  <si>
+    <t>report_io: Time (s): cpu = 00:00:00.06 ; elapsed = 00:00:00.1 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3576 ; free virtual = 13069</t>
+  </si>
+  <si>
+    <t>report_control_sets: Time (s): cpu = 00:00:00.01 ; elapsed = 00:00:00.04 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3575 ; free virtual = 13068</t>
+  </si>
+  <si>
+    <t>Checksum: PlaceDB: 6656ce03 ConstDB: 0 ShapeSum: 367a70f9 RouteDB: 15f972f0</t>
+  </si>
+  <si>
+    <t>Post Restoration Checksum: NetGraph: d4df7faa | NumContArr: 32f83719 | Constraints: c2a8fa9d | Timing: c2a8fa9d</t>
+  </si>
+  <si>
+    <t>Phase 1 Build RT Design | Checksum: 28d29abfd</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:14 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3576 ; free virtual = 13070</t>
+  </si>
+  <si>
+    <t>Phase 2.1 Fix Topology Constraints | Checksum: 28d29abfd</t>
+  </si>
+  <si>
+    <t>Phase 2.2 Pre Route Cleanup | Checksum: 28d29abfd</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:14 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3575 ; free virtual = 13070</t>
+  </si>
+  <si>
+    <t>Phase 2.3 Update Timing | Checksum: 27344076e</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:15 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3575 ; free virtual = 13069</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.709 | TNS=0.000  | WHS=-0.149 | THS=-10.433|</t>
+  </si>
+  <si>
+    <t>Phase 2.4.1 Update Timing | Checksum: 21af1c986</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.709 | TNS=0.000  | WHS=0.052  | THS=0.000  |</t>
+  </si>
+  <si>
+    <t>Phase 2.4 Update Timing for Bus Skew | Checksum: 1995f4fe9</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:15 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3573 ; free virtual = 13071</t>
+  </si>
+  <si>
+    <t>Phase 2.5 Soft Constraint Pins - Fast Budgeting | Checksum: 1995f4fe9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Number of Failed Nets               = 512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Number of Unrouted Nets             = 512</t>
+  </si>
+  <si>
+    <t>Phase 2 Router Initialization | Checksum: 26bb63726</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:15 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3573 ; free virtual = 13070</t>
+  </si>
+  <si>
+    <t>Phase 3 Global Routing | Checksum: 26bb63726</t>
+  </si>
+  <si>
+    <t>Phase 4.1 Initial Net Routing Pass | Checksum: 1b49a2846</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:16 ; elapsed = 00:00:11 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3572 ; free virtual = 13071</t>
+  </si>
+  <si>
+    <t>Phase 4 Initial Routing | Checksum: 1b49a2846</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of Nodes with overlaps = 37</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.102 | TNS=0.000  | WHS=N/A    | THS=N/A    |</t>
+  </si>
+  <si>
+    <t>Phase 5.1 Global Iteration 0 | Checksum: 20e09e732</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.113 | TNS=0.000  | WHS=N/A    | THS=N/A    |</t>
+  </si>
+  <si>
+    <t>Phase 5.2 Global Iteration 1 | Checksum: 2e5343281</t>
+  </si>
+  <si>
+    <t>Phase 5 Rip-up And Reroute | Checksum: 2e5343281</t>
+  </si>
+  <si>
+    <t>Phase 6.1 Delay CleanUp | Checksum: 2e5343281</t>
+  </si>
+  <si>
+    <t>Phase 6.2 Clock Skew Optimization | Checksum: 2e5343281</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:16 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3572 ; free virtual = 13071</t>
+  </si>
+  <si>
+    <t>Phase 6 Delay and Skew Optimization | Checksum: 2e5343281</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-416] Intermediate Timing Summary | WNS=11.127 | TNS=0.000  | WHS=0.073  | THS=0.000  |</t>
+  </si>
+  <si>
+    <t>Phase 7.1 Hold Fix Iter | Checksum: 2fd21e871</t>
+  </si>
+  <si>
+    <t>Phase 7 Post Hold Fix | Checksum: 2fd21e871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Global Vertical Routing Utilization    = 0.129647 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Global Horizontal Routing Utilization  = 0.126268 %</t>
+  </si>
+  <si>
+    <t>Phase 8 Route finalize | Checksum: 2fd21e871</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:16 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3569 ; free virtual = 13068</t>
+  </si>
+  <si>
+    <t>Phase 9 Verifying routed nets | Checksum: 2fd21e871</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:16 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3569 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Phase 10 Depositing Routes | Checksum: 342a43802</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:16 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3568 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Phase 11 Post Process Routing | Checksum: 342a43802</t>
+  </si>
+  <si>
+    <t>INFO: [Route 35-57] Estimated Timing Summary | WNS=11.127 | TNS=0.000  | WHS=0.073  | THS=0.000  |</t>
+  </si>
+  <si>
+    <t>Phase 12 Post Router Timing | Checksum: 342a43802</t>
+  </si>
+  <si>
+    <t>Total Elapsed time in route_design: 11.61 secs</t>
+  </si>
+  <si>
+    <t>Phase 13 Post-Route Event Processing | Checksum: ecd240e1</t>
+  </si>
+  <si>
+    <t>Ending Routing Task | Checksum: ecd240e1</t>
+  </si>
+  <si>
+    <t>12 Infos, 0 Warnings, 0 Critical Warnings and 0 Errors encountered.</t>
+  </si>
+  <si>
+    <t>route_design: Time (s): cpu = 00:00:16 ; elapsed = 00:00:12 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3568 ; free virtual = 13067</t>
+  </si>
+  <si>
+    <t>Time (s): cpu = 00:00:00.17 ; elapsed = 00:00:00.07 . Memory (MB): peak = 3402.086 ; gain = 0.000 ; free physical = 3568 ; free virtual = 13066</t>
+  </si>
+  <si>
+    <t>INFO: [Vivado_Tcl 4-2279] Estimated Timing Summary | WNS= 11.129 | TNS= 0.000 |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     11.129        0.000                      0                  812        0.074        0.000                      0                  769        3.000        0.000                       0                   359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  clk_out1_clk_wiz_0       14.290        0.000                      0                  434        0.074        0.000                      0                  429        9.500        0.000                       0                   280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  clk_out2_clk_wiz_0       11.129        0.000                      0                   80        0.122        0.000                      0                   75        7.192        0.000                       0                    75</t>
+  </si>
+  <si>
+    <t>input port clock    clk_out1_clk_wiz_0       17.826        0.000                      0                    3</t>
+  </si>
+  <si>
+    <t>clk_out2_clk_wiz_0  clk_out1_clk_wiz_0       13.779        0.000                      0                    9</t>
+  </si>
+  <si>
+    <t>clk_out1_clk_wiz_0  clk_out2_clk_wiz_0       13.890        0.000                      0                   21</t>
+  </si>
+  <si>
+    <t>**async_default**   clk_out1_clk_wiz_0  clk_out1_clk_wiz_0       15.652        0.000                      0                  230        0.621        0.000                      0                  230</t>
+  </si>
+  <si>
+    <t>**async_default**   clk_out2_clk_wiz_0  clk_out2_clk_wiz_0       12.994        0.000                      0                   35        0.176        0.000                      0                   35</t>
+  </si>
+  <si>
+    <t>write_bitstream: Time (s): cpu = 00:00:14 ; elapsed = 00:00:25 . Memory (MB): peak = 3643.125 ; gain = 209.016 ; free physical = 3263 ; free virtual = 12771</t>
+  </si>
+  <si>
+    <t>INFO: [Common 17-206] Exiting Vivado at Wed Jan 14 11:27:42 2026...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Timing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All set_bus_skew constraints are met per generated report
+in impl/results/. Warning is informational only and can be waived. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3382,7 +3424,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3414,25 +3456,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3447,6 +3470,15 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3466,8 +3498,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3874,14 +3913,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="5" t="s">
         <v>403</v>
       </c>
@@ -3902,14 +3941,14 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="2">
         <v>0.998</v>
       </c>
@@ -3929,13 +3968,13 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="2">
         <v>0.997</v>
       </c>
@@ -3955,36 +3994,36 @@
     </row>
     <row r="5" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="20" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="20" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="7" t="s">
         <v>409</v>
       </c>
@@ -3992,12 +4031,12 @@
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="2">
         <v>1</v>
       </c>
@@ -4018,12 +4057,12 @@
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="2">
         <v>1</v>
       </c>
@@ -4043,13 +4082,13 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="2">
         <v>1</v>
       </c>
@@ -4067,13 +4106,13 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
@@ -4093,13 +4132,13 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11"/>
-      <c r="C11" s="15" t="s">
-        <v>767</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="2">
         <v>1</v>
       </c>
@@ -4122,11 +4161,11 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
       <c r="M12"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -4136,11 +4175,11 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -4150,11 +4189,11 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -4164,11 +4203,11 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -4178,11 +4217,11 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -4192,11 +4231,11 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
       <c r="M17"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -4206,11 +4245,11 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -4220,20 +4259,15 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C4:G6"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="H17:L17"/>
@@ -4247,6 +4281,11 @@
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C4:G6"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:H19">
     <cfRule type="cellIs" dxfId="4" priority="18" operator="between">
@@ -4283,8 +4322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE66E89-BE40-45B9-B5D5-CDB57608BF4D}">
   <dimension ref="B2:D1484"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4363,7 +4402,7 @@
         <v/>
       </c>
       <c r="C8" s="4" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -4373,7 +4412,7 @@
         <v/>
       </c>
       <c r="C9" s="4" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -4523,7 +4562,7 @@
         <v/>
       </c>
       <c r="C24" s="4" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -5706,7 +5745,7 @@
         <v>628</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
@@ -6205,7 +6244,7 @@
         <v>INFO</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="D192" s="4"/>
     </row>
@@ -6225,7 +6264,7 @@
         <v/>
       </c>
       <c r="C194" s="4" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D194" s="4"/>
     </row>
@@ -6248,7 +6287,7 @@
         <v>630</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
@@ -6260,7 +6299,7 @@
         <v>631</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
@@ -6272,7 +6311,7 @@
         <v>632</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
@@ -6281,7 +6320,7 @@
         <v>INFO</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="D199" s="4"/>
     </row>
@@ -6291,7 +6330,7 @@
         <v/>
       </c>
       <c r="C200" s="4" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="D200" s="4"/>
     </row>
@@ -6301,7 +6340,7 @@
         <v>INFO</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="D201" s="4"/>
     </row>
@@ -6541,7 +6580,7 @@
         <v>INFO</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D225" s="4"/>
     </row>
@@ -6551,7 +6590,7 @@
         <v/>
       </c>
       <c r="C226" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D226" s="4"/>
     </row>
@@ -6561,7 +6600,7 @@
         <v/>
       </c>
       <c r="C227" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D227" s="4"/>
     </row>
@@ -6571,7 +6610,7 @@
         <v/>
       </c>
       <c r="C228" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D228" s="4"/>
     </row>
@@ -6591,7 +6630,7 @@
         <v>INFO</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D230" s="4"/>
     </row>
@@ -6651,7 +6690,7 @@
         <v>INFO</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>739</v>
+        <v>768</v>
       </c>
       <c r="D236" s="4"/>
     </row>
@@ -6691,7 +6730,7 @@
         <v>INFO</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>740</v>
+        <v>769</v>
       </c>
       <c r="D240" s="4"/>
     </row>
@@ -6721,7 +6760,7 @@
         <v>INFO</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>741</v>
+        <v>770</v>
       </c>
       <c r="D243" s="4"/>
     </row>
@@ -6731,7 +6770,7 @@
         <v>INFO</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="D244" s="4"/>
     </row>
@@ -6771,7 +6810,7 @@
         <v>INFO</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>743</v>
+        <v>772</v>
       </c>
       <c r="D248" s="4"/>
     </row>
@@ -6781,7 +6820,7 @@
         <v>INFO</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="D249" s="4"/>
     </row>
@@ -6791,7 +6830,7 @@
         <v>INFO</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>745</v>
+        <v>774</v>
       </c>
       <c r="D250" s="4"/>
     </row>
@@ -6801,7 +6840,7 @@
         <v/>
       </c>
       <c r="C251" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D251" s="4"/>
     </row>
@@ -6811,7 +6850,7 @@
         <v/>
       </c>
       <c r="C252" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D252" s="4"/>
     </row>
@@ -6821,7 +6860,7 @@
         <v>INFO</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>746</v>
+        <v>777</v>
       </c>
       <c r="D253" s="4"/>
     </row>
@@ -6831,7 +6870,7 @@
         <v>INFO</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>747</v>
+        <v>778</v>
       </c>
       <c r="D254" s="4"/>
     </row>
@@ -6891,7 +6930,7 @@
         <v>INFO</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="D260" s="4"/>
     </row>
@@ -6901,7 +6940,7 @@
         <v>INFO</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D261" s="4"/>
     </row>
@@ -7171,7 +7210,7 @@
         <v>INFO</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D288" s="4"/>
     </row>
@@ -7181,7 +7220,7 @@
         <v>INFO</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>749</v>
+        <v>782</v>
       </c>
       <c r="D289" s="4"/>
     </row>
@@ -7194,7 +7233,7 @@
         <v>670</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
@@ -8497,7 +8536,7 @@
         <v/>
       </c>
       <c r="C421" s="4" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="D421" s="4"/>
     </row>
@@ -9775,7 +9814,7 @@
         <v/>
       </c>
       <c r="C549" s="4" t="s">
-        <v>772</v>
+        <v>805</v>
       </c>
       <c r="D549" s="4"/>
     </row>
@@ -9785,7 +9824,7 @@
         <v/>
       </c>
       <c r="C550" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D550" s="4"/>
     </row>
@@ -9795,7 +9834,7 @@
         <v/>
       </c>
       <c r="C551" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D551" s="4"/>
     </row>
@@ -9805,7 +9844,7 @@
         <v/>
       </c>
       <c r="C552" s="4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D552" s="4"/>
     </row>
@@ -9825,7 +9864,7 @@
         <v/>
       </c>
       <c r="C554" s="4" t="s">
-        <v>808</v>
+        <v>756</v>
       </c>
       <c r="D554" s="4"/>
     </row>
@@ -9835,7 +9874,7 @@
         <v/>
       </c>
       <c r="C555" s="4" t="s">
-        <v>809</v>
+        <v>757</v>
       </c>
       <c r="D555" s="4"/>
     </row>
@@ -9845,7 +9884,7 @@
         <v/>
       </c>
       <c r="C556" s="4" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="D556" s="4"/>
     </row>
@@ -9855,7 +9894,7 @@
         <v/>
       </c>
       <c r="C557" s="4" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="D557" s="4"/>
     </row>
@@ -9865,7 +9904,7 @@
         <v/>
       </c>
       <c r="C558" s="4" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="D558" s="4"/>
     </row>
@@ -9895,7 +9934,7 @@
         <v/>
       </c>
       <c r="C561" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D561" s="4"/>
     </row>
@@ -9925,7 +9964,7 @@
         <v/>
       </c>
       <c r="C564" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D564" s="4"/>
     </row>
@@ -9935,7 +9974,7 @@
         <v/>
       </c>
       <c r="C565" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D565" s="4"/>
     </row>
@@ -9955,7 +9994,7 @@
         <v/>
       </c>
       <c r="C567" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D567" s="4"/>
     </row>
@@ -9965,7 +10004,7 @@
         <v>INFO</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D568" s="4"/>
     </row>
@@ -10275,7 +10314,7 @@
         <v/>
       </c>
       <c r="C599" s="4" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D599" s="4"/>
     </row>
@@ -10285,7 +10324,7 @@
         <v/>
       </c>
       <c r="C600" s="4" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="D600" s="4"/>
     </row>
@@ -10295,7 +10334,7 @@
         <v/>
       </c>
       <c r="C601" s="4" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="D601" s="4"/>
     </row>
@@ -10305,7 +10344,7 @@
         <v/>
       </c>
       <c r="C602" s="4" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="D602" s="4"/>
     </row>
@@ -10318,7 +10357,7 @@
         <v>705</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.25">
@@ -10350,7 +10389,7 @@
         <v>708</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.25">
@@ -10369,7 +10408,7 @@
         <v/>
       </c>
       <c r="C608" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D608" s="4"/>
     </row>
@@ -10407,7 +10446,7 @@
         <v/>
       </c>
       <c r="C612" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D612" s="4"/>
     </row>
@@ -10427,7 +10466,7 @@
         <v/>
       </c>
       <c r="C614" s="4" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="D614" s="4"/>
     </row>
@@ -10447,7 +10486,7 @@
         <v/>
       </c>
       <c r="C616" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D616" s="4"/>
     </row>
@@ -10457,7 +10496,7 @@
         <v>INFO</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D617" s="4"/>
     </row>
@@ -10467,7 +10506,7 @@
         <v>INFO</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D618" s="4"/>
     </row>
@@ -10530,7 +10569,7 @@
         <v>709</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.25">
@@ -10705,7 +10744,7 @@
         <v/>
       </c>
       <c r="C642" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D642" s="4"/>
     </row>
@@ -10733,7 +10772,7 @@
         <v/>
       </c>
       <c r="C645" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D645" s="4"/>
     </row>
@@ -10751,7 +10790,7 @@
         <v/>
       </c>
       <c r="C647" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D647" s="4"/>
     </row>
@@ -10815,7 +10854,7 @@
         <v/>
       </c>
       <c r="C654" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D654" s="4"/>
     </row>
@@ -10833,7 +10872,7 @@
         <v/>
       </c>
       <c r="C656" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D656" s="4"/>
     </row>
@@ -10861,7 +10900,7 @@
         <v/>
       </c>
       <c r="C659" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D659" s="4"/>
     </row>
@@ -10879,7 +10918,7 @@
         <v/>
       </c>
       <c r="C661" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D661" s="4"/>
     </row>
@@ -10907,7 +10946,7 @@
         <v/>
       </c>
       <c r="C664" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D664" s="4"/>
     </row>
@@ -11305,7 +11344,7 @@
         <v/>
       </c>
       <c r="C706" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D706" s="4"/>
     </row>
@@ -11315,7 +11354,7 @@
         <v/>
       </c>
       <c r="C707" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D707" s="4"/>
     </row>
@@ -11333,7 +11372,7 @@
         <v/>
       </c>
       <c r="C709" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D709" s="4"/>
     </row>
@@ -11343,7 +11382,7 @@
         <v/>
       </c>
       <c r="C710" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D710" s="4"/>
     </row>
@@ -11391,7 +11430,7 @@
         <v/>
       </c>
       <c r="C715" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D715" s="4"/>
     </row>
@@ -11409,7 +11448,7 @@
         <v/>
       </c>
       <c r="C717" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D717" s="4"/>
     </row>
@@ -11419,7 +11458,7 @@
         <v/>
       </c>
       <c r="C718" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D718" s="4"/>
     </row>
@@ -11467,7 +11506,7 @@
         <v/>
       </c>
       <c r="C723" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D723" s="4"/>
     </row>
@@ -11485,7 +11524,7 @@
         <v/>
       </c>
       <c r="C725" s="4" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D725" s="4"/>
     </row>
@@ -11495,7 +11534,7 @@
         <v/>
       </c>
       <c r="C726" s="4" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D726" s="4"/>
     </row>
@@ -11533,7 +11572,7 @@
         <v/>
       </c>
       <c r="C730" s="4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D730" s="4"/>
     </row>
@@ -11551,7 +11590,7 @@
         <v/>
       </c>
       <c r="C732" s="4" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D732" s="4"/>
     </row>
@@ -11561,7 +11600,7 @@
         <v/>
       </c>
       <c r="C733" s="4" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D733" s="4"/>
     </row>
@@ -11617,7 +11656,7 @@
         <v/>
       </c>
       <c r="C739" s="4" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D739" s="4"/>
     </row>
@@ -11635,7 +11674,7 @@
         <v/>
       </c>
       <c r="C741" s="4" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D741" s="4"/>
     </row>
@@ -11689,7 +11728,7 @@
         <v/>
       </c>
       <c r="C747" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D747" s="4"/>
     </row>
@@ -11699,7 +11738,7 @@
         <v/>
       </c>
       <c r="C748" s="4" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D748" s="4"/>
     </row>
@@ -11717,7 +11756,7 @@
         <v/>
       </c>
       <c r="C750" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D750" s="4"/>
     </row>
@@ -11727,7 +11766,7 @@
         <v/>
       </c>
       <c r="C751" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D751" s="4"/>
     </row>
@@ -11745,7 +11784,7 @@
         <v/>
       </c>
       <c r="C753" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D753" s="4"/>
     </row>
@@ -11907,7 +11946,7 @@
         <v/>
       </c>
       <c r="C770" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D770" s="4"/>
     </row>
@@ -11925,7 +11964,7 @@
         <v/>
       </c>
       <c r="C772" s="4" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D772" s="4"/>
     </row>
@@ -11963,7 +12002,7 @@
         <v/>
       </c>
       <c r="C776" s="4" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D776" s="4"/>
     </row>
@@ -11981,7 +12020,7 @@
         <v/>
       </c>
       <c r="C778" s="4" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D778" s="4"/>
     </row>
@@ -12009,7 +12048,7 @@
         <v/>
       </c>
       <c r="C781" s="4" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D781" s="4"/>
     </row>
@@ -12055,7 +12094,7 @@
         <v/>
       </c>
       <c r="C786" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D786" s="4"/>
     </row>
@@ -12065,7 +12104,7 @@
         <v/>
       </c>
       <c r="C787" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D787" s="4"/>
     </row>
@@ -12083,7 +12122,7 @@
         <v/>
       </c>
       <c r="C789" s="4" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="D789" s="4"/>
     </row>
@@ -12317,7 +12356,7 @@
         <v/>
       </c>
       <c r="C813" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D813" s="4"/>
     </row>
@@ -12327,7 +12366,7 @@
         <v/>
       </c>
       <c r="C814" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D814" s="4"/>
     </row>
@@ -12345,7 +12384,7 @@
         <v/>
       </c>
       <c r="C816" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D816" s="4"/>
     </row>
@@ -12355,7 +12394,7 @@
         <v/>
       </c>
       <c r="C817" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D817" s="4"/>
     </row>
@@ -12393,7 +12432,7 @@
         <v/>
       </c>
       <c r="C821" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D821" s="4"/>
     </row>
@@ -12411,7 +12450,7 @@
         <v/>
       </c>
       <c r="C823" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D823" s="4"/>
     </row>
@@ -12439,7 +12478,7 @@
         <v/>
       </c>
       <c r="C826" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D826" s="4"/>
     </row>
@@ -12457,7 +12496,7 @@
         <v/>
       </c>
       <c r="C828" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D828" s="4"/>
     </row>
@@ -12485,7 +12524,7 @@
         <v/>
       </c>
       <c r="C831" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D831" s="4"/>
     </row>
@@ -12503,7 +12542,7 @@
         <v/>
       </c>
       <c r="C833" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D833" s="4"/>
     </row>
@@ -12513,7 +12552,7 @@
         <v/>
       </c>
       <c r="C834" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D834" s="4"/>
     </row>
@@ -12531,7 +12570,7 @@
         <v/>
       </c>
       <c r="C836" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D836" s="4"/>
     </row>
@@ -12577,7 +12616,7 @@
         <v/>
       </c>
       <c r="C841" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D841" s="4"/>
     </row>
@@ -12595,7 +12634,7 @@
         <v/>
       </c>
       <c r="C843" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D843" s="4"/>
     </row>
@@ -12623,7 +12662,7 @@
         <v/>
       </c>
       <c r="C846" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D846" s="4"/>
     </row>
@@ -12641,7 +12680,7 @@
         <v/>
       </c>
       <c r="C848" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D848" s="4"/>
     </row>
@@ -12669,7 +12708,7 @@
         <v/>
       </c>
       <c r="C851" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D851" s="4"/>
     </row>
@@ -12687,7 +12726,7 @@
         <v/>
       </c>
       <c r="C853" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D853" s="4"/>
     </row>
@@ -12715,7 +12754,7 @@
         <v/>
       </c>
       <c r="C856" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D856" s="4"/>
     </row>
@@ -12733,7 +12772,7 @@
         <v/>
       </c>
       <c r="C858" s="4" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D858" s="4"/>
     </row>
@@ -12779,7 +12818,7 @@
         <v/>
       </c>
       <c r="C863" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D863" s="4"/>
     </row>
@@ -12797,7 +12836,7 @@
         <v/>
       </c>
       <c r="C865" s="4" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="D865" s="4"/>
     </row>
@@ -12955,7 +12994,7 @@
         <v/>
       </c>
       <c r="C881" s="4" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D881" s="4"/>
     </row>
@@ -13165,7 +13204,7 @@
         <v/>
       </c>
       <c r="C903" s="4" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D903" s="4"/>
     </row>
@@ -13183,7 +13222,7 @@
         <v/>
       </c>
       <c r="C905" s="4" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D905" s="4"/>
     </row>
@@ -13193,7 +13232,7 @@
         <v/>
       </c>
       <c r="C906" s="4" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D906" s="4"/>
     </row>
@@ -13211,7 +13250,7 @@
         <v/>
       </c>
       <c r="C908" s="4" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D908" s="4"/>
     </row>
@@ -13221,7 +13260,7 @@
         <v/>
       </c>
       <c r="C909" s="4" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D909" s="4"/>
     </row>
@@ -13239,7 +13278,7 @@
         <v/>
       </c>
       <c r="C911" s="4" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D911" s="4"/>
     </row>
@@ -13285,7 +13324,7 @@
         <v/>
       </c>
       <c r="C916" s="4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D916" s="4"/>
     </row>
@@ -13303,7 +13342,7 @@
         <v/>
       </c>
       <c r="C918" s="4" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D918" s="4"/>
     </row>
@@ -13331,7 +13370,7 @@
         <v/>
       </c>
       <c r="C921" s="4" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D921" s="4"/>
     </row>
@@ -13349,7 +13388,7 @@
         <v/>
       </c>
       <c r="C923" s="4" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D923" s="4"/>
     </row>
@@ -13377,7 +13416,7 @@
         <v/>
       </c>
       <c r="C926" s="4" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D926" s="4"/>
     </row>
@@ -13395,7 +13434,7 @@
         <v/>
       </c>
       <c r="C928" s="4" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D928" s="4"/>
     </row>
@@ -13423,7 +13462,7 @@
         <v/>
       </c>
       <c r="C931" s="4" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D931" s="4"/>
     </row>
@@ -13441,7 +13480,7 @@
         <v/>
       </c>
       <c r="C933" s="4" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D933" s="4"/>
     </row>
@@ -13469,7 +13508,7 @@
         <v/>
       </c>
       <c r="C936" s="4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D936" s="4"/>
     </row>
@@ -13487,7 +13526,7 @@
         <v/>
       </c>
       <c r="C938" s="4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D938" s="4"/>
     </row>
@@ -13515,7 +13554,7 @@
         <v/>
       </c>
       <c r="C941" s="4" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D941" s="4"/>
     </row>
@@ -13533,7 +13572,7 @@
         <v/>
       </c>
       <c r="C943" s="4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D943" s="4"/>
     </row>
@@ -13561,7 +13600,7 @@
         <v/>
       </c>
       <c r="C946" s="4" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D946" s="4"/>
     </row>
@@ -13579,7 +13618,7 @@
         <v/>
       </c>
       <c r="C948" s="4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D948" s="4"/>
     </row>
@@ -13589,7 +13628,7 @@
         <v/>
       </c>
       <c r="C949" s="4" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D949" s="4"/>
     </row>
@@ -13607,7 +13646,7 @@
         <v/>
       </c>
       <c r="C951" s="4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D951" s="4"/>
     </row>
@@ -13681,7 +13720,7 @@
         <v/>
       </c>
       <c r="C959" s="4" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D959" s="4"/>
     </row>
@@ -13755,7 +13794,7 @@
         <v>INFO</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D967" s="4"/>
     </row>
@@ -13765,7 +13804,7 @@
         <v/>
       </c>
       <c r="C968" s="4" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D968" s="4"/>
     </row>
@@ -13783,7 +13822,7 @@
         <v/>
       </c>
       <c r="C970" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D970" s="4"/>
     </row>
@@ -13803,7 +13842,7 @@
         <v/>
       </c>
       <c r="C972" s="4" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D972" s="4"/>
     </row>
@@ -13821,7 +13860,7 @@
         <v/>
       </c>
       <c r="C974" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D974" s="4"/>
     </row>
@@ -13831,7 +13870,7 @@
         <v/>
       </c>
       <c r="C975" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D975" s="4"/>
     </row>
@@ -13849,7 +13888,7 @@
         <v/>
       </c>
       <c r="C977" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D977" s="4"/>
     </row>
@@ -13877,7 +13916,7 @@
         <v>INFO</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D980" s="4"/>
     </row>
@@ -13887,7 +13926,7 @@
         <v/>
       </c>
       <c r="C981" s="4" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D981" s="4"/>
     </row>
@@ -13905,7 +13944,7 @@
         <v/>
       </c>
       <c r="C983" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D983" s="4"/>
     </row>
@@ -13923,7 +13962,7 @@
         <v/>
       </c>
       <c r="C985" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D985" s="4"/>
     </row>
@@ -13933,7 +13972,7 @@
         <v/>
       </c>
       <c r="C986" s="4" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D986" s="4"/>
     </row>
@@ -13951,7 +13990,7 @@
         <v/>
       </c>
       <c r="C988" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D988" s="4"/>
     </row>
@@ -13979,7 +14018,7 @@
         <v/>
       </c>
       <c r="C991" s="4" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D991" s="4"/>
     </row>
@@ -13997,7 +14036,7 @@
         <v/>
       </c>
       <c r="C993" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D993" s="4"/>
     </row>
@@ -14181,7 +14220,7 @@
         <v/>
       </c>
       <c r="C1012" s="4" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D1012" s="4"/>
     </row>
@@ -14199,7 +14238,7 @@
         <v/>
       </c>
       <c r="C1014" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D1014" s="4"/>
     </row>
@@ -14209,7 +14248,7 @@
         <v/>
       </c>
       <c r="C1015" s="4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D1015" s="4"/>
     </row>
@@ -14227,7 +14266,7 @@
         <v/>
       </c>
       <c r="C1017" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D1017" s="4"/>
     </row>
@@ -14255,7 +14294,7 @@
         <v/>
       </c>
       <c r="C1020" s="4" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D1020" s="4"/>
     </row>
@@ -14273,7 +14312,7 @@
         <v/>
       </c>
       <c r="C1022" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D1022" s="4"/>
     </row>
@@ -14283,7 +14322,7 @@
         <v/>
       </c>
       <c r="C1023" s="4" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D1023" s="4"/>
     </row>
@@ -14301,7 +14340,7 @@
         <v/>
       </c>
       <c r="C1025" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D1025" s="4"/>
     </row>
@@ -14311,7 +14350,7 @@
         <v/>
       </c>
       <c r="C1026" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D1026" s="4"/>
     </row>
@@ -14329,7 +14368,7 @@
         <v/>
       </c>
       <c r="C1028" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D1028" s="4"/>
     </row>
@@ -14399,7 +14438,7 @@
         <v/>
       </c>
       <c r="C1035" s="4" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D1035" s="4"/>
     </row>
@@ -14419,7 +14458,7 @@
         <v/>
       </c>
       <c r="C1037" s="4" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D1037" s="4"/>
     </row>
@@ -14543,7 +14582,7 @@
         <v/>
       </c>
       <c r="C1050" s="4" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D1050" s="4"/>
     </row>
@@ -14553,7 +14592,7 @@
         <v/>
       </c>
       <c r="C1051" s="4" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D1051" s="4"/>
     </row>
@@ -14563,7 +14602,7 @@
         <v/>
       </c>
       <c r="C1052" s="4" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D1052" s="4"/>
     </row>
@@ -14581,7 +14620,7 @@
         <v/>
       </c>
       <c r="C1054" s="4" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D1054" s="4"/>
     </row>
@@ -14627,7 +14666,7 @@
         <v/>
       </c>
       <c r="C1059" s="4" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D1059" s="4"/>
     </row>
@@ -14645,7 +14684,7 @@
         <v/>
       </c>
       <c r="C1061" s="4" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D1061" s="4"/>
     </row>
@@ -14673,7 +14712,7 @@
         <v/>
       </c>
       <c r="C1064" s="4" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D1064" s="4"/>
     </row>
@@ -14691,7 +14730,7 @@
         <v/>
       </c>
       <c r="C1066" s="4" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="D1066" s="4"/>
     </row>
@@ -14729,7 +14768,7 @@
         <v/>
       </c>
       <c r="C1070" s="4" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="D1070" s="4"/>
     </row>
@@ -14747,7 +14786,7 @@
         <v/>
       </c>
       <c r="C1072" s="4" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="D1072" s="4"/>
     </row>
@@ -14757,7 +14796,7 @@
         <v>INFO</v>
       </c>
       <c r="C1073" s="4" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D1073" s="4"/>
     </row>
@@ -14811,7 +14850,7 @@
         <v/>
       </c>
       <c r="C1079" s="4" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="D1079" s="4"/>
     </row>
@@ -14829,7 +14868,7 @@
         <v/>
       </c>
       <c r="C1081" s="4" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="D1081" s="4"/>
     </row>
@@ -14839,7 +14878,7 @@
         <v>INFO</v>
       </c>
       <c r="C1082" s="4" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D1082" s="4"/>
     </row>
@@ -14857,7 +14896,7 @@
         <v/>
       </c>
       <c r="C1084" s="4" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="D1084" s="4"/>
     </row>
@@ -14875,7 +14914,7 @@
         <v/>
       </c>
       <c r="C1086" s="4" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D1086" s="4"/>
     </row>
@@ -14903,7 +14942,7 @@
         <v/>
       </c>
       <c r="C1089" s="4" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D1089" s="4"/>
     </row>
@@ -14921,7 +14960,7 @@
         <v/>
       </c>
       <c r="C1091" s="4" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D1091" s="4"/>
     </row>
@@ -14999,7 +15038,7 @@
         <v/>
       </c>
       <c r="C1099" s="4" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="D1099" s="4"/>
     </row>
@@ -15019,7 +15058,7 @@
         <v/>
       </c>
       <c r="C1101" s="4" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="D1101" s="4"/>
     </row>
@@ -15057,7 +15096,7 @@
         <v/>
       </c>
       <c r="C1105" s="4" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D1105" s="4"/>
     </row>
@@ -15075,7 +15114,7 @@
         <v/>
       </c>
       <c r="C1107" s="4" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="D1107" s="4"/>
     </row>
@@ -15103,7 +15142,7 @@
         <v/>
       </c>
       <c r="C1110" s="4" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="D1110" s="4"/>
     </row>
@@ -15121,7 +15160,7 @@
         <v/>
       </c>
       <c r="C1112" s="4" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="D1112" s="4"/>
     </row>
@@ -15161,26 +15200,22 @@
       </c>
       <c r="D1116" s="4"/>
     </row>
-    <row r="1117" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1117" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>WARNING</v>
+        <v/>
       </c>
       <c r="C1117" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="D1117" s="4" t="s">
-        <v>762</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="D1117" s="4"/>
     </row>
     <row r="1118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1118" s="9" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1118" s="4" t="s">
-        <v>769</v>
-      </c>
+      <c r="C1118" s="4"/>
       <c r="D1118" s="4"/>
     </row>
     <row r="1119" spans="2:4" x14ac:dyDescent="0.25">
@@ -15189,7 +15224,7 @@
         <v/>
       </c>
       <c r="C1119" s="4" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="D1119" s="4"/>
     </row>
@@ -15198,7 +15233,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1120" s="4"/>
+      <c r="C1120" s="4" t="s">
+        <v>944</v>
+      </c>
       <c r="D1120" s="4"/>
     </row>
     <row r="1121" spans="2:4" x14ac:dyDescent="0.25">
@@ -15206,9 +15243,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1121" s="4" t="s">
-        <v>937</v>
-      </c>
+      <c r="C1121" s="4"/>
       <c r="D1121" s="4"/>
     </row>
     <row r="1122" spans="2:4" x14ac:dyDescent="0.25">
@@ -15217,7 +15252,7 @@
         <v/>
       </c>
       <c r="C1122" s="4" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D1122" s="4"/>
     </row>
@@ -15235,7 +15270,7 @@
         <v/>
       </c>
       <c r="C1124" s="4" t="s">
-        <v>937</v>
+        <v>274</v>
       </c>
       <c r="D1124" s="4"/>
     </row>
@@ -15253,7 +15288,7 @@
         <v/>
       </c>
       <c r="C1126" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D1126" s="4"/>
     </row>
@@ -15262,7 +15297,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1127" s="4"/>
+      <c r="C1127" s="4" t="s">
+        <v>945</v>
+      </c>
       <c r="D1127" s="4"/>
     </row>
     <row r="1128" spans="2:4" x14ac:dyDescent="0.25">
@@ -15271,17 +15308,17 @@
         <v/>
       </c>
       <c r="C1128" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D1128" s="4"/>
     </row>
     <row r="1129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1129" s="9" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1129" s="4" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="D1129" s="4"/>
     </row>
@@ -15290,9 +15327,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1130" s="4" t="s">
-        <v>942</v>
-      </c>
+      <c r="C1130" s="4"/>
       <c r="D1130" s="4"/>
     </row>
     <row r="1131" spans="2:4" x14ac:dyDescent="0.25">
@@ -15301,18 +15336,16 @@
         <v/>
       </c>
       <c r="C1131" s="4" t="s">
-        <v>260</v>
+        <v>947</v>
       </c>
       <c r="D1131" s="4"/>
     </row>
     <row r="1132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1132" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>INFO</v>
-      </c>
-      <c r="C1132" s="4" t="s">
-        <v>943</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C1132" s="4"/>
       <c r="D1132" s="4"/>
     </row>
     <row r="1133" spans="2:4" x14ac:dyDescent="0.25">
@@ -15320,7 +15353,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1133" s="4"/>
+      <c r="C1133" s="4" t="s">
+        <v>943</v>
+      </c>
       <c r="D1133" s="4"/>
     </row>
     <row r="1134" spans="2:4" x14ac:dyDescent="0.25">
@@ -15328,9 +15363,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1134" s="4" t="s">
-        <v>944</v>
-      </c>
+      <c r="C1134" s="4"/>
       <c r="D1134" s="4"/>
     </row>
     <row r="1135" spans="2:4" x14ac:dyDescent="0.25">
@@ -15338,7 +15371,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1135" s="4"/>
+      <c r="C1135" s="4" t="s">
+        <v>755</v>
+      </c>
       <c r="D1135" s="4"/>
     </row>
     <row r="1136" spans="2:4" x14ac:dyDescent="0.25">
@@ -15347,7 +15382,7 @@
         <v/>
       </c>
       <c r="C1136" s="4" t="s">
-        <v>937</v>
+        <v>758</v>
       </c>
       <c r="D1136" s="4"/>
     </row>
@@ -15356,16 +15391,18 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1137" s="4"/>
+      <c r="C1137" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="D1137" s="4"/>
     </row>
     <row r="1138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1138" s="9" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1138" s="4" t="s">
-        <v>770</v>
+        <v>948</v>
       </c>
       <c r="D1138" s="4"/>
     </row>
@@ -15374,18 +15411,16 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1139" s="4" t="s">
-        <v>260</v>
-      </c>
+      <c r="C1139" s="4"/>
       <c r="D1139" s="4"/>
     </row>
     <row r="1140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1140" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1140" s="4" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="D1140" s="4"/>
     </row>
@@ -15403,7 +15438,7 @@
         <v/>
       </c>
       <c r="C1142" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D1142" s="4"/>
     </row>
@@ -15412,7 +15447,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1143" s="4"/>
+      <c r="C1143" s="4" t="s">
+        <v>950</v>
+      </c>
       <c r="D1143" s="4"/>
     </row>
     <row r="1144" spans="2:4" x14ac:dyDescent="0.25">
@@ -15420,9 +15457,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1144" s="4" t="s">
-        <v>937</v>
-      </c>
+      <c r="C1144" s="4"/>
       <c r="D1144" s="4"/>
     </row>
     <row r="1145" spans="2:4" x14ac:dyDescent="0.25">
@@ -15431,7 +15466,7 @@
         <v/>
       </c>
       <c r="C1145" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D1145" s="4"/>
     </row>
@@ -15449,7 +15484,7 @@
         <v/>
       </c>
       <c r="C1147" s="4" t="s">
-        <v>937</v>
+        <v>276</v>
       </c>
       <c r="D1147" s="4"/>
     </row>
@@ -15467,7 +15502,7 @@
         <v/>
       </c>
       <c r="C1149" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D1149" s="4"/>
     </row>
@@ -15476,7 +15511,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1150" s="4"/>
+      <c r="C1150" s="4" t="s">
+        <v>951</v>
+      </c>
       <c r="D1150" s="4"/>
     </row>
     <row r="1151" spans="2:4" x14ac:dyDescent="0.25">
@@ -15484,9 +15521,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="C1151" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="C1151" s="4"/>
       <c r="D1151" s="4"/>
     </row>
     <row r="1152" spans="2:4" x14ac:dyDescent="0.25">
@@ -15495,7 +15530,7 @@
         <v/>
       </c>
       <c r="C1152" s="4" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D1152" s="4"/>
     </row>
@@ -15513,7 +15548,7 @@
         <v/>
       </c>
       <c r="C1154" s="4" t="s">
-        <v>937</v>
+        <v>278</v>
       </c>
       <c r="D1154" s="4"/>
     </row>
@@ -15522,7 +15557,9 @@
         <f t="shared" ref="B1155:B1212" si="18">IF(LEFT(C1155,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1155)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1155)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1155)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1155)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1155)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1155" s="4"/>
+      <c r="C1155" s="4" t="s">
+        <v>952</v>
+      </c>
       <c r="D1155" s="4"/>
     </row>
     <row r="1156" spans="2:4" x14ac:dyDescent="0.25">
@@ -15530,9 +15567,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1156" s="4" t="s">
-        <v>278</v>
-      </c>
+      <c r="C1156" s="4"/>
       <c r="D1156" s="4"/>
     </row>
     <row r="1157" spans="2:4" x14ac:dyDescent="0.25">
@@ -15541,7 +15576,7 @@
         <v/>
       </c>
       <c r="C1157" s="4" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="D1157" s="4"/>
     </row>
@@ -15550,7 +15585,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1158" s="4"/>
+      <c r="C1158" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D1158" s="4"/>
     </row>
     <row r="1159" spans="2:4" x14ac:dyDescent="0.25">
@@ -15558,9 +15595,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1159" s="4" t="s">
-        <v>937</v>
-      </c>
+      <c r="C1159" s="4"/>
       <c r="D1159" s="4"/>
     </row>
     <row r="1160" spans="2:4" x14ac:dyDescent="0.25">
@@ -15569,7 +15604,7 @@
         <v/>
       </c>
       <c r="C1160" s="4" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="D1160" s="4"/>
     </row>
@@ -15587,7 +15622,7 @@
         <v/>
       </c>
       <c r="C1162" s="4" t="s">
-        <v>937</v>
+        <v>279</v>
       </c>
       <c r="D1162" s="4"/>
     </row>
@@ -15605,16 +15640,18 @@
         <v/>
       </c>
       <c r="C1164" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D1164" s="4"/>
     </row>
     <row r="1165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1165" s="9" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="C1165" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1165" s="4" t="s">
+        <v>955</v>
+      </c>
       <c r="D1165" s="4"/>
     </row>
     <row r="1166" spans="2:4" x14ac:dyDescent="0.25">
@@ -15622,18 +15659,16 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1166" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="C1166" s="4"/>
       <c r="D1166" s="4"/>
     </row>
     <row r="1167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1167" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1167" s="4" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="D1167" s="4"/>
     </row>
@@ -15651,7 +15686,7 @@
         <v/>
       </c>
       <c r="C1169" s="4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D1169" s="4"/>
     </row>
@@ -15660,7 +15695,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1170" s="4"/>
+      <c r="C1170" s="4" t="s">
+        <v>957</v>
+      </c>
       <c r="D1170" s="4"/>
     </row>
     <row r="1171" spans="2:4" x14ac:dyDescent="0.25">
@@ -15668,9 +15705,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1171" s="4" t="s">
-        <v>937</v>
-      </c>
+      <c r="C1171" s="4"/>
       <c r="D1171" s="4"/>
     </row>
     <row r="1172" spans="2:4" x14ac:dyDescent="0.25">
@@ -15679,7 +15714,7 @@
         <v/>
       </c>
       <c r="C1172" s="4" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D1172" s="4"/>
     </row>
@@ -15697,7 +15732,7 @@
         <v/>
       </c>
       <c r="C1174" s="4" t="s">
-        <v>937</v>
+        <v>281</v>
       </c>
       <c r="D1174" s="4"/>
     </row>
@@ -15715,7 +15750,7 @@
         <v/>
       </c>
       <c r="C1176" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D1176" s="4"/>
     </row>
@@ -15724,7 +15759,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1177" s="4"/>
+      <c r="C1177" s="4" t="s">
+        <v>958</v>
+      </c>
       <c r="D1177" s="4"/>
     </row>
     <row r="1178" spans="2:4" x14ac:dyDescent="0.25">
@@ -15733,7 +15770,7 @@
         <v/>
       </c>
       <c r="C1178" s="4" t="s">
-        <v>262</v>
+        <v>959</v>
       </c>
       <c r="D1178" s="4"/>
     </row>
@@ -15743,7 +15780,7 @@
         <v/>
       </c>
       <c r="C1179" s="4" t="s">
-        <v>953</v>
+        <v>265</v>
       </c>
       <c r="D1179" s="4"/>
     </row>
@@ -15753,7 +15790,7 @@
         <v/>
       </c>
       <c r="C1180" s="4" t="s">
-        <v>954</v>
+        <v>266</v>
       </c>
       <c r="D1180" s="4"/>
     </row>
@@ -15763,7 +15800,7 @@
         <v/>
       </c>
       <c r="C1181" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D1181" s="4"/>
     </row>
@@ -15773,7 +15810,7 @@
         <v/>
       </c>
       <c r="C1182" s="4" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="D1182" s="4"/>
     </row>
@@ -15783,7 +15820,7 @@
         <v/>
       </c>
       <c r="C1183" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D1183" s="4"/>
     </row>
@@ -15793,7 +15830,7 @@
         <v/>
       </c>
       <c r="C1184" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D1184" s="4"/>
     </row>
@@ -15803,7 +15840,7 @@
         <v/>
       </c>
       <c r="C1185" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D1185" s="4"/>
     </row>
@@ -15813,7 +15850,7 @@
         <v/>
       </c>
       <c r="C1186" s="4" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D1186" s="4"/>
     </row>
@@ -15822,9 +15859,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1187" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="C1187" s="4"/>
       <c r="D1187" s="4"/>
     </row>
     <row r="1188" spans="2:4" x14ac:dyDescent="0.25">
@@ -15833,7 +15868,7 @@
         <v/>
       </c>
       <c r="C1188" s="4" t="s">
-        <v>270</v>
+        <v>960</v>
       </c>
       <c r="D1188" s="4"/>
     </row>
@@ -15851,7 +15886,7 @@
         <v/>
       </c>
       <c r="C1190" s="4" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="D1190" s="4"/>
     </row>
@@ -15869,7 +15904,7 @@
         <v/>
       </c>
       <c r="C1192" s="4" t="s">
-        <v>937</v>
+        <v>284</v>
       </c>
       <c r="D1192" s="4"/>
     </row>
@@ -15887,7 +15922,7 @@
         <v/>
       </c>
       <c r="C1194" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D1194" s="4"/>
     </row>
@@ -15896,7 +15931,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1195" s="4"/>
+      <c r="C1195" s="4" t="s">
+        <v>962</v>
+      </c>
       <c r="D1195" s="4"/>
     </row>
     <row r="1196" spans="2:4" x14ac:dyDescent="0.25">
@@ -15904,9 +15941,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1196" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="C1196" s="4"/>
       <c r="D1196" s="4"/>
     </row>
     <row r="1197" spans="2:4" x14ac:dyDescent="0.25">
@@ -15915,7 +15950,7 @@
         <v/>
       </c>
       <c r="C1197" s="4" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="D1197" s="4"/>
     </row>
@@ -15933,7 +15968,7 @@
         <v/>
       </c>
       <c r="C1199" s="4" t="s">
-        <v>957</v>
+        <v>286</v>
       </c>
       <c r="D1199" s="4"/>
     </row>
@@ -15942,7 +15977,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1200" s="4"/>
+      <c r="C1200" s="4" t="s">
+        <v>964</v>
+      </c>
       <c r="D1200" s="4"/>
     </row>
     <row r="1201" spans="2:4" x14ac:dyDescent="0.25">
@@ -15950,9 +15987,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1201" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="C1201" s="4"/>
       <c r="D1201" s="4"/>
     </row>
     <row r="1202" spans="2:4" x14ac:dyDescent="0.25">
@@ -15961,7 +15996,7 @@
         <v/>
       </c>
       <c r="C1202" s="4" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="D1202" s="4"/>
     </row>
@@ -15979,7 +16014,7 @@
         <v/>
       </c>
       <c r="C1204" s="4" t="s">
-        <v>959</v>
+        <v>287</v>
       </c>
       <c r="D1204" s="4"/>
     </row>
@@ -15988,7 +16023,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1205" s="4"/>
+      <c r="C1205" s="4" t="s">
+        <v>966</v>
+      </c>
       <c r="D1205" s="4"/>
     </row>
     <row r="1206" spans="2:4" x14ac:dyDescent="0.25">
@@ -15996,9 +16033,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1206" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="C1206" s="4"/>
       <c r="D1206" s="4"/>
     </row>
     <row r="1207" spans="2:4" x14ac:dyDescent="0.25">
@@ -16007,7 +16042,7 @@
         <v/>
       </c>
       <c r="C1207" s="4" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D1207" s="4"/>
     </row>
@@ -16025,16 +16060,18 @@
         <v/>
       </c>
       <c r="C1209" s="4" t="s">
-        <v>959</v>
+        <v>288</v>
       </c>
       <c r="D1209" s="4"/>
     </row>
     <row r="1210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1210" s="9" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="C1210" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1210" s="4" t="s">
+        <v>967</v>
+      </c>
       <c r="D1210" s="4"/>
     </row>
     <row r="1211" spans="2:4" x14ac:dyDescent="0.25">
@@ -16042,9 +16079,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="C1211" s="4" t="s">
-        <v>288</v>
-      </c>
+      <c r="C1211" s="4"/>
       <c r="D1211" s="4"/>
     </row>
     <row r="1212" spans="2:4" x14ac:dyDescent="0.25">
@@ -16053,7 +16088,7 @@
         <v>INFO</v>
       </c>
       <c r="C1212" s="4" t="s">
-        <v>961</v>
+        <v>289</v>
       </c>
       <c r="D1212" s="4"/>
     </row>
@@ -16062,17 +16097,17 @@
         <f t="shared" ref="B1213:B1214" si="19">IF(LEFT(C1213,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1213)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1213)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1213)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1213)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1213)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1213" s="4"/>
+      <c r="C1213" s="4" t="s">
+        <v>968</v>
+      </c>
       <c r="D1213" s="4"/>
     </row>
     <row r="1214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1214" s="9" t="str">
         <f t="shared" si="19"/>
-        <v>INFO</v>
-      </c>
-      <c r="C1214" s="4" t="s">
-        <v>289</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C1214" s="4"/>
       <c r="D1214" s="4"/>
     </row>
     <row r="1215" spans="2:4" x14ac:dyDescent="0.25">
@@ -16081,7 +16116,7 @@
         <v/>
       </c>
       <c r="C1215" s="4" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="D1215" s="4"/>
     </row>
@@ -16090,7 +16125,9 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1216" s="4"/>
+      <c r="C1216" s="4" t="s">
+        <v>969</v>
+      </c>
       <c r="D1216" s="4"/>
     </row>
     <row r="1217" spans="2:4" x14ac:dyDescent="0.25">
@@ -16098,9 +16135,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1217" s="4" t="s">
-        <v>959</v>
-      </c>
+      <c r="C1217" s="4"/>
       <c r="D1217" s="4"/>
     </row>
     <row r="1218" spans="2:4" x14ac:dyDescent="0.25">
@@ -16109,7 +16144,7 @@
         <v/>
       </c>
       <c r="C1218" s="4" t="s">
-        <v>963</v>
+        <v>290</v>
       </c>
       <c r="D1218" s="4"/>
     </row>
@@ -16118,7 +16153,9 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1219" s="4"/>
+      <c r="C1219" s="4" t="s">
+        <v>970</v>
+      </c>
       <c r="D1219" s="4"/>
     </row>
     <row r="1220" spans="2:4" x14ac:dyDescent="0.25">
@@ -16126,9 +16163,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="C1220" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="C1220" s="4"/>
       <c r="D1220" s="4"/>
     </row>
     <row r="1221" spans="2:4" x14ac:dyDescent="0.25">
@@ -16137,16 +16172,18 @@
         <v/>
       </c>
       <c r="C1221" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D1221" s="4"/>
     </row>
     <row r="1222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1222" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="C1222" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1222" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="D1222" s="4"/>
     </row>
     <row r="1223" spans="2:4" x14ac:dyDescent="0.25">
@@ -16155,18 +16192,16 @@
         <v/>
       </c>
       <c r="C1223" s="4" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="D1223" s="4"/>
     </row>
     <row r="1224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1224" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
-      </c>
-      <c r="C1224" s="4" t="s">
-        <v>291</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C1224" s="4"/>
       <c r="D1224" s="4"/>
     </row>
     <row r="1225" spans="2:4" x14ac:dyDescent="0.25">
@@ -16193,16 +16228,18 @@
         <v/>
       </c>
       <c r="C1227" s="4" t="s">
-        <v>966</v>
+        <v>292</v>
       </c>
       <c r="D1227" s="4"/>
     </row>
     <row r="1228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1228" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="C1228" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1228" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="D1228" s="4"/>
     </row>
     <row r="1229" spans="2:4" x14ac:dyDescent="0.25">
@@ -16211,17 +16248,17 @@
         <v/>
       </c>
       <c r="C1229" s="4" t="s">
-        <v>292</v>
+        <v>972</v>
       </c>
       <c r="D1229" s="4"/>
     </row>
     <row r="1230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1230" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1230" s="4" t="s">
-        <v>176</v>
+        <v>293</v>
       </c>
       <c r="D1230" s="4"/>
     </row>
@@ -16231,7 +16268,7 @@
         <v/>
       </c>
       <c r="C1231" s="4" t="s">
-        <v>771</v>
+        <v>973</v>
       </c>
       <c r="D1231" s="4"/>
     </row>
@@ -16241,7 +16278,7 @@
         <v/>
       </c>
       <c r="C1232" s="4" t="s">
-        <v>293</v>
+        <v>509</v>
       </c>
       <c r="D1232" s="4"/>
     </row>
@@ -16251,7 +16288,7 @@
         <v/>
       </c>
       <c r="C1233" s="4" t="s">
-        <v>967</v>
+        <v>294</v>
       </c>
       <c r="D1233" s="4"/>
     </row>
@@ -16261,27 +16298,27 @@
         <v/>
       </c>
       <c r="C1234" s="4" t="s">
-        <v>509</v>
+        <v>129</v>
       </c>
       <c r="D1234" s="4"/>
     </row>
     <row r="1235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1235" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1235" s="4" t="s">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="D1235" s="4"/>
     </row>
     <row r="1236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1236" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1236" s="4" t="s">
-        <v>129</v>
+        <v>432</v>
       </c>
       <c r="D1236" s="4"/>
     </row>
@@ -16291,27 +16328,25 @@
         <v>INFO</v>
       </c>
       <c r="C1237" s="4" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="D1237" s="4"/>
     </row>
     <row r="1238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1238" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
-      </c>
-      <c r="C1238" s="4" t="s">
-        <v>432</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C1238" s="4"/>
       <c r="D1238" s="4"/>
     </row>
     <row r="1239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1239" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1239" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D1239" s="4"/>
     </row>
@@ -16329,25 +16364,27 @@
         <v/>
       </c>
       <c r="C1241" s="4" t="s">
-        <v>296</v>
+        <v>974</v>
       </c>
       <c r="D1241" s="4"/>
     </row>
     <row r="1242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1242" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="C1242" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1242" s="4" t="s">
+        <v>975</v>
+      </c>
       <c r="D1242" s="4"/>
     </row>
     <row r="1243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1243" s="9" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1243" s="4" t="s">
-        <v>968</v>
+        <v>297</v>
       </c>
       <c r="D1243" s="4"/>
     </row>
@@ -16357,7 +16394,7 @@
         <v>INFO</v>
       </c>
       <c r="C1244" s="4" t="s">
-        <v>969</v>
+        <v>298</v>
       </c>
       <c r="D1244" s="4"/>
     </row>
@@ -16367,27 +16404,27 @@
         <v>INFO</v>
       </c>
       <c r="C1245" s="4" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="D1245" s="4"/>
     </row>
     <row r="1246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1246" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1246" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D1246" s="4"/>
     </row>
     <row r="1247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1247" s="9" t="str">
         <f t="shared" ref="B1247:B1278" si="21">IF(LEFT(C1247,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1247)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1247)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1247)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1247)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1247)),"DEBUG",""))))))</f>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1247" s="4" t="s">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="D1247" s="4"/>
     </row>
@@ -16397,61 +16434,61 @@
         <v/>
       </c>
       <c r="C1248" s="4" t="s">
-        <v>299</v>
+        <v>510</v>
       </c>
       <c r="D1248" s="4"/>
     </row>
     <row r="1249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1249" s="9" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1249" s="4" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="D1249" s="4"/>
     </row>
     <row r="1250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1250" s="9" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1250" s="4" t="s">
-        <v>510</v>
+        <v>125</v>
       </c>
       <c r="D1250" s="4"/>
     </row>
-    <row r="1251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1251" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B1251" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>INFO</v>
+        <v>WARNING</v>
       </c>
       <c r="C1251" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1251" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="D1251" s="4" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="1252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1252" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1252" s="4" t="s">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="D1252" s="4"/>
     </row>
-    <row r="1253" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1253" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>WARNING</v>
+        <v/>
       </c>
       <c r="C1253" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D1253" s="4" t="s">
-        <v>762</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D1253" s="4"/>
     </row>
     <row r="1254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1254" s="9" t="str">
@@ -16459,7 +16496,7 @@
         <v/>
       </c>
       <c r="C1254" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D1254" s="4"/>
     </row>
@@ -16469,7 +16506,7 @@
         <v/>
       </c>
       <c r="C1255" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D1255" s="4"/>
     </row>
@@ -16478,9 +16515,7 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1256" s="4" t="s">
-        <v>303</v>
-      </c>
+      <c r="C1256" s="4"/>
       <c r="D1256" s="4"/>
     </row>
     <row r="1257" spans="2:4" x14ac:dyDescent="0.25">
@@ -16489,7 +16524,7 @@
         <v/>
       </c>
       <c r="C1257" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D1257" s="4"/>
     </row>
@@ -16498,7 +16533,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1258" s="4"/>
+      <c r="C1258" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="D1258" s="4"/>
     </row>
     <row r="1259" spans="2:4" x14ac:dyDescent="0.25">
@@ -16507,7 +16544,7 @@
         <v/>
       </c>
       <c r="C1259" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D1259" s="4"/>
     </row>
@@ -16517,7 +16554,7 @@
         <v/>
       </c>
       <c r="C1260" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D1260" s="4"/>
     </row>
@@ -16527,7 +16564,7 @@
         <v/>
       </c>
       <c r="C1261" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D1261" s="4"/>
     </row>
@@ -16537,7 +16574,7 @@
         <v/>
       </c>
       <c r="C1262" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D1262" s="4"/>
     </row>
@@ -16547,7 +16584,7 @@
         <v/>
       </c>
       <c r="C1263" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D1263" s="4"/>
     </row>
@@ -16557,7 +16594,7 @@
         <v/>
       </c>
       <c r="C1264" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D1264" s="4"/>
     </row>
@@ -16567,7 +16604,7 @@
         <v/>
       </c>
       <c r="C1265" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D1265" s="4"/>
     </row>
@@ -16577,7 +16614,7 @@
         <v/>
       </c>
       <c r="C1266" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D1266" s="4"/>
     </row>
@@ -16587,7 +16624,7 @@
         <v/>
       </c>
       <c r="C1267" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D1267" s="4"/>
     </row>
@@ -16596,9 +16633,7 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1268" s="4" t="s">
-        <v>313</v>
-      </c>
+      <c r="C1268" s="4"/>
       <c r="D1268" s="4"/>
     </row>
     <row r="1269" spans="2:4" x14ac:dyDescent="0.25">
@@ -16607,7 +16642,7 @@
         <v/>
       </c>
       <c r="C1269" s="4" t="s">
-        <v>314</v>
+        <v>433</v>
       </c>
       <c r="D1269" s="4"/>
     </row>
@@ -16616,7 +16651,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1270" s="4"/>
+      <c r="C1270" s="4" t="s">
+        <v>434</v>
+      </c>
       <c r="D1270" s="4"/>
     </row>
     <row r="1271" spans="2:4" x14ac:dyDescent="0.25">
@@ -16625,7 +16662,7 @@
         <v/>
       </c>
       <c r="C1271" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D1271" s="4"/>
     </row>
@@ -16635,7 +16672,7 @@
         <v/>
       </c>
       <c r="C1272" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D1272" s="4"/>
     </row>
@@ -16645,7 +16682,7 @@
         <v/>
       </c>
       <c r="C1273" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D1273" s="4"/>
     </row>
@@ -16654,9 +16691,7 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1274" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="C1274" s="4"/>
       <c r="D1274" s="4"/>
     </row>
     <row r="1275" spans="2:4" x14ac:dyDescent="0.25">
@@ -16664,9 +16699,7 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1275" s="4" t="s">
-        <v>437</v>
-      </c>
+      <c r="C1275" s="4"/>
       <c r="D1275" s="4"/>
     </row>
     <row r="1276" spans="2:4" x14ac:dyDescent="0.25">
@@ -16674,7 +16707,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1276" s="4"/>
+      <c r="C1276" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1276" s="4"/>
     </row>
     <row r="1277" spans="2:4" x14ac:dyDescent="0.25">
@@ -16682,7 +16717,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="C1277" s="4"/>
+      <c r="C1277" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="D1277" s="4"/>
     </row>
     <row r="1278" spans="2:4" x14ac:dyDescent="0.25">
@@ -16691,7 +16728,7 @@
         <v/>
       </c>
       <c r="C1278" s="4" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D1278" s="4"/>
     </row>
@@ -16701,7 +16738,7 @@
         <v/>
       </c>
       <c r="C1279" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D1279" s="4"/>
     </row>
@@ -16710,9 +16747,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="C1280" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="C1280" s="4"/>
       <c r="D1280" s="4"/>
     </row>
     <row r="1281" spans="2:4" x14ac:dyDescent="0.25">
@@ -16721,7 +16756,7 @@
         <v/>
       </c>
       <c r="C1281" s="4" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="D1281" s="4"/>
     </row>
@@ -16738,9 +16773,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="C1283" s="4" t="s">
-        <v>317</v>
-      </c>
+      <c r="C1283" s="4"/>
       <c r="D1283" s="4"/>
     </row>
     <row r="1284" spans="2:4" x14ac:dyDescent="0.25">
@@ -16756,7 +16789,9 @@
         <f t="shared" ref="B1285:B1303" si="23">IF(LEFT(C1285,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1285)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1285)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1285)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1285)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1285)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1285" s="4"/>
+      <c r="C1285" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="D1285" s="4"/>
     </row>
     <row r="1286" spans="2:4" x14ac:dyDescent="0.25">
@@ -16773,7 +16808,7 @@
         <v/>
       </c>
       <c r="C1287" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D1287" s="4"/>
     </row>
@@ -16782,7 +16817,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1288" s="4"/>
+      <c r="C1288" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="D1288" s="4"/>
     </row>
     <row r="1289" spans="2:4" x14ac:dyDescent="0.25">
@@ -16791,7 +16828,7 @@
         <v/>
       </c>
       <c r="C1289" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D1289" s="4"/>
     </row>
@@ -16801,7 +16838,7 @@
         <v/>
       </c>
       <c r="C1290" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D1290" s="4"/>
     </row>
@@ -16811,7 +16848,7 @@
         <v/>
       </c>
       <c r="C1291" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D1291" s="4"/>
     </row>
@@ -16821,7 +16858,7 @@
         <v/>
       </c>
       <c r="C1292" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D1292" s="4"/>
     </row>
@@ -16831,7 +16868,7 @@
         <v/>
       </c>
       <c r="C1293" s="4" t="s">
-        <v>323</v>
+        <v>719</v>
       </c>
       <c r="D1293" s="4"/>
     </row>
@@ -16841,7 +16878,7 @@
         <v/>
       </c>
       <c r="C1294" s="4" t="s">
-        <v>324</v>
+        <v>720</v>
       </c>
       <c r="D1294" s="4"/>
     </row>
@@ -16851,7 +16888,7 @@
         <v/>
       </c>
       <c r="C1295" s="4" t="s">
-        <v>719</v>
+        <v>325</v>
       </c>
       <c r="D1295" s="4"/>
     </row>
@@ -16861,7 +16898,7 @@
         <v/>
       </c>
       <c r="C1296" s="4" t="s">
-        <v>720</v>
+        <v>326</v>
       </c>
       <c r="D1296" s="4"/>
     </row>
@@ -16871,7 +16908,7 @@
         <v/>
       </c>
       <c r="C1297" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D1297" s="4"/>
     </row>
@@ -16881,7 +16918,7 @@
         <v/>
       </c>
       <c r="C1298" s="4" t="s">
-        <v>326</v>
+        <v>721</v>
       </c>
       <c r="D1298" s="4"/>
     </row>
@@ -16891,7 +16928,7 @@
         <v/>
       </c>
       <c r="C1299" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D1299" s="4"/>
     </row>
@@ -16901,7 +16938,7 @@
         <v/>
       </c>
       <c r="C1300" s="4" t="s">
-        <v>721</v>
+        <v>329</v>
       </c>
       <c r="D1300" s="4"/>
     </row>
@@ -16910,9 +16947,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1301" s="4" t="s">
-        <v>328</v>
-      </c>
+      <c r="C1301" s="4"/>
       <c r="D1301" s="4"/>
     </row>
     <row r="1302" spans="2:4" x14ac:dyDescent="0.25">
@@ -16921,7 +16956,7 @@
         <v/>
       </c>
       <c r="C1302" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D1302" s="4"/>
     </row>
@@ -16930,7 +16965,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="C1303" s="4"/>
+      <c r="C1303" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="D1303" s="4"/>
     </row>
     <row r="1304" spans="2:4" x14ac:dyDescent="0.25">
@@ -16939,7 +16976,7 @@
         <v/>
       </c>
       <c r="C1304" s="4" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D1304" s="4"/>
     </row>
@@ -16948,9 +16985,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1305" s="4" t="s">
-        <v>330</v>
-      </c>
+      <c r="C1305" s="4"/>
       <c r="D1305" s="4"/>
     </row>
     <row r="1306" spans="2:4" x14ac:dyDescent="0.25">
@@ -16958,9 +16993,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1306" s="4" t="s">
-        <v>331</v>
-      </c>
+      <c r="C1306" s="4"/>
       <c r="D1306" s="4"/>
     </row>
     <row r="1307" spans="2:4" x14ac:dyDescent="0.25">
@@ -16968,7 +17001,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1307" s="4"/>
+      <c r="C1307" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="D1307" s="4"/>
     </row>
     <row r="1308" spans="2:4" x14ac:dyDescent="0.25">
@@ -16976,7 +17011,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1308" s="4"/>
+      <c r="C1308" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D1308" s="4"/>
     </row>
     <row r="1309" spans="2:4" x14ac:dyDescent="0.25">
@@ -16985,7 +17022,7 @@
         <v/>
       </c>
       <c r="C1309" s="4" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="D1309" s="4"/>
     </row>
@@ -16994,9 +17031,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1310" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="C1310" s="4"/>
       <c r="D1310" s="4"/>
     </row>
     <row r="1311" spans="2:4" x14ac:dyDescent="0.25">
@@ -17004,9 +17039,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1311" s="4" t="s">
-        <v>333</v>
-      </c>
+      <c r="C1311" s="4"/>
       <c r="D1311" s="4"/>
     </row>
     <row r="1312" spans="2:4" x14ac:dyDescent="0.25">
@@ -17014,7 +17047,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1312" s="4"/>
+      <c r="C1312" s="4" t="s">
+        <v>323</v>
+      </c>
       <c r="D1312" s="4"/>
     </row>
     <row r="1313" spans="2:4" x14ac:dyDescent="0.25">
@@ -17022,7 +17057,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1313" s="4"/>
+      <c r="C1313" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="D1313" s="4"/>
     </row>
     <row r="1314" spans="2:4" x14ac:dyDescent="0.25">
@@ -17031,7 +17068,7 @@
         <v/>
       </c>
       <c r="C1314" s="4" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D1314" s="4"/>
     </row>
@@ -17040,9 +17077,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1315" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="C1315" s="4"/>
       <c r="D1315" s="4"/>
     </row>
     <row r="1316" spans="2:4" x14ac:dyDescent="0.25">
@@ -17050,9 +17085,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1316" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="C1316" s="4"/>
       <c r="D1316" s="4"/>
     </row>
     <row r="1317" spans="2:4" x14ac:dyDescent="0.25">
@@ -17060,7 +17093,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1317" s="4"/>
+      <c r="C1317" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="D1317" s="4"/>
     </row>
     <row r="1318" spans="2:4" x14ac:dyDescent="0.25">
@@ -17068,7 +17103,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1318" s="4"/>
+      <c r="C1318" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="D1318" s="4"/>
     </row>
     <row r="1319" spans="2:4" x14ac:dyDescent="0.25">
@@ -17077,7 +17114,7 @@
         <v/>
       </c>
       <c r="C1319" s="4" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D1319" s="4"/>
     </row>
@@ -17086,9 +17123,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1320" s="4" t="s">
-        <v>336</v>
-      </c>
+      <c r="C1320" s="4"/>
       <c r="D1320" s="4"/>
     </row>
     <row r="1321" spans="2:4" x14ac:dyDescent="0.25">
@@ -17097,7 +17132,7 @@
         <v/>
       </c>
       <c r="C1321" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D1321" s="4"/>
     </row>
@@ -17114,9 +17149,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1323" s="4" t="s">
-        <v>338</v>
-      </c>
+      <c r="C1323" s="4"/>
       <c r="D1323" s="4"/>
     </row>
     <row r="1324" spans="2:4" x14ac:dyDescent="0.25">
@@ -17124,7 +17157,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1324" s="4"/>
+      <c r="C1324" s="4" t="s">
+        <v>719</v>
+      </c>
       <c r="D1324" s="4"/>
     </row>
     <row r="1325" spans="2:4" x14ac:dyDescent="0.25">
@@ -17132,7 +17167,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1325" s="4"/>
+      <c r="C1325" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D1325" s="4"/>
     </row>
     <row r="1326" spans="2:4" x14ac:dyDescent="0.25">
@@ -17141,7 +17178,7 @@
         <v/>
       </c>
       <c r="C1326" s="4" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D1326" s="4"/>
     </row>
@@ -17150,9 +17187,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1327" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="C1327" s="4"/>
       <c r="D1327" s="4"/>
     </row>
     <row r="1328" spans="2:4" x14ac:dyDescent="0.25">
@@ -17161,7 +17196,7 @@
         <v/>
       </c>
       <c r="C1328" s="4" t="s">
-        <v>722</v>
+        <v>339</v>
       </c>
       <c r="D1328" s="4"/>
     </row>
@@ -17178,9 +17213,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1330" s="4" t="s">
-        <v>339</v>
-      </c>
+      <c r="C1330" s="4"/>
       <c r="D1330" s="4"/>
     </row>
     <row r="1331" spans="2:4" x14ac:dyDescent="0.25">
@@ -17188,7 +17221,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1331" s="4"/>
+      <c r="C1331" s="4" t="s">
+        <v>720</v>
+      </c>
       <c r="D1331" s="4"/>
     </row>
     <row r="1332" spans="2:4" x14ac:dyDescent="0.25">
@@ -17196,7 +17231,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1332" s="4"/>
+      <c r="C1332" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="D1332" s="4"/>
     </row>
     <row r="1333" spans="2:4" x14ac:dyDescent="0.25">
@@ -17205,7 +17242,7 @@
         <v/>
       </c>
       <c r="C1333" s="4" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D1333" s="4"/>
     </row>
@@ -17214,9 +17251,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="C1334" s="4" t="s">
-        <v>343</v>
-      </c>
+      <c r="C1334" s="4"/>
       <c r="D1334" s="4"/>
     </row>
     <row r="1335" spans="2:4" x14ac:dyDescent="0.25">
@@ -17225,7 +17260,7 @@
         <v/>
       </c>
       <c r="C1335" s="4" t="s">
-        <v>723</v>
+        <v>340</v>
       </c>
       <c r="D1335" s="4"/>
     </row>
@@ -17243,7 +17278,7 @@
         <v/>
       </c>
       <c r="C1337" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D1337" s="4"/>
     </row>
@@ -17260,9 +17295,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1339" s="4" t="s">
-        <v>341</v>
-      </c>
+      <c r="C1339" s="4"/>
       <c r="D1339" s="4"/>
     </row>
     <row r="1340" spans="2:4" x14ac:dyDescent="0.25">
@@ -17270,7 +17303,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1340" s="4"/>
+      <c r="C1340" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="D1340" s="4"/>
     </row>
     <row r="1341" spans="2:4" x14ac:dyDescent="0.25">
@@ -17278,7 +17313,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1341" s="4"/>
+      <c r="C1341" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D1341" s="4"/>
     </row>
     <row r="1342" spans="2:4" x14ac:dyDescent="0.25">
@@ -17287,7 +17324,7 @@
         <v/>
       </c>
       <c r="C1342" s="4" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="D1342" s="4"/>
     </row>
@@ -17296,9 +17333,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1343" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="C1343" s="4"/>
       <c r="D1343" s="4"/>
     </row>
     <row r="1344" spans="2:4" x14ac:dyDescent="0.25">
@@ -17306,9 +17341,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1344" s="4" t="s">
-        <v>342</v>
-      </c>
+      <c r="C1344" s="4"/>
       <c r="D1344" s="4"/>
     </row>
     <row r="1345" spans="2:4" x14ac:dyDescent="0.25">
@@ -17316,7 +17349,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1345" s="4"/>
+      <c r="C1345" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="D1345" s="4"/>
     </row>
     <row r="1346" spans="2:4" x14ac:dyDescent="0.25">
@@ -17324,7 +17359,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1346" s="4"/>
+      <c r="C1346" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="D1346" s="4"/>
     </row>
     <row r="1347" spans="2:4" x14ac:dyDescent="0.25">
@@ -17333,7 +17370,7 @@
         <v/>
       </c>
       <c r="C1347" s="4" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D1347" s="4"/>
     </row>
@@ -17342,9 +17379,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1348" s="4" t="s">
-        <v>343</v>
-      </c>
+      <c r="C1348" s="4"/>
       <c r="D1348" s="4"/>
     </row>
     <row r="1349" spans="2:4" x14ac:dyDescent="0.25">
@@ -17352,9 +17387,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1349" s="4" t="s">
-        <v>344</v>
-      </c>
+      <c r="C1349" s="4"/>
       <c r="D1349" s="4"/>
     </row>
     <row r="1350" spans="2:4" x14ac:dyDescent="0.25">
@@ -17362,7 +17395,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1350" s="4"/>
+      <c r="C1350" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="D1350" s="4"/>
     </row>
     <row r="1351" spans="2:4" x14ac:dyDescent="0.25">
@@ -17370,7 +17405,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1351" s="4"/>
+      <c r="C1351" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="D1351" s="4"/>
     </row>
     <row r="1352" spans="2:4" x14ac:dyDescent="0.25">
@@ -17379,7 +17416,7 @@
         <v/>
       </c>
       <c r="C1352" s="4" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="D1352" s="4"/>
     </row>
@@ -17388,9 +17425,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1353" s="4" t="s">
-        <v>345</v>
-      </c>
+      <c r="C1353" s="4"/>
       <c r="D1353" s="4"/>
     </row>
     <row r="1354" spans="2:4" x14ac:dyDescent="0.25">
@@ -17398,9 +17433,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1354" s="4" t="s">
-        <v>346</v>
-      </c>
+      <c r="C1354" s="4"/>
       <c r="D1354" s="4"/>
     </row>
     <row r="1355" spans="2:4" x14ac:dyDescent="0.25">
@@ -17408,7 +17441,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1355" s="4"/>
+      <c r="C1355" s="4" t="s">
+        <v>721</v>
+      </c>
       <c r="D1355" s="4"/>
     </row>
     <row r="1356" spans="2:4" x14ac:dyDescent="0.25">
@@ -17416,7 +17451,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1356" s="4"/>
+      <c r="C1356" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="D1356" s="4"/>
     </row>
     <row r="1357" spans="2:4" x14ac:dyDescent="0.25">
@@ -17425,7 +17462,7 @@
         <v/>
       </c>
       <c r="C1357" s="4" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D1357" s="4"/>
     </row>
@@ -17434,9 +17471,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1358" s="4" t="s">
-        <v>347</v>
-      </c>
+      <c r="C1358" s="4"/>
       <c r="D1358" s="4"/>
     </row>
     <row r="1359" spans="2:4" x14ac:dyDescent="0.25">
@@ -17444,9 +17479,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1359" s="4" t="s">
-        <v>724</v>
-      </c>
+      <c r="C1359" s="4"/>
       <c r="D1359" s="4"/>
     </row>
     <row r="1360" spans="2:4" x14ac:dyDescent="0.25">
@@ -17454,7 +17487,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1360" s="4"/>
+      <c r="C1360" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="D1360" s="4"/>
     </row>
     <row r="1361" spans="2:4" x14ac:dyDescent="0.25">
@@ -17462,7 +17497,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1361" s="4"/>
+      <c r="C1361" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="D1361" s="4"/>
     </row>
     <row r="1362" spans="2:4" x14ac:dyDescent="0.25">
@@ -17471,7 +17508,7 @@
         <v/>
       </c>
       <c r="C1362" s="4" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="D1362" s="4"/>
     </row>
@@ -17480,9 +17517,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1363" s="4" t="s">
-        <v>348</v>
-      </c>
+      <c r="C1363" s="4"/>
       <c r="D1363" s="4"/>
     </row>
     <row r="1364" spans="2:4" x14ac:dyDescent="0.25">
@@ -17490,9 +17525,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1364" s="4" t="s">
-        <v>349</v>
-      </c>
+      <c r="C1364" s="4"/>
       <c r="D1364" s="4"/>
     </row>
     <row r="1365" spans="2:4" x14ac:dyDescent="0.25">
@@ -17500,7 +17533,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1365" s="4"/>
+      <c r="C1365" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="D1365" s="4"/>
     </row>
     <row r="1366" spans="2:4" x14ac:dyDescent="0.25">
@@ -17508,7 +17543,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="C1366" s="4"/>
+      <c r="C1366" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="D1366" s="4"/>
     </row>
     <row r="1367" spans="2:4" x14ac:dyDescent="0.25">
@@ -17517,7 +17554,7 @@
         <v/>
       </c>
       <c r="C1367" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="D1367" s="4"/>
     </row>
@@ -17526,9 +17563,7 @@
         <f t="shared" ref="B1368:B1399" si="26">IF(LEFT(C1368,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1368)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1368)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1368)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1368)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1368)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1368" s="4" t="s">
-        <v>350</v>
-      </c>
+      <c r="C1368" s="4"/>
       <c r="D1368" s="4"/>
     </row>
     <row r="1369" spans="2:4" x14ac:dyDescent="0.25">
@@ -17536,9 +17571,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1369" s="4" t="s">
-        <v>351</v>
-      </c>
+      <c r="C1369" s="4"/>
       <c r="D1369" s="4"/>
     </row>
     <row r="1370" spans="2:4" x14ac:dyDescent="0.25">
@@ -17554,7 +17587,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1371" s="4"/>
+      <c r="C1371" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1371" s="4"/>
     </row>
     <row r="1372" spans="2:4" x14ac:dyDescent="0.25">
@@ -17562,7 +17597,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1372" s="4"/>
+      <c r="C1372" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="D1372" s="4"/>
     </row>
     <row r="1373" spans="2:4" x14ac:dyDescent="0.25">
@@ -17571,7 +17608,7 @@
         <v/>
       </c>
       <c r="C1373" s="4" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="D1373" s="4"/>
     </row>
@@ -17581,7 +17618,7 @@
         <v/>
       </c>
       <c r="C1374" s="4" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="D1374" s="4"/>
     </row>
@@ -17590,9 +17627,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1375" s="4" t="s">
-        <v>353</v>
-      </c>
+      <c r="C1375" s="4"/>
       <c r="D1375" s="4"/>
     </row>
     <row r="1376" spans="2:4" x14ac:dyDescent="0.25">
@@ -17601,7 +17636,7 @@
         <v/>
       </c>
       <c r="C1376" s="4" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="D1376" s="4"/>
     </row>
@@ -17610,7 +17645,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1377" s="4"/>
+      <c r="C1377" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="D1377" s="4"/>
     </row>
     <row r="1378" spans="2:4" x14ac:dyDescent="0.25">
@@ -17619,7 +17656,7 @@
         <v/>
       </c>
       <c r="C1378" s="4" t="s">
-        <v>438</v>
+        <v>976</v>
       </c>
       <c r="D1378" s="4"/>
     </row>
@@ -17628,9 +17665,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1379" s="4" t="s">
-        <v>439</v>
-      </c>
+      <c r="C1379" s="4"/>
       <c r="D1379" s="4"/>
     </row>
     <row r="1380" spans="2:4" x14ac:dyDescent="0.25">
@@ -17638,9 +17673,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1380" s="4" t="s">
-        <v>970</v>
-      </c>
+      <c r="C1380" s="4"/>
       <c r="D1380" s="4"/>
     </row>
     <row r="1381" spans="2:4" x14ac:dyDescent="0.25">
@@ -17648,7 +17681,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1381" s="4"/>
+      <c r="C1381" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="D1381" s="4"/>
     </row>
     <row r="1382" spans="2:4" x14ac:dyDescent="0.25">
@@ -17664,9 +17699,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1383" s="4" t="s">
-        <v>354</v>
-      </c>
+      <c r="C1383" s="4"/>
       <c r="D1383" s="4"/>
     </row>
     <row r="1384" spans="2:4" x14ac:dyDescent="0.25">
@@ -17674,7 +17707,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1384" s="4"/>
+      <c r="C1384" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1384" s="4"/>
     </row>
     <row r="1385" spans="2:4" x14ac:dyDescent="0.25">
@@ -17682,7 +17717,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1385" s="4"/>
+      <c r="C1385" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="D1385" s="4"/>
     </row>
     <row r="1386" spans="2:4" x14ac:dyDescent="0.25">
@@ -17691,7 +17728,7 @@
         <v/>
       </c>
       <c r="C1386" s="4" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="D1386" s="4"/>
     </row>
@@ -17701,7 +17738,7 @@
         <v/>
       </c>
       <c r="C1387" s="4" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="D1387" s="4"/>
     </row>
@@ -17710,9 +17747,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1388" s="4" t="s">
-        <v>356</v>
-      </c>
+      <c r="C1388" s="4"/>
       <c r="D1388" s="4"/>
     </row>
     <row r="1389" spans="2:4" x14ac:dyDescent="0.25">
@@ -17721,7 +17756,7 @@
         <v/>
       </c>
       <c r="C1389" s="4" t="s">
-        <v>301</v>
+        <v>478</v>
       </c>
       <c r="D1389" s="4"/>
     </row>
@@ -17730,7 +17765,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1390" s="4"/>
+      <c r="C1390" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="D1390" s="4"/>
     </row>
     <row r="1391" spans="2:4" x14ac:dyDescent="0.25">
@@ -17739,7 +17776,7 @@
         <v/>
       </c>
       <c r="C1391" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D1391" s="4"/>
     </row>
@@ -17749,7 +17786,7 @@
         <v/>
       </c>
       <c r="C1392" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D1392" s="4"/>
     </row>
@@ -17759,7 +17796,7 @@
         <v/>
       </c>
       <c r="C1393" s="4" t="s">
-        <v>480</v>
+        <v>725</v>
       </c>
       <c r="D1393" s="4"/>
     </row>
@@ -17769,7 +17806,7 @@
         <v/>
       </c>
       <c r="C1394" s="4" t="s">
-        <v>481</v>
+        <v>726</v>
       </c>
       <c r="D1394" s="4"/>
     </row>
@@ -17778,9 +17815,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1395" s="4" t="s">
-        <v>725</v>
-      </c>
+      <c r="C1395" s="4"/>
       <c r="D1395" s="4"/>
     </row>
     <row r="1396" spans="2:4" x14ac:dyDescent="0.25">
@@ -17788,9 +17823,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1396" s="4" t="s">
-        <v>726</v>
-      </c>
+      <c r="C1396" s="4"/>
       <c r="D1396" s="4"/>
     </row>
     <row r="1397" spans="2:4" x14ac:dyDescent="0.25">
@@ -17798,7 +17831,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1397" s="4"/>
+      <c r="C1397" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1397" s="4"/>
     </row>
     <row r="1398" spans="2:4" x14ac:dyDescent="0.25">
@@ -17806,7 +17841,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="C1398" s="4"/>
+      <c r="C1398" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="D1398" s="4"/>
     </row>
     <row r="1399" spans="2:4" x14ac:dyDescent="0.25">
@@ -17815,7 +17852,7 @@
         <v/>
       </c>
       <c r="C1399" s="4" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="D1399" s="4"/>
     </row>
@@ -17825,7 +17862,7 @@
         <v/>
       </c>
       <c r="C1400" s="4" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="D1400" s="4"/>
     </row>
@@ -17834,9 +17871,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1401" s="4" t="s">
-        <v>358</v>
-      </c>
+      <c r="C1401" s="4"/>
       <c r="D1401" s="4"/>
     </row>
     <row r="1402" spans="2:4" x14ac:dyDescent="0.25">
@@ -17845,7 +17880,7 @@
         <v/>
       </c>
       <c r="C1402" s="4" t="s">
-        <v>301</v>
+        <v>482</v>
       </c>
       <c r="D1402" s="4"/>
     </row>
@@ -17854,7 +17889,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1403" s="4"/>
+      <c r="C1403" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="D1403" s="4"/>
     </row>
     <row r="1404" spans="2:4" x14ac:dyDescent="0.25">
@@ -17863,7 +17900,7 @@
         <v/>
       </c>
       <c r="C1404" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D1404" s="4"/>
     </row>
@@ -17873,7 +17910,7 @@
         <v/>
       </c>
       <c r="C1405" s="4" t="s">
-        <v>483</v>
+        <v>977</v>
       </c>
       <c r="D1405" s="4"/>
     </row>
@@ -17883,7 +17920,7 @@
         <v/>
       </c>
       <c r="C1406" s="4" t="s">
-        <v>484</v>
+        <v>978</v>
       </c>
       <c r="D1406" s="4"/>
     </row>
@@ -17893,7 +17930,7 @@
         <v/>
       </c>
       <c r="C1407" s="4" t="s">
-        <v>971</v>
+        <v>727</v>
       </c>
       <c r="D1407" s="4"/>
     </row>
@@ -17902,9 +17939,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1408" s="4" t="s">
-        <v>972</v>
-      </c>
+      <c r="C1408" s="4"/>
       <c r="D1408" s="4"/>
     </row>
     <row r="1409" spans="2:4" x14ac:dyDescent="0.25">
@@ -17912,9 +17947,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1409" s="4" t="s">
-        <v>727</v>
-      </c>
+      <c r="C1409" s="4"/>
       <c r="D1409" s="4"/>
     </row>
     <row r="1410" spans="2:4" x14ac:dyDescent="0.25">
@@ -17922,7 +17955,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1410" s="4"/>
+      <c r="C1410" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1410" s="4"/>
     </row>
     <row r="1411" spans="2:4" x14ac:dyDescent="0.25">
@@ -17930,7 +17965,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1411" s="4"/>
+      <c r="C1411" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="D1411" s="4"/>
     </row>
     <row r="1412" spans="2:4" x14ac:dyDescent="0.25">
@@ -17939,7 +17976,7 @@
         <v/>
       </c>
       <c r="C1412" s="4" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="D1412" s="4"/>
     </row>
@@ -17949,7 +17986,7 @@
         <v/>
       </c>
       <c r="C1413" s="4" t="s">
-        <v>359</v>
+        <v>301</v>
       </c>
       <c r="D1413" s="4"/>
     </row>
@@ -17958,9 +17995,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1414" s="4" t="s">
-        <v>358</v>
-      </c>
+      <c r="C1414" s="4"/>
       <c r="D1414" s="4"/>
     </row>
     <row r="1415" spans="2:4" x14ac:dyDescent="0.25">
@@ -17969,7 +18004,7 @@
         <v/>
       </c>
       <c r="C1415" s="4" t="s">
-        <v>301</v>
+        <v>728</v>
       </c>
       <c r="D1415" s="4"/>
     </row>
@@ -17978,7 +18013,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1416" s="4"/>
+      <c r="C1416" s="4" t="s">
+        <v>729</v>
+      </c>
       <c r="D1416" s="4"/>
     </row>
     <row r="1417" spans="2:4" x14ac:dyDescent="0.25">
@@ -17987,7 +18024,7 @@
         <v/>
       </c>
       <c r="C1417" s="4" t="s">
-        <v>728</v>
+        <v>979</v>
       </c>
       <c r="D1417" s="4"/>
     </row>
@@ -17997,7 +18034,7 @@
         <v/>
       </c>
       <c r="C1418" s="4" t="s">
-        <v>729</v>
+        <v>980</v>
       </c>
       <c r="D1418" s="4"/>
     </row>
@@ -18007,7 +18044,7 @@
         <v/>
       </c>
       <c r="C1419" s="4" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="D1419" s="4"/>
     </row>
@@ -18016,9 +18053,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1420" s="4" t="s">
-        <v>974</v>
-      </c>
+      <c r="C1420" s="4"/>
       <c r="D1420" s="4"/>
     </row>
     <row r="1421" spans="2:4" x14ac:dyDescent="0.25">
@@ -18026,9 +18061,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1421" s="4" t="s">
-        <v>975</v>
-      </c>
+      <c r="C1421" s="4"/>
       <c r="D1421" s="4"/>
     </row>
     <row r="1422" spans="2:4" x14ac:dyDescent="0.25">
@@ -18036,7 +18069,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1422" s="4"/>
+      <c r="C1422" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D1422" s="4"/>
     </row>
     <row r="1423" spans="2:4" x14ac:dyDescent="0.25">
@@ -18044,7 +18079,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1423" s="4"/>
+      <c r="C1423" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="D1423" s="4"/>
     </row>
     <row r="1424" spans="2:4" x14ac:dyDescent="0.25">
@@ -18053,7 +18090,7 @@
         <v/>
       </c>
       <c r="C1424" s="4" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
       <c r="D1424" s="4"/>
     </row>
@@ -18063,7 +18100,7 @@
         <v/>
       </c>
       <c r="C1425" s="4" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="D1425" s="4"/>
     </row>
@@ -18072,9 +18109,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1426" s="4" t="s">
-        <v>361</v>
-      </c>
+      <c r="C1426" s="4"/>
       <c r="D1426" s="4"/>
     </row>
     <row r="1427" spans="2:4" x14ac:dyDescent="0.25">
@@ -18083,7 +18118,7 @@
         <v/>
       </c>
       <c r="C1427" s="4" t="s">
-        <v>301</v>
+        <v>746</v>
       </c>
       <c r="D1427" s="4"/>
     </row>
@@ -18092,7 +18127,9 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1428" s="4"/>
+      <c r="C1428" s="4" t="s">
+        <v>747</v>
+      </c>
       <c r="D1428" s="4"/>
     </row>
     <row r="1429" spans="2:4" x14ac:dyDescent="0.25">
@@ -18101,7 +18138,7 @@
         <v/>
       </c>
       <c r="C1429" s="4" t="s">
-        <v>759</v>
+        <v>982</v>
       </c>
       <c r="D1429" s="4"/>
     </row>
@@ -18111,7 +18148,7 @@
         <v/>
       </c>
       <c r="C1430" s="4" t="s">
-        <v>760</v>
+        <v>983</v>
       </c>
       <c r="D1430" s="4"/>
     </row>
@@ -18120,9 +18157,7 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="C1431" s="4" t="s">
-        <v>976</v>
-      </c>
+      <c r="C1431" s="4"/>
       <c r="D1431" s="4"/>
     </row>
     <row r="1432" spans="2:4" x14ac:dyDescent="0.25">
@@ -18130,9 +18165,7 @@
         <f t="shared" ref="B1432:B1463" si="28">IF(LEFT(C1432,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1432)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1432)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1432)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1432)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1432)),"DEBUG",""))))))</f>
         <v/>
       </c>
-      <c r="C1432" s="4" t="s">
-        <v>977</v>
-      </c>
+      <c r="C1432" s="4"/>
       <c r="D1432" s="4"/>
     </row>
     <row r="1433" spans="2:4" x14ac:dyDescent="0.25">
@@ -18140,44 +18173,48 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="C1433" s="4"/>
+      <c r="C1433" s="4" t="s">
+        <v>730</v>
+      </c>
       <c r="D1433" s="4"/>
     </row>
     <row r="1434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1434" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="C1434" s="4"/>
+        <v>INFO</v>
+      </c>
+      <c r="C1434" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D1434" s="4"/>
     </row>
     <row r="1435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1435" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1435" s="4" t="s">
-        <v>730</v>
+        <v>125</v>
       </c>
       <c r="D1435" s="4"/>
     </row>
     <row r="1436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1436" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1436" s="4" t="s">
-        <v>124</v>
+        <v>511</v>
       </c>
       <c r="D1436" s="4"/>
     </row>
     <row r="1437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1437" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1437" s="4" t="s">
-        <v>125</v>
+        <v>512</v>
       </c>
       <c r="D1437" s="4"/>
     </row>
@@ -18187,27 +18224,27 @@
         <v/>
       </c>
       <c r="C1438" s="4" t="s">
-        <v>511</v>
+        <v>362</v>
       </c>
       <c r="D1438" s="4"/>
     </row>
     <row r="1439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1439" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1439" s="4" t="s">
-        <v>512</v>
+        <v>376</v>
       </c>
       <c r="D1439" s="4"/>
     </row>
     <row r="1440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1440" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1440" s="4" t="s">
-        <v>362</v>
+        <v>133</v>
       </c>
       <c r="D1440" s="4"/>
     </row>
@@ -18217,81 +18254,81 @@
         <v>INFO</v>
       </c>
       <c r="C1441" s="4" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D1441" s="4"/>
     </row>
     <row r="1442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1442" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1442" s="4" t="s">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="D1442" s="4"/>
     </row>
     <row r="1443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1443" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1443" s="4" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="D1443" s="4"/>
     </row>
     <row r="1444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1444" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1444" s="4" t="s">
-        <v>367</v>
+        <v>124</v>
       </c>
       <c r="D1444" s="4"/>
     </row>
     <row r="1445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1445" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1445" s="4" t="s">
-        <v>513</v>
+        <v>125</v>
       </c>
       <c r="D1445" s="4"/>
     </row>
-    <row r="1446" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1446" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B1446" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v>WARNING</v>
       </c>
       <c r="C1446" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1446" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="D1446" s="4" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="1447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1447" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1447" s="4" t="s">
-        <v>125</v>
+        <v>514</v>
       </c>
       <c r="D1447" s="4"/>
     </row>
-    <row r="1448" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1448" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>WARNING</v>
+        <v/>
       </c>
       <c r="C1448" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D1448" s="4" t="s">
-        <v>762</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="D1448" s="4"/>
     </row>
     <row r="1449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1449" s="9" t="str">
@@ -18299,7 +18336,7 @@
         <v/>
       </c>
       <c r="C1449" s="4" t="s">
-        <v>514</v>
+        <v>369</v>
       </c>
       <c r="D1449" s="4"/>
     </row>
@@ -18308,9 +18345,7 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="C1450" s="4" t="s">
-        <v>368</v>
-      </c>
+      <c r="C1450" s="4"/>
       <c r="D1450" s="4"/>
     </row>
     <row r="1451" spans="2:4" x14ac:dyDescent="0.25">
@@ -18319,7 +18354,7 @@
         <v/>
       </c>
       <c r="C1451" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D1451" s="4"/>
     </row>
@@ -18328,7 +18363,9 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="C1452" s="4"/>
+      <c r="C1452" s="4" t="s">
+        <v>371</v>
+      </c>
       <c r="D1452" s="4"/>
     </row>
     <row r="1453" spans="2:4" x14ac:dyDescent="0.25">
@@ -18337,7 +18374,7 @@
         <v/>
       </c>
       <c r="C1453" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D1453" s="4"/>
     </row>
@@ -18347,7 +18384,7 @@
         <v/>
       </c>
       <c r="C1454" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D1454" s="4"/>
     </row>
@@ -18357,7 +18394,7 @@
         <v/>
       </c>
       <c r="C1455" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D1455" s="4"/>
     </row>
@@ -18367,17 +18404,17 @@
         <v/>
       </c>
       <c r="C1456" s="4" t="s">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="D1456" s="4"/>
     </row>
     <row r="1457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1457" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1457" s="4" t="s">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="D1457" s="4"/>
     </row>
@@ -18387,7 +18424,7 @@
         <v/>
       </c>
       <c r="C1458" s="4" t="s">
-        <v>129</v>
+        <v>375</v>
       </c>
       <c r="D1458" s="4"/>
     </row>
@@ -18397,17 +18434,17 @@
         <v>INFO</v>
       </c>
       <c r="C1459" s="4" t="s">
-        <v>130</v>
+        <v>376</v>
       </c>
       <c r="D1459" s="4"/>
     </row>
     <row r="1460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1460" s="9" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1460" s="4" t="s">
-        <v>375</v>
+        <v>133</v>
       </c>
       <c r="D1460" s="4"/>
     </row>
@@ -18417,7 +18454,7 @@
         <v>INFO</v>
       </c>
       <c r="C1461" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D1461" s="4"/>
     </row>
@@ -18427,7 +18464,7 @@
         <v>INFO</v>
       </c>
       <c r="C1462" s="4" t="s">
-        <v>133</v>
+        <v>378</v>
       </c>
       <c r="D1462" s="4"/>
     </row>
@@ -18437,27 +18474,27 @@
         <v>INFO</v>
       </c>
       <c r="C1463" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1463" s="4"/>
     </row>
     <row r="1464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1464" s="9" t="str">
         <f t="shared" ref="B1464:B1466" si="29">IF(LEFT(C1464,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1464)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1464)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1464)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1464)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1464)),"DEBUG",""))))))</f>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1464" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D1464" s="4"/>
     </row>
     <row r="1465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1465" s="9" t="str">
         <f t="shared" si="29"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1465" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D1465" s="4"/>
     </row>
@@ -18467,7 +18504,7 @@
         <v/>
       </c>
       <c r="C1466" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D1466" s="4"/>
     </row>
@@ -18477,7 +18514,7 @@
         <v/>
       </c>
       <c r="C1467" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D1467" s="4"/>
     </row>
@@ -18487,7 +18524,7 @@
         <v/>
       </c>
       <c r="C1468" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D1468" s="4"/>
     </row>
@@ -18497,7 +18534,7 @@
         <v/>
       </c>
       <c r="C1469" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D1469" s="4"/>
     </row>
@@ -18507,27 +18544,27 @@
         <v/>
       </c>
       <c r="C1470" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D1470" s="4"/>
     </row>
     <row r="1471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1471" s="9" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1471" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D1471" s="4"/>
     </row>
     <row r="1472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1472" s="9" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1472" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D1472" s="4"/>
     </row>
@@ -18537,27 +18574,27 @@
         <v>INFO</v>
       </c>
       <c r="C1473" s="4" t="s">
-        <v>387</v>
+        <v>176</v>
       </c>
       <c r="D1473" s="4"/>
     </row>
     <row r="1474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1474" s="9" t="str">
         <f t="shared" ref="B1474:B1480" si="32">IF(LEFT(C1474,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1474)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1474)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1474)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1474)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1474)),"DEBUG",""))))))</f>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1474" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D1474" s="4"/>
     </row>
     <row r="1475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1475" s="9" t="str">
         <f t="shared" si="32"/>
-        <v>INFO</v>
+        <v/>
       </c>
       <c r="C1475" s="4" t="s">
-        <v>176</v>
+        <v>390</v>
       </c>
       <c r="D1475" s="4"/>
     </row>
@@ -18567,7 +18604,7 @@
         <v/>
       </c>
       <c r="C1476" s="4" t="s">
-        <v>389</v>
+        <v>984</v>
       </c>
       <c r="D1476" s="4"/>
     </row>
@@ -18577,7 +18614,7 @@
         <v/>
       </c>
       <c r="C1477" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D1477" s="4"/>
     </row>
@@ -18587,7 +18624,7 @@
         <v/>
       </c>
       <c r="C1478" s="4" t="s">
-        <v>978</v>
+        <v>392</v>
       </c>
       <c r="D1478" s="4"/>
     </row>
@@ -18597,7 +18634,7 @@
         <v/>
       </c>
       <c r="C1479" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D1479" s="4"/>
     </row>
@@ -18607,7 +18644,7 @@
         <v/>
       </c>
       <c r="C1480" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D1480" s="4"/>
     </row>
@@ -18617,17 +18654,17 @@
         <v/>
       </c>
       <c r="C1481" s="4" t="s">
-        <v>393</v>
+        <v>43</v>
       </c>
       <c r="D1481" s="4"/>
     </row>
     <row r="1482" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1482" s="9" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>INFO</v>
       </c>
       <c r="C1482" s="4" t="s">
-        <v>394</v>
+        <v>985</v>
       </c>
       <c r="D1482" s="4"/>
     </row>
@@ -18642,12 +18679,12 @@
       <c r="D1483" s="4"/>
     </row>
     <row r="1484" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1484" s="29" t="str">
+      <c r="B1484" s="9" t="str">
         <f>IF(LEFT(C1484,1)="#","",IF(ISNUMBER(SEARCH("CRITICAL:",C1484)),"CRITICAL",IF(ISNUMBER(SEARCH("ERROR:",C1484)),"ERROR",IF(ISNUMBER(SEARCH("WARNING:",C1484)),"WARNING",IF(ISNUMBER(SEARCH("INFO:",C1484)),"INFO",IF(ISNUMBER(SEARCH("DEBUG:",C1484)),"DEBUG",""))))))</f>
         <v>INFO</v>
       </c>
       <c r="C1484" s="4" t="s">
-        <v>979</v>
+        <v>759</v>
       </c>
       <c r="D1484" s="4"/>
     </row>
